--- a/src/assets/template.xlsx
+++ b/src/assets/template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guczi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Programming\scheduler\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034FF352-6B73-462C-9C04-261458200613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE8D8F6-FE13-4992-A00D-286BCDB91FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Main" sheetId="5" r:id="rId1"/>
     <sheet name="Munka3" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="77">
   <si>
     <t>órasz</t>
   </si>
@@ -181,9 +181,6 @@
     <t>${nextEmployee}</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2018. Július - Beosztás</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 havi munkaidő keret: 2018. 07. 01. - 2018. 08. 31.  július: 22X8=176 óra, augusztus:  22X8=176 óra        Összesen: 352 óra      SZ:  4 P: 5  FÜ: </t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     </r>
   </si>
   <si>
-    <t>Mórahalom 2018. 06.15.</t>
-  </si>
-  <si>
     <t>készítette:</t>
   </si>
   <si>
@@ -262,25 +256,34 @@
     <t>${shiftEnd}</t>
   </si>
   <si>
-    <t>${startsAt(19)}</t>
+    <t>${startDate}</t>
   </si>
   <si>
-    <t>${startsAt(11)}</t>
+    <t xml:space="preserve"> ${year}. ${month} - Beosztás</t>
   </si>
   <si>
-    <t>${startsAt(9)}</t>
+    <t>${startsAt: [5]}</t>
   </si>
   <si>
-    <t>${startsAt(7)}</t>
+    <t>${shiftStart: []}</t>
   </si>
   <si>
-    <t>${startsAt(5)}</t>
+    <t>Mórahalom ${todayDate}</t>
   </si>
   <si>
-    <t>${presentBetween(17,18)}</t>
+    <t>${startsAt: [7]}</t>
   </si>
   <si>
-    <t>${startDate}</t>
+    <t>${startsAt: [9]}</t>
+  </si>
+  <si>
+    <t>${startsAt: [11]}</t>
+  </si>
+  <si>
+    <t>${startsAt: [19]}</t>
+  </si>
+  <si>
+    <t>${presentBetween: [17,18]}</t>
   </si>
 </sst>
 </file>
@@ -290,7 +293,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm\ d/"/>
     <numFmt numFmtId="165" formatCode="m\.\ d\.;@"/>
-    <numFmt numFmtId="168" formatCode="d"/>
+    <numFmt numFmtId="166" formatCode="d"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1054,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1090,9 +1093,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1116,9 +1116,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1126,9 +1123,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1142,9 +1136,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1177,15 +1168,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1200,12 +1182,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1244,78 +1220,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1324,31 +1242,23 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1418,38 +1328,108 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1883,8 +1863,8 @@
   </sheetPr>
   <dimension ref="A1:AO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2471,1677 +2451,2160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
+      <c r="A1" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
     </row>
     <row r="2" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="99"/>
-      <c r="AG2" s="99"/>
-      <c r="AH2" s="99"/>
-      <c r="AI2" s="99"/>
-      <c r="AJ2" s="99"/>
-      <c r="AK2" s="99"/>
-      <c r="AL2" s="99"/>
-      <c r="AM2" s="99"/>
-      <c r="AN2" s="99"/>
-      <c r="AO2" s="99"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
     </row>
     <row r="3" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="100"/>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="100"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="100"/>
+      <c r="A3" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
     </row>
-    <row r="4" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="104" t="s">
+      <c r="B4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="V4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="42" t="e">
-        <f>AH12+AH16+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="107" t="s">
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="77" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="109"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="111"/>
-      <c r="AO5" s="108"/>
+      <c r="C5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="80"/>
+      <c r="AL5" s="80"/>
+      <c r="AM5" s="80"/>
+      <c r="AN5" s="81"/>
+      <c r="AO5" s="78"/>
     </row>
     <row r="6" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="49">
+      <c r="B6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="X6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="42">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="112" t="s">
+      <c r="B7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="U7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="X7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="AI7" s="113"/>
-      <c r="AJ7" s="113"/>
-      <c r="AK7" s="113"/>
-      <c r="AL7" s="114"/>
-      <c r="AM7" s="50" t="e">
-        <f>AI12+AI16+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="52"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="84"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="45"/>
     </row>
-    <row r="8" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="115"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="116"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="116"/>
-      <c r="AM8" s="116"/>
-      <c r="AN8" s="117"/>
-      <c r="AO8" s="52"/>
+      <c r="B8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="45"/>
     </row>
     <row r="9" spans="1:41" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="118"/>
-      <c r="AI9" s="119"/>
-      <c r="AJ9" s="119"/>
-      <c r="AK9" s="119"/>
-      <c r="AL9" s="119"/>
-      <c r="AM9" s="119"/>
-      <c r="AN9" s="120"/>
-      <c r="AO9" s="55"/>
+      <c r="B9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="S9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="58"/>
     </row>
     <row r="10" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="57"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="57"/>
-      <c r="AN10" s="57"/>
-      <c r="AO10" s="56"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="47"/>
     </row>
-    <row r="11" spans="1:41" s="22" customFormat="1" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="121" t="e">
+    <row r="11" spans="1:41" s="21" customFormat="1" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
+      <c r="B11" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="120" t="e">
         <f>B$11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="121" t="e">
+      <c r="D11" s="120" t="e">
         <f t="shared" ref="D11:AF11" si="0">C$11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E11" s="121" t="e">
+      <c r="E11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F11" s="121" t="e">
+      <c r="F11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G11" s="121" t="e">
+      <c r="G11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H11" s="121" t="e">
+      <c r="H11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I11" s="121" t="e">
+      <c r="I11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J11" s="121" t="e">
+      <c r="J11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="121" t="e">
+      <c r="K11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L11" s="121" t="e">
+      <c r="L11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="121" t="e">
+      <c r="M11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N11" s="121" t="e">
+      <c r="N11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O11" s="121" t="e">
+      <c r="O11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P11" s="121" t="e">
+      <c r="P11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Q11" s="121" t="e">
+      <c r="Q11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R11" s="121" t="e">
+      <c r="R11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S11" s="121" t="e">
+      <c r="S11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T11" s="121" t="e">
+      <c r="T11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U11" s="121" t="e">
+      <c r="U11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V11" s="121" t="e">
+      <c r="V11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W11" s="121" t="e">
+      <c r="W11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X11" s="121" t="e">
+      <c r="X11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Y11" s="121" t="e">
+      <c r="Y11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z11" s="121" t="e">
+      <c r="Z11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AA11" s="121" t="e">
+      <c r="AA11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB11" s="121" t="e">
+      <c r="AB11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC11" s="121" t="e">
+      <c r="AC11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD11" s="121" t="e">
+      <c r="AD11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AE11" s="121" t="e">
+      <c r="AE11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AF11" s="121" t="e">
+      <c r="AF11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG11" s="59" t="s">
+      <c r="AG11" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AH11" s="60" t="s">
+      <c r="AH11" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AI11" s="60" t="s">
+      <c r="AI11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AJ11" s="61" t="s">
+      <c r="AJ11" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AK11" s="61" t="s">
+      <c r="AK11" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AL11" s="61" t="s">
+      <c r="AL11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AM11" s="61" t="s">
+      <c r="AM11" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AN11" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="63" t="s">
+      <c r="AN11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:41" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70" t="s">
+    <row r="12" spans="1:41" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="65"/>
+      <c r="B12" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="V12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="W12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF12" s="55" t="s">
+        <v>65</v>
+      </c>
       <c r="AG12" s="93"/>
-      <c r="AH12" s="72" t="s">
+      <c r="AH12" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="AI12" s="74" t="s">
+      <c r="AI12" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="AJ12" s="75" t="s">
+      <c r="AJ12" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="AK12" s="68" t="s">
+      <c r="AK12" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="AL12" s="66" t="s">
+      <c r="AL12" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="AM12" s="66" t="s">
+      <c r="AM12" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="AN12" s="68" t="s">
+      <c r="AN12" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="AO12" s="82"/>
+      <c r="AO12" s="104"/>
     </row>
     <row r="13" spans="1:41" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="24"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="W13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="X13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF13" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="AG13" s="94"/>
-      <c r="AH13" s="73"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="67"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="83"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="100"/>
+      <c r="AK13" s="103"/>
+      <c r="AL13" s="98"/>
+      <c r="AM13" s="98"/>
+      <c r="AN13" s="103"/>
+      <c r="AO13" s="105"/>
     </row>
     <row r="14" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="88"/>
-      <c r="AJ14" s="88"/>
-      <c r="AK14" s="88"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="90"/>
-      <c r="AO14" s="91"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="106"/>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="110"/>
+      <c r="AJ14" s="110"/>
+      <c r="AK14" s="110"/>
+      <c r="AL14" s="110"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="112"/>
+      <c r="AO14" s="113"/>
     </row>
     <row r="15" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="85"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="89"/>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="89"/>
-      <c r="AO15" s="92"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="109"/>
+      <c r="AI15" s="111"/>
+      <c r="AJ15" s="111"/>
+      <c r="AK15" s="111"/>
+      <c r="AL15" s="111"/>
+      <c r="AM15" s="62"/>
+      <c r="AN15" s="111"/>
+      <c r="AO15" s="114"/>
     </row>
     <row r="16" spans="1:41" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="65"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="56"/>
       <c r="AG16" s="93"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="80"/>
-      <c r="AK16" s="80"/>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="97"/>
-      <c r="AN16" s="80"/>
-      <c r="AO16" s="82"/>
+      <c r="AH16" s="115"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="102"/>
+      <c r="AK16" s="102"/>
+      <c r="AL16" s="101"/>
+      <c r="AM16" s="101"/>
+      <c r="AN16" s="102"/>
+      <c r="AO16" s="104"/>
     </row>
     <row r="17" spans="1:41" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="24"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="23"/>
       <c r="AG17" s="94"/>
-      <c r="AH17" s="96"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
-      <c r="AK17" s="81"/>
+      <c r="AH17" s="116"/>
+      <c r="AI17" s="103"/>
+      <c r="AJ17" s="103"/>
+      <c r="AK17" s="103"/>
       <c r="AL17" s="98"/>
       <c r="AM17" s="98"/>
-      <c r="AN17" s="81"/>
-      <c r="AO17" s="83"/>
+      <c r="AN17" s="103"/>
+      <c r="AO17" s="105"/>
     </row>
     <row r="18" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="88"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="90"/>
-      <c r="AO18" s="91"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="110"/>
+      <c r="AJ18" s="110"/>
+      <c r="AK18" s="110"/>
+      <c r="AL18" s="110"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="112"/>
+      <c r="AO18" s="113"/>
     </row>
     <row r="19" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="85"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="89"/>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="89"/>
-      <c r="AO19" s="92"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="107"/>
+      <c r="AH19" s="109"/>
+      <c r="AI19" s="111"/>
+      <c r="AJ19" s="111"/>
+      <c r="AK19" s="111"/>
+      <c r="AL19" s="111"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="111"/>
+      <c r="AO19" s="114"/>
     </row>
     <row r="20" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="122"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="123"/>
-      <c r="Z20" s="123"/>
-      <c r="AA20" s="123"/>
-      <c r="AB20" s="123"/>
-      <c r="AC20" s="123"/>
-      <c r="AD20" s="123"/>
-      <c r="AE20" s="123"/>
-      <c r="AF20" s="124"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="125"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="68"/>
     </row>
     <row r="21" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="122"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="123"/>
-      <c r="Y21" s="123"/>
-      <c r="Z21" s="123"/>
-      <c r="AA21" s="123"/>
-      <c r="AB21" s="123"/>
-      <c r="AC21" s="123"/>
-      <c r="AD21" s="123"/>
-      <c r="AE21" s="123"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="125"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="67"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="68"/>
     </row>
     <row r="22" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="122"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="123"/>
-      <c r="W22" s="123"/>
-      <c r="X22" s="123"/>
-      <c r="Y22" s="123"/>
-      <c r="Z22" s="123"/>
-      <c r="AA22" s="123"/>
-      <c r="AB22" s="123"/>
-      <c r="AC22" s="123"/>
-      <c r="AD22" s="123"/>
-      <c r="AE22" s="123"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="125"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="68"/>
     </row>
     <row r="23" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="122"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="123"/>
-      <c r="W23" s="123"/>
-      <c r="X23" s="123"/>
-      <c r="Y23" s="123"/>
-      <c r="Z23" s="123"/>
-      <c r="AA23" s="123"/>
-      <c r="AB23" s="123"/>
-      <c r="AC23" s="123"/>
-      <c r="AD23" s="123"/>
-      <c r="AE23" s="123"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="125"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="68"/>
     </row>
     <row r="24" spans="1:41" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="33"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="33"/>
-      <c r="AO24" s="34"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="31"/>
     </row>
     <row r="25" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="35" t="s">
+      <c r="I25" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="36" t="s">
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="N25" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="N25" s="78" t="s">
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="T25" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="T25" s="78" t="s">
+      <c r="U25" s="119"/>
+      <c r="V25" s="119"/>
+      <c r="W25" s="119"/>
+      <c r="X25" s="119"/>
+      <c r="Z25" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Z25" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH25" s="20"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
     </row>
     <row r="26" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="77"/>
-      <c r="AA26" s="77"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="77"/>
-      <c r="AE26" s="77"/>
-      <c r="AF26" s="77"/>
-      <c r="AG26" s="77"/>
-      <c r="AH26" s="77"/>
-      <c r="AI26" s="77"/>
-      <c r="AJ26" s="77"/>
-      <c r="AK26" s="77"/>
-      <c r="AL26" s="77"/>
-      <c r="AM26" s="77"/>
-      <c r="AN26" s="77"/>
-      <c r="AO26" s="77"/>
+      <c r="B26" s="117" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="117"/>
+      <c r="S26" s="117"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="117"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="117"/>
+      <c r="AB26" s="117"/>
+      <c r="AC26" s="117"/>
+      <c r="AD26" s="117"/>
+      <c r="AE26" s="117"/>
+      <c r="AF26" s="117"/>
+      <c r="AG26" s="117"/>
+      <c r="AH26" s="117"/>
+      <c r="AI26" s="117"/>
+      <c r="AJ26" s="117"/>
+      <c r="AK26" s="117"/>
+      <c r="AL26" s="117"/>
+      <c r="AM26" s="117"/>
+      <c r="AN26" s="117"/>
+      <c r="AO26" s="117"/>
     </row>
     <row r="27" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AH27" s="20"/>
-      <c r="AI27" s="20"/>
-      <c r="AJ27" s="20"/>
-      <c r="AK27" s="20"/>
-      <c r="AL27" s="20"/>
-      <c r="AM27" s="20"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
     </row>
     <row r="28" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21" t="s">
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
     </row>
     <row r="29" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
     </row>
     <row r="30" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
     </row>
     <row r="31" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
+      <c r="B31" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
     </row>
     <row r="32" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21" t="s">
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
     </row>
     <row r="33" spans="2:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
     </row>
     <row r="34" spans="2:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
     </row>
     <row r="35" spans="2:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
     </row>
     <row r="36" spans="2:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:AO1"/>
-    <mergeCell ref="A2:AO2"/>
-    <mergeCell ref="A3:AO3"/>
-    <mergeCell ref="AG4:AG9"/>
-    <mergeCell ref="AH4:AL4"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="AH7:AL7"/>
-    <mergeCell ref="AH8:AN9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="B26:AO26"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AN18:AN19"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AJ16:AJ17"/>
     <mergeCell ref="AL12:AL13"/>
     <mergeCell ref="AM12:AM13"/>
     <mergeCell ref="AN12:AN13"/>
@@ -4155,40 +4618,23 @@
     <mergeCell ref="AK12:AK13"/>
     <mergeCell ref="AN14:AN15"/>
     <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO16:AO17"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AN18:AN19"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="B26:AO26"/>
-    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="A1:AO1"/>
+    <mergeCell ref="A2:AO2"/>
+    <mergeCell ref="A3:AO3"/>
+    <mergeCell ref="AG4:AG9"/>
+    <mergeCell ref="AH4:AL4"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="AH7:AL7"/>
+    <mergeCell ref="AH8:AN9"/>
   </mergeCells>
-  <conditionalFormatting sqref="B11:AF23">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>OR(WEEKDAY(D$11, 2)=6, WEEKDAY(D$11, 2)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D11:AF11" unlockedFormula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/src/assets/template.xlsx
+++ b/src/assets/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Programming\scheduler\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE8D8F6-FE13-4992-A00D-286BCDB91FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE08B87D-D348-40F3-A040-030D5F056F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,28 +262,28 @@
     <t xml:space="preserve"> ${year}. ${month} - Beosztás</t>
   </si>
   <si>
-    <t>${startsAt: [5]}</t>
-  </si>
-  <si>
     <t>${shiftStart: []}</t>
   </si>
   <si>
     <t>Mórahalom ${todayDate}</t>
   </si>
   <si>
-    <t>${startsAt: [7]}</t>
+    <t>${startsAt: 5}</t>
   </si>
   <si>
-    <t>${startsAt: [9]}</t>
+    <t>${startsAt: 7}</t>
   </si>
   <si>
-    <t>${startsAt: [11]}</t>
+    <t>${startsAt: 9}</t>
   </si>
   <si>
-    <t>${startsAt: [19]}</t>
+    <t>${startsAt: 11}</t>
   </si>
   <si>
-    <t>${presentBetween: [17,18]}</t>
+    <t>${presentBetween: 17, 18}</t>
+  </si>
+  <si>
+    <t>${startsAt: 19}</t>
   </si>
 </sst>
 </file>
@@ -1260,6 +1260,103 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1326,103 +1423,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2451,248 +2451,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
     </row>
     <row r="2" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="99"/>
     </row>
     <row r="3" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="100"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="100"/>
+      <c r="AK3" s="100"/>
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
     </row>
     <row r="4" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="W4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="X4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Y4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Z4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AA4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AB4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AC4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AD4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AE4" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF4" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="76"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="105"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="106"/>
       <c r="AM4" s="38"/>
       <c r="AN4" s="39"/>
-      <c r="AO4" s="77" t="s">
+      <c r="AO4" s="107" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2793,15 +2793,15 @@
       <c r="AF5" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="80"/>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="81"/>
-      <c r="AO5" s="78"/>
+      <c r="AG5" s="102"/>
+      <c r="AH5" s="109"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="111"/>
+      <c r="AO5" s="108"/>
     </row>
     <row r="6" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
@@ -2900,7 +2900,7 @@
       <c r="AF6" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="AG6" s="72"/>
+      <c r="AG6" s="102"/>
       <c r="AH6" s="59"/>
       <c r="AI6" s="60"/>
       <c r="AJ6" s="60"/>
@@ -3009,14 +3009,14 @@
       <c r="AF7" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="82" t="s">
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="AI7" s="83"/>
-      <c r="AJ7" s="83"/>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="84"/>
+      <c r="AI7" s="113"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="113"/>
+      <c r="AL7" s="114"/>
       <c r="AM7" s="43"/>
       <c r="AN7" s="44"/>
       <c r="AO7" s="45"/>
@@ -3026,106 +3026,106 @@
         <v>18</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF8" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="87"/>
+        <v>75</v>
+      </c>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="115"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="116"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="116"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="117"/>
       <c r="AO8" s="45"/>
     </row>
     <row r="9" spans="1:41" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3133,106 +3133,106 @@
         <v>24</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF9" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="88"/>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="89"/>
-      <c r="AN9" s="90"/>
+        <v>76</v>
+      </c>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="118"/>
+      <c r="AI9" s="119"/>
+      <c r="AJ9" s="119"/>
+      <c r="AK9" s="119"/>
+      <c r="AL9" s="119"/>
+      <c r="AM9" s="119"/>
+      <c r="AN9" s="120"/>
       <c r="AO9" s="58"/>
     </row>
     <row r="10" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3283,123 +3283,123 @@
       <c r="B11" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="120" t="e">
-        <f>B$11+1</f>
+      <c r="C11" s="69" t="e">
+        <f>B$11 + 1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="120" t="e">
-        <f t="shared" ref="D11:AF11" si="0">C$11+1</f>
+      <c r="D11" s="69" t="e">
+        <f t="shared" ref="D11:AF11" si="0">C$11 + 1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E11" s="120" t="e">
+      <c r="E11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F11" s="120" t="e">
+      <c r="F11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G11" s="120" t="e">
+      <c r="G11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H11" s="120" t="e">
+      <c r="H11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I11" s="120" t="e">
+      <c r="I11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J11" s="120" t="e">
+      <c r="J11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="120" t="e">
+      <c r="K11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L11" s="120" t="e">
+      <c r="L11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="120" t="e">
+      <c r="M11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N11" s="120" t="e">
+      <c r="N11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O11" s="120" t="e">
+      <c r="O11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P11" s="120" t="e">
+      <c r="P11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Q11" s="120" t="e">
+      <c r="Q11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R11" s="120" t="e">
+      <c r="R11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S11" s="120" t="e">
+      <c r="S11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T11" s="120" t="e">
+      <c r="T11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U11" s="120" t="e">
+      <c r="U11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V11" s="120" t="e">
+      <c r="V11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W11" s="120" t="e">
+      <c r="W11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X11" s="120" t="e">
+      <c r="X11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Y11" s="120" t="e">
+      <c r="Y11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z11" s="120" t="e">
+      <c r="Z11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AA11" s="120" t="e">
+      <c r="AA11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB11" s="120" t="e">
+      <c r="AB11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC11" s="120" t="e">
+      <c r="AC11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD11" s="120" t="e">
+      <c r="AD11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AE11" s="120" t="e">
+      <c r="AE11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AF11" s="120" t="e">
+      <c r="AF11" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
@@ -3432,11 +3432,11 @@
       </c>
     </row>
     <row r="12" spans="1:41" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="88" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="55" t="s">
         <v>65</v>
@@ -3528,32 +3528,32 @@
       <c r="AF12" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="95" t="s">
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="AI12" s="97" t="s">
+      <c r="AI12" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="AJ12" s="99" t="s">
+      <c r="AJ12" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="AK12" s="102" t="s">
+      <c r="AK12" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="AL12" s="101" t="s">
+      <c r="AL12" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="AM12" s="101" t="s">
+      <c r="AM12" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="AN12" s="102" t="s">
+      <c r="AN12" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="AO12" s="104"/>
+      <c r="AO12" s="86"/>
     </row>
     <row r="13" spans="1:41" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="22" t="s">
         <v>66</v>
       </c>
@@ -3647,15 +3647,15 @@
       <c r="AF13" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="100"/>
-      <c r="AK13" s="103"/>
-      <c r="AL13" s="98"/>
-      <c r="AM13" s="98"/>
-      <c r="AN13" s="103"/>
-      <c r="AO13" s="105"/>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="85"/>
+      <c r="AJ13" s="98"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="85"/>
+      <c r="AM13" s="85"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="87"/>
     </row>
     <row r="14" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
@@ -3692,15 +3692,15 @@
       <c r="AD14" s="24"/>
       <c r="AE14" s="24"/>
       <c r="AF14" s="25"/>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="110"/>
-      <c r="AJ14" s="110"/>
-      <c r="AK14" s="110"/>
-      <c r="AL14" s="110"/>
+      <c r="AG14" s="78"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="72"/>
       <c r="AM14" s="63"/>
-      <c r="AN14" s="112"/>
-      <c r="AO14" s="113"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="75"/>
     </row>
     <row r="15" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
@@ -3737,18 +3737,18 @@
       <c r="AD15" s="26"/>
       <c r="AE15" s="26"/>
       <c r="AF15" s="27"/>
-      <c r="AG15" s="107"/>
-      <c r="AH15" s="109"/>
-      <c r="AI15" s="111"/>
-      <c r="AJ15" s="111"/>
-      <c r="AK15" s="111"/>
-      <c r="AL15" s="111"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="81"/>
+      <c r="AI15" s="73"/>
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="73"/>
+      <c r="AL15" s="73"/>
       <c r="AM15" s="62"/>
-      <c r="AN15" s="111"/>
-      <c r="AO15" s="114"/>
+      <c r="AN15" s="73"/>
+      <c r="AO15" s="76"/>
     </row>
     <row r="16" spans="1:41" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="88" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="55"/>
@@ -3782,18 +3782,18 @@
       <c r="AD16" s="55"/>
       <c r="AE16" s="55"/>
       <c r="AF16" s="56"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="115"/>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="102"/>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="101"/>
-      <c r="AM16" s="101"/>
-      <c r="AN16" s="102"/>
-      <c r="AO16" s="104"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="84"/>
+      <c r="AM16" s="84"/>
+      <c r="AN16" s="82"/>
+      <c r="AO16" s="86"/>
     </row>
     <row r="17" spans="1:41" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -3825,15 +3825,15 @@
       <c r="AD17" s="22"/>
       <c r="AE17" s="22"/>
       <c r="AF17" s="23"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="98"/>
-      <c r="AM17" s="98"/>
-      <c r="AN17" s="103"/>
-      <c r="AO17" s="105"/>
+      <c r="AG17" s="91"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="83"/>
+      <c r="AJ17" s="83"/>
+      <c r="AK17" s="83"/>
+      <c r="AL17" s="85"/>
+      <c r="AM17" s="85"/>
+      <c r="AN17" s="83"/>
+      <c r="AO17" s="87"/>
     </row>
     <row r="18" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -3870,15 +3870,15 @@
       <c r="AD18" s="24"/>
       <c r="AE18" s="24"/>
       <c r="AF18" s="25"/>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="110"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="110"/>
-      <c r="AL18" s="110"/>
+      <c r="AG18" s="78"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
       <c r="AM18" s="63"/>
-      <c r="AN18" s="112"/>
-      <c r="AO18" s="113"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="75"/>
     </row>
     <row r="19" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
@@ -3915,15 +3915,15 @@
       <c r="AD19" s="26"/>
       <c r="AE19" s="26"/>
       <c r="AF19" s="27"/>
-      <c r="AG19" s="107"/>
-      <c r="AH19" s="109"/>
-      <c r="AI19" s="111"/>
-      <c r="AJ19" s="111"/>
-      <c r="AK19" s="111"/>
-      <c r="AL19" s="111"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="73"/>
+      <c r="AL19" s="73"/>
       <c r="AM19" s="62"/>
-      <c r="AN19" s="111"/>
-      <c r="AO19" s="114"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="76"/>
     </row>
     <row r="20" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="65"/>
@@ -4144,11 +4144,11 @@
       <c r="B25" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="64" t="s">
@@ -4160,20 +4160,20 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
-      <c r="N25" s="119" t="s">
+      <c r="N25" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="T25" s="119" t="s">
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="T25" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="U25" s="119"/>
-      <c r="V25" s="119"/>
-      <c r="W25" s="119"/>
-      <c r="X25" s="119"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
       <c r="Z25" s="33" t="s">
         <v>56</v>
       </c>
@@ -4185,64 +4185,64 @@
       <c r="AM25" s="19"/>
     </row>
     <row r="26" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="117"/>
-      <c r="AE26" s="117"/>
-      <c r="AF26" s="117"/>
-      <c r="AG26" s="117"/>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="117"/>
-      <c r="AO26" s="117"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="70"/>
+      <c r="AG26" s="70"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="70"/>
+      <c r="AL26" s="70"/>
+      <c r="AM26" s="70"/>
+      <c r="AN26" s="70"/>
+      <c r="AO26" s="70"/>
     </row>
     <row r="27" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
-      <c r="B27" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
+      <c r="B27" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
@@ -4582,6 +4582,43 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:AO1"/>
+    <mergeCell ref="A2:AO2"/>
+    <mergeCell ref="A3:AO3"/>
+    <mergeCell ref="AG4:AG9"/>
+    <mergeCell ref="AH4:AL4"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="AH7:AL7"/>
+    <mergeCell ref="AH8:AN9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO16:AO17"/>
     <mergeCell ref="B26:AO26"/>
     <mergeCell ref="B27:L27"/>
     <mergeCell ref="AL18:AL19"/>
@@ -4595,43 +4632,6 @@
     <mergeCell ref="AI18:AI19"/>
     <mergeCell ref="AJ18:AJ19"/>
     <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO16:AO17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="A1:AO1"/>
-    <mergeCell ref="A2:AO2"/>
-    <mergeCell ref="A3:AO3"/>
-    <mergeCell ref="AG4:AG9"/>
-    <mergeCell ref="AH4:AL4"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="AH7:AL7"/>
-    <mergeCell ref="AH8:AN9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/src/assets/template.xlsx
+++ b/src/assets/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Programming\scheduler\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE08B87D-D348-40F3-A040-030D5F056F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229644F8-108E-4AE4-8BD6-19532CE7DF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="75">
   <si>
     <t>órasz</t>
   </si>
@@ -256,13 +256,7 @@
     <t>${shiftEnd}</t>
   </si>
   <si>
-    <t>${startDate}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ${year}. ${month} - Beosztás</t>
-  </si>
-  <si>
-    <t>${shiftStart: []}</t>
   </si>
   <si>
     <t>Mórahalom ${todayDate}</t>
@@ -290,10 +284,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\ d/"/>
     <numFmt numFmtId="165" formatCode="m\.\ d\.;@"/>
-    <numFmt numFmtId="166" formatCode="d"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1057,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1099,30 +1092,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1212,18 +1181,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1242,119 +1199,13 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1425,11 +1276,154 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1861,10 +1855,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO36"/>
+  <dimension ref="A1:BU144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AH16" sqref="AH16:AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1876,10 +1870,9 @@
     <col min="39" max="39" width="4.5703125" style="14" customWidth="1"/>
     <col min="40" max="40" width="5.7109375" style="14" customWidth="1"/>
     <col min="41" max="41" width="13" style="14" customWidth="1"/>
-    <col min="42" max="43" width="5.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="7.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="5.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="47" max="256" width="9.140625" style="14"/>
     <col min="257" max="257" width="8.85546875" style="14" customWidth="1"/>
     <col min="258" max="288" width="3.85546875" style="14" customWidth="1"/>
@@ -2450,2152 +2443,7560 @@
     <col min="16175" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
+    <row r="1" spans="1:73" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
     </row>
-    <row r="2" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+    <row r="2" spans="1:73" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="99"/>
-      <c r="AG2" s="99"/>
-      <c r="AH2" s="99"/>
-      <c r="AI2" s="99"/>
-      <c r="AJ2" s="99"/>
-      <c r="AK2" s="99"/>
-      <c r="AL2" s="99"/>
-      <c r="AM2" s="99"/>
-      <c r="AN2" s="99"/>
-      <c r="AO2" s="99"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
     </row>
-    <row r="3" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+    <row r="3" spans="1:73" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="100"/>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="100"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="100"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
     </row>
-    <row r="4" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:73" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="64"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="V5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="67"/>
+    </row>
+    <row r="6" spans="1:73" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="S4" s="37" t="s">
+      <c r="S6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="37" t="s">
+      <c r="T6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="U4" s="37" t="s">
+      <c r="U6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="37" t="s">
+      <c r="V6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="W4" s="37" t="s">
+      <c r="W6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="X4" s="37" t="s">
+      <c r="X6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="37" t="s">
+      <c r="Y6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="Z4" s="37" t="s">
+      <c r="Z6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="37" t="s">
+      <c r="AA6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AB4" s="37" t="s">
+      <c r="AB6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AC4" s="37" t="s">
+      <c r="AC6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AD4" s="37" t="s">
+      <c r="AD6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AE4" s="37" t="s">
+      <c r="AE6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AF4" s="37" t="s">
+      <c r="AF6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="104" t="s">
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="52"/>
+      <c r="AO6" s="36">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="W7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="39"/>
+    </row>
+    <row r="8" spans="1:73" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="U8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="V8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="W8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="39"/>
+    </row>
+    <row r="9" spans="1:73" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="V9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="49"/>
+    </row>
+    <row r="10" spans="1:73" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="41"/>
+    </row>
+    <row r="11" spans="1:73" s="21" customFormat="1" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="115">
+        <v>1</v>
+      </c>
+      <c r="C11" s="115">
+        <v>2</v>
+      </c>
+      <c r="D11" s="115">
+        <v>3</v>
+      </c>
+      <c r="E11" s="115">
+        <v>4</v>
+      </c>
+      <c r="F11" s="115">
+        <v>5</v>
+      </c>
+      <c r="G11" s="115">
+        <v>6</v>
+      </c>
+      <c r="H11" s="115">
+        <v>7</v>
+      </c>
+      <c r="I11" s="115">
+        <v>8</v>
+      </c>
+      <c r="J11" s="115">
+        <v>9</v>
+      </c>
+      <c r="K11" s="115">
+        <v>10</v>
+      </c>
+      <c r="L11" s="115">
+        <v>11</v>
+      </c>
+      <c r="M11" s="115">
+        <v>12</v>
+      </c>
+      <c r="N11" s="115">
+        <v>13</v>
+      </c>
+      <c r="O11" s="115">
+        <v>14</v>
+      </c>
+      <c r="P11" s="115">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="115">
+        <v>16</v>
+      </c>
+      <c r="R11" s="115">
+        <v>17</v>
+      </c>
+      <c r="S11" s="115">
+        <v>18</v>
+      </c>
+      <c r="T11" s="115">
+        <v>19</v>
+      </c>
+      <c r="U11" s="115">
+        <v>20</v>
+      </c>
+      <c r="V11" s="115">
+        <v>21</v>
+      </c>
+      <c r="W11" s="115">
+        <v>22</v>
+      </c>
+      <c r="X11" s="115">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="115">
+        <v>24</v>
+      </c>
+      <c r="Z11" s="115">
+        <v>25</v>
+      </c>
+      <c r="AA11" s="115">
+        <v>26</v>
+      </c>
+      <c r="AB11" s="115">
+        <v>27</v>
+      </c>
+      <c r="AC11" s="115">
         <v>28</v>
       </c>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="107" t="s">
-        <v>38</v>
+      <c r="AD11" s="115">
+        <v>29</v>
+      </c>
+      <c r="AE11" s="115">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="115">
+        <v>31</v>
+      </c>
+      <c r="AG11" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH11" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ11" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK11" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL11" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM11" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="48" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="S5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="T5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="U5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="V5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="X5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="109"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="111"/>
-      <c r="AO5" s="108"/>
+    <row r="12" spans="1:73" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="V12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="W12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI12" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ12" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK12" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL12" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM12" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN12" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO12" s="93"/>
+      <c r="AQ12" s="116"/>
+      <c r="AR12" s="117"/>
+      <c r="AS12" s="116"/>
+      <c r="AT12" s="116"/>
+      <c r="AU12" s="116"/>
+      <c r="AV12" s="116"/>
+      <c r="AW12" s="116"/>
+      <c r="AX12" s="116"/>
+      <c r="AY12" s="116"/>
+      <c r="AZ12" s="116"/>
+      <c r="BA12" s="116"/>
+      <c r="BB12" s="116"/>
+      <c r="BC12" s="116"/>
+      <c r="BD12" s="116"/>
+      <c r="BE12" s="116"/>
+      <c r="BF12" s="116"/>
+      <c r="BG12" s="116"/>
+      <c r="BH12" s="116"/>
+      <c r="BI12" s="116"/>
+      <c r="BJ12" s="116"/>
+      <c r="BK12" s="116"/>
+      <c r="BL12" s="116"/>
+      <c r="BM12" s="116"/>
+      <c r="BN12" s="116"/>
+      <c r="BO12" s="116"/>
+      <c r="BP12" s="116"/>
+      <c r="BQ12" s="116"/>
+      <c r="BR12" s="116"/>
+      <c r="BS12" s="116"/>
+      <c r="BT12" s="116"/>
+      <c r="BU12" s="116"/>
     </row>
-    <row r="6" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="S6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="T6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="U6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="V6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="W6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="42">
-        <v>176</v>
-      </c>
+    <row r="13" spans="1:73" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="81"/>
+      <c r="B13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="U13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="V13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="W13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="X13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF13" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="85"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="89"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="94"/>
     </row>
-    <row r="7" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="U7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="V7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="X7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI7" s="113"/>
-      <c r="AJ7" s="113"/>
-      <c r="AK7" s="113"/>
-      <c r="AL7" s="114"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="45"/>
-    </row>
-    <row r="8" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="S8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="T8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="U8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="V8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="X8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="115"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="116"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="116"/>
-      <c r="AM8" s="116"/>
-      <c r="AN8" s="117"/>
-      <c r="AO8" s="45"/>
-    </row>
-    <row r="9" spans="1:41" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="U9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="V9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="W9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="X9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="118"/>
-      <c r="AI9" s="119"/>
-      <c r="AJ9" s="119"/>
-      <c r="AK9" s="119"/>
-      <c r="AL9" s="119"/>
-      <c r="AM9" s="119"/>
-      <c r="AN9" s="120"/>
-      <c r="AO9" s="58"/>
-    </row>
-    <row r="10" spans="1:41" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="47"/>
-    </row>
-    <row r="11" spans="1:41" s="21" customFormat="1" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="69" t="e">
-        <f>B$11 + 1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" s="69" t="e">
-        <f t="shared" ref="D11:AF11" si="0">C$11 + 1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF11" s="69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG11" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH11" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI11" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ11" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK11" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL11" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM11" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN11" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="R12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="S12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="T12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="U12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="V12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="W12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="X12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI12" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ12" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK12" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL12" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM12" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN12" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO12" s="86"/>
-    </row>
-    <row r="13" spans="1:41" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="R13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="S13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="U13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="V13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="W13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="X13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG13" s="91"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="85"/>
-      <c r="AJ13" s="98"/>
-      <c r="AK13" s="83"/>
-      <c r="AL13" s="85"/>
-      <c r="AM13" s="85"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="87"/>
-    </row>
-    <row r="14" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:73" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="80"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="63"/>
-      <c r="AN14" s="74"/>
-      <c r="AO14" s="75"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="111"/>
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="112"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="97"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="101"/>
+      <c r="AO14" s="102"/>
     </row>
-    <row r="15" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="81"/>
-      <c r="AI15" s="73"/>
-      <c r="AJ15" s="73"/>
-      <c r="AK15" s="73"/>
-      <c r="AL15" s="73"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="73"/>
-      <c r="AO15" s="76"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="96"/>
+      <c r="AH15" s="98"/>
+      <c r="AI15" s="100"/>
+      <c r="AJ15" s="100"/>
+      <c r="AK15" s="100"/>
+      <c r="AL15" s="100"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="100"/>
+      <c r="AO15" s="103"/>
     </row>
-    <row r="16" spans="1:41" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="88" t="s">
+    <row r="16" spans="1:73" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="82"/>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="84"/>
-      <c r="AM16" s="84"/>
-      <c r="AN16" s="82"/>
-      <c r="AO16" s="86"/>
+      <c r="B16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="S16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="T16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="U16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="V16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="W16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="X16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF16" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI16" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ16" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK16" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL16" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM16" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN16" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO16" s="93"/>
     </row>
     <row r="17" spans="1:41" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="83"/>
-      <c r="AJ17" s="83"/>
-      <c r="AK17" s="83"/>
-      <c r="AL17" s="85"/>
-      <c r="AM17" s="85"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="87"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="U17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="V17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="W17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="X17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF17" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG17" s="83"/>
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="89"/>
+      <c r="AK17" s="92"/>
+      <c r="AL17" s="87"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="92"/>
+      <c r="AO17" s="94"/>
     </row>
     <row r="18" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="78"/>
-      <c r="AH18" s="80"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="72"/>
-      <c r="AM18" s="63"/>
-      <c r="AN18" s="74"/>
-      <c r="AO18" s="75"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="111"/>
+      <c r="AA18" s="111"/>
+      <c r="AB18" s="111"/>
+      <c r="AC18" s="111"/>
+      <c r="AD18" s="111"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="97"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="99"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="101"/>
+      <c r="AO18" s="102"/>
     </row>
     <row r="19" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="79"/>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="76"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="113"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="113"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="113"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="113"/>
+      <c r="AE19" s="113"/>
+      <c r="AF19" s="114"/>
+      <c r="AG19" s="96"/>
+      <c r="AH19" s="98"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="100"/>
+      <c r="AK19" s="100"/>
+      <c r="AL19" s="100"/>
+      <c r="AM19" s="53"/>
+      <c r="AN19" s="100"/>
+      <c r="AO19" s="103"/>
     </row>
     <row r="20" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="68"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="109"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="109"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="104"/>
+      <c r="AI20" s="91"/>
+      <c r="AJ20" s="91"/>
+      <c r="AK20" s="91"/>
+      <c r="AL20" s="90"/>
+      <c r="AM20" s="90"/>
+      <c r="AN20" s="91"/>
+      <c r="AO20" s="93"/>
     </row>
-    <row r="21" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="67"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="68"/>
+    <row r="21" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="81"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="110"/>
+      <c r="X21" s="110"/>
+      <c r="Y21" s="110"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="110"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="110"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="83"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="92"/>
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="87"/>
+      <c r="AN21" s="92"/>
+      <c r="AO21" s="94"/>
     </row>
     <row r="22" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="68"/>
+      <c r="A22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="111"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="111"/>
+      <c r="AD22" s="111"/>
+      <c r="AE22" s="111"/>
+      <c r="AF22" s="112"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="97"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="99"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="101"/>
+      <c r="AO22" s="102"/>
     </row>
-    <row r="23" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="68"/>
+    <row r="23" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="113"/>
+      <c r="AF23" s="114"/>
+      <c r="AG23" s="96"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="100"/>
+      <c r="AJ23" s="100"/>
+      <c r="AK23" s="100"/>
+      <c r="AL23" s="100"/>
+      <c r="AM23" s="55"/>
+      <c r="AN23" s="100"/>
+      <c r="AO23" s="103"/>
     </row>
-    <row r="24" spans="1:41" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="31"/>
+    <row r="24" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="80"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="109"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="109"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="109"/>
+      <c r="V24" s="109"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="109"/>
+      <c r="Z24" s="109"/>
+      <c r="AA24" s="109"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="109"/>
+      <c r="AD24" s="109"/>
+      <c r="AE24" s="109"/>
+      <c r="AF24" s="109"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="104"/>
+      <c r="AI24" s="91"/>
+      <c r="AJ24" s="91"/>
+      <c r="AK24" s="91"/>
+      <c r="AL24" s="90"/>
+      <c r="AM24" s="90"/>
+      <c r="AN24" s="91"/>
+      <c r="AO24" s="93"/>
     </row>
-    <row r="25" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="64" t="s">
+    <row r="25" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="81"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="110"/>
+      <c r="Y25" s="110"/>
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="110"/>
+      <c r="AD25" s="110"/>
+      <c r="AE25" s="110"/>
+      <c r="AF25" s="110"/>
+      <c r="AG25" s="83"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="92"/>
+      <c r="AJ25" s="92"/>
+      <c r="AK25" s="92"/>
+      <c r="AL25" s="87"/>
+      <c r="AM25" s="87"/>
+      <c r="AN25" s="92"/>
+      <c r="AO25" s="94"/>
+    </row>
+    <row r="26" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="111"/>
+      <c r="AB26" s="111"/>
+      <c r="AC26" s="111"/>
+      <c r="AD26" s="111"/>
+      <c r="AE26" s="111"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="97"/>
+      <c r="AI26" s="99"/>
+      <c r="AJ26" s="99"/>
+      <c r="AK26" s="99"/>
+      <c r="AL26" s="99"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="101"/>
+      <c r="AO26" s="102"/>
+    </row>
+    <row r="27" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="113"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="113"/>
+      <c r="T27" s="113"/>
+      <c r="U27" s="113"/>
+      <c r="V27" s="113"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="113"/>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="113"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="113"/>
+      <c r="AD27" s="113"/>
+      <c r="AE27" s="113"/>
+      <c r="AF27" s="114"/>
+      <c r="AG27" s="96"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="100"/>
+      <c r="AK27" s="100"/>
+      <c r="AL27" s="100"/>
+      <c r="AM27" s="55"/>
+      <c r="AN27" s="100"/>
+      <c r="AO27" s="103"/>
+    </row>
+    <row r="28" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="80"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="109"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="109"/>
+      <c r="AD28" s="109"/>
+      <c r="AE28" s="109"/>
+      <c r="AF28" s="109"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="104"/>
+      <c r="AI28" s="91"/>
+      <c r="AJ28" s="91"/>
+      <c r="AK28" s="91"/>
+      <c r="AL28" s="90"/>
+      <c r="AM28" s="90"/>
+      <c r="AN28" s="91"/>
+      <c r="AO28" s="93"/>
+    </row>
+    <row r="29" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="81"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110"/>
+      <c r="X29" s="110"/>
+      <c r="Y29" s="110"/>
+      <c r="Z29" s="110"/>
+      <c r="AA29" s="110"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="110"/>
+      <c r="AE29" s="110"/>
+      <c r="AF29" s="110"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="105"/>
+      <c r="AI29" s="92"/>
+      <c r="AJ29" s="92"/>
+      <c r="AK29" s="92"/>
+      <c r="AL29" s="87"/>
+      <c r="AM29" s="87"/>
+      <c r="AN29" s="92"/>
+      <c r="AO29" s="94"/>
+    </row>
+    <row r="30" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111"/>
+      <c r="AB30" s="111"/>
+      <c r="AC30" s="111"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="111"/>
+      <c r="AF30" s="112"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="97"/>
+      <c r="AI30" s="99"/>
+      <c r="AJ30" s="99"/>
+      <c r="AK30" s="99"/>
+      <c r="AL30" s="99"/>
+      <c r="AM30" s="56"/>
+      <c r="AN30" s="101"/>
+      <c r="AO30" s="102"/>
+    </row>
+    <row r="31" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="113"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="113"/>
+      <c r="U31" s="113"/>
+      <c r="V31" s="113"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="113"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="114"/>
+      <c r="AG31" s="96"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="100"/>
+      <c r="AJ31" s="100"/>
+      <c r="AK31" s="100"/>
+      <c r="AL31" s="100"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="100"/>
+      <c r="AO31" s="103"/>
+    </row>
+    <row r="32" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="80"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="109"/>
+      <c r="AD32" s="109"/>
+      <c r="AE32" s="109"/>
+      <c r="AF32" s="109"/>
+      <c r="AG32" s="82"/>
+      <c r="AH32" s="104"/>
+      <c r="AI32" s="91"/>
+      <c r="AJ32" s="91"/>
+      <c r="AK32" s="91"/>
+      <c r="AL32" s="90"/>
+      <c r="AM32" s="90"/>
+      <c r="AN32" s="91"/>
+      <c r="AO32" s="93"/>
+    </row>
+    <row r="33" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="81"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="110"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="110"/>
+      <c r="V33" s="110"/>
+      <c r="W33" s="110"/>
+      <c r="X33" s="110"/>
+      <c r="Y33" s="110"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="110"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="110"/>
+      <c r="AG33" s="83"/>
+      <c r="AH33" s="105"/>
+      <c r="AI33" s="92"/>
+      <c r="AJ33" s="92"/>
+      <c r="AK33" s="92"/>
+      <c r="AL33" s="87"/>
+      <c r="AM33" s="87"/>
+      <c r="AN33" s="92"/>
+      <c r="AO33" s="94"/>
+    </row>
+    <row r="34" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="111"/>
+      <c r="Y34" s="111"/>
+      <c r="Z34" s="111"/>
+      <c r="AA34" s="111"/>
+      <c r="AB34" s="111"/>
+      <c r="AC34" s="111"/>
+      <c r="AD34" s="111"/>
+      <c r="AE34" s="111"/>
+      <c r="AF34" s="112"/>
+      <c r="AG34" s="95"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="99"/>
+      <c r="AJ34" s="99"/>
+      <c r="AK34" s="99"/>
+      <c r="AL34" s="99"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="101"/>
+      <c r="AO34" s="102"/>
+    </row>
+    <row r="35" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="113"/>
+      <c r="V35" s="113"/>
+      <c r="W35" s="113"/>
+      <c r="X35" s="113"/>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="113"/>
+      <c r="AA35" s="113"/>
+      <c r="AB35" s="113"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="113"/>
+      <c r="AE35" s="113"/>
+      <c r="AF35" s="114"/>
+      <c r="AG35" s="96"/>
+      <c r="AH35" s="98"/>
+      <c r="AI35" s="100"/>
+      <c r="AJ35" s="100"/>
+      <c r="AK35" s="100"/>
+      <c r="AL35" s="100"/>
+      <c r="AM35" s="55"/>
+      <c r="AN35" s="100"/>
+      <c r="AO35" s="103"/>
+    </row>
+    <row r="36" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="80"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="109"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="109"/>
+      <c r="U36" s="109"/>
+      <c r="V36" s="109"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="109"/>
+      <c r="Y36" s="109"/>
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="109"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="109"/>
+      <c r="AD36" s="109"/>
+      <c r="AE36" s="109"/>
+      <c r="AF36" s="109"/>
+      <c r="AG36" s="82"/>
+      <c r="AH36" s="104"/>
+      <c r="AI36" s="91"/>
+      <c r="AJ36" s="91"/>
+      <c r="AK36" s="91"/>
+      <c r="AL36" s="90"/>
+      <c r="AM36" s="90"/>
+      <c r="AN36" s="91"/>
+      <c r="AO36" s="93"/>
+    </row>
+    <row r="37" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="81"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="110"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="110"/>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="110"/>
+      <c r="W37" s="110"/>
+      <c r="X37" s="110"/>
+      <c r="Y37" s="110"/>
+      <c r="Z37" s="110"/>
+      <c r="AA37" s="110"/>
+      <c r="AB37" s="110"/>
+      <c r="AC37" s="110"/>
+      <c r="AD37" s="110"/>
+      <c r="AE37" s="110"/>
+      <c r="AF37" s="110"/>
+      <c r="AG37" s="83"/>
+      <c r="AH37" s="105"/>
+      <c r="AI37" s="92"/>
+      <c r="AJ37" s="92"/>
+      <c r="AK37" s="92"/>
+      <c r="AL37" s="87"/>
+      <c r="AM37" s="87"/>
+      <c r="AN37" s="92"/>
+      <c r="AO37" s="94"/>
+    </row>
+    <row r="38" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
+      <c r="Z38" s="111"/>
+      <c r="AA38" s="111"/>
+      <c r="AB38" s="111"/>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="111"/>
+      <c r="AE38" s="111"/>
+      <c r="AF38" s="112"/>
+      <c r="AG38" s="95"/>
+      <c r="AH38" s="97"/>
+      <c r="AI38" s="99"/>
+      <c r="AJ38" s="99"/>
+      <c r="AK38" s="99"/>
+      <c r="AL38" s="99"/>
+      <c r="AM38" s="56"/>
+      <c r="AN38" s="101"/>
+      <c r="AO38" s="102"/>
+    </row>
+    <row r="39" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="113"/>
+      <c r="U39" s="113"/>
+      <c r="V39" s="113"/>
+      <c r="W39" s="113"/>
+      <c r="X39" s="113"/>
+      <c r="Y39" s="113"/>
+      <c r="Z39" s="113"/>
+      <c r="AA39" s="113"/>
+      <c r="AB39" s="113"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="113"/>
+      <c r="AE39" s="113"/>
+      <c r="AF39" s="114"/>
+      <c r="AG39" s="96"/>
+      <c r="AH39" s="98"/>
+      <c r="AI39" s="100"/>
+      <c r="AJ39" s="100"/>
+      <c r="AK39" s="100"/>
+      <c r="AL39" s="100"/>
+      <c r="AM39" s="55"/>
+      <c r="AN39" s="100"/>
+      <c r="AO39" s="103"/>
+    </row>
+    <row r="40" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="80"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="109"/>
+      <c r="N40" s="109"/>
+      <c r="O40" s="109"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="109"/>
+      <c r="S40" s="109"/>
+      <c r="T40" s="109"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="109"/>
+      <c r="W40" s="109"/>
+      <c r="X40" s="109"/>
+      <c r="Y40" s="109"/>
+      <c r="Z40" s="109"/>
+      <c r="AA40" s="109"/>
+      <c r="AB40" s="109"/>
+      <c r="AC40" s="109"/>
+      <c r="AD40" s="109"/>
+      <c r="AE40" s="109"/>
+      <c r="AF40" s="109"/>
+      <c r="AG40" s="82"/>
+      <c r="AH40" s="104"/>
+      <c r="AI40" s="91"/>
+      <c r="AJ40" s="91"/>
+      <c r="AK40" s="91"/>
+      <c r="AL40" s="90"/>
+      <c r="AM40" s="90"/>
+      <c r="AN40" s="91"/>
+      <c r="AO40" s="93"/>
+    </row>
+    <row r="41" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="81"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="110"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="110"/>
+      <c r="R41" s="110"/>
+      <c r="S41" s="110"/>
+      <c r="T41" s="110"/>
+      <c r="U41" s="110"/>
+      <c r="V41" s="110"/>
+      <c r="W41" s="110"/>
+      <c r="X41" s="110"/>
+      <c r="Y41" s="110"/>
+      <c r="Z41" s="110"/>
+      <c r="AA41" s="110"/>
+      <c r="AB41" s="110"/>
+      <c r="AC41" s="110"/>
+      <c r="AD41" s="110"/>
+      <c r="AE41" s="110"/>
+      <c r="AF41" s="110"/>
+      <c r="AG41" s="83"/>
+      <c r="AH41" s="105"/>
+      <c r="AI41" s="92"/>
+      <c r="AJ41" s="92"/>
+      <c r="AK41" s="92"/>
+      <c r="AL41" s="87"/>
+      <c r="AM41" s="87"/>
+      <c r="AN41" s="92"/>
+      <c r="AO41" s="94"/>
+    </row>
+    <row r="42" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="111"/>
+      <c r="V42" s="111"/>
+      <c r="W42" s="111"/>
+      <c r="X42" s="111"/>
+      <c r="Y42" s="111"/>
+      <c r="Z42" s="111"/>
+      <c r="AA42" s="111"/>
+      <c r="AB42" s="111"/>
+      <c r="AC42" s="111"/>
+      <c r="AD42" s="111"/>
+      <c r="AE42" s="111"/>
+      <c r="AF42" s="112"/>
+      <c r="AG42" s="95"/>
+      <c r="AH42" s="97"/>
+      <c r="AI42" s="99"/>
+      <c r="AJ42" s="99"/>
+      <c r="AK42" s="99"/>
+      <c r="AL42" s="99"/>
+      <c r="AM42" s="56"/>
+      <c r="AN42" s="101"/>
+      <c r="AO42" s="102"/>
+    </row>
+    <row r="43" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="113"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="113"/>
+      <c r="S43" s="113"/>
+      <c r="T43" s="113"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="113"/>
+      <c r="W43" s="113"/>
+      <c r="X43" s="113"/>
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="113"/>
+      <c r="AA43" s="113"/>
+      <c r="AB43" s="113"/>
+      <c r="AC43" s="113"/>
+      <c r="AD43" s="113"/>
+      <c r="AE43" s="113"/>
+      <c r="AF43" s="114"/>
+      <c r="AG43" s="96"/>
+      <c r="AH43" s="98"/>
+      <c r="AI43" s="100"/>
+      <c r="AJ43" s="100"/>
+      <c r="AK43" s="100"/>
+      <c r="AL43" s="100"/>
+      <c r="AM43" s="55"/>
+      <c r="AN43" s="100"/>
+      <c r="AO43" s="103"/>
+    </row>
+    <row r="44" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="80"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="109"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="109"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="109"/>
+      <c r="AA44" s="109"/>
+      <c r="AB44" s="109"/>
+      <c r="AC44" s="109"/>
+      <c r="AD44" s="109"/>
+      <c r="AE44" s="109"/>
+      <c r="AF44" s="109"/>
+      <c r="AG44" s="82"/>
+      <c r="AH44" s="104"/>
+      <c r="AI44" s="91"/>
+      <c r="AJ44" s="91"/>
+      <c r="AK44" s="91"/>
+      <c r="AL44" s="90"/>
+      <c r="AM44" s="90"/>
+      <c r="AN44" s="91"/>
+      <c r="AO44" s="93"/>
+    </row>
+    <row r="45" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="81"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
+      <c r="S45" s="110"/>
+      <c r="T45" s="110"/>
+      <c r="U45" s="110"/>
+      <c r="V45" s="110"/>
+      <c r="W45" s="110"/>
+      <c r="X45" s="110"/>
+      <c r="Y45" s="110"/>
+      <c r="Z45" s="110"/>
+      <c r="AA45" s="110"/>
+      <c r="AB45" s="110"/>
+      <c r="AC45" s="110"/>
+      <c r="AD45" s="110"/>
+      <c r="AE45" s="110"/>
+      <c r="AF45" s="110"/>
+      <c r="AG45" s="83"/>
+      <c r="AH45" s="105"/>
+      <c r="AI45" s="92"/>
+      <c r="AJ45" s="92"/>
+      <c r="AK45" s="92"/>
+      <c r="AL45" s="87"/>
+      <c r="AM45" s="87"/>
+      <c r="AN45" s="92"/>
+      <c r="AO45" s="94"/>
+    </row>
+    <row r="46" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="111"/>
+      <c r="U46" s="111"/>
+      <c r="V46" s="111"/>
+      <c r="W46" s="111"/>
+      <c r="X46" s="111"/>
+      <c r="Y46" s="111"/>
+      <c r="Z46" s="111"/>
+      <c r="AA46" s="111"/>
+      <c r="AB46" s="111"/>
+      <c r="AC46" s="111"/>
+      <c r="AD46" s="111"/>
+      <c r="AE46" s="111"/>
+      <c r="AF46" s="112"/>
+      <c r="AG46" s="95"/>
+      <c r="AH46" s="97"/>
+      <c r="AI46" s="99"/>
+      <c r="AJ46" s="99"/>
+      <c r="AK46" s="99"/>
+      <c r="AL46" s="99"/>
+      <c r="AM46" s="56"/>
+      <c r="AN46" s="101"/>
+      <c r="AO46" s="102"/>
+    </row>
+    <row r="47" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="113"/>
+      <c r="N47" s="113"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="113"/>
+      <c r="Q47" s="113"/>
+      <c r="R47" s="113"/>
+      <c r="S47" s="113"/>
+      <c r="T47" s="113"/>
+      <c r="U47" s="113"/>
+      <c r="V47" s="113"/>
+      <c r="W47" s="113"/>
+      <c r="X47" s="113"/>
+      <c r="Y47" s="113"/>
+      <c r="Z47" s="113"/>
+      <c r="AA47" s="113"/>
+      <c r="AB47" s="113"/>
+      <c r="AC47" s="113"/>
+      <c r="AD47" s="113"/>
+      <c r="AE47" s="113"/>
+      <c r="AF47" s="114"/>
+      <c r="AG47" s="96"/>
+      <c r="AH47" s="98"/>
+      <c r="AI47" s="100"/>
+      <c r="AJ47" s="100"/>
+      <c r="AK47" s="100"/>
+      <c r="AL47" s="100"/>
+      <c r="AM47" s="55"/>
+      <c r="AN47" s="100"/>
+      <c r="AO47" s="103"/>
+    </row>
+    <row r="48" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="80"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="109"/>
+      <c r="L48" s="109"/>
+      <c r="M48" s="109"/>
+      <c r="N48" s="109"/>
+      <c r="O48" s="109"/>
+      <c r="P48" s="109"/>
+      <c r="Q48" s="109"/>
+      <c r="R48" s="109"/>
+      <c r="S48" s="109"/>
+      <c r="T48" s="109"/>
+      <c r="U48" s="109"/>
+      <c r="V48" s="109"/>
+      <c r="W48" s="109"/>
+      <c r="X48" s="109"/>
+      <c r="Y48" s="109"/>
+      <c r="Z48" s="109"/>
+      <c r="AA48" s="109"/>
+      <c r="AB48" s="109"/>
+      <c r="AC48" s="109"/>
+      <c r="AD48" s="109"/>
+      <c r="AE48" s="109"/>
+      <c r="AF48" s="109"/>
+      <c r="AG48" s="82"/>
+      <c r="AH48" s="104"/>
+      <c r="AI48" s="91"/>
+      <c r="AJ48" s="91"/>
+      <c r="AK48" s="91"/>
+      <c r="AL48" s="90"/>
+      <c r="AM48" s="90"/>
+      <c r="AN48" s="91"/>
+      <c r="AO48" s="93"/>
+    </row>
+    <row r="49" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="81"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="110"/>
+      <c r="L49" s="110"/>
+      <c r="M49" s="110"/>
+      <c r="N49" s="110"/>
+      <c r="O49" s="110"/>
+      <c r="P49" s="110"/>
+      <c r="Q49" s="110"/>
+      <c r="R49" s="110"/>
+      <c r="S49" s="110"/>
+      <c r="T49" s="110"/>
+      <c r="U49" s="110"/>
+      <c r="V49" s="110"/>
+      <c r="W49" s="110"/>
+      <c r="X49" s="110"/>
+      <c r="Y49" s="110"/>
+      <c r="Z49" s="110"/>
+      <c r="AA49" s="110"/>
+      <c r="AB49" s="110"/>
+      <c r="AC49" s="110"/>
+      <c r="AD49" s="110"/>
+      <c r="AE49" s="110"/>
+      <c r="AF49" s="110"/>
+      <c r="AG49" s="83"/>
+      <c r="AH49" s="105"/>
+      <c r="AI49" s="92"/>
+      <c r="AJ49" s="92"/>
+      <c r="AK49" s="92"/>
+      <c r="AL49" s="87"/>
+      <c r="AM49" s="87"/>
+      <c r="AN49" s="92"/>
+      <c r="AO49" s="94"/>
+    </row>
+    <row r="50" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="111"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
+      <c r="Z50" s="111"/>
+      <c r="AA50" s="111"/>
+      <c r="AB50" s="111"/>
+      <c r="AC50" s="111"/>
+      <c r="AD50" s="111"/>
+      <c r="AE50" s="111"/>
+      <c r="AF50" s="112"/>
+      <c r="AG50" s="95"/>
+      <c r="AH50" s="97"/>
+      <c r="AI50" s="99"/>
+      <c r="AJ50" s="99"/>
+      <c r="AK50" s="99"/>
+      <c r="AL50" s="99"/>
+      <c r="AM50" s="56"/>
+      <c r="AN50" s="101"/>
+      <c r="AO50" s="102"/>
+    </row>
+    <row r="51" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="113"/>
+      <c r="Q51" s="113"/>
+      <c r="R51" s="113"/>
+      <c r="S51" s="113"/>
+      <c r="T51" s="113"/>
+      <c r="U51" s="113"/>
+      <c r="V51" s="113"/>
+      <c r="W51" s="113"/>
+      <c r="X51" s="113"/>
+      <c r="Y51" s="113"/>
+      <c r="Z51" s="113"/>
+      <c r="AA51" s="113"/>
+      <c r="AB51" s="113"/>
+      <c r="AC51" s="113"/>
+      <c r="AD51" s="113"/>
+      <c r="AE51" s="113"/>
+      <c r="AF51" s="114"/>
+      <c r="AG51" s="96"/>
+      <c r="AH51" s="98"/>
+      <c r="AI51" s="100"/>
+      <c r="AJ51" s="100"/>
+      <c r="AK51" s="100"/>
+      <c r="AL51" s="100"/>
+      <c r="AM51" s="55"/>
+      <c r="AN51" s="100"/>
+      <c r="AO51" s="103"/>
+    </row>
+    <row r="52" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="80"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="109"/>
+      <c r="L52" s="109"/>
+      <c r="M52" s="109"/>
+      <c r="N52" s="109"/>
+      <c r="O52" s="109"/>
+      <c r="P52" s="109"/>
+      <c r="Q52" s="109"/>
+      <c r="R52" s="109"/>
+      <c r="S52" s="109"/>
+      <c r="T52" s="109"/>
+      <c r="U52" s="109"/>
+      <c r="V52" s="109"/>
+      <c r="W52" s="109"/>
+      <c r="X52" s="109"/>
+      <c r="Y52" s="109"/>
+      <c r="Z52" s="109"/>
+      <c r="AA52" s="109"/>
+      <c r="AB52" s="109"/>
+      <c r="AC52" s="109"/>
+      <c r="AD52" s="109"/>
+      <c r="AE52" s="109"/>
+      <c r="AF52" s="109"/>
+      <c r="AG52" s="82"/>
+      <c r="AH52" s="104"/>
+      <c r="AI52" s="91"/>
+      <c r="AJ52" s="91"/>
+      <c r="AK52" s="91"/>
+      <c r="AL52" s="90"/>
+      <c r="AM52" s="90"/>
+      <c r="AN52" s="91"/>
+      <c r="AO52" s="93"/>
+    </row>
+    <row r="53" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="81"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
+      <c r="K53" s="110"/>
+      <c r="L53" s="110"/>
+      <c r="M53" s="110"/>
+      <c r="N53" s="110"/>
+      <c r="O53" s="110"/>
+      <c r="P53" s="110"/>
+      <c r="Q53" s="110"/>
+      <c r="R53" s="110"/>
+      <c r="S53" s="110"/>
+      <c r="T53" s="110"/>
+      <c r="U53" s="110"/>
+      <c r="V53" s="110"/>
+      <c r="W53" s="110"/>
+      <c r="X53" s="110"/>
+      <c r="Y53" s="110"/>
+      <c r="Z53" s="110"/>
+      <c r="AA53" s="110"/>
+      <c r="AB53" s="110"/>
+      <c r="AC53" s="110"/>
+      <c r="AD53" s="110"/>
+      <c r="AE53" s="110"/>
+      <c r="AF53" s="110"/>
+      <c r="AG53" s="83"/>
+      <c r="AH53" s="105"/>
+      <c r="AI53" s="92"/>
+      <c r="AJ53" s="92"/>
+      <c r="AK53" s="92"/>
+      <c r="AL53" s="87"/>
+      <c r="AM53" s="87"/>
+      <c r="AN53" s="92"/>
+      <c r="AO53" s="94"/>
+    </row>
+    <row r="54" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="111"/>
+      <c r="N54" s="111"/>
+      <c r="O54" s="111"/>
+      <c r="P54" s="111"/>
+      <c r="Q54" s="111"/>
+      <c r="R54" s="111"/>
+      <c r="S54" s="111"/>
+      <c r="T54" s="111"/>
+      <c r="U54" s="111"/>
+      <c r="V54" s="111"/>
+      <c r="W54" s="111"/>
+      <c r="X54" s="111"/>
+      <c r="Y54" s="111"/>
+      <c r="Z54" s="111"/>
+      <c r="AA54" s="111"/>
+      <c r="AB54" s="111"/>
+      <c r="AC54" s="111"/>
+      <c r="AD54" s="111"/>
+      <c r="AE54" s="111"/>
+      <c r="AF54" s="112"/>
+      <c r="AG54" s="95"/>
+      <c r="AH54" s="97"/>
+      <c r="AI54" s="99"/>
+      <c r="AJ54" s="99"/>
+      <c r="AK54" s="99"/>
+      <c r="AL54" s="99"/>
+      <c r="AM54" s="56"/>
+      <c r="AN54" s="101"/>
+      <c r="AO54" s="102"/>
+    </row>
+    <row r="55" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="113"/>
+      <c r="L55" s="113"/>
+      <c r="M55" s="113"/>
+      <c r="N55" s="113"/>
+      <c r="O55" s="113"/>
+      <c r="P55" s="113"/>
+      <c r="Q55" s="113"/>
+      <c r="R55" s="113"/>
+      <c r="S55" s="113"/>
+      <c r="T55" s="113"/>
+      <c r="U55" s="113"/>
+      <c r="V55" s="113"/>
+      <c r="W55" s="113"/>
+      <c r="X55" s="113"/>
+      <c r="Y55" s="113"/>
+      <c r="Z55" s="113"/>
+      <c r="AA55" s="113"/>
+      <c r="AB55" s="113"/>
+      <c r="AC55" s="113"/>
+      <c r="AD55" s="113"/>
+      <c r="AE55" s="113"/>
+      <c r="AF55" s="114"/>
+      <c r="AG55" s="96"/>
+      <c r="AH55" s="98"/>
+      <c r="AI55" s="100"/>
+      <c r="AJ55" s="100"/>
+      <c r="AK55" s="100"/>
+      <c r="AL55" s="100"/>
+      <c r="AM55" s="55"/>
+      <c r="AN55" s="100"/>
+      <c r="AO55" s="103"/>
+    </row>
+    <row r="56" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="80"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="109"/>
+      <c r="K56" s="109"/>
+      <c r="L56" s="109"/>
+      <c r="M56" s="109"/>
+      <c r="N56" s="109"/>
+      <c r="O56" s="109"/>
+      <c r="P56" s="109"/>
+      <c r="Q56" s="109"/>
+      <c r="R56" s="109"/>
+      <c r="S56" s="109"/>
+      <c r="T56" s="109"/>
+      <c r="U56" s="109"/>
+      <c r="V56" s="109"/>
+      <c r="W56" s="109"/>
+      <c r="X56" s="109"/>
+      <c r="Y56" s="109"/>
+      <c r="Z56" s="109"/>
+      <c r="AA56" s="109"/>
+      <c r="AB56" s="109"/>
+      <c r="AC56" s="109"/>
+      <c r="AD56" s="109"/>
+      <c r="AE56" s="109"/>
+      <c r="AF56" s="109"/>
+      <c r="AG56" s="82"/>
+      <c r="AH56" s="104"/>
+      <c r="AI56" s="91"/>
+      <c r="AJ56" s="91"/>
+      <c r="AK56" s="91"/>
+      <c r="AL56" s="90"/>
+      <c r="AM56" s="90"/>
+      <c r="AN56" s="91"/>
+      <c r="AO56" s="93"/>
+    </row>
+    <row r="57" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="81"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="110"/>
+      <c r="L57" s="110"/>
+      <c r="M57" s="110"/>
+      <c r="N57" s="110"/>
+      <c r="O57" s="110"/>
+      <c r="P57" s="110"/>
+      <c r="Q57" s="110"/>
+      <c r="R57" s="110"/>
+      <c r="S57" s="110"/>
+      <c r="T57" s="110"/>
+      <c r="U57" s="110"/>
+      <c r="V57" s="110"/>
+      <c r="W57" s="110"/>
+      <c r="X57" s="110"/>
+      <c r="Y57" s="110"/>
+      <c r="Z57" s="110"/>
+      <c r="AA57" s="110"/>
+      <c r="AB57" s="110"/>
+      <c r="AC57" s="110"/>
+      <c r="AD57" s="110"/>
+      <c r="AE57" s="110"/>
+      <c r="AF57" s="110"/>
+      <c r="AG57" s="83"/>
+      <c r="AH57" s="105"/>
+      <c r="AI57" s="92"/>
+      <c r="AJ57" s="92"/>
+      <c r="AK57" s="92"/>
+      <c r="AL57" s="87"/>
+      <c r="AM57" s="87"/>
+      <c r="AN57" s="92"/>
+      <c r="AO57" s="94"/>
+    </row>
+    <row r="58" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="111"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="111"/>
+      <c r="M58" s="111"/>
+      <c r="N58" s="111"/>
+      <c r="O58" s="111"/>
+      <c r="P58" s="111"/>
+      <c r="Q58" s="111"/>
+      <c r="R58" s="111"/>
+      <c r="S58" s="111"/>
+      <c r="T58" s="111"/>
+      <c r="U58" s="111"/>
+      <c r="V58" s="111"/>
+      <c r="W58" s="111"/>
+      <c r="X58" s="111"/>
+      <c r="Y58" s="111"/>
+      <c r="Z58" s="111"/>
+      <c r="AA58" s="111"/>
+      <c r="AB58" s="111"/>
+      <c r="AC58" s="111"/>
+      <c r="AD58" s="111"/>
+      <c r="AE58" s="111"/>
+      <c r="AF58" s="112"/>
+      <c r="AG58" s="95"/>
+      <c r="AH58" s="97"/>
+      <c r="AI58" s="99"/>
+      <c r="AJ58" s="99"/>
+      <c r="AK58" s="99"/>
+      <c r="AL58" s="99"/>
+      <c r="AM58" s="56"/>
+      <c r="AN58" s="101"/>
+      <c r="AO58" s="102"/>
+    </row>
+    <row r="59" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="113"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="113"/>
+      <c r="L59" s="113"/>
+      <c r="M59" s="113"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="113"/>
+      <c r="P59" s="113"/>
+      <c r="Q59" s="113"/>
+      <c r="R59" s="113"/>
+      <c r="S59" s="113"/>
+      <c r="T59" s="113"/>
+      <c r="U59" s="113"/>
+      <c r="V59" s="113"/>
+      <c r="W59" s="113"/>
+      <c r="X59" s="113"/>
+      <c r="Y59" s="113"/>
+      <c r="Z59" s="113"/>
+      <c r="AA59" s="113"/>
+      <c r="AB59" s="113"/>
+      <c r="AC59" s="113"/>
+      <c r="AD59" s="113"/>
+      <c r="AE59" s="113"/>
+      <c r="AF59" s="114"/>
+      <c r="AG59" s="96"/>
+      <c r="AH59" s="98"/>
+      <c r="AI59" s="100"/>
+      <c r="AJ59" s="100"/>
+      <c r="AK59" s="100"/>
+      <c r="AL59" s="100"/>
+      <c r="AM59" s="55"/>
+      <c r="AN59" s="100"/>
+      <c r="AO59" s="103"/>
+    </row>
+    <row r="60" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="80"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="109"/>
+      <c r="L60" s="109"/>
+      <c r="M60" s="109"/>
+      <c r="N60" s="109"/>
+      <c r="O60" s="109"/>
+      <c r="P60" s="109"/>
+      <c r="Q60" s="109"/>
+      <c r="R60" s="109"/>
+      <c r="S60" s="109"/>
+      <c r="T60" s="109"/>
+      <c r="U60" s="109"/>
+      <c r="V60" s="109"/>
+      <c r="W60" s="109"/>
+      <c r="X60" s="109"/>
+      <c r="Y60" s="109"/>
+      <c r="Z60" s="109"/>
+      <c r="AA60" s="109"/>
+      <c r="AB60" s="109"/>
+      <c r="AC60" s="109"/>
+      <c r="AD60" s="109"/>
+      <c r="AE60" s="109"/>
+      <c r="AF60" s="109"/>
+      <c r="AG60" s="82"/>
+      <c r="AH60" s="104"/>
+      <c r="AI60" s="91"/>
+      <c r="AJ60" s="91"/>
+      <c r="AK60" s="91"/>
+      <c r="AL60" s="90"/>
+      <c r="AM60" s="90"/>
+      <c r="AN60" s="91"/>
+      <c r="AO60" s="93"/>
+    </row>
+    <row r="61" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="81"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="110"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="110"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="110"/>
+      <c r="J61" s="110"/>
+      <c r="K61" s="110"/>
+      <c r="L61" s="110"/>
+      <c r="M61" s="110"/>
+      <c r="N61" s="110"/>
+      <c r="O61" s="110"/>
+      <c r="P61" s="110"/>
+      <c r="Q61" s="110"/>
+      <c r="R61" s="110"/>
+      <c r="S61" s="110"/>
+      <c r="T61" s="110"/>
+      <c r="U61" s="110"/>
+      <c r="V61" s="110"/>
+      <c r="W61" s="110"/>
+      <c r="X61" s="110"/>
+      <c r="Y61" s="110"/>
+      <c r="Z61" s="110"/>
+      <c r="AA61" s="110"/>
+      <c r="AB61" s="110"/>
+      <c r="AC61" s="110"/>
+      <c r="AD61" s="110"/>
+      <c r="AE61" s="110"/>
+      <c r="AF61" s="110"/>
+      <c r="AG61" s="83"/>
+      <c r="AH61" s="105"/>
+      <c r="AI61" s="92"/>
+      <c r="AJ61" s="92"/>
+      <c r="AK61" s="92"/>
+      <c r="AL61" s="87"/>
+      <c r="AM61" s="87"/>
+      <c r="AN61" s="92"/>
+      <c r="AO61" s="94"/>
+    </row>
+    <row r="62" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="111"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="111"/>
+      <c r="F62" s="111"/>
+      <c r="G62" s="111"/>
+      <c r="H62" s="111"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="111"/>
+      <c r="K62" s="111"/>
+      <c r="L62" s="111"/>
+      <c r="M62" s="111"/>
+      <c r="N62" s="111"/>
+      <c r="O62" s="111"/>
+      <c r="P62" s="111"/>
+      <c r="Q62" s="111"/>
+      <c r="R62" s="111"/>
+      <c r="S62" s="111"/>
+      <c r="T62" s="111"/>
+      <c r="U62" s="111"/>
+      <c r="V62" s="111"/>
+      <c r="W62" s="111"/>
+      <c r="X62" s="111"/>
+      <c r="Y62" s="111"/>
+      <c r="Z62" s="111"/>
+      <c r="AA62" s="111"/>
+      <c r="AB62" s="111"/>
+      <c r="AC62" s="111"/>
+      <c r="AD62" s="111"/>
+      <c r="AE62" s="111"/>
+      <c r="AF62" s="112"/>
+      <c r="AG62" s="95"/>
+      <c r="AH62" s="97"/>
+      <c r="AI62" s="99"/>
+      <c r="AJ62" s="99"/>
+      <c r="AK62" s="99"/>
+      <c r="AL62" s="99"/>
+      <c r="AM62" s="56"/>
+      <c r="AN62" s="101"/>
+      <c r="AO62" s="102"/>
+    </row>
+    <row r="63" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
+      <c r="G63" s="113"/>
+      <c r="H63" s="113"/>
+      <c r="I63" s="113"/>
+      <c r="J63" s="113"/>
+      <c r="K63" s="113"/>
+      <c r="L63" s="113"/>
+      <c r="M63" s="113"/>
+      <c r="N63" s="113"/>
+      <c r="O63" s="113"/>
+      <c r="P63" s="113"/>
+      <c r="Q63" s="113"/>
+      <c r="R63" s="113"/>
+      <c r="S63" s="113"/>
+      <c r="T63" s="113"/>
+      <c r="U63" s="113"/>
+      <c r="V63" s="113"/>
+      <c r="W63" s="113"/>
+      <c r="X63" s="113"/>
+      <c r="Y63" s="113"/>
+      <c r="Z63" s="113"/>
+      <c r="AA63" s="113"/>
+      <c r="AB63" s="113"/>
+      <c r="AC63" s="113"/>
+      <c r="AD63" s="113"/>
+      <c r="AE63" s="113"/>
+      <c r="AF63" s="114"/>
+      <c r="AG63" s="96"/>
+      <c r="AH63" s="98"/>
+      <c r="AI63" s="100"/>
+      <c r="AJ63" s="100"/>
+      <c r="AK63" s="100"/>
+      <c r="AL63" s="100"/>
+      <c r="AM63" s="55"/>
+      <c r="AN63" s="100"/>
+      <c r="AO63" s="103"/>
+    </row>
+    <row r="64" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="80"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="109"/>
+      <c r="L64" s="109"/>
+      <c r="M64" s="109"/>
+      <c r="N64" s="109"/>
+      <c r="O64" s="109"/>
+      <c r="P64" s="109"/>
+      <c r="Q64" s="109"/>
+      <c r="R64" s="109"/>
+      <c r="S64" s="109"/>
+      <c r="T64" s="109"/>
+      <c r="U64" s="109"/>
+      <c r="V64" s="109"/>
+      <c r="W64" s="109"/>
+      <c r="X64" s="109"/>
+      <c r="Y64" s="109"/>
+      <c r="Z64" s="109"/>
+      <c r="AA64" s="109"/>
+      <c r="AB64" s="109"/>
+      <c r="AC64" s="109"/>
+      <c r="AD64" s="109"/>
+      <c r="AE64" s="109"/>
+      <c r="AF64" s="109"/>
+      <c r="AG64" s="82"/>
+      <c r="AH64" s="104"/>
+      <c r="AI64" s="91"/>
+      <c r="AJ64" s="91"/>
+      <c r="AK64" s="91"/>
+      <c r="AL64" s="90"/>
+      <c r="AM64" s="90"/>
+      <c r="AN64" s="91"/>
+      <c r="AO64" s="93"/>
+    </row>
+    <row r="65" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="81"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="110"/>
+      <c r="G65" s="110"/>
+      <c r="H65" s="110"/>
+      <c r="I65" s="110"/>
+      <c r="J65" s="110"/>
+      <c r="K65" s="110"/>
+      <c r="L65" s="110"/>
+      <c r="M65" s="110"/>
+      <c r="N65" s="110"/>
+      <c r="O65" s="110"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="110"/>
+      <c r="R65" s="110"/>
+      <c r="S65" s="110"/>
+      <c r="T65" s="110"/>
+      <c r="U65" s="110"/>
+      <c r="V65" s="110"/>
+      <c r="W65" s="110"/>
+      <c r="X65" s="110"/>
+      <c r="Y65" s="110"/>
+      <c r="Z65" s="110"/>
+      <c r="AA65" s="110"/>
+      <c r="AB65" s="110"/>
+      <c r="AC65" s="110"/>
+      <c r="AD65" s="110"/>
+      <c r="AE65" s="110"/>
+      <c r="AF65" s="110"/>
+      <c r="AG65" s="83"/>
+      <c r="AH65" s="105"/>
+      <c r="AI65" s="92"/>
+      <c r="AJ65" s="92"/>
+      <c r="AK65" s="92"/>
+      <c r="AL65" s="87"/>
+      <c r="AM65" s="87"/>
+      <c r="AN65" s="92"/>
+      <c r="AO65" s="94"/>
+    </row>
+    <row r="66" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="111"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="111"/>
+      <c r="J66" s="111"/>
+      <c r="K66" s="111"/>
+      <c r="L66" s="111"/>
+      <c r="M66" s="111"/>
+      <c r="N66" s="111"/>
+      <c r="O66" s="111"/>
+      <c r="P66" s="111"/>
+      <c r="Q66" s="111"/>
+      <c r="R66" s="111"/>
+      <c r="S66" s="111"/>
+      <c r="T66" s="111"/>
+      <c r="U66" s="111"/>
+      <c r="V66" s="111"/>
+      <c r="W66" s="111"/>
+      <c r="X66" s="111"/>
+      <c r="Y66" s="111"/>
+      <c r="Z66" s="111"/>
+      <c r="AA66" s="111"/>
+      <c r="AB66" s="111"/>
+      <c r="AC66" s="111"/>
+      <c r="AD66" s="111"/>
+      <c r="AE66" s="111"/>
+      <c r="AF66" s="112"/>
+      <c r="AG66" s="95"/>
+      <c r="AH66" s="97"/>
+      <c r="AI66" s="99"/>
+      <c r="AJ66" s="99"/>
+      <c r="AK66" s="99"/>
+      <c r="AL66" s="99"/>
+      <c r="AM66" s="56"/>
+      <c r="AN66" s="101"/>
+      <c r="AO66" s="102"/>
+    </row>
+    <row r="67" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="113"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="113"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="113"/>
+      <c r="H67" s="113"/>
+      <c r="I67" s="113"/>
+      <c r="J67" s="113"/>
+      <c r="K67" s="113"/>
+      <c r="L67" s="113"/>
+      <c r="M67" s="113"/>
+      <c r="N67" s="113"/>
+      <c r="O67" s="113"/>
+      <c r="P67" s="113"/>
+      <c r="Q67" s="113"/>
+      <c r="R67" s="113"/>
+      <c r="S67" s="113"/>
+      <c r="T67" s="113"/>
+      <c r="U67" s="113"/>
+      <c r="V67" s="113"/>
+      <c r="W67" s="113"/>
+      <c r="X67" s="113"/>
+      <c r="Y67" s="113"/>
+      <c r="Z67" s="113"/>
+      <c r="AA67" s="113"/>
+      <c r="AB67" s="113"/>
+      <c r="AC67" s="113"/>
+      <c r="AD67" s="113"/>
+      <c r="AE67" s="113"/>
+      <c r="AF67" s="114"/>
+      <c r="AG67" s="96"/>
+      <c r="AH67" s="98"/>
+      <c r="AI67" s="100"/>
+      <c r="AJ67" s="100"/>
+      <c r="AK67" s="100"/>
+      <c r="AL67" s="100"/>
+      <c r="AM67" s="55"/>
+      <c r="AN67" s="100"/>
+      <c r="AO67" s="103"/>
+    </row>
+    <row r="68" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="80"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="109"/>
+      <c r="G68" s="109"/>
+      <c r="H68" s="109"/>
+      <c r="I68" s="109"/>
+      <c r="J68" s="109"/>
+      <c r="K68" s="109"/>
+      <c r="L68" s="109"/>
+      <c r="M68" s="109"/>
+      <c r="N68" s="109"/>
+      <c r="O68" s="109"/>
+      <c r="P68" s="109"/>
+      <c r="Q68" s="109"/>
+      <c r="R68" s="109"/>
+      <c r="S68" s="109"/>
+      <c r="T68" s="109"/>
+      <c r="U68" s="109"/>
+      <c r="V68" s="109"/>
+      <c r="W68" s="109"/>
+      <c r="X68" s="109"/>
+      <c r="Y68" s="109"/>
+      <c r="Z68" s="109"/>
+      <c r="AA68" s="109"/>
+      <c r="AB68" s="109"/>
+      <c r="AC68" s="109"/>
+      <c r="AD68" s="109"/>
+      <c r="AE68" s="109"/>
+      <c r="AF68" s="109"/>
+      <c r="AG68" s="82"/>
+      <c r="AH68" s="104"/>
+      <c r="AI68" s="91"/>
+      <c r="AJ68" s="91"/>
+      <c r="AK68" s="91"/>
+      <c r="AL68" s="90"/>
+      <c r="AM68" s="90"/>
+      <c r="AN68" s="91"/>
+      <c r="AO68" s="93"/>
+    </row>
+    <row r="69" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="81"/>
+      <c r="B69" s="110"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="110"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="110"/>
+      <c r="I69" s="110"/>
+      <c r="J69" s="110"/>
+      <c r="K69" s="110"/>
+      <c r="L69" s="110"/>
+      <c r="M69" s="110"/>
+      <c r="N69" s="110"/>
+      <c r="O69" s="110"/>
+      <c r="P69" s="110"/>
+      <c r="Q69" s="110"/>
+      <c r="R69" s="110"/>
+      <c r="S69" s="110"/>
+      <c r="T69" s="110"/>
+      <c r="U69" s="110"/>
+      <c r="V69" s="110"/>
+      <c r="W69" s="110"/>
+      <c r="X69" s="110"/>
+      <c r="Y69" s="110"/>
+      <c r="Z69" s="110"/>
+      <c r="AA69" s="110"/>
+      <c r="AB69" s="110"/>
+      <c r="AC69" s="110"/>
+      <c r="AD69" s="110"/>
+      <c r="AE69" s="110"/>
+      <c r="AF69" s="110"/>
+      <c r="AG69" s="83"/>
+      <c r="AH69" s="105"/>
+      <c r="AI69" s="92"/>
+      <c r="AJ69" s="92"/>
+      <c r="AK69" s="92"/>
+      <c r="AL69" s="87"/>
+      <c r="AM69" s="87"/>
+      <c r="AN69" s="92"/>
+      <c r="AO69" s="94"/>
+    </row>
+    <row r="70" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="111"/>
+      <c r="C70" s="111"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="111"/>
+      <c r="F70" s="111"/>
+      <c r="G70" s="111"/>
+      <c r="H70" s="111"/>
+      <c r="I70" s="111"/>
+      <c r="J70" s="111"/>
+      <c r="K70" s="111"/>
+      <c r="L70" s="111"/>
+      <c r="M70" s="111"/>
+      <c r="N70" s="111"/>
+      <c r="O70" s="111"/>
+      <c r="P70" s="111"/>
+      <c r="Q70" s="111"/>
+      <c r="R70" s="111"/>
+      <c r="S70" s="111"/>
+      <c r="T70" s="111"/>
+      <c r="U70" s="111"/>
+      <c r="V70" s="111"/>
+      <c r="W70" s="111"/>
+      <c r="X70" s="111"/>
+      <c r="Y70" s="111"/>
+      <c r="Z70" s="111"/>
+      <c r="AA70" s="111"/>
+      <c r="AB70" s="111"/>
+      <c r="AC70" s="111"/>
+      <c r="AD70" s="111"/>
+      <c r="AE70" s="111"/>
+      <c r="AF70" s="112"/>
+      <c r="AG70" s="95"/>
+      <c r="AH70" s="97"/>
+      <c r="AI70" s="99"/>
+      <c r="AJ70" s="99"/>
+      <c r="AK70" s="99"/>
+      <c r="AL70" s="99"/>
+      <c r="AM70" s="56"/>
+      <c r="AN70" s="101"/>
+      <c r="AO70" s="102"/>
+    </row>
+    <row r="71" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="113"/>
+      <c r="C71" s="113"/>
+      <c r="D71" s="113"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="113"/>
+      <c r="H71" s="113"/>
+      <c r="I71" s="113"/>
+      <c r="J71" s="113"/>
+      <c r="K71" s="113"/>
+      <c r="L71" s="113"/>
+      <c r="M71" s="113"/>
+      <c r="N71" s="113"/>
+      <c r="O71" s="113"/>
+      <c r="P71" s="113"/>
+      <c r="Q71" s="113"/>
+      <c r="R71" s="113"/>
+      <c r="S71" s="113"/>
+      <c r="T71" s="113"/>
+      <c r="U71" s="113"/>
+      <c r="V71" s="113"/>
+      <c r="W71" s="113"/>
+      <c r="X71" s="113"/>
+      <c r="Y71" s="113"/>
+      <c r="Z71" s="113"/>
+      <c r="AA71" s="113"/>
+      <c r="AB71" s="113"/>
+      <c r="AC71" s="113"/>
+      <c r="AD71" s="113"/>
+      <c r="AE71" s="113"/>
+      <c r="AF71" s="114"/>
+      <c r="AG71" s="96"/>
+      <c r="AH71" s="98"/>
+      <c r="AI71" s="100"/>
+      <c r="AJ71" s="100"/>
+      <c r="AK71" s="100"/>
+      <c r="AL71" s="100"/>
+      <c r="AM71" s="55"/>
+      <c r="AN71" s="100"/>
+      <c r="AO71" s="103"/>
+    </row>
+    <row r="72" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="80"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="109"/>
+      <c r="F72" s="109"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="109"/>
+      <c r="J72" s="109"/>
+      <c r="K72" s="109"/>
+      <c r="L72" s="109"/>
+      <c r="M72" s="109"/>
+      <c r="N72" s="109"/>
+      <c r="O72" s="109"/>
+      <c r="P72" s="109"/>
+      <c r="Q72" s="109"/>
+      <c r="R72" s="109"/>
+      <c r="S72" s="109"/>
+      <c r="T72" s="109"/>
+      <c r="U72" s="109"/>
+      <c r="V72" s="109"/>
+      <c r="W72" s="109"/>
+      <c r="X72" s="109"/>
+      <c r="Y72" s="109"/>
+      <c r="Z72" s="109"/>
+      <c r="AA72" s="109"/>
+      <c r="AB72" s="109"/>
+      <c r="AC72" s="109"/>
+      <c r="AD72" s="109"/>
+      <c r="AE72" s="109"/>
+      <c r="AF72" s="109"/>
+      <c r="AG72" s="82"/>
+      <c r="AH72" s="104"/>
+      <c r="AI72" s="91"/>
+      <c r="AJ72" s="91"/>
+      <c r="AK72" s="91"/>
+      <c r="AL72" s="90"/>
+      <c r="AM72" s="90"/>
+      <c r="AN72" s="91"/>
+      <c r="AO72" s="93"/>
+    </row>
+    <row r="73" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="81"/>
+      <c r="B73" s="110"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="110"/>
+      <c r="F73" s="110"/>
+      <c r="G73" s="110"/>
+      <c r="H73" s="110"/>
+      <c r="I73" s="110"/>
+      <c r="J73" s="110"/>
+      <c r="K73" s="110"/>
+      <c r="L73" s="110"/>
+      <c r="M73" s="110"/>
+      <c r="N73" s="110"/>
+      <c r="O73" s="110"/>
+      <c r="P73" s="110"/>
+      <c r="Q73" s="110"/>
+      <c r="R73" s="110"/>
+      <c r="S73" s="110"/>
+      <c r="T73" s="110"/>
+      <c r="U73" s="110"/>
+      <c r="V73" s="110"/>
+      <c r="W73" s="110"/>
+      <c r="X73" s="110"/>
+      <c r="Y73" s="110"/>
+      <c r="Z73" s="110"/>
+      <c r="AA73" s="110"/>
+      <c r="AB73" s="110"/>
+      <c r="AC73" s="110"/>
+      <c r="AD73" s="110"/>
+      <c r="AE73" s="110"/>
+      <c r="AF73" s="110"/>
+      <c r="AG73" s="83"/>
+      <c r="AH73" s="105"/>
+      <c r="AI73" s="92"/>
+      <c r="AJ73" s="92"/>
+      <c r="AK73" s="92"/>
+      <c r="AL73" s="87"/>
+      <c r="AM73" s="87"/>
+      <c r="AN73" s="92"/>
+      <c r="AO73" s="94"/>
+    </row>
+    <row r="74" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="111"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="111"/>
+      <c r="G74" s="111"/>
+      <c r="H74" s="111"/>
+      <c r="I74" s="111"/>
+      <c r="J74" s="111"/>
+      <c r="K74" s="111"/>
+      <c r="L74" s="111"/>
+      <c r="M74" s="111"/>
+      <c r="N74" s="111"/>
+      <c r="O74" s="111"/>
+      <c r="P74" s="111"/>
+      <c r="Q74" s="111"/>
+      <c r="R74" s="111"/>
+      <c r="S74" s="111"/>
+      <c r="T74" s="111"/>
+      <c r="U74" s="111"/>
+      <c r="V74" s="111"/>
+      <c r="W74" s="111"/>
+      <c r="X74" s="111"/>
+      <c r="Y74" s="111"/>
+      <c r="Z74" s="111"/>
+      <c r="AA74" s="111"/>
+      <c r="AB74" s="111"/>
+      <c r="AC74" s="111"/>
+      <c r="AD74" s="111"/>
+      <c r="AE74" s="111"/>
+      <c r="AF74" s="112"/>
+      <c r="AG74" s="95"/>
+      <c r="AH74" s="97"/>
+      <c r="AI74" s="99"/>
+      <c r="AJ74" s="99"/>
+      <c r="AK74" s="99"/>
+      <c r="AL74" s="99"/>
+      <c r="AM74" s="56"/>
+      <c r="AN74" s="101"/>
+      <c r="AO74" s="102"/>
+    </row>
+    <row r="75" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="113"/>
+      <c r="C75" s="113"/>
+      <c r="D75" s="113"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="113"/>
+      <c r="G75" s="113"/>
+      <c r="H75" s="113"/>
+      <c r="I75" s="113"/>
+      <c r="J75" s="113"/>
+      <c r="K75" s="113"/>
+      <c r="L75" s="113"/>
+      <c r="M75" s="113"/>
+      <c r="N75" s="113"/>
+      <c r="O75" s="113"/>
+      <c r="P75" s="113"/>
+      <c r="Q75" s="113"/>
+      <c r="R75" s="113"/>
+      <c r="S75" s="113"/>
+      <c r="T75" s="113"/>
+      <c r="U75" s="113"/>
+      <c r="V75" s="113"/>
+      <c r="W75" s="113"/>
+      <c r="X75" s="113"/>
+      <c r="Y75" s="113"/>
+      <c r="Z75" s="113"/>
+      <c r="AA75" s="113"/>
+      <c r="AB75" s="113"/>
+      <c r="AC75" s="113"/>
+      <c r="AD75" s="113"/>
+      <c r="AE75" s="113"/>
+      <c r="AF75" s="114"/>
+      <c r="AG75" s="96"/>
+      <c r="AH75" s="98"/>
+      <c r="AI75" s="100"/>
+      <c r="AJ75" s="100"/>
+      <c r="AK75" s="100"/>
+      <c r="AL75" s="100"/>
+      <c r="AM75" s="55"/>
+      <c r="AN75" s="100"/>
+      <c r="AO75" s="103"/>
+    </row>
+    <row r="76" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="80"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="109"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="109"/>
+      <c r="K76" s="109"/>
+      <c r="L76" s="109"/>
+      <c r="M76" s="109"/>
+      <c r="N76" s="109"/>
+      <c r="O76" s="109"/>
+      <c r="P76" s="109"/>
+      <c r="Q76" s="109"/>
+      <c r="R76" s="109"/>
+      <c r="S76" s="109"/>
+      <c r="T76" s="109"/>
+      <c r="U76" s="109"/>
+      <c r="V76" s="109"/>
+      <c r="W76" s="109"/>
+      <c r="X76" s="109"/>
+      <c r="Y76" s="109"/>
+      <c r="Z76" s="109"/>
+      <c r="AA76" s="109"/>
+      <c r="AB76" s="109"/>
+      <c r="AC76" s="109"/>
+      <c r="AD76" s="109"/>
+      <c r="AE76" s="109"/>
+      <c r="AF76" s="109"/>
+      <c r="AG76" s="82"/>
+      <c r="AH76" s="104"/>
+      <c r="AI76" s="91"/>
+      <c r="AJ76" s="91"/>
+      <c r="AK76" s="91"/>
+      <c r="AL76" s="90"/>
+      <c r="AM76" s="90"/>
+      <c r="AN76" s="91"/>
+      <c r="AO76" s="93"/>
+    </row>
+    <row r="77" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="81"/>
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="110"/>
+      <c r="F77" s="110"/>
+      <c r="G77" s="110"/>
+      <c r="H77" s="110"/>
+      <c r="I77" s="110"/>
+      <c r="J77" s="110"/>
+      <c r="K77" s="110"/>
+      <c r="L77" s="110"/>
+      <c r="M77" s="110"/>
+      <c r="N77" s="110"/>
+      <c r="O77" s="110"/>
+      <c r="P77" s="110"/>
+      <c r="Q77" s="110"/>
+      <c r="R77" s="110"/>
+      <c r="S77" s="110"/>
+      <c r="T77" s="110"/>
+      <c r="U77" s="110"/>
+      <c r="V77" s="110"/>
+      <c r="W77" s="110"/>
+      <c r="X77" s="110"/>
+      <c r="Y77" s="110"/>
+      <c r="Z77" s="110"/>
+      <c r="AA77" s="110"/>
+      <c r="AB77" s="110"/>
+      <c r="AC77" s="110"/>
+      <c r="AD77" s="110"/>
+      <c r="AE77" s="110"/>
+      <c r="AF77" s="110"/>
+      <c r="AG77" s="83"/>
+      <c r="AH77" s="105"/>
+      <c r="AI77" s="92"/>
+      <c r="AJ77" s="92"/>
+      <c r="AK77" s="92"/>
+      <c r="AL77" s="87"/>
+      <c r="AM77" s="87"/>
+      <c r="AN77" s="92"/>
+      <c r="AO77" s="94"/>
+    </row>
+    <row r="78" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="111"/>
+      <c r="F78" s="111"/>
+      <c r="G78" s="111"/>
+      <c r="H78" s="111"/>
+      <c r="I78" s="111"/>
+      <c r="J78" s="111"/>
+      <c r="K78" s="111"/>
+      <c r="L78" s="111"/>
+      <c r="M78" s="111"/>
+      <c r="N78" s="111"/>
+      <c r="O78" s="111"/>
+      <c r="P78" s="111"/>
+      <c r="Q78" s="111"/>
+      <c r="R78" s="111"/>
+      <c r="S78" s="111"/>
+      <c r="T78" s="111"/>
+      <c r="U78" s="111"/>
+      <c r="V78" s="111"/>
+      <c r="W78" s="111"/>
+      <c r="X78" s="111"/>
+      <c r="Y78" s="111"/>
+      <c r="Z78" s="111"/>
+      <c r="AA78" s="111"/>
+      <c r="AB78" s="111"/>
+      <c r="AC78" s="111"/>
+      <c r="AD78" s="111"/>
+      <c r="AE78" s="111"/>
+      <c r="AF78" s="112"/>
+      <c r="AG78" s="95"/>
+      <c r="AH78" s="97"/>
+      <c r="AI78" s="99"/>
+      <c r="AJ78" s="99"/>
+      <c r="AK78" s="99"/>
+      <c r="AL78" s="99"/>
+      <c r="AM78" s="56"/>
+      <c r="AN78" s="101"/>
+      <c r="AO78" s="102"/>
+    </row>
+    <row r="79" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="113"/>
+      <c r="C79" s="113"/>
+      <c r="D79" s="113"/>
+      <c r="E79" s="113"/>
+      <c r="F79" s="113"/>
+      <c r="G79" s="113"/>
+      <c r="H79" s="113"/>
+      <c r="I79" s="113"/>
+      <c r="J79" s="113"/>
+      <c r="K79" s="113"/>
+      <c r="L79" s="113"/>
+      <c r="M79" s="113"/>
+      <c r="N79" s="113"/>
+      <c r="O79" s="113"/>
+      <c r="P79" s="113"/>
+      <c r="Q79" s="113"/>
+      <c r="R79" s="113"/>
+      <c r="S79" s="113"/>
+      <c r="T79" s="113"/>
+      <c r="U79" s="113"/>
+      <c r="V79" s="113"/>
+      <c r="W79" s="113"/>
+      <c r="X79" s="113"/>
+      <c r="Y79" s="113"/>
+      <c r="Z79" s="113"/>
+      <c r="AA79" s="113"/>
+      <c r="AB79" s="113"/>
+      <c r="AC79" s="113"/>
+      <c r="AD79" s="113"/>
+      <c r="AE79" s="113"/>
+      <c r="AF79" s="114"/>
+      <c r="AG79" s="96"/>
+      <c r="AH79" s="98"/>
+      <c r="AI79" s="100"/>
+      <c r="AJ79" s="100"/>
+      <c r="AK79" s="100"/>
+      <c r="AL79" s="100"/>
+      <c r="AM79" s="55"/>
+      <c r="AN79" s="100"/>
+      <c r="AO79" s="103"/>
+    </row>
+    <row r="80" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="80"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="109"/>
+      <c r="D80" s="109"/>
+      <c r="E80" s="109"/>
+      <c r="F80" s="109"/>
+      <c r="G80" s="109"/>
+      <c r="H80" s="109"/>
+      <c r="I80" s="109"/>
+      <c r="J80" s="109"/>
+      <c r="K80" s="109"/>
+      <c r="L80" s="109"/>
+      <c r="M80" s="109"/>
+      <c r="N80" s="109"/>
+      <c r="O80" s="109"/>
+      <c r="P80" s="109"/>
+      <c r="Q80" s="109"/>
+      <c r="R80" s="109"/>
+      <c r="S80" s="109"/>
+      <c r="T80" s="109"/>
+      <c r="U80" s="109"/>
+      <c r="V80" s="109"/>
+      <c r="W80" s="109"/>
+      <c r="X80" s="109"/>
+      <c r="Y80" s="109"/>
+      <c r="Z80" s="109"/>
+      <c r="AA80" s="109"/>
+      <c r="AB80" s="109"/>
+      <c r="AC80" s="109"/>
+      <c r="AD80" s="109"/>
+      <c r="AE80" s="109"/>
+      <c r="AF80" s="109"/>
+      <c r="AG80" s="82"/>
+      <c r="AH80" s="104"/>
+      <c r="AI80" s="91"/>
+      <c r="AJ80" s="91"/>
+      <c r="AK80" s="91"/>
+      <c r="AL80" s="90"/>
+      <c r="AM80" s="90"/>
+      <c r="AN80" s="91"/>
+      <c r="AO80" s="93"/>
+    </row>
+    <row r="81" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="81"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="110"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="110"/>
+      <c r="F81" s="110"/>
+      <c r="G81" s="110"/>
+      <c r="H81" s="110"/>
+      <c r="I81" s="110"/>
+      <c r="J81" s="110"/>
+      <c r="K81" s="110"/>
+      <c r="L81" s="110"/>
+      <c r="M81" s="110"/>
+      <c r="N81" s="110"/>
+      <c r="O81" s="110"/>
+      <c r="P81" s="110"/>
+      <c r="Q81" s="110"/>
+      <c r="R81" s="110"/>
+      <c r="S81" s="110"/>
+      <c r="T81" s="110"/>
+      <c r="U81" s="110"/>
+      <c r="V81" s="110"/>
+      <c r="W81" s="110"/>
+      <c r="X81" s="110"/>
+      <c r="Y81" s="110"/>
+      <c r="Z81" s="110"/>
+      <c r="AA81" s="110"/>
+      <c r="AB81" s="110"/>
+      <c r="AC81" s="110"/>
+      <c r="AD81" s="110"/>
+      <c r="AE81" s="110"/>
+      <c r="AF81" s="110"/>
+      <c r="AG81" s="83"/>
+      <c r="AH81" s="105"/>
+      <c r="AI81" s="92"/>
+      <c r="AJ81" s="92"/>
+      <c r="AK81" s="92"/>
+      <c r="AL81" s="87"/>
+      <c r="AM81" s="87"/>
+      <c r="AN81" s="92"/>
+      <c r="AO81" s="94"/>
+    </row>
+    <row r="82" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="111"/>
+      <c r="I82" s="111"/>
+      <c r="J82" s="111"/>
+      <c r="K82" s="111"/>
+      <c r="L82" s="111"/>
+      <c r="M82" s="111"/>
+      <c r="N82" s="111"/>
+      <c r="O82" s="111"/>
+      <c r="P82" s="111"/>
+      <c r="Q82" s="111"/>
+      <c r="R82" s="111"/>
+      <c r="S82" s="111"/>
+      <c r="T82" s="111"/>
+      <c r="U82" s="111"/>
+      <c r="V82" s="111"/>
+      <c r="W82" s="111"/>
+      <c r="X82" s="111"/>
+      <c r="Y82" s="111"/>
+      <c r="Z82" s="111"/>
+      <c r="AA82" s="111"/>
+      <c r="AB82" s="111"/>
+      <c r="AC82" s="111"/>
+      <c r="AD82" s="111"/>
+      <c r="AE82" s="111"/>
+      <c r="AF82" s="112"/>
+      <c r="AG82" s="95"/>
+      <c r="AH82" s="97"/>
+      <c r="AI82" s="99"/>
+      <c r="AJ82" s="99"/>
+      <c r="AK82" s="99"/>
+      <c r="AL82" s="99"/>
+      <c r="AM82" s="56"/>
+      <c r="AN82" s="101"/>
+      <c r="AO82" s="102"/>
+    </row>
+    <row r="83" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="113"/>
+      <c r="C83" s="113"/>
+      <c r="D83" s="113"/>
+      <c r="E83" s="113"/>
+      <c r="F83" s="113"/>
+      <c r="G83" s="113"/>
+      <c r="H83" s="113"/>
+      <c r="I83" s="113"/>
+      <c r="J83" s="113"/>
+      <c r="K83" s="113"/>
+      <c r="L83" s="113"/>
+      <c r="M83" s="113"/>
+      <c r="N83" s="113"/>
+      <c r="O83" s="113"/>
+      <c r="P83" s="113"/>
+      <c r="Q83" s="113"/>
+      <c r="R83" s="113"/>
+      <c r="S83" s="113"/>
+      <c r="T83" s="113"/>
+      <c r="U83" s="113"/>
+      <c r="V83" s="113"/>
+      <c r="W83" s="113"/>
+      <c r="X83" s="113"/>
+      <c r="Y83" s="113"/>
+      <c r="Z83" s="113"/>
+      <c r="AA83" s="113"/>
+      <c r="AB83" s="113"/>
+      <c r="AC83" s="113"/>
+      <c r="AD83" s="113"/>
+      <c r="AE83" s="113"/>
+      <c r="AF83" s="114"/>
+      <c r="AG83" s="96"/>
+      <c r="AH83" s="98"/>
+      <c r="AI83" s="100"/>
+      <c r="AJ83" s="100"/>
+      <c r="AK83" s="100"/>
+      <c r="AL83" s="100"/>
+      <c r="AM83" s="55"/>
+      <c r="AN83" s="100"/>
+      <c r="AO83" s="103"/>
+    </row>
+    <row r="84" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="80"/>
+      <c r="B84" s="109"/>
+      <c r="C84" s="109"/>
+      <c r="D84" s="109"/>
+      <c r="E84" s="109"/>
+      <c r="F84" s="109"/>
+      <c r="G84" s="109"/>
+      <c r="H84" s="109"/>
+      <c r="I84" s="109"/>
+      <c r="J84" s="109"/>
+      <c r="K84" s="109"/>
+      <c r="L84" s="109"/>
+      <c r="M84" s="109"/>
+      <c r="N84" s="109"/>
+      <c r="O84" s="109"/>
+      <c r="P84" s="109"/>
+      <c r="Q84" s="109"/>
+      <c r="R84" s="109"/>
+      <c r="S84" s="109"/>
+      <c r="T84" s="109"/>
+      <c r="U84" s="109"/>
+      <c r="V84" s="109"/>
+      <c r="W84" s="109"/>
+      <c r="X84" s="109"/>
+      <c r="Y84" s="109"/>
+      <c r="Z84" s="109"/>
+      <c r="AA84" s="109"/>
+      <c r="AB84" s="109"/>
+      <c r="AC84" s="109"/>
+      <c r="AD84" s="109"/>
+      <c r="AE84" s="109"/>
+      <c r="AF84" s="109"/>
+      <c r="AG84" s="82"/>
+      <c r="AH84" s="104"/>
+      <c r="AI84" s="91"/>
+      <c r="AJ84" s="91"/>
+      <c r="AK84" s="91"/>
+      <c r="AL84" s="90"/>
+      <c r="AM84" s="90"/>
+      <c r="AN84" s="91"/>
+      <c r="AO84" s="93"/>
+    </row>
+    <row r="85" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="81"/>
+      <c r="B85" s="110"/>
+      <c r="C85" s="110"/>
+      <c r="D85" s="110"/>
+      <c r="E85" s="110"/>
+      <c r="F85" s="110"/>
+      <c r="G85" s="110"/>
+      <c r="H85" s="110"/>
+      <c r="I85" s="110"/>
+      <c r="J85" s="110"/>
+      <c r="K85" s="110"/>
+      <c r="L85" s="110"/>
+      <c r="M85" s="110"/>
+      <c r="N85" s="110"/>
+      <c r="O85" s="110"/>
+      <c r="P85" s="110"/>
+      <c r="Q85" s="110"/>
+      <c r="R85" s="110"/>
+      <c r="S85" s="110"/>
+      <c r="T85" s="110"/>
+      <c r="U85" s="110"/>
+      <c r="V85" s="110"/>
+      <c r="W85" s="110"/>
+      <c r="X85" s="110"/>
+      <c r="Y85" s="110"/>
+      <c r="Z85" s="110"/>
+      <c r="AA85" s="110"/>
+      <c r="AB85" s="110"/>
+      <c r="AC85" s="110"/>
+      <c r="AD85" s="110"/>
+      <c r="AE85" s="110"/>
+      <c r="AF85" s="110"/>
+      <c r="AG85" s="83"/>
+      <c r="AH85" s="105"/>
+      <c r="AI85" s="92"/>
+      <c r="AJ85" s="92"/>
+      <c r="AK85" s="92"/>
+      <c r="AL85" s="87"/>
+      <c r="AM85" s="87"/>
+      <c r="AN85" s="92"/>
+      <c r="AO85" s="94"/>
+    </row>
+    <row r="86" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="111"/>
+      <c r="C86" s="111"/>
+      <c r="D86" s="111"/>
+      <c r="E86" s="111"/>
+      <c r="F86" s="111"/>
+      <c r="G86" s="111"/>
+      <c r="H86" s="111"/>
+      <c r="I86" s="111"/>
+      <c r="J86" s="111"/>
+      <c r="K86" s="111"/>
+      <c r="L86" s="111"/>
+      <c r="M86" s="111"/>
+      <c r="N86" s="111"/>
+      <c r="O86" s="111"/>
+      <c r="P86" s="111"/>
+      <c r="Q86" s="111"/>
+      <c r="R86" s="111"/>
+      <c r="S86" s="111"/>
+      <c r="T86" s="111"/>
+      <c r="U86" s="111"/>
+      <c r="V86" s="111"/>
+      <c r="W86" s="111"/>
+      <c r="X86" s="111"/>
+      <c r="Y86" s="111"/>
+      <c r="Z86" s="111"/>
+      <c r="AA86" s="111"/>
+      <c r="AB86" s="111"/>
+      <c r="AC86" s="111"/>
+      <c r="AD86" s="111"/>
+      <c r="AE86" s="111"/>
+      <c r="AF86" s="112"/>
+      <c r="AG86" s="95"/>
+      <c r="AH86" s="97"/>
+      <c r="AI86" s="99"/>
+      <c r="AJ86" s="99"/>
+      <c r="AK86" s="99"/>
+      <c r="AL86" s="99"/>
+      <c r="AM86" s="56"/>
+      <c r="AN86" s="101"/>
+      <c r="AO86" s="102"/>
+    </row>
+    <row r="87" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="113"/>
+      <c r="C87" s="113"/>
+      <c r="D87" s="113"/>
+      <c r="E87" s="113"/>
+      <c r="F87" s="113"/>
+      <c r="G87" s="113"/>
+      <c r="H87" s="113"/>
+      <c r="I87" s="113"/>
+      <c r="J87" s="113"/>
+      <c r="K87" s="113"/>
+      <c r="L87" s="113"/>
+      <c r="M87" s="113"/>
+      <c r="N87" s="113"/>
+      <c r="O87" s="113"/>
+      <c r="P87" s="113"/>
+      <c r="Q87" s="113"/>
+      <c r="R87" s="113"/>
+      <c r="S87" s="113"/>
+      <c r="T87" s="113"/>
+      <c r="U87" s="113"/>
+      <c r="V87" s="113"/>
+      <c r="W87" s="113"/>
+      <c r="X87" s="113"/>
+      <c r="Y87" s="113"/>
+      <c r="Z87" s="113"/>
+      <c r="AA87" s="113"/>
+      <c r="AB87" s="113"/>
+      <c r="AC87" s="113"/>
+      <c r="AD87" s="113"/>
+      <c r="AE87" s="113"/>
+      <c r="AF87" s="114"/>
+      <c r="AG87" s="96"/>
+      <c r="AH87" s="98"/>
+      <c r="AI87" s="100"/>
+      <c r="AJ87" s="100"/>
+      <c r="AK87" s="100"/>
+      <c r="AL87" s="100"/>
+      <c r="AM87" s="55"/>
+      <c r="AN87" s="100"/>
+      <c r="AO87" s="103"/>
+    </row>
+    <row r="88" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="80"/>
+      <c r="B88" s="109"/>
+      <c r="C88" s="109"/>
+      <c r="D88" s="109"/>
+      <c r="E88" s="109"/>
+      <c r="F88" s="109"/>
+      <c r="G88" s="109"/>
+      <c r="H88" s="109"/>
+      <c r="I88" s="109"/>
+      <c r="J88" s="109"/>
+      <c r="K88" s="109"/>
+      <c r="L88" s="109"/>
+      <c r="M88" s="109"/>
+      <c r="N88" s="109"/>
+      <c r="O88" s="109"/>
+      <c r="P88" s="109"/>
+      <c r="Q88" s="109"/>
+      <c r="R88" s="109"/>
+      <c r="S88" s="109"/>
+      <c r="T88" s="109"/>
+      <c r="U88" s="109"/>
+      <c r="V88" s="109"/>
+      <c r="W88" s="109"/>
+      <c r="X88" s="109"/>
+      <c r="Y88" s="109"/>
+      <c r="Z88" s="109"/>
+      <c r="AA88" s="109"/>
+      <c r="AB88" s="109"/>
+      <c r="AC88" s="109"/>
+      <c r="AD88" s="109"/>
+      <c r="AE88" s="109"/>
+      <c r="AF88" s="109"/>
+      <c r="AG88" s="82"/>
+      <c r="AH88" s="104"/>
+      <c r="AI88" s="91"/>
+      <c r="AJ88" s="91"/>
+      <c r="AK88" s="91"/>
+      <c r="AL88" s="90"/>
+      <c r="AM88" s="90"/>
+      <c r="AN88" s="91"/>
+      <c r="AO88" s="93"/>
+    </row>
+    <row r="89" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="81"/>
+      <c r="B89" s="110"/>
+      <c r="C89" s="110"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="110"/>
+      <c r="F89" s="110"/>
+      <c r="G89" s="110"/>
+      <c r="H89" s="110"/>
+      <c r="I89" s="110"/>
+      <c r="J89" s="110"/>
+      <c r="K89" s="110"/>
+      <c r="L89" s="110"/>
+      <c r="M89" s="110"/>
+      <c r="N89" s="110"/>
+      <c r="O89" s="110"/>
+      <c r="P89" s="110"/>
+      <c r="Q89" s="110"/>
+      <c r="R89" s="110"/>
+      <c r="S89" s="110"/>
+      <c r="T89" s="110"/>
+      <c r="U89" s="110"/>
+      <c r="V89" s="110"/>
+      <c r="W89" s="110"/>
+      <c r="X89" s="110"/>
+      <c r="Y89" s="110"/>
+      <c r="Z89" s="110"/>
+      <c r="AA89" s="110"/>
+      <c r="AB89" s="110"/>
+      <c r="AC89" s="110"/>
+      <c r="AD89" s="110"/>
+      <c r="AE89" s="110"/>
+      <c r="AF89" s="110"/>
+      <c r="AG89" s="83"/>
+      <c r="AH89" s="105"/>
+      <c r="AI89" s="92"/>
+      <c r="AJ89" s="92"/>
+      <c r="AK89" s="92"/>
+      <c r="AL89" s="87"/>
+      <c r="AM89" s="87"/>
+      <c r="AN89" s="92"/>
+      <c r="AO89" s="94"/>
+    </row>
+    <row r="90" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="111"/>
+      <c r="C90" s="111"/>
+      <c r="D90" s="111"/>
+      <c r="E90" s="111"/>
+      <c r="F90" s="111"/>
+      <c r="G90" s="111"/>
+      <c r="H90" s="111"/>
+      <c r="I90" s="111"/>
+      <c r="J90" s="111"/>
+      <c r="K90" s="111"/>
+      <c r="L90" s="111"/>
+      <c r="M90" s="111"/>
+      <c r="N90" s="111"/>
+      <c r="O90" s="111"/>
+      <c r="P90" s="111"/>
+      <c r="Q90" s="111"/>
+      <c r="R90" s="111"/>
+      <c r="S90" s="111"/>
+      <c r="T90" s="111"/>
+      <c r="U90" s="111"/>
+      <c r="V90" s="111"/>
+      <c r="W90" s="111"/>
+      <c r="X90" s="111"/>
+      <c r="Y90" s="111"/>
+      <c r="Z90" s="111"/>
+      <c r="AA90" s="111"/>
+      <c r="AB90" s="111"/>
+      <c r="AC90" s="111"/>
+      <c r="AD90" s="111"/>
+      <c r="AE90" s="111"/>
+      <c r="AF90" s="112"/>
+      <c r="AG90" s="95"/>
+      <c r="AH90" s="97"/>
+      <c r="AI90" s="99"/>
+      <c r="AJ90" s="99"/>
+      <c r="AK90" s="99"/>
+      <c r="AL90" s="99"/>
+      <c r="AM90" s="56"/>
+      <c r="AN90" s="101"/>
+      <c r="AO90" s="102"/>
+    </row>
+    <row r="91" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
+      <c r="G91" s="113"/>
+      <c r="H91" s="113"/>
+      <c r="I91" s="113"/>
+      <c r="J91" s="113"/>
+      <c r="K91" s="113"/>
+      <c r="L91" s="113"/>
+      <c r="M91" s="113"/>
+      <c r="N91" s="113"/>
+      <c r="O91" s="113"/>
+      <c r="P91" s="113"/>
+      <c r="Q91" s="113"/>
+      <c r="R91" s="113"/>
+      <c r="S91" s="113"/>
+      <c r="T91" s="113"/>
+      <c r="U91" s="113"/>
+      <c r="V91" s="113"/>
+      <c r="W91" s="113"/>
+      <c r="X91" s="113"/>
+      <c r="Y91" s="113"/>
+      <c r="Z91" s="113"/>
+      <c r="AA91" s="113"/>
+      <c r="AB91" s="113"/>
+      <c r="AC91" s="113"/>
+      <c r="AD91" s="113"/>
+      <c r="AE91" s="113"/>
+      <c r="AF91" s="114"/>
+      <c r="AG91" s="96"/>
+      <c r="AH91" s="98"/>
+      <c r="AI91" s="100"/>
+      <c r="AJ91" s="100"/>
+      <c r="AK91" s="100"/>
+      <c r="AL91" s="100"/>
+      <c r="AM91" s="55"/>
+      <c r="AN91" s="100"/>
+      <c r="AO91" s="103"/>
+    </row>
+    <row r="92" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="80"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="109"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="109"/>
+      <c r="F92" s="109"/>
+      <c r="G92" s="109"/>
+      <c r="H92" s="109"/>
+      <c r="I92" s="109"/>
+      <c r="J92" s="109"/>
+      <c r="K92" s="109"/>
+      <c r="L92" s="109"/>
+      <c r="M92" s="109"/>
+      <c r="N92" s="109"/>
+      <c r="O92" s="109"/>
+      <c r="P92" s="109"/>
+      <c r="Q92" s="109"/>
+      <c r="R92" s="109"/>
+      <c r="S92" s="109"/>
+      <c r="T92" s="109"/>
+      <c r="U92" s="109"/>
+      <c r="V92" s="109"/>
+      <c r="W92" s="109"/>
+      <c r="X92" s="109"/>
+      <c r="Y92" s="109"/>
+      <c r="Z92" s="109"/>
+      <c r="AA92" s="109"/>
+      <c r="AB92" s="109"/>
+      <c r="AC92" s="109"/>
+      <c r="AD92" s="109"/>
+      <c r="AE92" s="109"/>
+      <c r="AF92" s="109"/>
+      <c r="AG92" s="82"/>
+      <c r="AH92" s="104"/>
+      <c r="AI92" s="91"/>
+      <c r="AJ92" s="91"/>
+      <c r="AK92" s="91"/>
+      <c r="AL92" s="90"/>
+      <c r="AM92" s="90"/>
+      <c r="AN92" s="91"/>
+      <c r="AO92" s="93"/>
+    </row>
+    <row r="93" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="81"/>
+      <c r="B93" s="110"/>
+      <c r="C93" s="110"/>
+      <c r="D93" s="110"/>
+      <c r="E93" s="110"/>
+      <c r="F93" s="110"/>
+      <c r="G93" s="110"/>
+      <c r="H93" s="110"/>
+      <c r="I93" s="110"/>
+      <c r="J93" s="110"/>
+      <c r="K93" s="110"/>
+      <c r="L93" s="110"/>
+      <c r="M93" s="110"/>
+      <c r="N93" s="110"/>
+      <c r="O93" s="110"/>
+      <c r="P93" s="110"/>
+      <c r="Q93" s="110"/>
+      <c r="R93" s="110"/>
+      <c r="S93" s="110"/>
+      <c r="T93" s="110"/>
+      <c r="U93" s="110"/>
+      <c r="V93" s="110"/>
+      <c r="W93" s="110"/>
+      <c r="X93" s="110"/>
+      <c r="Y93" s="110"/>
+      <c r="Z93" s="110"/>
+      <c r="AA93" s="110"/>
+      <c r="AB93" s="110"/>
+      <c r="AC93" s="110"/>
+      <c r="AD93" s="110"/>
+      <c r="AE93" s="110"/>
+      <c r="AF93" s="110"/>
+      <c r="AG93" s="83"/>
+      <c r="AH93" s="105"/>
+      <c r="AI93" s="92"/>
+      <c r="AJ93" s="92"/>
+      <c r="AK93" s="92"/>
+      <c r="AL93" s="87"/>
+      <c r="AM93" s="87"/>
+      <c r="AN93" s="92"/>
+      <c r="AO93" s="94"/>
+    </row>
+    <row r="94" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="111"/>
+      <c r="C94" s="111"/>
+      <c r="D94" s="111"/>
+      <c r="E94" s="111"/>
+      <c r="F94" s="111"/>
+      <c r="G94" s="111"/>
+      <c r="H94" s="111"/>
+      <c r="I94" s="111"/>
+      <c r="J94" s="111"/>
+      <c r="K94" s="111"/>
+      <c r="L94" s="111"/>
+      <c r="M94" s="111"/>
+      <c r="N94" s="111"/>
+      <c r="O94" s="111"/>
+      <c r="P94" s="111"/>
+      <c r="Q94" s="111"/>
+      <c r="R94" s="111"/>
+      <c r="S94" s="111"/>
+      <c r="T94" s="111"/>
+      <c r="U94" s="111"/>
+      <c r="V94" s="111"/>
+      <c r="W94" s="111"/>
+      <c r="X94" s="111"/>
+      <c r="Y94" s="111"/>
+      <c r="Z94" s="111"/>
+      <c r="AA94" s="111"/>
+      <c r="AB94" s="111"/>
+      <c r="AC94" s="111"/>
+      <c r="AD94" s="111"/>
+      <c r="AE94" s="111"/>
+      <c r="AF94" s="112"/>
+      <c r="AG94" s="95"/>
+      <c r="AH94" s="97"/>
+      <c r="AI94" s="99"/>
+      <c r="AJ94" s="99"/>
+      <c r="AK94" s="99"/>
+      <c r="AL94" s="99"/>
+      <c r="AM94" s="56"/>
+      <c r="AN94" s="101"/>
+      <c r="AO94" s="102"/>
+    </row>
+    <row r="95" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="113"/>
+      <c r="C95" s="113"/>
+      <c r="D95" s="113"/>
+      <c r="E95" s="113"/>
+      <c r="F95" s="113"/>
+      <c r="G95" s="113"/>
+      <c r="H95" s="113"/>
+      <c r="I95" s="113"/>
+      <c r="J95" s="113"/>
+      <c r="K95" s="113"/>
+      <c r="L95" s="113"/>
+      <c r="M95" s="113"/>
+      <c r="N95" s="113"/>
+      <c r="O95" s="113"/>
+      <c r="P95" s="113"/>
+      <c r="Q95" s="113"/>
+      <c r="R95" s="113"/>
+      <c r="S95" s="113"/>
+      <c r="T95" s="113"/>
+      <c r="U95" s="113"/>
+      <c r="V95" s="113"/>
+      <c r="W95" s="113"/>
+      <c r="X95" s="113"/>
+      <c r="Y95" s="113"/>
+      <c r="Z95" s="113"/>
+      <c r="AA95" s="113"/>
+      <c r="AB95" s="113"/>
+      <c r="AC95" s="113"/>
+      <c r="AD95" s="113"/>
+      <c r="AE95" s="113"/>
+      <c r="AF95" s="114"/>
+      <c r="AG95" s="96"/>
+      <c r="AH95" s="98"/>
+      <c r="AI95" s="100"/>
+      <c r="AJ95" s="100"/>
+      <c r="AK95" s="100"/>
+      <c r="AL95" s="100"/>
+      <c r="AM95" s="55"/>
+      <c r="AN95" s="100"/>
+      <c r="AO95" s="103"/>
+    </row>
+    <row r="96" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="80"/>
+      <c r="B96" s="109"/>
+      <c r="C96" s="109"/>
+      <c r="D96" s="109"/>
+      <c r="E96" s="109"/>
+      <c r="F96" s="109"/>
+      <c r="G96" s="109"/>
+      <c r="H96" s="109"/>
+      <c r="I96" s="109"/>
+      <c r="J96" s="109"/>
+      <c r="K96" s="109"/>
+      <c r="L96" s="109"/>
+      <c r="M96" s="109"/>
+      <c r="N96" s="109"/>
+      <c r="O96" s="109"/>
+      <c r="P96" s="109"/>
+      <c r="Q96" s="109"/>
+      <c r="R96" s="109"/>
+      <c r="S96" s="109"/>
+      <c r="T96" s="109"/>
+      <c r="U96" s="109"/>
+      <c r="V96" s="109"/>
+      <c r="W96" s="109"/>
+      <c r="X96" s="109"/>
+      <c r="Y96" s="109"/>
+      <c r="Z96" s="109"/>
+      <c r="AA96" s="109"/>
+      <c r="AB96" s="109"/>
+      <c r="AC96" s="109"/>
+      <c r="AD96" s="109"/>
+      <c r="AE96" s="109"/>
+      <c r="AF96" s="109"/>
+      <c r="AG96" s="82"/>
+      <c r="AH96" s="104"/>
+      <c r="AI96" s="91"/>
+      <c r="AJ96" s="91"/>
+      <c r="AK96" s="91"/>
+      <c r="AL96" s="90"/>
+      <c r="AM96" s="90"/>
+      <c r="AN96" s="91"/>
+      <c r="AO96" s="93"/>
+    </row>
+    <row r="97" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="81"/>
+      <c r="B97" s="110"/>
+      <c r="C97" s="110"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="110"/>
+      <c r="F97" s="110"/>
+      <c r="G97" s="110"/>
+      <c r="H97" s="110"/>
+      <c r="I97" s="110"/>
+      <c r="J97" s="110"/>
+      <c r="K97" s="110"/>
+      <c r="L97" s="110"/>
+      <c r="M97" s="110"/>
+      <c r="N97" s="110"/>
+      <c r="O97" s="110"/>
+      <c r="P97" s="110"/>
+      <c r="Q97" s="110"/>
+      <c r="R97" s="110"/>
+      <c r="S97" s="110"/>
+      <c r="T97" s="110"/>
+      <c r="U97" s="110"/>
+      <c r="V97" s="110"/>
+      <c r="W97" s="110"/>
+      <c r="X97" s="110"/>
+      <c r="Y97" s="110"/>
+      <c r="Z97" s="110"/>
+      <c r="AA97" s="110"/>
+      <c r="AB97" s="110"/>
+      <c r="AC97" s="110"/>
+      <c r="AD97" s="110"/>
+      <c r="AE97" s="110"/>
+      <c r="AF97" s="110"/>
+      <c r="AG97" s="83"/>
+      <c r="AH97" s="105"/>
+      <c r="AI97" s="92"/>
+      <c r="AJ97" s="92"/>
+      <c r="AK97" s="92"/>
+      <c r="AL97" s="87"/>
+      <c r="AM97" s="87"/>
+      <c r="AN97" s="92"/>
+      <c r="AO97" s="94"/>
+    </row>
+    <row r="98" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="111"/>
+      <c r="C98" s="111"/>
+      <c r="D98" s="111"/>
+      <c r="E98" s="111"/>
+      <c r="F98" s="111"/>
+      <c r="G98" s="111"/>
+      <c r="H98" s="111"/>
+      <c r="I98" s="111"/>
+      <c r="J98" s="111"/>
+      <c r="K98" s="111"/>
+      <c r="L98" s="111"/>
+      <c r="M98" s="111"/>
+      <c r="N98" s="111"/>
+      <c r="O98" s="111"/>
+      <c r="P98" s="111"/>
+      <c r="Q98" s="111"/>
+      <c r="R98" s="111"/>
+      <c r="S98" s="111"/>
+      <c r="T98" s="111"/>
+      <c r="U98" s="111"/>
+      <c r="V98" s="111"/>
+      <c r="W98" s="111"/>
+      <c r="X98" s="111"/>
+      <c r="Y98" s="111"/>
+      <c r="Z98" s="111"/>
+      <c r="AA98" s="111"/>
+      <c r="AB98" s="111"/>
+      <c r="AC98" s="111"/>
+      <c r="AD98" s="111"/>
+      <c r="AE98" s="111"/>
+      <c r="AF98" s="112"/>
+      <c r="AG98" s="95"/>
+      <c r="AH98" s="97"/>
+      <c r="AI98" s="99"/>
+      <c r="AJ98" s="99"/>
+      <c r="AK98" s="99"/>
+      <c r="AL98" s="99"/>
+      <c r="AM98" s="56"/>
+      <c r="AN98" s="101"/>
+      <c r="AO98" s="102"/>
+    </row>
+    <row r="99" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="113"/>
+      <c r="C99" s="113"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="113"/>
+      <c r="F99" s="113"/>
+      <c r="G99" s="113"/>
+      <c r="H99" s="113"/>
+      <c r="I99" s="113"/>
+      <c r="J99" s="113"/>
+      <c r="K99" s="113"/>
+      <c r="L99" s="113"/>
+      <c r="M99" s="113"/>
+      <c r="N99" s="113"/>
+      <c r="O99" s="113"/>
+      <c r="P99" s="113"/>
+      <c r="Q99" s="113"/>
+      <c r="R99" s="113"/>
+      <c r="S99" s="113"/>
+      <c r="T99" s="113"/>
+      <c r="U99" s="113"/>
+      <c r="V99" s="113"/>
+      <c r="W99" s="113"/>
+      <c r="X99" s="113"/>
+      <c r="Y99" s="113"/>
+      <c r="Z99" s="113"/>
+      <c r="AA99" s="113"/>
+      <c r="AB99" s="113"/>
+      <c r="AC99" s="113"/>
+      <c r="AD99" s="113"/>
+      <c r="AE99" s="113"/>
+      <c r="AF99" s="114"/>
+      <c r="AG99" s="96"/>
+      <c r="AH99" s="98"/>
+      <c r="AI99" s="100"/>
+      <c r="AJ99" s="100"/>
+      <c r="AK99" s="100"/>
+      <c r="AL99" s="100"/>
+      <c r="AM99" s="55"/>
+      <c r="AN99" s="100"/>
+      <c r="AO99" s="103"/>
+    </row>
+    <row r="100" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="80"/>
+      <c r="B100" s="109"/>
+      <c r="C100" s="109"/>
+      <c r="D100" s="109"/>
+      <c r="E100" s="109"/>
+      <c r="F100" s="109"/>
+      <c r="G100" s="109"/>
+      <c r="H100" s="109"/>
+      <c r="I100" s="109"/>
+      <c r="J100" s="109"/>
+      <c r="K100" s="109"/>
+      <c r="L100" s="109"/>
+      <c r="M100" s="109"/>
+      <c r="N100" s="109"/>
+      <c r="O100" s="109"/>
+      <c r="P100" s="109"/>
+      <c r="Q100" s="109"/>
+      <c r="R100" s="109"/>
+      <c r="S100" s="109"/>
+      <c r="T100" s="109"/>
+      <c r="U100" s="109"/>
+      <c r="V100" s="109"/>
+      <c r="W100" s="109"/>
+      <c r="X100" s="109"/>
+      <c r="Y100" s="109"/>
+      <c r="Z100" s="109"/>
+      <c r="AA100" s="109"/>
+      <c r="AB100" s="109"/>
+      <c r="AC100" s="109"/>
+      <c r="AD100" s="109"/>
+      <c r="AE100" s="109"/>
+      <c r="AF100" s="109"/>
+      <c r="AG100" s="82"/>
+      <c r="AH100" s="104"/>
+      <c r="AI100" s="91"/>
+      <c r="AJ100" s="91"/>
+      <c r="AK100" s="91"/>
+      <c r="AL100" s="90"/>
+      <c r="AM100" s="90"/>
+      <c r="AN100" s="91"/>
+      <c r="AO100" s="93"/>
+    </row>
+    <row r="101" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="81"/>
+      <c r="B101" s="110"/>
+      <c r="C101" s="110"/>
+      <c r="D101" s="110"/>
+      <c r="E101" s="110"/>
+      <c r="F101" s="110"/>
+      <c r="G101" s="110"/>
+      <c r="H101" s="110"/>
+      <c r="I101" s="110"/>
+      <c r="J101" s="110"/>
+      <c r="K101" s="110"/>
+      <c r="L101" s="110"/>
+      <c r="M101" s="110"/>
+      <c r="N101" s="110"/>
+      <c r="O101" s="110"/>
+      <c r="P101" s="110"/>
+      <c r="Q101" s="110"/>
+      <c r="R101" s="110"/>
+      <c r="S101" s="110"/>
+      <c r="T101" s="110"/>
+      <c r="U101" s="110"/>
+      <c r="V101" s="110"/>
+      <c r="W101" s="110"/>
+      <c r="X101" s="110"/>
+      <c r="Y101" s="110"/>
+      <c r="Z101" s="110"/>
+      <c r="AA101" s="110"/>
+      <c r="AB101" s="110"/>
+      <c r="AC101" s="110"/>
+      <c r="AD101" s="110"/>
+      <c r="AE101" s="110"/>
+      <c r="AF101" s="110"/>
+      <c r="AG101" s="83"/>
+      <c r="AH101" s="105"/>
+      <c r="AI101" s="92"/>
+      <c r="AJ101" s="92"/>
+      <c r="AK101" s="92"/>
+      <c r="AL101" s="87"/>
+      <c r="AM101" s="87"/>
+      <c r="AN101" s="92"/>
+      <c r="AO101" s="94"/>
+    </row>
+    <row r="102" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="111"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
+      <c r="G102" s="111"/>
+      <c r="H102" s="111"/>
+      <c r="I102" s="111"/>
+      <c r="J102" s="111"/>
+      <c r="K102" s="111"/>
+      <c r="L102" s="111"/>
+      <c r="M102" s="111"/>
+      <c r="N102" s="111"/>
+      <c r="O102" s="111"/>
+      <c r="P102" s="111"/>
+      <c r="Q102" s="111"/>
+      <c r="R102" s="111"/>
+      <c r="S102" s="111"/>
+      <c r="T102" s="111"/>
+      <c r="U102" s="111"/>
+      <c r="V102" s="111"/>
+      <c r="W102" s="111"/>
+      <c r="X102" s="111"/>
+      <c r="Y102" s="111"/>
+      <c r="Z102" s="111"/>
+      <c r="AA102" s="111"/>
+      <c r="AB102" s="111"/>
+      <c r="AC102" s="111"/>
+      <c r="AD102" s="111"/>
+      <c r="AE102" s="111"/>
+      <c r="AF102" s="112"/>
+      <c r="AG102" s="95"/>
+      <c r="AH102" s="97"/>
+      <c r="AI102" s="99"/>
+      <c r="AJ102" s="99"/>
+      <c r="AK102" s="99"/>
+      <c r="AL102" s="99"/>
+      <c r="AM102" s="56"/>
+      <c r="AN102" s="101"/>
+      <c r="AO102" s="102"/>
+    </row>
+    <row r="103" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="113"/>
+      <c r="C103" s="113"/>
+      <c r="D103" s="113"/>
+      <c r="E103" s="113"/>
+      <c r="F103" s="113"/>
+      <c r="G103" s="113"/>
+      <c r="H103" s="113"/>
+      <c r="I103" s="113"/>
+      <c r="J103" s="113"/>
+      <c r="K103" s="113"/>
+      <c r="L103" s="113"/>
+      <c r="M103" s="113"/>
+      <c r="N103" s="113"/>
+      <c r="O103" s="113"/>
+      <c r="P103" s="113"/>
+      <c r="Q103" s="113"/>
+      <c r="R103" s="113"/>
+      <c r="S103" s="113"/>
+      <c r="T103" s="113"/>
+      <c r="U103" s="113"/>
+      <c r="V103" s="113"/>
+      <c r="W103" s="113"/>
+      <c r="X103" s="113"/>
+      <c r="Y103" s="113"/>
+      <c r="Z103" s="113"/>
+      <c r="AA103" s="113"/>
+      <c r="AB103" s="113"/>
+      <c r="AC103" s="113"/>
+      <c r="AD103" s="113"/>
+      <c r="AE103" s="113"/>
+      <c r="AF103" s="114"/>
+      <c r="AG103" s="96"/>
+      <c r="AH103" s="98"/>
+      <c r="AI103" s="100"/>
+      <c r="AJ103" s="100"/>
+      <c r="AK103" s="100"/>
+      <c r="AL103" s="100"/>
+      <c r="AM103" s="55"/>
+      <c r="AN103" s="100"/>
+      <c r="AO103" s="103"/>
+    </row>
+    <row r="104" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="80"/>
+      <c r="B104" s="109"/>
+      <c r="C104" s="109"/>
+      <c r="D104" s="109"/>
+      <c r="E104" s="109"/>
+      <c r="F104" s="109"/>
+      <c r="G104" s="109"/>
+      <c r="H104" s="109"/>
+      <c r="I104" s="109"/>
+      <c r="J104" s="109"/>
+      <c r="K104" s="109"/>
+      <c r="L104" s="109"/>
+      <c r="M104" s="109"/>
+      <c r="N104" s="109"/>
+      <c r="O104" s="109"/>
+      <c r="P104" s="109"/>
+      <c r="Q104" s="109"/>
+      <c r="R104" s="109"/>
+      <c r="S104" s="109"/>
+      <c r="T104" s="109"/>
+      <c r="U104" s="109"/>
+      <c r="V104" s="109"/>
+      <c r="W104" s="109"/>
+      <c r="X104" s="109"/>
+      <c r="Y104" s="109"/>
+      <c r="Z104" s="109"/>
+      <c r="AA104" s="109"/>
+      <c r="AB104" s="109"/>
+      <c r="AC104" s="109"/>
+      <c r="AD104" s="109"/>
+      <c r="AE104" s="109"/>
+      <c r="AF104" s="109"/>
+      <c r="AG104" s="82"/>
+      <c r="AH104" s="104"/>
+      <c r="AI104" s="91"/>
+      <c r="AJ104" s="91"/>
+      <c r="AK104" s="91"/>
+      <c r="AL104" s="90"/>
+      <c r="AM104" s="90"/>
+      <c r="AN104" s="91"/>
+      <c r="AO104" s="93"/>
+    </row>
+    <row r="105" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="81"/>
+      <c r="B105" s="110"/>
+      <c r="C105" s="110"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="110"/>
+      <c r="F105" s="110"/>
+      <c r="G105" s="110"/>
+      <c r="H105" s="110"/>
+      <c r="I105" s="110"/>
+      <c r="J105" s="110"/>
+      <c r="K105" s="110"/>
+      <c r="L105" s="110"/>
+      <c r="M105" s="110"/>
+      <c r="N105" s="110"/>
+      <c r="O105" s="110"/>
+      <c r="P105" s="110"/>
+      <c r="Q105" s="110"/>
+      <c r="R105" s="110"/>
+      <c r="S105" s="110"/>
+      <c r="T105" s="110"/>
+      <c r="U105" s="110"/>
+      <c r="V105" s="110"/>
+      <c r="W105" s="110"/>
+      <c r="X105" s="110"/>
+      <c r="Y105" s="110"/>
+      <c r="Z105" s="110"/>
+      <c r="AA105" s="110"/>
+      <c r="AB105" s="110"/>
+      <c r="AC105" s="110"/>
+      <c r="AD105" s="110"/>
+      <c r="AE105" s="110"/>
+      <c r="AF105" s="110"/>
+      <c r="AG105" s="83"/>
+      <c r="AH105" s="105"/>
+      <c r="AI105" s="92"/>
+      <c r="AJ105" s="92"/>
+      <c r="AK105" s="92"/>
+      <c r="AL105" s="87"/>
+      <c r="AM105" s="87"/>
+      <c r="AN105" s="92"/>
+      <c r="AO105" s="94"/>
+    </row>
+    <row r="106" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="111"/>
+      <c r="C106" s="111"/>
+      <c r="D106" s="111"/>
+      <c r="E106" s="111"/>
+      <c r="F106" s="111"/>
+      <c r="G106" s="111"/>
+      <c r="H106" s="111"/>
+      <c r="I106" s="111"/>
+      <c r="J106" s="111"/>
+      <c r="K106" s="111"/>
+      <c r="L106" s="111"/>
+      <c r="M106" s="111"/>
+      <c r="N106" s="111"/>
+      <c r="O106" s="111"/>
+      <c r="P106" s="111"/>
+      <c r="Q106" s="111"/>
+      <c r="R106" s="111"/>
+      <c r="S106" s="111"/>
+      <c r="T106" s="111"/>
+      <c r="U106" s="111"/>
+      <c r="V106" s="111"/>
+      <c r="W106" s="111"/>
+      <c r="X106" s="111"/>
+      <c r="Y106" s="111"/>
+      <c r="Z106" s="111"/>
+      <c r="AA106" s="111"/>
+      <c r="AB106" s="111"/>
+      <c r="AC106" s="111"/>
+      <c r="AD106" s="111"/>
+      <c r="AE106" s="111"/>
+      <c r="AF106" s="112"/>
+      <c r="AG106" s="95"/>
+      <c r="AH106" s="97"/>
+      <c r="AI106" s="99"/>
+      <c r="AJ106" s="99"/>
+      <c r="AK106" s="99"/>
+      <c r="AL106" s="99"/>
+      <c r="AM106" s="56"/>
+      <c r="AN106" s="101"/>
+      <c r="AO106" s="102"/>
+    </row>
+    <row r="107" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="113"/>
+      <c r="C107" s="113"/>
+      <c r="D107" s="113"/>
+      <c r="E107" s="113"/>
+      <c r="F107" s="113"/>
+      <c r="G107" s="113"/>
+      <c r="H107" s="113"/>
+      <c r="I107" s="113"/>
+      <c r="J107" s="113"/>
+      <c r="K107" s="113"/>
+      <c r="L107" s="113"/>
+      <c r="M107" s="113"/>
+      <c r="N107" s="113"/>
+      <c r="O107" s="113"/>
+      <c r="P107" s="113"/>
+      <c r="Q107" s="113"/>
+      <c r="R107" s="113"/>
+      <c r="S107" s="113"/>
+      <c r="T107" s="113"/>
+      <c r="U107" s="113"/>
+      <c r="V107" s="113"/>
+      <c r="W107" s="113"/>
+      <c r="X107" s="113"/>
+      <c r="Y107" s="113"/>
+      <c r="Z107" s="113"/>
+      <c r="AA107" s="113"/>
+      <c r="AB107" s="113"/>
+      <c r="AC107" s="113"/>
+      <c r="AD107" s="113"/>
+      <c r="AE107" s="113"/>
+      <c r="AF107" s="114"/>
+      <c r="AG107" s="96"/>
+      <c r="AH107" s="98"/>
+      <c r="AI107" s="100"/>
+      <c r="AJ107" s="100"/>
+      <c r="AK107" s="100"/>
+      <c r="AL107" s="100"/>
+      <c r="AM107" s="55"/>
+      <c r="AN107" s="100"/>
+      <c r="AO107" s="103"/>
+    </row>
+    <row r="108" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="80"/>
+      <c r="B108" s="109"/>
+      <c r="C108" s="109"/>
+      <c r="D108" s="109"/>
+      <c r="E108" s="109"/>
+      <c r="F108" s="109"/>
+      <c r="G108" s="109"/>
+      <c r="H108" s="109"/>
+      <c r="I108" s="109"/>
+      <c r="J108" s="109"/>
+      <c r="K108" s="109"/>
+      <c r="L108" s="109"/>
+      <c r="M108" s="109"/>
+      <c r="N108" s="109"/>
+      <c r="O108" s="109"/>
+      <c r="P108" s="109"/>
+      <c r="Q108" s="109"/>
+      <c r="R108" s="109"/>
+      <c r="S108" s="109"/>
+      <c r="T108" s="109"/>
+      <c r="U108" s="109"/>
+      <c r="V108" s="109"/>
+      <c r="W108" s="109"/>
+      <c r="X108" s="109"/>
+      <c r="Y108" s="109"/>
+      <c r="Z108" s="109"/>
+      <c r="AA108" s="109"/>
+      <c r="AB108" s="109"/>
+      <c r="AC108" s="109"/>
+      <c r="AD108" s="109"/>
+      <c r="AE108" s="109"/>
+      <c r="AF108" s="109"/>
+      <c r="AG108" s="82"/>
+      <c r="AH108" s="104"/>
+      <c r="AI108" s="91"/>
+      <c r="AJ108" s="91"/>
+      <c r="AK108" s="91"/>
+      <c r="AL108" s="90"/>
+      <c r="AM108" s="90"/>
+      <c r="AN108" s="91"/>
+      <c r="AO108" s="93"/>
+    </row>
+    <row r="109" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="81"/>
+      <c r="B109" s="110"/>
+      <c r="C109" s="110"/>
+      <c r="D109" s="110"/>
+      <c r="E109" s="110"/>
+      <c r="F109" s="110"/>
+      <c r="G109" s="110"/>
+      <c r="H109" s="110"/>
+      <c r="I109" s="110"/>
+      <c r="J109" s="110"/>
+      <c r="K109" s="110"/>
+      <c r="L109" s="110"/>
+      <c r="M109" s="110"/>
+      <c r="N109" s="110"/>
+      <c r="O109" s="110"/>
+      <c r="P109" s="110"/>
+      <c r="Q109" s="110"/>
+      <c r="R109" s="110"/>
+      <c r="S109" s="110"/>
+      <c r="T109" s="110"/>
+      <c r="U109" s="110"/>
+      <c r="V109" s="110"/>
+      <c r="W109" s="110"/>
+      <c r="X109" s="110"/>
+      <c r="Y109" s="110"/>
+      <c r="Z109" s="110"/>
+      <c r="AA109" s="110"/>
+      <c r="AB109" s="110"/>
+      <c r="AC109" s="110"/>
+      <c r="AD109" s="110"/>
+      <c r="AE109" s="110"/>
+      <c r="AF109" s="110"/>
+      <c r="AG109" s="83"/>
+      <c r="AH109" s="105"/>
+      <c r="AI109" s="92"/>
+      <c r="AJ109" s="92"/>
+      <c r="AK109" s="92"/>
+      <c r="AL109" s="87"/>
+      <c r="AM109" s="87"/>
+      <c r="AN109" s="92"/>
+      <c r="AO109" s="94"/>
+    </row>
+    <row r="110" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="111"/>
+      <c r="C110" s="111"/>
+      <c r="D110" s="111"/>
+      <c r="E110" s="111"/>
+      <c r="F110" s="111"/>
+      <c r="G110" s="111"/>
+      <c r="H110" s="111"/>
+      <c r="I110" s="111"/>
+      <c r="J110" s="111"/>
+      <c r="K110" s="111"/>
+      <c r="L110" s="111"/>
+      <c r="M110" s="111"/>
+      <c r="N110" s="111"/>
+      <c r="O110" s="111"/>
+      <c r="P110" s="111"/>
+      <c r="Q110" s="111"/>
+      <c r="R110" s="111"/>
+      <c r="S110" s="111"/>
+      <c r="T110" s="111"/>
+      <c r="U110" s="111"/>
+      <c r="V110" s="111"/>
+      <c r="W110" s="111"/>
+      <c r="X110" s="111"/>
+      <c r="Y110" s="111"/>
+      <c r="Z110" s="111"/>
+      <c r="AA110" s="111"/>
+      <c r="AB110" s="111"/>
+      <c r="AC110" s="111"/>
+      <c r="AD110" s="111"/>
+      <c r="AE110" s="111"/>
+      <c r="AF110" s="112"/>
+      <c r="AG110" s="95"/>
+      <c r="AH110" s="97"/>
+      <c r="AI110" s="99"/>
+      <c r="AJ110" s="99"/>
+      <c r="AK110" s="99"/>
+      <c r="AL110" s="99"/>
+      <c r="AM110" s="56"/>
+      <c r="AN110" s="101"/>
+      <c r="AO110" s="102"/>
+    </row>
+    <row r="111" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="113"/>
+      <c r="C111" s="113"/>
+      <c r="D111" s="113"/>
+      <c r="E111" s="113"/>
+      <c r="F111" s="113"/>
+      <c r="G111" s="113"/>
+      <c r="H111" s="113"/>
+      <c r="I111" s="113"/>
+      <c r="J111" s="113"/>
+      <c r="K111" s="113"/>
+      <c r="L111" s="113"/>
+      <c r="M111" s="113"/>
+      <c r="N111" s="113"/>
+      <c r="O111" s="113"/>
+      <c r="P111" s="113"/>
+      <c r="Q111" s="113"/>
+      <c r="R111" s="113"/>
+      <c r="S111" s="113"/>
+      <c r="T111" s="113"/>
+      <c r="U111" s="113"/>
+      <c r="V111" s="113"/>
+      <c r="W111" s="113"/>
+      <c r="X111" s="113"/>
+      <c r="Y111" s="113"/>
+      <c r="Z111" s="113"/>
+      <c r="AA111" s="113"/>
+      <c r="AB111" s="113"/>
+      <c r="AC111" s="113"/>
+      <c r="AD111" s="113"/>
+      <c r="AE111" s="113"/>
+      <c r="AF111" s="114"/>
+      <c r="AG111" s="96"/>
+      <c r="AH111" s="98"/>
+      <c r="AI111" s="100"/>
+      <c r="AJ111" s="100"/>
+      <c r="AK111" s="100"/>
+      <c r="AL111" s="100"/>
+      <c r="AM111" s="55"/>
+      <c r="AN111" s="100"/>
+      <c r="AO111" s="103"/>
+    </row>
+    <row r="112" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="80"/>
+      <c r="B112" s="109"/>
+      <c r="C112" s="109"/>
+      <c r="D112" s="109"/>
+      <c r="E112" s="109"/>
+      <c r="F112" s="109"/>
+      <c r="G112" s="109"/>
+      <c r="H112" s="109"/>
+      <c r="I112" s="109"/>
+      <c r="J112" s="109"/>
+      <c r="K112" s="109"/>
+      <c r="L112" s="109"/>
+      <c r="M112" s="109"/>
+      <c r="N112" s="109"/>
+      <c r="O112" s="109"/>
+      <c r="P112" s="109"/>
+      <c r="Q112" s="109"/>
+      <c r="R112" s="109"/>
+      <c r="S112" s="109"/>
+      <c r="T112" s="109"/>
+      <c r="U112" s="109"/>
+      <c r="V112" s="109"/>
+      <c r="W112" s="109"/>
+      <c r="X112" s="109"/>
+      <c r="Y112" s="109"/>
+      <c r="Z112" s="109"/>
+      <c r="AA112" s="109"/>
+      <c r="AB112" s="109"/>
+      <c r="AC112" s="109"/>
+      <c r="AD112" s="109"/>
+      <c r="AE112" s="109"/>
+      <c r="AF112" s="109"/>
+      <c r="AG112" s="82"/>
+      <c r="AH112" s="104"/>
+      <c r="AI112" s="91"/>
+      <c r="AJ112" s="91"/>
+      <c r="AK112" s="91"/>
+      <c r="AL112" s="90"/>
+      <c r="AM112" s="90"/>
+      <c r="AN112" s="91"/>
+      <c r="AO112" s="93"/>
+    </row>
+    <row r="113" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="81"/>
+      <c r="B113" s="110"/>
+      <c r="C113" s="110"/>
+      <c r="D113" s="110"/>
+      <c r="E113" s="110"/>
+      <c r="F113" s="110"/>
+      <c r="G113" s="110"/>
+      <c r="H113" s="110"/>
+      <c r="I113" s="110"/>
+      <c r="J113" s="110"/>
+      <c r="K113" s="110"/>
+      <c r="L113" s="110"/>
+      <c r="M113" s="110"/>
+      <c r="N113" s="110"/>
+      <c r="O113" s="110"/>
+      <c r="P113" s="110"/>
+      <c r="Q113" s="110"/>
+      <c r="R113" s="110"/>
+      <c r="S113" s="110"/>
+      <c r="T113" s="110"/>
+      <c r="U113" s="110"/>
+      <c r="V113" s="110"/>
+      <c r="W113" s="110"/>
+      <c r="X113" s="110"/>
+      <c r="Y113" s="110"/>
+      <c r="Z113" s="110"/>
+      <c r="AA113" s="110"/>
+      <c r="AB113" s="110"/>
+      <c r="AC113" s="110"/>
+      <c r="AD113" s="110"/>
+      <c r="AE113" s="110"/>
+      <c r="AF113" s="110"/>
+      <c r="AG113" s="83"/>
+      <c r="AH113" s="105"/>
+      <c r="AI113" s="92"/>
+      <c r="AJ113" s="92"/>
+      <c r="AK113" s="92"/>
+      <c r="AL113" s="87"/>
+      <c r="AM113" s="87"/>
+      <c r="AN113" s="92"/>
+      <c r="AO113" s="94"/>
+    </row>
+    <row r="114" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="111"/>
+      <c r="C114" s="111"/>
+      <c r="D114" s="111"/>
+      <c r="E114" s="111"/>
+      <c r="F114" s="111"/>
+      <c r="G114" s="111"/>
+      <c r="H114" s="111"/>
+      <c r="I114" s="111"/>
+      <c r="J114" s="111"/>
+      <c r="K114" s="111"/>
+      <c r="L114" s="111"/>
+      <c r="M114" s="111"/>
+      <c r="N114" s="111"/>
+      <c r="O114" s="111"/>
+      <c r="P114" s="111"/>
+      <c r="Q114" s="111"/>
+      <c r="R114" s="111"/>
+      <c r="S114" s="111"/>
+      <c r="T114" s="111"/>
+      <c r="U114" s="111"/>
+      <c r="V114" s="111"/>
+      <c r="W114" s="111"/>
+      <c r="X114" s="111"/>
+      <c r="Y114" s="111"/>
+      <c r="Z114" s="111"/>
+      <c r="AA114" s="111"/>
+      <c r="AB114" s="111"/>
+      <c r="AC114" s="111"/>
+      <c r="AD114" s="111"/>
+      <c r="AE114" s="111"/>
+      <c r="AF114" s="112"/>
+      <c r="AG114" s="95"/>
+      <c r="AH114" s="97"/>
+      <c r="AI114" s="99"/>
+      <c r="AJ114" s="99"/>
+      <c r="AK114" s="99"/>
+      <c r="AL114" s="99"/>
+      <c r="AM114" s="56"/>
+      <c r="AN114" s="101"/>
+      <c r="AO114" s="102"/>
+    </row>
+    <row r="115" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="113"/>
+      <c r="C115" s="113"/>
+      <c r="D115" s="113"/>
+      <c r="E115" s="113"/>
+      <c r="F115" s="113"/>
+      <c r="G115" s="113"/>
+      <c r="H115" s="113"/>
+      <c r="I115" s="113"/>
+      <c r="J115" s="113"/>
+      <c r="K115" s="113"/>
+      <c r="L115" s="113"/>
+      <c r="M115" s="113"/>
+      <c r="N115" s="113"/>
+      <c r="O115" s="113"/>
+      <c r="P115" s="113"/>
+      <c r="Q115" s="113"/>
+      <c r="R115" s="113"/>
+      <c r="S115" s="113"/>
+      <c r="T115" s="113"/>
+      <c r="U115" s="113"/>
+      <c r="V115" s="113"/>
+      <c r="W115" s="113"/>
+      <c r="X115" s="113"/>
+      <c r="Y115" s="113"/>
+      <c r="Z115" s="113"/>
+      <c r="AA115" s="113"/>
+      <c r="AB115" s="113"/>
+      <c r="AC115" s="113"/>
+      <c r="AD115" s="113"/>
+      <c r="AE115" s="113"/>
+      <c r="AF115" s="114"/>
+      <c r="AG115" s="96"/>
+      <c r="AH115" s="98"/>
+      <c r="AI115" s="100"/>
+      <c r="AJ115" s="100"/>
+      <c r="AK115" s="100"/>
+      <c r="AL115" s="100"/>
+      <c r="AM115" s="55"/>
+      <c r="AN115" s="100"/>
+      <c r="AO115" s="103"/>
+    </row>
+    <row r="116" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="80"/>
+      <c r="B116" s="109"/>
+      <c r="C116" s="109"/>
+      <c r="D116" s="109"/>
+      <c r="E116" s="109"/>
+      <c r="F116" s="109"/>
+      <c r="G116" s="109"/>
+      <c r="H116" s="109"/>
+      <c r="I116" s="109"/>
+      <c r="J116" s="109"/>
+      <c r="K116" s="109"/>
+      <c r="L116" s="109"/>
+      <c r="M116" s="109"/>
+      <c r="N116" s="109"/>
+      <c r="O116" s="109"/>
+      <c r="P116" s="109"/>
+      <c r="Q116" s="109"/>
+      <c r="R116" s="109"/>
+      <c r="S116" s="109"/>
+      <c r="T116" s="109"/>
+      <c r="U116" s="109"/>
+      <c r="V116" s="109"/>
+      <c r="W116" s="109"/>
+      <c r="X116" s="109"/>
+      <c r="Y116" s="109"/>
+      <c r="Z116" s="109"/>
+      <c r="AA116" s="109"/>
+      <c r="AB116" s="109"/>
+      <c r="AC116" s="109"/>
+      <c r="AD116" s="109"/>
+      <c r="AE116" s="109"/>
+      <c r="AF116" s="109"/>
+      <c r="AG116" s="82"/>
+      <c r="AH116" s="104"/>
+      <c r="AI116" s="91"/>
+      <c r="AJ116" s="91"/>
+      <c r="AK116" s="91"/>
+      <c r="AL116" s="90"/>
+      <c r="AM116" s="90"/>
+      <c r="AN116" s="91"/>
+      <c r="AO116" s="93"/>
+    </row>
+    <row r="117" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="81"/>
+      <c r="B117" s="110"/>
+      <c r="C117" s="110"/>
+      <c r="D117" s="110"/>
+      <c r="E117" s="110"/>
+      <c r="F117" s="110"/>
+      <c r="G117" s="110"/>
+      <c r="H117" s="110"/>
+      <c r="I117" s="110"/>
+      <c r="J117" s="110"/>
+      <c r="K117" s="110"/>
+      <c r="L117" s="110"/>
+      <c r="M117" s="110"/>
+      <c r="N117" s="110"/>
+      <c r="O117" s="110"/>
+      <c r="P117" s="110"/>
+      <c r="Q117" s="110"/>
+      <c r="R117" s="110"/>
+      <c r="S117" s="110"/>
+      <c r="T117" s="110"/>
+      <c r="U117" s="110"/>
+      <c r="V117" s="110"/>
+      <c r="W117" s="110"/>
+      <c r="X117" s="110"/>
+      <c r="Y117" s="110"/>
+      <c r="Z117" s="110"/>
+      <c r="AA117" s="110"/>
+      <c r="AB117" s="110"/>
+      <c r="AC117" s="110"/>
+      <c r="AD117" s="110"/>
+      <c r="AE117" s="110"/>
+      <c r="AF117" s="110"/>
+      <c r="AG117" s="83"/>
+      <c r="AH117" s="105"/>
+      <c r="AI117" s="92"/>
+      <c r="AJ117" s="92"/>
+      <c r="AK117" s="92"/>
+      <c r="AL117" s="87"/>
+      <c r="AM117" s="87"/>
+      <c r="AN117" s="92"/>
+      <c r="AO117" s="94"/>
+    </row>
+    <row r="118" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="111"/>
+      <c r="C118" s="111"/>
+      <c r="D118" s="111"/>
+      <c r="E118" s="111"/>
+      <c r="F118" s="111"/>
+      <c r="G118" s="111"/>
+      <c r="H118" s="111"/>
+      <c r="I118" s="111"/>
+      <c r="J118" s="111"/>
+      <c r="K118" s="111"/>
+      <c r="L118" s="111"/>
+      <c r="M118" s="111"/>
+      <c r="N118" s="111"/>
+      <c r="O118" s="111"/>
+      <c r="P118" s="111"/>
+      <c r="Q118" s="111"/>
+      <c r="R118" s="111"/>
+      <c r="S118" s="111"/>
+      <c r="T118" s="111"/>
+      <c r="U118" s="111"/>
+      <c r="V118" s="111"/>
+      <c r="W118" s="111"/>
+      <c r="X118" s="111"/>
+      <c r="Y118" s="111"/>
+      <c r="Z118" s="111"/>
+      <c r="AA118" s="111"/>
+      <c r="AB118" s="111"/>
+      <c r="AC118" s="111"/>
+      <c r="AD118" s="111"/>
+      <c r="AE118" s="111"/>
+      <c r="AF118" s="112"/>
+      <c r="AG118" s="95"/>
+      <c r="AH118" s="97"/>
+      <c r="AI118" s="99"/>
+      <c r="AJ118" s="99"/>
+      <c r="AK118" s="99"/>
+      <c r="AL118" s="99"/>
+      <c r="AM118" s="56"/>
+      <c r="AN118" s="101"/>
+      <c r="AO118" s="102"/>
+    </row>
+    <row r="119" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="113"/>
+      <c r="C119" s="113"/>
+      <c r="D119" s="113"/>
+      <c r="E119" s="113"/>
+      <c r="F119" s="113"/>
+      <c r="G119" s="113"/>
+      <c r="H119" s="113"/>
+      <c r="I119" s="113"/>
+      <c r="J119" s="113"/>
+      <c r="K119" s="113"/>
+      <c r="L119" s="113"/>
+      <c r="M119" s="113"/>
+      <c r="N119" s="113"/>
+      <c r="O119" s="113"/>
+      <c r="P119" s="113"/>
+      <c r="Q119" s="113"/>
+      <c r="R119" s="113"/>
+      <c r="S119" s="113"/>
+      <c r="T119" s="113"/>
+      <c r="U119" s="113"/>
+      <c r="V119" s="113"/>
+      <c r="W119" s="113"/>
+      <c r="X119" s="113"/>
+      <c r="Y119" s="113"/>
+      <c r="Z119" s="113"/>
+      <c r="AA119" s="113"/>
+      <c r="AB119" s="113"/>
+      <c r="AC119" s="113"/>
+      <c r="AD119" s="113"/>
+      <c r="AE119" s="113"/>
+      <c r="AF119" s="114"/>
+      <c r="AG119" s="96"/>
+      <c r="AH119" s="98"/>
+      <c r="AI119" s="100"/>
+      <c r="AJ119" s="100"/>
+      <c r="AK119" s="100"/>
+      <c r="AL119" s="100"/>
+      <c r="AM119" s="55"/>
+      <c r="AN119" s="100"/>
+      <c r="AO119" s="103"/>
+    </row>
+    <row r="120" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="80"/>
+      <c r="B120" s="109"/>
+      <c r="C120" s="109"/>
+      <c r="D120" s="109"/>
+      <c r="E120" s="109"/>
+      <c r="F120" s="109"/>
+      <c r="G120" s="109"/>
+      <c r="H120" s="109"/>
+      <c r="I120" s="109"/>
+      <c r="J120" s="109"/>
+      <c r="K120" s="109"/>
+      <c r="L120" s="109"/>
+      <c r="M120" s="109"/>
+      <c r="N120" s="109"/>
+      <c r="O120" s="109"/>
+      <c r="P120" s="109"/>
+      <c r="Q120" s="109"/>
+      <c r="R120" s="109"/>
+      <c r="S120" s="109"/>
+      <c r="T120" s="109"/>
+      <c r="U120" s="109"/>
+      <c r="V120" s="109"/>
+      <c r="W120" s="109"/>
+      <c r="X120" s="109"/>
+      <c r="Y120" s="109"/>
+      <c r="Z120" s="109"/>
+      <c r="AA120" s="109"/>
+      <c r="AB120" s="109"/>
+      <c r="AC120" s="109"/>
+      <c r="AD120" s="109"/>
+      <c r="AE120" s="109"/>
+      <c r="AF120" s="109"/>
+      <c r="AG120" s="82"/>
+      <c r="AH120" s="104"/>
+      <c r="AI120" s="91"/>
+      <c r="AJ120" s="91"/>
+      <c r="AK120" s="91"/>
+      <c r="AL120" s="90"/>
+      <c r="AM120" s="90"/>
+      <c r="AN120" s="91"/>
+      <c r="AO120" s="93"/>
+    </row>
+    <row r="121" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="81"/>
+      <c r="B121" s="110"/>
+      <c r="C121" s="110"/>
+      <c r="D121" s="110"/>
+      <c r="E121" s="110"/>
+      <c r="F121" s="110"/>
+      <c r="G121" s="110"/>
+      <c r="H121" s="110"/>
+      <c r="I121" s="110"/>
+      <c r="J121" s="110"/>
+      <c r="K121" s="110"/>
+      <c r="L121" s="110"/>
+      <c r="M121" s="110"/>
+      <c r="N121" s="110"/>
+      <c r="O121" s="110"/>
+      <c r="P121" s="110"/>
+      <c r="Q121" s="110"/>
+      <c r="R121" s="110"/>
+      <c r="S121" s="110"/>
+      <c r="T121" s="110"/>
+      <c r="U121" s="110"/>
+      <c r="V121" s="110"/>
+      <c r="W121" s="110"/>
+      <c r="X121" s="110"/>
+      <c r="Y121" s="110"/>
+      <c r="Z121" s="110"/>
+      <c r="AA121" s="110"/>
+      <c r="AB121" s="110"/>
+      <c r="AC121" s="110"/>
+      <c r="AD121" s="110"/>
+      <c r="AE121" s="110"/>
+      <c r="AF121" s="110"/>
+      <c r="AG121" s="83"/>
+      <c r="AH121" s="105"/>
+      <c r="AI121" s="92"/>
+      <c r="AJ121" s="92"/>
+      <c r="AK121" s="92"/>
+      <c r="AL121" s="87"/>
+      <c r="AM121" s="87"/>
+      <c r="AN121" s="92"/>
+      <c r="AO121" s="94"/>
+    </row>
+    <row r="122" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="111"/>
+      <c r="C122" s="111"/>
+      <c r="D122" s="111"/>
+      <c r="E122" s="111"/>
+      <c r="F122" s="111"/>
+      <c r="G122" s="111"/>
+      <c r="H122" s="111"/>
+      <c r="I122" s="111"/>
+      <c r="J122" s="111"/>
+      <c r="K122" s="111"/>
+      <c r="L122" s="111"/>
+      <c r="M122" s="111"/>
+      <c r="N122" s="111"/>
+      <c r="O122" s="111"/>
+      <c r="P122" s="111"/>
+      <c r="Q122" s="111"/>
+      <c r="R122" s="111"/>
+      <c r="S122" s="111"/>
+      <c r="T122" s="111"/>
+      <c r="U122" s="111"/>
+      <c r="V122" s="111"/>
+      <c r="W122" s="111"/>
+      <c r="X122" s="111"/>
+      <c r="Y122" s="111"/>
+      <c r="Z122" s="111"/>
+      <c r="AA122" s="111"/>
+      <c r="AB122" s="111"/>
+      <c r="AC122" s="111"/>
+      <c r="AD122" s="111"/>
+      <c r="AE122" s="111"/>
+      <c r="AF122" s="112"/>
+      <c r="AG122" s="95"/>
+      <c r="AH122" s="97"/>
+      <c r="AI122" s="99"/>
+      <c r="AJ122" s="99"/>
+      <c r="AK122" s="99"/>
+      <c r="AL122" s="99"/>
+      <c r="AM122" s="56"/>
+      <c r="AN122" s="101"/>
+      <c r="AO122" s="102"/>
+    </row>
+    <row r="123" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="113"/>
+      <c r="C123" s="113"/>
+      <c r="D123" s="113"/>
+      <c r="E123" s="113"/>
+      <c r="F123" s="113"/>
+      <c r="G123" s="113"/>
+      <c r="H123" s="113"/>
+      <c r="I123" s="113"/>
+      <c r="J123" s="113"/>
+      <c r="K123" s="113"/>
+      <c r="L123" s="113"/>
+      <c r="M123" s="113"/>
+      <c r="N123" s="113"/>
+      <c r="O123" s="113"/>
+      <c r="P123" s="113"/>
+      <c r="Q123" s="113"/>
+      <c r="R123" s="113"/>
+      <c r="S123" s="113"/>
+      <c r="T123" s="113"/>
+      <c r="U123" s="113"/>
+      <c r="V123" s="113"/>
+      <c r="W123" s="113"/>
+      <c r="X123" s="113"/>
+      <c r="Y123" s="113"/>
+      <c r="Z123" s="113"/>
+      <c r="AA123" s="113"/>
+      <c r="AB123" s="113"/>
+      <c r="AC123" s="113"/>
+      <c r="AD123" s="113"/>
+      <c r="AE123" s="113"/>
+      <c r="AF123" s="114"/>
+      <c r="AG123" s="96"/>
+      <c r="AH123" s="98"/>
+      <c r="AI123" s="100"/>
+      <c r="AJ123" s="100"/>
+      <c r="AK123" s="100"/>
+      <c r="AL123" s="100"/>
+      <c r="AM123" s="55"/>
+      <c r="AN123" s="100"/>
+      <c r="AO123" s="103"/>
+    </row>
+    <row r="124" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="80"/>
+      <c r="B124" s="109"/>
+      <c r="C124" s="109"/>
+      <c r="D124" s="109"/>
+      <c r="E124" s="109"/>
+      <c r="F124" s="109"/>
+      <c r="G124" s="109"/>
+      <c r="H124" s="109"/>
+      <c r="I124" s="109"/>
+      <c r="J124" s="109"/>
+      <c r="K124" s="109"/>
+      <c r="L124" s="109"/>
+      <c r="M124" s="109"/>
+      <c r="N124" s="109"/>
+      <c r="O124" s="109"/>
+      <c r="P124" s="109"/>
+      <c r="Q124" s="109"/>
+      <c r="R124" s="109"/>
+      <c r="S124" s="109"/>
+      <c r="T124" s="109"/>
+      <c r="U124" s="109"/>
+      <c r="V124" s="109"/>
+      <c r="W124" s="109"/>
+      <c r="X124" s="109"/>
+      <c r="Y124" s="109"/>
+      <c r="Z124" s="109"/>
+      <c r="AA124" s="109"/>
+      <c r="AB124" s="109"/>
+      <c r="AC124" s="109"/>
+      <c r="AD124" s="109"/>
+      <c r="AE124" s="109"/>
+      <c r="AF124" s="109"/>
+      <c r="AG124" s="82"/>
+      <c r="AH124" s="104"/>
+      <c r="AI124" s="91"/>
+      <c r="AJ124" s="91"/>
+      <c r="AK124" s="91"/>
+      <c r="AL124" s="90"/>
+      <c r="AM124" s="90"/>
+      <c r="AN124" s="91"/>
+      <c r="AO124" s="93"/>
+    </row>
+    <row r="125" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="81"/>
+      <c r="B125" s="110"/>
+      <c r="C125" s="110"/>
+      <c r="D125" s="110"/>
+      <c r="E125" s="110"/>
+      <c r="F125" s="110"/>
+      <c r="G125" s="110"/>
+      <c r="H125" s="110"/>
+      <c r="I125" s="110"/>
+      <c r="J125" s="110"/>
+      <c r="K125" s="110"/>
+      <c r="L125" s="110"/>
+      <c r="M125" s="110"/>
+      <c r="N125" s="110"/>
+      <c r="O125" s="110"/>
+      <c r="P125" s="110"/>
+      <c r="Q125" s="110"/>
+      <c r="R125" s="110"/>
+      <c r="S125" s="110"/>
+      <c r="T125" s="110"/>
+      <c r="U125" s="110"/>
+      <c r="V125" s="110"/>
+      <c r="W125" s="110"/>
+      <c r="X125" s="110"/>
+      <c r="Y125" s="110"/>
+      <c r="Z125" s="110"/>
+      <c r="AA125" s="110"/>
+      <c r="AB125" s="110"/>
+      <c r="AC125" s="110"/>
+      <c r="AD125" s="110"/>
+      <c r="AE125" s="110"/>
+      <c r="AF125" s="110"/>
+      <c r="AG125" s="83"/>
+      <c r="AH125" s="105"/>
+      <c r="AI125" s="92"/>
+      <c r="AJ125" s="92"/>
+      <c r="AK125" s="92"/>
+      <c r="AL125" s="87"/>
+      <c r="AM125" s="87"/>
+      <c r="AN125" s="92"/>
+      <c r="AO125" s="94"/>
+    </row>
+    <row r="126" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="111"/>
+      <c r="C126" s="111"/>
+      <c r="D126" s="111"/>
+      <c r="E126" s="111"/>
+      <c r="F126" s="111"/>
+      <c r="G126" s="111"/>
+      <c r="H126" s="111"/>
+      <c r="I126" s="111"/>
+      <c r="J126" s="111"/>
+      <c r="K126" s="111"/>
+      <c r="L126" s="111"/>
+      <c r="M126" s="111"/>
+      <c r="N126" s="111"/>
+      <c r="O126" s="111"/>
+      <c r="P126" s="111"/>
+      <c r="Q126" s="111"/>
+      <c r="R126" s="111"/>
+      <c r="S126" s="111"/>
+      <c r="T126" s="111"/>
+      <c r="U126" s="111"/>
+      <c r="V126" s="111"/>
+      <c r="W126" s="111"/>
+      <c r="X126" s="111"/>
+      <c r="Y126" s="111"/>
+      <c r="Z126" s="111"/>
+      <c r="AA126" s="111"/>
+      <c r="AB126" s="111"/>
+      <c r="AC126" s="111"/>
+      <c r="AD126" s="111"/>
+      <c r="AE126" s="111"/>
+      <c r="AF126" s="112"/>
+      <c r="AG126" s="95"/>
+      <c r="AH126" s="97"/>
+      <c r="AI126" s="99"/>
+      <c r="AJ126" s="99"/>
+      <c r="AK126" s="99"/>
+      <c r="AL126" s="99"/>
+      <c r="AM126" s="56"/>
+      <c r="AN126" s="101"/>
+      <c r="AO126" s="102"/>
+    </row>
+    <row r="127" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="113"/>
+      <c r="C127" s="113"/>
+      <c r="D127" s="113"/>
+      <c r="E127" s="113"/>
+      <c r="F127" s="113"/>
+      <c r="G127" s="113"/>
+      <c r="H127" s="113"/>
+      <c r="I127" s="113"/>
+      <c r="J127" s="113"/>
+      <c r="K127" s="113"/>
+      <c r="L127" s="113"/>
+      <c r="M127" s="113"/>
+      <c r="N127" s="113"/>
+      <c r="O127" s="113"/>
+      <c r="P127" s="113"/>
+      <c r="Q127" s="113"/>
+      <c r="R127" s="113"/>
+      <c r="S127" s="113"/>
+      <c r="T127" s="113"/>
+      <c r="U127" s="113"/>
+      <c r="V127" s="113"/>
+      <c r="W127" s="113"/>
+      <c r="X127" s="113"/>
+      <c r="Y127" s="113"/>
+      <c r="Z127" s="113"/>
+      <c r="AA127" s="113"/>
+      <c r="AB127" s="113"/>
+      <c r="AC127" s="113"/>
+      <c r="AD127" s="113"/>
+      <c r="AE127" s="113"/>
+      <c r="AF127" s="114"/>
+      <c r="AG127" s="96"/>
+      <c r="AH127" s="98"/>
+      <c r="AI127" s="100"/>
+      <c r="AJ127" s="100"/>
+      <c r="AK127" s="100"/>
+      <c r="AL127" s="100"/>
+      <c r="AM127" s="55"/>
+      <c r="AN127" s="100"/>
+      <c r="AO127" s="103"/>
+    </row>
+    <row r="128" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="80"/>
+      <c r="B128" s="109"/>
+      <c r="C128" s="109"/>
+      <c r="D128" s="109"/>
+      <c r="E128" s="109"/>
+      <c r="F128" s="109"/>
+      <c r="G128" s="109"/>
+      <c r="H128" s="109"/>
+      <c r="I128" s="109"/>
+      <c r="J128" s="109"/>
+      <c r="K128" s="109"/>
+      <c r="L128" s="109"/>
+      <c r="M128" s="109"/>
+      <c r="N128" s="109"/>
+      <c r="O128" s="109"/>
+      <c r="P128" s="109"/>
+      <c r="Q128" s="109"/>
+      <c r="R128" s="109"/>
+      <c r="S128" s="109"/>
+      <c r="T128" s="109"/>
+      <c r="U128" s="109"/>
+      <c r="V128" s="109"/>
+      <c r="W128" s="109"/>
+      <c r="X128" s="109"/>
+      <c r="Y128" s="109"/>
+      <c r="Z128" s="109"/>
+      <c r="AA128" s="109"/>
+      <c r="AB128" s="109"/>
+      <c r="AC128" s="109"/>
+      <c r="AD128" s="109"/>
+      <c r="AE128" s="109"/>
+      <c r="AF128" s="109"/>
+      <c r="AG128" s="82"/>
+      <c r="AH128" s="104"/>
+      <c r="AI128" s="91"/>
+      <c r="AJ128" s="91"/>
+      <c r="AK128" s="91"/>
+      <c r="AL128" s="90"/>
+      <c r="AM128" s="90"/>
+      <c r="AN128" s="91"/>
+      <c r="AO128" s="93"/>
+    </row>
+    <row r="129" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="81"/>
+      <c r="B129" s="110"/>
+      <c r="C129" s="110"/>
+      <c r="D129" s="110"/>
+      <c r="E129" s="110"/>
+      <c r="F129" s="110"/>
+      <c r="G129" s="110"/>
+      <c r="H129" s="110"/>
+      <c r="I129" s="110"/>
+      <c r="J129" s="110"/>
+      <c r="K129" s="110"/>
+      <c r="L129" s="110"/>
+      <c r="M129" s="110"/>
+      <c r="N129" s="110"/>
+      <c r="O129" s="110"/>
+      <c r="P129" s="110"/>
+      <c r="Q129" s="110"/>
+      <c r="R129" s="110"/>
+      <c r="S129" s="110"/>
+      <c r="T129" s="110"/>
+      <c r="U129" s="110"/>
+      <c r="V129" s="110"/>
+      <c r="W129" s="110"/>
+      <c r="X129" s="110"/>
+      <c r="Y129" s="110"/>
+      <c r="Z129" s="110"/>
+      <c r="AA129" s="110"/>
+      <c r="AB129" s="110"/>
+      <c r="AC129" s="110"/>
+      <c r="AD129" s="110"/>
+      <c r="AE129" s="110"/>
+      <c r="AF129" s="110"/>
+      <c r="AG129" s="83"/>
+      <c r="AH129" s="105"/>
+      <c r="AI129" s="92"/>
+      <c r="AJ129" s="92"/>
+      <c r="AK129" s="92"/>
+      <c r="AL129" s="87"/>
+      <c r="AM129" s="87"/>
+      <c r="AN129" s="92"/>
+      <c r="AO129" s="94"/>
+    </row>
+    <row r="130" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="111"/>
+      <c r="C130" s="111"/>
+      <c r="D130" s="111"/>
+      <c r="E130" s="111"/>
+      <c r="F130" s="111"/>
+      <c r="G130" s="111"/>
+      <c r="H130" s="111"/>
+      <c r="I130" s="111"/>
+      <c r="J130" s="111"/>
+      <c r="K130" s="111"/>
+      <c r="L130" s="111"/>
+      <c r="M130" s="111"/>
+      <c r="N130" s="111"/>
+      <c r="O130" s="111"/>
+      <c r="P130" s="111"/>
+      <c r="Q130" s="111"/>
+      <c r="R130" s="111"/>
+      <c r="S130" s="111"/>
+      <c r="T130" s="111"/>
+      <c r="U130" s="111"/>
+      <c r="V130" s="111"/>
+      <c r="W130" s="111"/>
+      <c r="X130" s="111"/>
+      <c r="Y130" s="111"/>
+      <c r="Z130" s="111"/>
+      <c r="AA130" s="111"/>
+      <c r="AB130" s="111"/>
+      <c r="AC130" s="111"/>
+      <c r="AD130" s="111"/>
+      <c r="AE130" s="111"/>
+      <c r="AF130" s="112"/>
+      <c r="AG130" s="95"/>
+      <c r="AH130" s="97"/>
+      <c r="AI130" s="99"/>
+      <c r="AJ130" s="99"/>
+      <c r="AK130" s="99"/>
+      <c r="AL130" s="99"/>
+      <c r="AM130" s="56"/>
+      <c r="AN130" s="101"/>
+      <c r="AO130" s="102"/>
+    </row>
+    <row r="131" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
+      <c r="G131" s="113"/>
+      <c r="H131" s="113"/>
+      <c r="I131" s="113"/>
+      <c r="J131" s="113"/>
+      <c r="K131" s="113"/>
+      <c r="L131" s="113"/>
+      <c r="M131" s="113"/>
+      <c r="N131" s="113"/>
+      <c r="O131" s="113"/>
+      <c r="P131" s="113"/>
+      <c r="Q131" s="113"/>
+      <c r="R131" s="113"/>
+      <c r="S131" s="113"/>
+      <c r="T131" s="113"/>
+      <c r="U131" s="113"/>
+      <c r="V131" s="113"/>
+      <c r="W131" s="113"/>
+      <c r="X131" s="113"/>
+      <c r="Y131" s="113"/>
+      <c r="Z131" s="113"/>
+      <c r="AA131" s="113"/>
+      <c r="AB131" s="113"/>
+      <c r="AC131" s="113"/>
+      <c r="AD131" s="113"/>
+      <c r="AE131" s="113"/>
+      <c r="AF131" s="114"/>
+      <c r="AG131" s="96"/>
+      <c r="AH131" s="98"/>
+      <c r="AI131" s="100"/>
+      <c r="AJ131" s="100"/>
+      <c r="AK131" s="100"/>
+      <c r="AL131" s="100"/>
+      <c r="AM131" s="55"/>
+      <c r="AN131" s="100"/>
+      <c r="AO131" s="103"/>
+    </row>
+    <row r="132" spans="1:41" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="22"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="23"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+      <c r="N132" s="23"/>
+      <c r="O132" s="23"/>
+      <c r="P132" s="23"/>
+      <c r="Q132" s="23"/>
+      <c r="R132" s="23"/>
+      <c r="S132" s="23"/>
+      <c r="T132" s="23"/>
+      <c r="U132" s="23"/>
+      <c r="V132" s="23"/>
+      <c r="W132" s="23"/>
+      <c r="X132" s="23"/>
+      <c r="Y132" s="23"/>
+      <c r="Z132" s="23"/>
+      <c r="AA132" s="23"/>
+      <c r="AB132" s="23"/>
+      <c r="AC132" s="23"/>
+      <c r="AD132" s="23"/>
+      <c r="AE132" s="23"/>
+      <c r="AF132" s="23"/>
+      <c r="AG132" s="23"/>
+      <c r="AH132" s="24"/>
+      <c r="AI132" s="24"/>
+      <c r="AJ132" s="24"/>
+      <c r="AK132" s="24"/>
+      <c r="AL132" s="24"/>
+      <c r="AM132" s="24"/>
+      <c r="AN132" s="24"/>
+      <c r="AO132" s="25"/>
+    </row>
+    <row r="133" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C133" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="64" t="s">
+      <c r="D133" s="106"/>
+      <c r="E133" s="106"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I133" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="N25" s="77" t="s">
+      <c r="J133" s="26"/>
+      <c r="K133" s="26"/>
+      <c r="L133" s="26"/>
+      <c r="N133" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="T25" s="77" t="s">
+      <c r="O133" s="108"/>
+      <c r="P133" s="108"/>
+      <c r="Q133" s="108"/>
+      <c r="R133" s="108"/>
+      <c r="T133" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Z25" s="33" t="s">
+      <c r="U133" s="108"/>
+      <c r="V133" s="108"/>
+      <c r="W133" s="108"/>
+      <c r="X133" s="108"/>
+      <c r="Z133" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
+      <c r="AH133" s="19"/>
+      <c r="AI133" s="19"/>
+      <c r="AJ133" s="19"/>
+      <c r="AK133" s="19"/>
+      <c r="AL133" s="19"/>
+      <c r="AM133" s="19"/>
     </row>
-    <row r="26" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="70" t="s">
+    <row r="134" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="70"/>
-      <c r="Y26" s="70"/>
-      <c r="Z26" s="70"/>
-      <c r="AA26" s="70"/>
-      <c r="AB26" s="70"/>
-      <c r="AC26" s="70"/>
-      <c r="AD26" s="70"/>
-      <c r="AE26" s="70"/>
-      <c r="AF26" s="70"/>
-      <c r="AG26" s="70"/>
-      <c r="AH26" s="70"/>
-      <c r="AI26" s="70"/>
-      <c r="AJ26" s="70"/>
-      <c r="AK26" s="70"/>
-      <c r="AL26" s="70"/>
-      <c r="AM26" s="70"/>
-      <c r="AN26" s="70"/>
-      <c r="AO26" s="70"/>
+      <c r="C134" s="106"/>
+      <c r="D134" s="106"/>
+      <c r="E134" s="106"/>
+      <c r="F134" s="106"/>
+      <c r="G134" s="106"/>
+      <c r="H134" s="106"/>
+      <c r="I134" s="106"/>
+      <c r="J134" s="106"/>
+      <c r="K134" s="106"/>
+      <c r="L134" s="106"/>
+      <c r="M134" s="106"/>
+      <c r="N134" s="106"/>
+      <c r="O134" s="106"/>
+      <c r="P134" s="106"/>
+      <c r="Q134" s="106"/>
+      <c r="R134" s="106"/>
+      <c r="S134" s="106"/>
+      <c r="T134" s="106"/>
+      <c r="U134" s="106"/>
+      <c r="V134" s="106"/>
+      <c r="W134" s="106"/>
+      <c r="X134" s="106"/>
+      <c r="Y134" s="106"/>
+      <c r="Z134" s="106"/>
+      <c r="AA134" s="106"/>
+      <c r="AB134" s="106"/>
+      <c r="AC134" s="106"/>
+      <c r="AD134" s="106"/>
+      <c r="AE134" s="106"/>
+      <c r="AF134" s="106"/>
+      <c r="AG134" s="106"/>
+      <c r="AH134" s="106"/>
+      <c r="AI134" s="106"/>
+      <c r="AJ134" s="106"/>
+      <c r="AK134" s="106"/>
+      <c r="AL134" s="106"/>
+      <c r="AM134" s="106"/>
+      <c r="AN134" s="106"/>
+      <c r="AO134" s="106"/>
     </row>
-    <row r="27" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="19"/>
+    <row r="135" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="28"/>
+      <c r="B135" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" s="107"/>
+      <c r="D135" s="107"/>
+      <c r="E135" s="107"/>
+      <c r="F135" s="107"/>
+      <c r="G135" s="107"/>
+      <c r="H135" s="107"/>
+      <c r="I135" s="107"/>
+      <c r="J135" s="107"/>
+      <c r="K135" s="107"/>
+      <c r="L135" s="107"/>
+      <c r="M135" s="20"/>
+      <c r="N135" s="20"/>
+      <c r="O135" s="20"/>
+      <c r="P135" s="20"/>
+      <c r="Q135" s="20"/>
+      <c r="R135" s="20"/>
+      <c r="S135" s="20"/>
+      <c r="T135" s="20"/>
+      <c r="U135" s="20"/>
+      <c r="V135" s="20"/>
+      <c r="W135" s="20"/>
+      <c r="X135" s="20"/>
+      <c r="Y135" s="20"/>
+      <c r="Z135" s="20"/>
+      <c r="AA135" s="20"/>
+      <c r="AB135" s="20"/>
+      <c r="AC135" s="20"/>
+      <c r="AD135" s="20"/>
+      <c r="AH135" s="19"/>
+      <c r="AI135" s="19"/>
+      <c r="AJ135" s="19"/>
+      <c r="AK135" s="19"/>
+      <c r="AL135" s="19"/>
+      <c r="AM135" s="19"/>
     </row>
-    <row r="28" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20" t="s">
+    <row r="136" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="29"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20" t="s">
+      <c r="K136" s="20"/>
+      <c r="L136" s="20"/>
+      <c r="M136" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20" t="s">
+      <c r="N136" s="20"/>
+      <c r="O136" s="20"/>
+      <c r="P136" s="20"/>
+      <c r="Q136" s="20"/>
+      <c r="R136" s="20"/>
+      <c r="S136" s="20"/>
+      <c r="T136" s="20"/>
+      <c r="U136" s="20"/>
+      <c r="V136" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20" t="s">
+      <c r="W136" s="20"/>
+      <c r="X136" s="20"/>
+      <c r="Y136" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
+      <c r="Z136" s="20"/>
+      <c r="AA136" s="20"/>
+      <c r="AB136" s="20"/>
+      <c r="AC136" s="20"/>
+      <c r="AD136" s="20"/>
+      <c r="AH136" s="19"/>
+      <c r="AI136" s="19"/>
+      <c r="AJ136" s="19"/>
+      <c r="AK136" s="19"/>
+      <c r="AL136" s="19"/>
+      <c r="AM136" s="19"/>
     </row>
-    <row r="29" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20" t="s">
+    <row r="137" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="20"/>
+      <c r="K137" s="20"/>
+      <c r="L137" s="20"/>
+      <c r="M137" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20" t="s">
+      <c r="N137" s="20"/>
+      <c r="O137" s="20"/>
+      <c r="P137" s="20"/>
+      <c r="Q137" s="20"/>
+      <c r="R137" s="20"/>
+      <c r="S137" s="20"/>
+      <c r="T137" s="20"/>
+      <c r="U137" s="20"/>
+      <c r="V137" s="20"/>
+      <c r="W137" s="20"/>
+      <c r="X137" s="20"/>
+      <c r="Y137" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
+      <c r="Z137" s="20"/>
+      <c r="AA137" s="20"/>
+      <c r="AB137" s="20"/>
+      <c r="AC137" s="20"/>
+      <c r="AD137" s="20"/>
     </row>
-    <row r="30" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
+    <row r="138" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="20"/>
+      <c r="K138" s="20"/>
+      <c r="L138" s="20"/>
+      <c r="M138" s="20"/>
+      <c r="N138" s="20"/>
+      <c r="O138" s="20"/>
+      <c r="P138" s="20"/>
+      <c r="Q138" s="20"/>
+      <c r="R138" s="20"/>
+      <c r="S138" s="20"/>
+      <c r="T138" s="20"/>
+      <c r="U138" s="20"/>
+      <c r="V138" s="20"/>
+      <c r="W138" s="20"/>
+      <c r="X138" s="20"/>
+      <c r="Y138" s="20"/>
+      <c r="Z138" s="20"/>
+      <c r="AA138" s="20"/>
+      <c r="AB138" s="20"/>
+      <c r="AC138" s="20"/>
+      <c r="AD138" s="20"/>
     </row>
-    <row r="31" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20" t="s">
+    <row r="139" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="20"/>
+      <c r="L139" s="20"/>
+      <c r="M139" s="20"/>
+      <c r="N139" s="20"/>
+      <c r="O139" s="20"/>
+      <c r="P139" s="20"/>
+      <c r="Q139" s="20"/>
+      <c r="R139" s="20"/>
+      <c r="S139" s="20"/>
+      <c r="T139" s="20"/>
+      <c r="U139" s="20"/>
+      <c r="V139" s="20"/>
+      <c r="W139" s="20"/>
+      <c r="X139" s="20"/>
+      <c r="Y139" s="20"/>
+      <c r="Z139" s="20"/>
+      <c r="AA139" s="20"/>
+      <c r="AB139" s="20"/>
+      <c r="AC139" s="20"/>
+      <c r="AD139" s="20"/>
     </row>
-    <row r="32" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20" t="s">
+    <row r="140" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20" t="s">
+      <c r="K140" s="20"/>
+      <c r="L140" s="20"/>
+      <c r="M140" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20" t="s">
+      <c r="N140" s="20"/>
+      <c r="O140" s="20"/>
+      <c r="P140" s="20"/>
+      <c r="Q140" s="20"/>
+      <c r="R140" s="20"/>
+      <c r="S140" s="20"/>
+      <c r="T140" s="20"/>
+      <c r="U140" s="20"/>
+      <c r="V140" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20" t="s">
+      <c r="W140" s="20"/>
+      <c r="X140" s="20"/>
+      <c r="Y140" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
+      <c r="Z140" s="20"/>
+      <c r="AA140" s="20"/>
+      <c r="AB140" s="20"/>
+      <c r="AC140" s="20"/>
+      <c r="AD140" s="20"/>
     </row>
-    <row r="33" spans="2:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20" t="s">
+    <row r="141" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="20"/>
+      <c r="M141" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20" t="s">
+      <c r="N141" s="20"/>
+      <c r="O141" s="20"/>
+      <c r="P141" s="20"/>
+      <c r="Q141" s="20"/>
+      <c r="R141" s="20"/>
+      <c r="S141" s="20"/>
+      <c r="T141" s="20"/>
+      <c r="U141" s="20"/>
+      <c r="V141" s="20"/>
+      <c r="W141" s="20"/>
+      <c r="X141" s="20"/>
+      <c r="Y141" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
+      <c r="Z141" s="20"/>
+      <c r="AA141" s="20"/>
+      <c r="AB141" s="20"/>
+      <c r="AC141" s="20"/>
+      <c r="AD141" s="20"/>
     </row>
-    <row r="34" spans="2:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
+    <row r="142" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
+      <c r="K142" s="20"/>
+      <c r="L142" s="20"/>
+      <c r="M142" s="20"/>
+      <c r="N142" s="20"/>
+      <c r="O142" s="20"/>
+      <c r="P142" s="20"/>
+      <c r="Q142" s="20"/>
+      <c r="R142" s="20"/>
+      <c r="S142" s="20"/>
+      <c r="T142" s="20"/>
+      <c r="U142" s="20"/>
+      <c r="V142" s="20"/>
+      <c r="W142" s="20"/>
+      <c r="X142" s="20"/>
+      <c r="Y142" s="20"/>
+      <c r="Z142" s="20"/>
+      <c r="AA142" s="20"/>
+      <c r="AB142" s="20"/>
+      <c r="AC142" s="20"/>
+      <c r="AD142" s="20"/>
     </row>
-    <row r="35" spans="2:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
+    <row r="143" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="20"/>
+      <c r="L143" s="20"/>
+      <c r="M143" s="20"/>
+      <c r="N143" s="20"/>
+      <c r="O143" s="20"/>
+      <c r="P143" s="20"/>
+      <c r="Q143" s="20"/>
+      <c r="R143" s="20"/>
+      <c r="S143" s="20"/>
+      <c r="T143" s="20"/>
+      <c r="U143" s="20"/>
+      <c r="V143" s="20"/>
+      <c r="W143" s="20"/>
+      <c r="X143" s="20"/>
+      <c r="Y143" s="20"/>
+      <c r="Z143" s="20"/>
+      <c r="AA143" s="20"/>
+      <c r="AB143" s="20"/>
+      <c r="AC143" s="20"/>
+      <c r="AD143" s="20"/>
     </row>
-    <row r="36" spans="2:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
+    <row r="144" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="20"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="20"/>
+      <c r="M144" s="20"/>
+      <c r="N144" s="20"/>
+      <c r="O144" s="20"/>
+      <c r="P144" s="20"/>
+      <c r="Q144" s="20"/>
+      <c r="R144" s="20"/>
+      <c r="S144" s="20"/>
+      <c r="T144" s="20"/>
+      <c r="U144" s="20"/>
+      <c r="V144" s="20"/>
+      <c r="W144" s="20"/>
+      <c r="X144" s="20"/>
+      <c r="Y144" s="20"/>
+      <c r="Z144" s="20"/>
+      <c r="AA144" s="20"/>
+      <c r="AB144" s="20"/>
+      <c r="AC144" s="20"/>
+      <c r="AD144" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A1:AO1"/>
-    <mergeCell ref="A2:AO2"/>
-    <mergeCell ref="A3:AO3"/>
-    <mergeCell ref="AG4:AG9"/>
-    <mergeCell ref="AH4:AL4"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="AH7:AL7"/>
-    <mergeCell ref="AH8:AN9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AJ12:AJ13"/>
+  <mergeCells count="554">
+    <mergeCell ref="AL130:AL131"/>
+    <mergeCell ref="AN130:AN131"/>
+    <mergeCell ref="AO130:AO131"/>
+    <mergeCell ref="AG130:AG131"/>
+    <mergeCell ref="AH130:AH131"/>
+    <mergeCell ref="AI130:AI131"/>
+    <mergeCell ref="AJ130:AJ131"/>
+    <mergeCell ref="AK130:AK131"/>
+    <mergeCell ref="AL126:AL127"/>
+    <mergeCell ref="AN126:AN127"/>
+    <mergeCell ref="AO126:AO127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="AG128:AG129"/>
+    <mergeCell ref="AH128:AH129"/>
+    <mergeCell ref="AI128:AI129"/>
+    <mergeCell ref="AJ128:AJ129"/>
+    <mergeCell ref="AK128:AK129"/>
+    <mergeCell ref="AL128:AL129"/>
+    <mergeCell ref="AM128:AM129"/>
+    <mergeCell ref="AN128:AN129"/>
+    <mergeCell ref="AO128:AO129"/>
+    <mergeCell ref="AG126:AG127"/>
+    <mergeCell ref="AH126:AH127"/>
+    <mergeCell ref="AI126:AI127"/>
+    <mergeCell ref="AJ126:AJ127"/>
+    <mergeCell ref="AK126:AK127"/>
+    <mergeCell ref="AL122:AL123"/>
+    <mergeCell ref="AN122:AN123"/>
+    <mergeCell ref="AO122:AO123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="AG124:AG125"/>
+    <mergeCell ref="AH124:AH125"/>
+    <mergeCell ref="AI124:AI125"/>
+    <mergeCell ref="AJ124:AJ125"/>
+    <mergeCell ref="AK124:AK125"/>
+    <mergeCell ref="AL124:AL125"/>
+    <mergeCell ref="AM124:AM125"/>
+    <mergeCell ref="AN124:AN125"/>
+    <mergeCell ref="AO124:AO125"/>
+    <mergeCell ref="AG122:AG123"/>
+    <mergeCell ref="AH122:AH123"/>
+    <mergeCell ref="AI122:AI123"/>
+    <mergeCell ref="AJ122:AJ123"/>
+    <mergeCell ref="AK122:AK123"/>
+    <mergeCell ref="AL118:AL119"/>
+    <mergeCell ref="AN118:AN119"/>
+    <mergeCell ref="AO118:AO119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="AG120:AG121"/>
+    <mergeCell ref="AH120:AH121"/>
+    <mergeCell ref="AI120:AI121"/>
+    <mergeCell ref="AJ120:AJ121"/>
+    <mergeCell ref="AK120:AK121"/>
+    <mergeCell ref="AL120:AL121"/>
+    <mergeCell ref="AM120:AM121"/>
+    <mergeCell ref="AN120:AN121"/>
+    <mergeCell ref="AO120:AO121"/>
+    <mergeCell ref="AG118:AG119"/>
+    <mergeCell ref="AH118:AH119"/>
+    <mergeCell ref="AI118:AI119"/>
+    <mergeCell ref="AJ118:AJ119"/>
+    <mergeCell ref="AK118:AK119"/>
+    <mergeCell ref="AL114:AL115"/>
+    <mergeCell ref="AN114:AN115"/>
+    <mergeCell ref="AO114:AO115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="AG116:AG117"/>
+    <mergeCell ref="AH116:AH117"/>
+    <mergeCell ref="AI116:AI117"/>
+    <mergeCell ref="AJ116:AJ117"/>
+    <mergeCell ref="AK116:AK117"/>
+    <mergeCell ref="AL116:AL117"/>
+    <mergeCell ref="AM116:AM117"/>
+    <mergeCell ref="AN116:AN117"/>
+    <mergeCell ref="AO116:AO117"/>
+    <mergeCell ref="AG114:AG115"/>
+    <mergeCell ref="AH114:AH115"/>
+    <mergeCell ref="AI114:AI115"/>
+    <mergeCell ref="AJ114:AJ115"/>
+    <mergeCell ref="AK114:AK115"/>
+    <mergeCell ref="AL110:AL111"/>
+    <mergeCell ref="AN110:AN111"/>
+    <mergeCell ref="AO110:AO111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="AG112:AG113"/>
+    <mergeCell ref="AH112:AH113"/>
+    <mergeCell ref="AI112:AI113"/>
+    <mergeCell ref="AJ112:AJ113"/>
+    <mergeCell ref="AK112:AK113"/>
+    <mergeCell ref="AL112:AL113"/>
+    <mergeCell ref="AM112:AM113"/>
+    <mergeCell ref="AN112:AN113"/>
+    <mergeCell ref="AO112:AO113"/>
+    <mergeCell ref="AG110:AG111"/>
+    <mergeCell ref="AH110:AH111"/>
+    <mergeCell ref="AI110:AI111"/>
+    <mergeCell ref="AJ110:AJ111"/>
+    <mergeCell ref="AK110:AK111"/>
+    <mergeCell ref="AL106:AL107"/>
+    <mergeCell ref="AN106:AN107"/>
+    <mergeCell ref="AO106:AO107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="AG108:AG109"/>
+    <mergeCell ref="AH108:AH109"/>
+    <mergeCell ref="AI108:AI109"/>
+    <mergeCell ref="AJ108:AJ109"/>
+    <mergeCell ref="AK108:AK109"/>
+    <mergeCell ref="AL108:AL109"/>
+    <mergeCell ref="AM108:AM109"/>
+    <mergeCell ref="AN108:AN109"/>
+    <mergeCell ref="AO108:AO109"/>
+    <mergeCell ref="AG106:AG107"/>
+    <mergeCell ref="AH106:AH107"/>
+    <mergeCell ref="AI106:AI107"/>
+    <mergeCell ref="AJ106:AJ107"/>
+    <mergeCell ref="AK106:AK107"/>
+    <mergeCell ref="AL102:AL103"/>
+    <mergeCell ref="AN102:AN103"/>
+    <mergeCell ref="AO102:AO103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="AG104:AG105"/>
+    <mergeCell ref="AH104:AH105"/>
+    <mergeCell ref="AI104:AI105"/>
+    <mergeCell ref="AJ104:AJ105"/>
+    <mergeCell ref="AK104:AK105"/>
+    <mergeCell ref="AL104:AL105"/>
+    <mergeCell ref="AM104:AM105"/>
+    <mergeCell ref="AN104:AN105"/>
+    <mergeCell ref="AO104:AO105"/>
+    <mergeCell ref="AG102:AG103"/>
+    <mergeCell ref="AH102:AH103"/>
+    <mergeCell ref="AI102:AI103"/>
+    <mergeCell ref="AJ102:AJ103"/>
+    <mergeCell ref="AK102:AK103"/>
+    <mergeCell ref="AL98:AL99"/>
+    <mergeCell ref="AN98:AN99"/>
+    <mergeCell ref="AO98:AO99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="AG100:AG101"/>
+    <mergeCell ref="AH100:AH101"/>
+    <mergeCell ref="AI100:AI101"/>
+    <mergeCell ref="AJ100:AJ101"/>
+    <mergeCell ref="AK100:AK101"/>
+    <mergeCell ref="AL100:AL101"/>
+    <mergeCell ref="AM100:AM101"/>
+    <mergeCell ref="AN100:AN101"/>
+    <mergeCell ref="AO100:AO101"/>
+    <mergeCell ref="AG98:AG99"/>
+    <mergeCell ref="AH98:AH99"/>
+    <mergeCell ref="AI98:AI99"/>
+    <mergeCell ref="AJ98:AJ99"/>
+    <mergeCell ref="AK98:AK99"/>
+    <mergeCell ref="AL94:AL95"/>
+    <mergeCell ref="AN94:AN95"/>
+    <mergeCell ref="AO94:AO95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="AG96:AG97"/>
+    <mergeCell ref="AH96:AH97"/>
+    <mergeCell ref="AI96:AI97"/>
+    <mergeCell ref="AJ96:AJ97"/>
+    <mergeCell ref="AK96:AK97"/>
+    <mergeCell ref="AL96:AL97"/>
+    <mergeCell ref="AM96:AM97"/>
+    <mergeCell ref="AN96:AN97"/>
+    <mergeCell ref="AO96:AO97"/>
+    <mergeCell ref="AG94:AG95"/>
+    <mergeCell ref="AH94:AH95"/>
+    <mergeCell ref="AI94:AI95"/>
+    <mergeCell ref="AJ94:AJ95"/>
+    <mergeCell ref="AK94:AK95"/>
+    <mergeCell ref="AL90:AL91"/>
+    <mergeCell ref="AN90:AN91"/>
+    <mergeCell ref="AO90:AO91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="AG92:AG93"/>
+    <mergeCell ref="AH92:AH93"/>
+    <mergeCell ref="AI92:AI93"/>
+    <mergeCell ref="AJ92:AJ93"/>
+    <mergeCell ref="AK92:AK93"/>
+    <mergeCell ref="AL92:AL93"/>
+    <mergeCell ref="AM92:AM93"/>
+    <mergeCell ref="AN92:AN93"/>
+    <mergeCell ref="AO92:AO93"/>
+    <mergeCell ref="AG90:AG91"/>
+    <mergeCell ref="AH90:AH91"/>
+    <mergeCell ref="AI90:AI91"/>
+    <mergeCell ref="AJ90:AJ91"/>
+    <mergeCell ref="AK90:AK91"/>
+    <mergeCell ref="AL86:AL87"/>
+    <mergeCell ref="AN86:AN87"/>
+    <mergeCell ref="AO86:AO87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="AG88:AG89"/>
+    <mergeCell ref="AH88:AH89"/>
+    <mergeCell ref="AI88:AI89"/>
+    <mergeCell ref="AJ88:AJ89"/>
+    <mergeCell ref="AK88:AK89"/>
+    <mergeCell ref="AL88:AL89"/>
+    <mergeCell ref="AM88:AM89"/>
+    <mergeCell ref="AN88:AN89"/>
+    <mergeCell ref="AO88:AO89"/>
+    <mergeCell ref="AG86:AG87"/>
+    <mergeCell ref="AH86:AH87"/>
+    <mergeCell ref="AI86:AI87"/>
+    <mergeCell ref="AJ86:AJ87"/>
+    <mergeCell ref="AK86:AK87"/>
+    <mergeCell ref="AL82:AL83"/>
+    <mergeCell ref="AN82:AN83"/>
+    <mergeCell ref="AO82:AO83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="AG84:AG85"/>
+    <mergeCell ref="AH84:AH85"/>
+    <mergeCell ref="AI84:AI85"/>
+    <mergeCell ref="AJ84:AJ85"/>
+    <mergeCell ref="AK84:AK85"/>
+    <mergeCell ref="AL84:AL85"/>
+    <mergeCell ref="AM84:AM85"/>
+    <mergeCell ref="AN84:AN85"/>
+    <mergeCell ref="AO84:AO85"/>
+    <mergeCell ref="AG82:AG83"/>
+    <mergeCell ref="AH82:AH83"/>
+    <mergeCell ref="AI82:AI83"/>
+    <mergeCell ref="AJ82:AJ83"/>
+    <mergeCell ref="AK82:AK83"/>
+    <mergeCell ref="AL78:AL79"/>
+    <mergeCell ref="AN78:AN79"/>
+    <mergeCell ref="AO78:AO79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="AG80:AG81"/>
+    <mergeCell ref="AH80:AH81"/>
+    <mergeCell ref="AI80:AI81"/>
+    <mergeCell ref="AJ80:AJ81"/>
+    <mergeCell ref="AK80:AK81"/>
+    <mergeCell ref="AL80:AL81"/>
+    <mergeCell ref="AM80:AM81"/>
+    <mergeCell ref="AN80:AN81"/>
+    <mergeCell ref="AO80:AO81"/>
+    <mergeCell ref="AG78:AG79"/>
+    <mergeCell ref="AH78:AH79"/>
+    <mergeCell ref="AI78:AI79"/>
+    <mergeCell ref="AJ78:AJ79"/>
+    <mergeCell ref="AK78:AK79"/>
+    <mergeCell ref="AL74:AL75"/>
+    <mergeCell ref="AN74:AN75"/>
+    <mergeCell ref="AO74:AO75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="AG76:AG77"/>
+    <mergeCell ref="AH76:AH77"/>
+    <mergeCell ref="AI76:AI77"/>
+    <mergeCell ref="AJ76:AJ77"/>
+    <mergeCell ref="AK76:AK77"/>
+    <mergeCell ref="AL76:AL77"/>
+    <mergeCell ref="AM76:AM77"/>
+    <mergeCell ref="AN76:AN77"/>
+    <mergeCell ref="AO76:AO77"/>
+    <mergeCell ref="AG74:AG75"/>
+    <mergeCell ref="AH74:AH75"/>
+    <mergeCell ref="AI74:AI75"/>
+    <mergeCell ref="AJ74:AJ75"/>
+    <mergeCell ref="AK74:AK75"/>
+    <mergeCell ref="AL70:AL71"/>
+    <mergeCell ref="AN70:AN71"/>
+    <mergeCell ref="AO70:AO71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="AG72:AG73"/>
+    <mergeCell ref="AH72:AH73"/>
+    <mergeCell ref="AI72:AI73"/>
+    <mergeCell ref="AJ72:AJ73"/>
+    <mergeCell ref="AK72:AK73"/>
+    <mergeCell ref="AL72:AL73"/>
+    <mergeCell ref="AM72:AM73"/>
+    <mergeCell ref="AN72:AN73"/>
+    <mergeCell ref="AO72:AO73"/>
+    <mergeCell ref="AG70:AG71"/>
+    <mergeCell ref="AH70:AH71"/>
+    <mergeCell ref="AI70:AI71"/>
+    <mergeCell ref="AJ70:AJ71"/>
+    <mergeCell ref="AK70:AK71"/>
+    <mergeCell ref="AL66:AL67"/>
+    <mergeCell ref="AN66:AN67"/>
+    <mergeCell ref="AO66:AO67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="AG68:AG69"/>
+    <mergeCell ref="AH68:AH69"/>
+    <mergeCell ref="AI68:AI69"/>
+    <mergeCell ref="AJ68:AJ69"/>
+    <mergeCell ref="AK68:AK69"/>
+    <mergeCell ref="AL68:AL69"/>
+    <mergeCell ref="AM68:AM69"/>
+    <mergeCell ref="AN68:AN69"/>
+    <mergeCell ref="AO68:AO69"/>
+    <mergeCell ref="AG66:AG67"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="AI66:AI67"/>
+    <mergeCell ref="AJ66:AJ67"/>
+    <mergeCell ref="AK66:AK67"/>
+    <mergeCell ref="AL62:AL63"/>
+    <mergeCell ref="AN62:AN63"/>
+    <mergeCell ref="AO62:AO63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="AG64:AG65"/>
+    <mergeCell ref="AH64:AH65"/>
+    <mergeCell ref="AI64:AI65"/>
+    <mergeCell ref="AJ64:AJ65"/>
+    <mergeCell ref="AK64:AK65"/>
+    <mergeCell ref="AL64:AL65"/>
+    <mergeCell ref="AM64:AM65"/>
+    <mergeCell ref="AN64:AN65"/>
+    <mergeCell ref="AO64:AO65"/>
+    <mergeCell ref="AG62:AG63"/>
+    <mergeCell ref="AH62:AH63"/>
+    <mergeCell ref="AI62:AI63"/>
+    <mergeCell ref="AJ62:AJ63"/>
+    <mergeCell ref="AK62:AK63"/>
+    <mergeCell ref="AL58:AL59"/>
+    <mergeCell ref="AN58:AN59"/>
+    <mergeCell ref="AO58:AO59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="AG60:AG61"/>
+    <mergeCell ref="AH60:AH61"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AJ60:AJ61"/>
+    <mergeCell ref="AK60:AK61"/>
+    <mergeCell ref="AL60:AL61"/>
+    <mergeCell ref="AM60:AM61"/>
+    <mergeCell ref="AN60:AN61"/>
+    <mergeCell ref="AO60:AO61"/>
+    <mergeCell ref="AG58:AG59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AJ58:AJ59"/>
+    <mergeCell ref="AK58:AK59"/>
+    <mergeCell ref="AL54:AL55"/>
+    <mergeCell ref="AN54:AN55"/>
+    <mergeCell ref="AO54:AO55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="AG56:AG57"/>
+    <mergeCell ref="AH56:AH57"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AJ56:AJ57"/>
+    <mergeCell ref="AK56:AK57"/>
+    <mergeCell ref="AL56:AL57"/>
+    <mergeCell ref="AM56:AM57"/>
+    <mergeCell ref="AN56:AN57"/>
+    <mergeCell ref="AO56:AO57"/>
+    <mergeCell ref="AG54:AG55"/>
+    <mergeCell ref="AH54:AH55"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AJ54:AJ55"/>
+    <mergeCell ref="AK54:AK55"/>
+    <mergeCell ref="AL50:AL51"/>
+    <mergeCell ref="AN50:AN51"/>
+    <mergeCell ref="AO50:AO51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="AG52:AG53"/>
+    <mergeCell ref="AH52:AH53"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AJ52:AJ53"/>
+    <mergeCell ref="AK52:AK53"/>
+    <mergeCell ref="AL52:AL53"/>
+    <mergeCell ref="AM52:AM53"/>
+    <mergeCell ref="AN52:AN53"/>
+    <mergeCell ref="AO52:AO53"/>
+    <mergeCell ref="AG50:AG51"/>
+    <mergeCell ref="AH50:AH51"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AJ50:AJ51"/>
+    <mergeCell ref="AK50:AK51"/>
+    <mergeCell ref="AL46:AL47"/>
+    <mergeCell ref="AN46:AN47"/>
+    <mergeCell ref="AO46:AO47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="AG48:AG49"/>
+    <mergeCell ref="AH48:AH49"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AJ48:AJ49"/>
+    <mergeCell ref="AK48:AK49"/>
+    <mergeCell ref="AL48:AL49"/>
+    <mergeCell ref="AM48:AM49"/>
+    <mergeCell ref="AN48:AN49"/>
+    <mergeCell ref="AO48:AO49"/>
+    <mergeCell ref="AG46:AG47"/>
+    <mergeCell ref="AH46:AH47"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AJ46:AJ47"/>
+    <mergeCell ref="AK46:AK47"/>
+    <mergeCell ref="AL42:AL43"/>
+    <mergeCell ref="AN42:AN43"/>
+    <mergeCell ref="AO42:AO43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="AG44:AG45"/>
+    <mergeCell ref="AH44:AH45"/>
+    <mergeCell ref="AI44:AI45"/>
+    <mergeCell ref="AJ44:AJ45"/>
+    <mergeCell ref="AK44:AK45"/>
+    <mergeCell ref="AL44:AL45"/>
+    <mergeCell ref="AM44:AM45"/>
+    <mergeCell ref="AN44:AN45"/>
+    <mergeCell ref="AO44:AO45"/>
+    <mergeCell ref="AG42:AG43"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="AI42:AI43"/>
+    <mergeCell ref="AJ42:AJ43"/>
+    <mergeCell ref="AK42:AK43"/>
+    <mergeCell ref="AL38:AL39"/>
+    <mergeCell ref="AN38:AN39"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AH40:AH41"/>
+    <mergeCell ref="AI40:AI41"/>
+    <mergeCell ref="AJ40:AJ41"/>
+    <mergeCell ref="AK40:AK41"/>
+    <mergeCell ref="AL40:AL41"/>
+    <mergeCell ref="AM40:AM41"/>
+    <mergeCell ref="AN40:AN41"/>
+    <mergeCell ref="AO40:AO41"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="AH38:AH39"/>
+    <mergeCell ref="AI38:AI39"/>
+    <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="AK38:AK39"/>
+    <mergeCell ref="AK36:AK37"/>
+    <mergeCell ref="AL36:AL37"/>
+    <mergeCell ref="AM36:AM37"/>
+    <mergeCell ref="AN36:AN37"/>
+    <mergeCell ref="AO36:AO37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AH36:AH37"/>
+    <mergeCell ref="AI36:AI37"/>
+    <mergeCell ref="AJ36:AJ37"/>
+    <mergeCell ref="AL34:AL35"/>
+    <mergeCell ref="AN34:AN35"/>
+    <mergeCell ref="AO34:AO35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="AH28:AH29"/>
+    <mergeCell ref="AI28:AI29"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AK28:AK29"/>
+    <mergeCell ref="AL28:AL29"/>
+    <mergeCell ref="AM28:AM29"/>
+    <mergeCell ref="AN28:AN29"/>
+    <mergeCell ref="AO28:AO29"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AH34:AH35"/>
+    <mergeCell ref="AI34:AI35"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AK34:AK35"/>
+    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="AN30:AN31"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="AH32:AH33"/>
+    <mergeCell ref="AI32:AI33"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AL32:AL33"/>
+    <mergeCell ref="AM32:AM33"/>
+    <mergeCell ref="AN32:AN33"/>
+    <mergeCell ref="AO32:AO33"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AN26:AN27"/>
+    <mergeCell ref="AO26:AO27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AI26:AI27"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AK26:AK27"/>
+    <mergeCell ref="AK24:AK25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AM24:AM25"/>
+    <mergeCell ref="AN24:AN25"/>
+    <mergeCell ref="AO24:AO25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AN20:AN21"/>
+    <mergeCell ref="AO20:AO21"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AN22:AN23"/>
+    <mergeCell ref="AO22:AO23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="B134:AO134"/>
+    <mergeCell ref="B135:L135"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AN18:AN19"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="N133:R133"/>
+    <mergeCell ref="T133:X133"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AM20:AM21"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AJ16:AJ17"/>
     <mergeCell ref="AL12:AL13"/>
     <mergeCell ref="AM12:AM13"/>
     <mergeCell ref="AN12:AN13"/>
@@ -4609,29 +10010,20 @@
     <mergeCell ref="AK12:AK13"/>
     <mergeCell ref="AN14:AN15"/>
     <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO16:AO17"/>
-    <mergeCell ref="B26:AO26"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AN18:AN19"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="A1:AO1"/>
+    <mergeCell ref="A2:AO2"/>
+    <mergeCell ref="A3:AO3"/>
+    <mergeCell ref="AG4:AG9"/>
+    <mergeCell ref="AH4:AL4"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="AH7:AL7"/>
+    <mergeCell ref="AH8:AN9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/src/assets/template.xlsx
+++ b/src/assets/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Programming\scheduler\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC64B2A-4177-466B-A2F6-7964D57DA6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCAD816-67EE-4A32-93E6-1CA550229176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>${employeeName}</t>
   </si>
   <si>
-    <t>${nextEmployee}</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 havi munkaidő keret: 2018. 07. 01. - 2018. 08. 31.  július: 22X8=176 óra, augusztus:  22X8=176 óra        Összesen: 352 óra      SZ:  4 P: 5  FÜ: </t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>${startsAt: 19}</t>
+  </si>
+  <si>
+    <t>${nextEmployee}</t>
   </si>
 </sst>
 </file>
@@ -1271,6 +1271,12 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1303,12 +1309,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1842,8 +1842,8 @@
   </sheetPr>
   <dimension ref="A1:BU144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2430,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:73" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="3" spans="1:73" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
@@ -2568,97 +2568,97 @@
         <v>21</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG4" s="98"/>
       <c r="AH4" s="101" t="s">
@@ -2679,97 +2679,97 @@
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG5" s="99"/>
       <c r="AH5" s="106"/>
@@ -2786,97 +2786,97 @@
         <v>36</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG6" s="99"/>
       <c r="AH6" s="50"/>
@@ -2895,97 +2895,97 @@
         <v>23</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG7" s="99"/>
       <c r="AH7" s="109" t="s">
@@ -3004,97 +3004,97 @@
         <v>18</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG8" s="99"/>
       <c r="AH8" s="112"/>
@@ -3111,97 +3111,97 @@
         <v>24</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG9" s="100"/>
       <c r="AH9" s="115"/>
@@ -3380,103 +3380,103 @@
       </c>
     </row>
     <row r="12" spans="1:73" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE12" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF12" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG12" s="78"/>
+        <v>64</v>
+      </c>
+      <c r="AG12" s="80"/>
       <c r="AH12" s="91" t="s">
         <v>41</v>
       </c>
@@ -3486,19 +3486,19 @@
       <c r="AJ12" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="AK12" s="82" t="s">
+      <c r="AK12" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="AL12" s="84" t="s">
+      <c r="AL12" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="AM12" s="84" t="s">
+      <c r="AM12" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="AN12" s="82" t="s">
+      <c r="AN12" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="AO12" s="86"/>
+      <c r="AO12" s="76"/>
       <c r="AQ12" s="65"/>
       <c r="AR12" s="66"/>
       <c r="AS12" s="65"/>
@@ -3532,109 +3532,109 @@
       <c r="BU12" s="65"/>
     </row>
     <row r="13" spans="1:73" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AD13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF13" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG13" s="79"/>
+        <v>65</v>
+      </c>
+      <c r="AG13" s="81"/>
       <c r="AH13" s="92"/>
-      <c r="AI13" s="85"/>
+      <c r="AI13" s="87"/>
       <c r="AJ13" s="95"/>
-      <c r="AK13" s="83"/>
-      <c r="AL13" s="85"/>
-      <c r="AM13" s="85"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="87"/>
+      <c r="AK13" s="85"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="85"/>
+      <c r="AO13" s="77"/>
     </row>
     <row r="14" spans="1:73" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
@@ -3727,103 +3727,103 @@
       <c r="AO15" s="71"/>
     </row>
     <row r="16" spans="1:73" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
-        <v>48</v>
+      <c r="A16" s="78" t="s">
+        <v>74</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF16" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG16" s="78"/>
+        <v>64</v>
+      </c>
+      <c r="AG16" s="80"/>
       <c r="AH16" s="91" t="s">
         <v>41</v>
       </c>
@@ -3833,124 +3833,124 @@
       <c r="AJ16" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="AK16" s="82" t="s">
+      <c r="AK16" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="AL16" s="84" t="s">
+      <c r="AL16" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="AM16" s="84" t="s">
+      <c r="AM16" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="AN16" s="82" t="s">
+      <c r="AN16" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="AO16" s="86"/>
+      <c r="AO16" s="76"/>
     </row>
     <row r="17" spans="1:41" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AD17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF17" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG17" s="79"/>
+        <v>65</v>
+      </c>
+      <c r="AG17" s="81"/>
       <c r="AH17" s="92"/>
-      <c r="AI17" s="85"/>
+      <c r="AI17" s="87"/>
       <c r="AJ17" s="95"/>
-      <c r="AK17" s="83"/>
-      <c r="AL17" s="85"/>
-      <c r="AM17" s="85"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="87"/>
+      <c r="AK17" s="85"/>
+      <c r="AL17" s="87"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="85"/>
+      <c r="AO17" s="77"/>
     </row>
     <row r="18" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -4043,7 +4043,7 @@
       <c r="AO19" s="71"/>
     </row>
     <row r="20" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
@@ -4075,18 +4075,18 @@
       <c r="AD20" s="58"/>
       <c r="AE20" s="58"/>
       <c r="AF20" s="58"/>
-      <c r="AG20" s="78"/>
-      <c r="AH20" s="80"/>
-      <c r="AI20" s="82"/>
-      <c r="AJ20" s="82"/>
-      <c r="AK20" s="82"/>
-      <c r="AL20" s="84"/>
-      <c r="AM20" s="84"/>
-      <c r="AN20" s="82"/>
-      <c r="AO20" s="86"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="84"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="84"/>
+      <c r="AO20" s="76"/>
     </row>
     <row r="21" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -4118,15 +4118,15 @@
       <c r="AD21" s="59"/>
       <c r="AE21" s="59"/>
       <c r="AF21" s="59"/>
-      <c r="AG21" s="79"/>
-      <c r="AH21" s="81"/>
-      <c r="AI21" s="83"/>
-      <c r="AJ21" s="83"/>
-      <c r="AK21" s="83"/>
-      <c r="AL21" s="85"/>
-      <c r="AM21" s="85"/>
-      <c r="AN21" s="83"/>
-      <c r="AO21" s="87"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="83"/>
+      <c r="AI21" s="85"/>
+      <c r="AJ21" s="85"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="87"/>
+      <c r="AN21" s="85"/>
+      <c r="AO21" s="77"/>
     </row>
     <row r="22" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
@@ -4219,7 +4219,7 @@
       <c r="AO23" s="71"/>
     </row>
     <row r="24" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="76"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
       <c r="D24" s="58"/>
@@ -4251,18 +4251,18 @@
       <c r="AD24" s="58"/>
       <c r="AE24" s="58"/>
       <c r="AF24" s="58"/>
-      <c r="AG24" s="78"/>
-      <c r="AH24" s="80"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="84"/>
-      <c r="AM24" s="84"/>
-      <c r="AN24" s="82"/>
-      <c r="AO24" s="86"/>
+      <c r="AG24" s="80"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="84"/>
+      <c r="AJ24" s="84"/>
+      <c r="AK24" s="84"/>
+      <c r="AL24" s="86"/>
+      <c r="AM24" s="86"/>
+      <c r="AN24" s="84"/>
+      <c r="AO24" s="76"/>
     </row>
     <row r="25" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
@@ -4294,15 +4294,15 @@
       <c r="AD25" s="59"/>
       <c r="AE25" s="59"/>
       <c r="AF25" s="59"/>
-      <c r="AG25" s="79"/>
-      <c r="AH25" s="81"/>
-      <c r="AI25" s="83"/>
-      <c r="AJ25" s="83"/>
-      <c r="AK25" s="83"/>
-      <c r="AL25" s="85"/>
-      <c r="AM25" s="85"/>
-      <c r="AN25" s="83"/>
-      <c r="AO25" s="87"/>
+      <c r="AG25" s="81"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="85"/>
+      <c r="AJ25" s="85"/>
+      <c r="AK25" s="85"/>
+      <c r="AL25" s="87"/>
+      <c r="AM25" s="87"/>
+      <c r="AN25" s="85"/>
+      <c r="AO25" s="77"/>
     </row>
     <row r="26" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
@@ -4395,7 +4395,7 @@
       <c r="AO27" s="71"/>
     </row>
     <row r="28" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
@@ -4427,18 +4427,18 @@
       <c r="AD28" s="58"/>
       <c r="AE28" s="58"/>
       <c r="AF28" s="58"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="80"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="84"/>
-      <c r="AM28" s="84"/>
-      <c r="AN28" s="82"/>
-      <c r="AO28" s="86"/>
+      <c r="AG28" s="80"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="84"/>
+      <c r="AJ28" s="84"/>
+      <c r="AK28" s="84"/>
+      <c r="AL28" s="86"/>
+      <c r="AM28" s="86"/>
+      <c r="AN28" s="84"/>
+      <c r="AO28" s="76"/>
     </row>
     <row r="29" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -4470,15 +4470,15 @@
       <c r="AD29" s="59"/>
       <c r="AE29" s="59"/>
       <c r="AF29" s="59"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="81"/>
-      <c r="AI29" s="83"/>
-      <c r="AJ29" s="83"/>
-      <c r="AK29" s="83"/>
-      <c r="AL29" s="85"/>
-      <c r="AM29" s="85"/>
-      <c r="AN29" s="83"/>
-      <c r="AO29" s="87"/>
+      <c r="AG29" s="81"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="85"/>
+      <c r="AJ29" s="85"/>
+      <c r="AK29" s="85"/>
+      <c r="AL29" s="87"/>
+      <c r="AM29" s="87"/>
+      <c r="AN29" s="85"/>
+      <c r="AO29" s="77"/>
     </row>
     <row r="30" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
@@ -4571,7 +4571,7 @@
       <c r="AO31" s="71"/>
     </row>
     <row r="32" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="76"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="58"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
@@ -4603,18 +4603,18 @@
       <c r="AD32" s="58"/>
       <c r="AE32" s="58"/>
       <c r="AF32" s="58"/>
-      <c r="AG32" s="78"/>
-      <c r="AH32" s="80"/>
-      <c r="AI32" s="82"/>
-      <c r="AJ32" s="82"/>
-      <c r="AK32" s="82"/>
-      <c r="AL32" s="84"/>
-      <c r="AM32" s="84"/>
-      <c r="AN32" s="82"/>
-      <c r="AO32" s="86"/>
+      <c r="AG32" s="80"/>
+      <c r="AH32" s="82"/>
+      <c r="AI32" s="84"/>
+      <c r="AJ32" s="84"/>
+      <c r="AK32" s="84"/>
+      <c r="AL32" s="86"/>
+      <c r="AM32" s="86"/>
+      <c r="AN32" s="84"/>
+      <c r="AO32" s="76"/>
     </row>
     <row r="33" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
@@ -4646,15 +4646,15 @@
       <c r="AD33" s="59"/>
       <c r="AE33" s="59"/>
       <c r="AF33" s="59"/>
-      <c r="AG33" s="79"/>
-      <c r="AH33" s="81"/>
-      <c r="AI33" s="83"/>
-      <c r="AJ33" s="83"/>
-      <c r="AK33" s="83"/>
-      <c r="AL33" s="85"/>
-      <c r="AM33" s="85"/>
-      <c r="AN33" s="83"/>
-      <c r="AO33" s="87"/>
+      <c r="AG33" s="81"/>
+      <c r="AH33" s="83"/>
+      <c r="AI33" s="85"/>
+      <c r="AJ33" s="85"/>
+      <c r="AK33" s="85"/>
+      <c r="AL33" s="87"/>
+      <c r="AM33" s="87"/>
+      <c r="AN33" s="85"/>
+      <c r="AO33" s="77"/>
     </row>
     <row r="34" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
@@ -4747,7 +4747,7 @@
       <c r="AO35" s="71"/>
     </row>
     <row r="36" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="76"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="58"/>
       <c r="C36" s="58"/>
       <c r="D36" s="58"/>
@@ -4779,18 +4779,18 @@
       <c r="AD36" s="58"/>
       <c r="AE36" s="58"/>
       <c r="AF36" s="58"/>
-      <c r="AG36" s="78"/>
-      <c r="AH36" s="80"/>
-      <c r="AI36" s="82"/>
-      <c r="AJ36" s="82"/>
-      <c r="AK36" s="82"/>
-      <c r="AL36" s="84"/>
-      <c r="AM36" s="84"/>
-      <c r="AN36" s="82"/>
-      <c r="AO36" s="86"/>
+      <c r="AG36" s="80"/>
+      <c r="AH36" s="82"/>
+      <c r="AI36" s="84"/>
+      <c r="AJ36" s="84"/>
+      <c r="AK36" s="84"/>
+      <c r="AL36" s="86"/>
+      <c r="AM36" s="86"/>
+      <c r="AN36" s="84"/>
+      <c r="AO36" s="76"/>
     </row>
     <row r="37" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
@@ -4822,15 +4822,15 @@
       <c r="AD37" s="59"/>
       <c r="AE37" s="59"/>
       <c r="AF37" s="59"/>
-      <c r="AG37" s="79"/>
-      <c r="AH37" s="81"/>
-      <c r="AI37" s="83"/>
-      <c r="AJ37" s="83"/>
-      <c r="AK37" s="83"/>
-      <c r="AL37" s="85"/>
-      <c r="AM37" s="85"/>
-      <c r="AN37" s="83"/>
-      <c r="AO37" s="87"/>
+      <c r="AG37" s="81"/>
+      <c r="AH37" s="83"/>
+      <c r="AI37" s="85"/>
+      <c r="AJ37" s="85"/>
+      <c r="AK37" s="85"/>
+      <c r="AL37" s="87"/>
+      <c r="AM37" s="87"/>
+      <c r="AN37" s="85"/>
+      <c r="AO37" s="77"/>
     </row>
     <row r="38" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
@@ -4923,7 +4923,7 @@
       <c r="AO39" s="71"/>
     </row>
     <row r="40" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="76"/>
+      <c r="A40" s="78"/>
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
       <c r="D40" s="58"/>
@@ -4955,18 +4955,18 @@
       <c r="AD40" s="58"/>
       <c r="AE40" s="58"/>
       <c r="AF40" s="58"/>
-      <c r="AG40" s="78"/>
-      <c r="AH40" s="80"/>
-      <c r="AI40" s="82"/>
-      <c r="AJ40" s="82"/>
-      <c r="AK40" s="82"/>
-      <c r="AL40" s="84"/>
-      <c r="AM40" s="84"/>
-      <c r="AN40" s="82"/>
-      <c r="AO40" s="86"/>
+      <c r="AG40" s="80"/>
+      <c r="AH40" s="82"/>
+      <c r="AI40" s="84"/>
+      <c r="AJ40" s="84"/>
+      <c r="AK40" s="84"/>
+      <c r="AL40" s="86"/>
+      <c r="AM40" s="86"/>
+      <c r="AN40" s="84"/>
+      <c r="AO40" s="76"/>
     </row>
     <row r="41" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="77"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
@@ -4998,15 +4998,15 @@
       <c r="AD41" s="59"/>
       <c r="AE41" s="59"/>
       <c r="AF41" s="59"/>
-      <c r="AG41" s="79"/>
-      <c r="AH41" s="81"/>
-      <c r="AI41" s="83"/>
-      <c r="AJ41" s="83"/>
-      <c r="AK41" s="83"/>
-      <c r="AL41" s="85"/>
-      <c r="AM41" s="85"/>
-      <c r="AN41" s="83"/>
-      <c r="AO41" s="87"/>
+      <c r="AG41" s="81"/>
+      <c r="AH41" s="83"/>
+      <c r="AI41" s="85"/>
+      <c r="AJ41" s="85"/>
+      <c r="AK41" s="85"/>
+      <c r="AL41" s="87"/>
+      <c r="AM41" s="87"/>
+      <c r="AN41" s="85"/>
+      <c r="AO41" s="77"/>
     </row>
     <row r="42" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
@@ -5099,7 +5099,7 @@
       <c r="AO43" s="71"/>
     </row>
     <row r="44" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="76"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="58"/>
       <c r="C44" s="58"/>
       <c r="D44" s="58"/>
@@ -5131,18 +5131,18 @@
       <c r="AD44" s="58"/>
       <c r="AE44" s="58"/>
       <c r="AF44" s="58"/>
-      <c r="AG44" s="78"/>
-      <c r="AH44" s="80"/>
-      <c r="AI44" s="82"/>
-      <c r="AJ44" s="82"/>
-      <c r="AK44" s="82"/>
-      <c r="AL44" s="84"/>
-      <c r="AM44" s="84"/>
-      <c r="AN44" s="82"/>
-      <c r="AO44" s="86"/>
+      <c r="AG44" s="80"/>
+      <c r="AH44" s="82"/>
+      <c r="AI44" s="84"/>
+      <c r="AJ44" s="84"/>
+      <c r="AK44" s="84"/>
+      <c r="AL44" s="86"/>
+      <c r="AM44" s="86"/>
+      <c r="AN44" s="84"/>
+      <c r="AO44" s="76"/>
     </row>
     <row r="45" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
@@ -5174,15 +5174,15 @@
       <c r="AD45" s="59"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="59"/>
-      <c r="AG45" s="79"/>
-      <c r="AH45" s="81"/>
-      <c r="AI45" s="83"/>
-      <c r="AJ45" s="83"/>
-      <c r="AK45" s="83"/>
-      <c r="AL45" s="85"/>
-      <c r="AM45" s="85"/>
-      <c r="AN45" s="83"/>
-      <c r="AO45" s="87"/>
+      <c r="AG45" s="81"/>
+      <c r="AH45" s="83"/>
+      <c r="AI45" s="85"/>
+      <c r="AJ45" s="85"/>
+      <c r="AK45" s="85"/>
+      <c r="AL45" s="87"/>
+      <c r="AM45" s="87"/>
+      <c r="AN45" s="85"/>
+      <c r="AO45" s="77"/>
     </row>
     <row r="46" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
@@ -5275,7 +5275,7 @@
       <c r="AO47" s="71"/>
     </row>
     <row r="48" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="76"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="58"/>
       <c r="C48" s="58"/>
       <c r="D48" s="58"/>
@@ -5307,18 +5307,18 @@
       <c r="AD48" s="58"/>
       <c r="AE48" s="58"/>
       <c r="AF48" s="58"/>
-      <c r="AG48" s="78"/>
-      <c r="AH48" s="80"/>
-      <c r="AI48" s="82"/>
-      <c r="AJ48" s="82"/>
-      <c r="AK48" s="82"/>
-      <c r="AL48" s="84"/>
-      <c r="AM48" s="84"/>
-      <c r="AN48" s="82"/>
-      <c r="AO48" s="86"/>
+      <c r="AG48" s="80"/>
+      <c r="AH48" s="82"/>
+      <c r="AI48" s="84"/>
+      <c r="AJ48" s="84"/>
+      <c r="AK48" s="84"/>
+      <c r="AL48" s="86"/>
+      <c r="AM48" s="86"/>
+      <c r="AN48" s="84"/>
+      <c r="AO48" s="76"/>
     </row>
     <row r="49" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
@@ -5350,15 +5350,15 @@
       <c r="AD49" s="59"/>
       <c r="AE49" s="59"/>
       <c r="AF49" s="59"/>
-      <c r="AG49" s="79"/>
-      <c r="AH49" s="81"/>
-      <c r="AI49" s="83"/>
-      <c r="AJ49" s="83"/>
-      <c r="AK49" s="83"/>
-      <c r="AL49" s="85"/>
-      <c r="AM49" s="85"/>
-      <c r="AN49" s="83"/>
-      <c r="AO49" s="87"/>
+      <c r="AG49" s="81"/>
+      <c r="AH49" s="83"/>
+      <c r="AI49" s="85"/>
+      <c r="AJ49" s="85"/>
+      <c r="AK49" s="85"/>
+      <c r="AL49" s="87"/>
+      <c r="AM49" s="87"/>
+      <c r="AN49" s="85"/>
+      <c r="AO49" s="77"/>
     </row>
     <row r="50" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
@@ -5451,7 +5451,7 @@
       <c r="AO51" s="71"/>
     </row>
     <row r="52" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="76"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="58"/>
       <c r="C52" s="58"/>
       <c r="D52" s="58"/>
@@ -5483,18 +5483,18 @@
       <c r="AD52" s="58"/>
       <c r="AE52" s="58"/>
       <c r="AF52" s="58"/>
-      <c r="AG52" s="78"/>
-      <c r="AH52" s="80"/>
-      <c r="AI52" s="82"/>
-      <c r="AJ52" s="82"/>
-      <c r="AK52" s="82"/>
-      <c r="AL52" s="84"/>
-      <c r="AM52" s="84"/>
-      <c r="AN52" s="82"/>
-      <c r="AO52" s="86"/>
+      <c r="AG52" s="80"/>
+      <c r="AH52" s="82"/>
+      <c r="AI52" s="84"/>
+      <c r="AJ52" s="84"/>
+      <c r="AK52" s="84"/>
+      <c r="AL52" s="86"/>
+      <c r="AM52" s="86"/>
+      <c r="AN52" s="84"/>
+      <c r="AO52" s="76"/>
     </row>
     <row r="53" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="77"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
@@ -5526,15 +5526,15 @@
       <c r="AD53" s="59"/>
       <c r="AE53" s="59"/>
       <c r="AF53" s="59"/>
-      <c r="AG53" s="79"/>
-      <c r="AH53" s="81"/>
-      <c r="AI53" s="83"/>
-      <c r="AJ53" s="83"/>
-      <c r="AK53" s="83"/>
-      <c r="AL53" s="85"/>
-      <c r="AM53" s="85"/>
-      <c r="AN53" s="83"/>
-      <c r="AO53" s="87"/>
+      <c r="AG53" s="81"/>
+      <c r="AH53" s="83"/>
+      <c r="AI53" s="85"/>
+      <c r="AJ53" s="85"/>
+      <c r="AK53" s="85"/>
+      <c r="AL53" s="87"/>
+      <c r="AM53" s="87"/>
+      <c r="AN53" s="85"/>
+      <c r="AO53" s="77"/>
     </row>
     <row r="54" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
@@ -5627,7 +5627,7 @@
       <c r="AO55" s="71"/>
     </row>
     <row r="56" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="76"/>
+      <c r="A56" s="78"/>
       <c r="B56" s="58"/>
       <c r="C56" s="58"/>
       <c r="D56" s="58"/>
@@ -5659,18 +5659,18 @@
       <c r="AD56" s="58"/>
       <c r="AE56" s="58"/>
       <c r="AF56" s="58"/>
-      <c r="AG56" s="78"/>
-      <c r="AH56" s="80"/>
-      <c r="AI56" s="82"/>
-      <c r="AJ56" s="82"/>
-      <c r="AK56" s="82"/>
-      <c r="AL56" s="84"/>
-      <c r="AM56" s="84"/>
-      <c r="AN56" s="82"/>
-      <c r="AO56" s="86"/>
+      <c r="AG56" s="80"/>
+      <c r="AH56" s="82"/>
+      <c r="AI56" s="84"/>
+      <c r="AJ56" s="84"/>
+      <c r="AK56" s="84"/>
+      <c r="AL56" s="86"/>
+      <c r="AM56" s="86"/>
+      <c r="AN56" s="84"/>
+      <c r="AO56" s="76"/>
     </row>
     <row r="57" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
+      <c r="A57" s="79"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
       <c r="D57" s="59"/>
@@ -5702,15 +5702,15 @@
       <c r="AD57" s="59"/>
       <c r="AE57" s="59"/>
       <c r="AF57" s="59"/>
-      <c r="AG57" s="79"/>
-      <c r="AH57" s="81"/>
-      <c r="AI57" s="83"/>
-      <c r="AJ57" s="83"/>
-      <c r="AK57" s="83"/>
-      <c r="AL57" s="85"/>
-      <c r="AM57" s="85"/>
-      <c r="AN57" s="83"/>
-      <c r="AO57" s="87"/>
+      <c r="AG57" s="81"/>
+      <c r="AH57" s="83"/>
+      <c r="AI57" s="85"/>
+      <c r="AJ57" s="85"/>
+      <c r="AK57" s="85"/>
+      <c r="AL57" s="87"/>
+      <c r="AM57" s="87"/>
+      <c r="AN57" s="85"/>
+      <c r="AO57" s="77"/>
     </row>
     <row r="58" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -5803,7 +5803,7 @@
       <c r="AO59" s="71"/>
     </row>
     <row r="60" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="76"/>
+      <c r="A60" s="78"/>
       <c r="B60" s="58"/>
       <c r="C60" s="58"/>
       <c r="D60" s="58"/>
@@ -5835,18 +5835,18 @@
       <c r="AD60" s="58"/>
       <c r="AE60" s="58"/>
       <c r="AF60" s="58"/>
-      <c r="AG60" s="78"/>
-      <c r="AH60" s="80"/>
-      <c r="AI60" s="82"/>
-      <c r="AJ60" s="82"/>
-      <c r="AK60" s="82"/>
-      <c r="AL60" s="84"/>
-      <c r="AM60" s="84"/>
-      <c r="AN60" s="82"/>
-      <c r="AO60" s="86"/>
+      <c r="AG60" s="80"/>
+      <c r="AH60" s="82"/>
+      <c r="AI60" s="84"/>
+      <c r="AJ60" s="84"/>
+      <c r="AK60" s="84"/>
+      <c r="AL60" s="86"/>
+      <c r="AM60" s="86"/>
+      <c r="AN60" s="84"/>
+      <c r="AO60" s="76"/>
     </row>
     <row r="61" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="77"/>
+      <c r="A61" s="79"/>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
       <c r="D61" s="59"/>
@@ -5878,15 +5878,15 @@
       <c r="AD61" s="59"/>
       <c r="AE61" s="59"/>
       <c r="AF61" s="59"/>
-      <c r="AG61" s="79"/>
-      <c r="AH61" s="81"/>
-      <c r="AI61" s="83"/>
-      <c r="AJ61" s="83"/>
-      <c r="AK61" s="83"/>
-      <c r="AL61" s="85"/>
-      <c r="AM61" s="85"/>
-      <c r="AN61" s="83"/>
-      <c r="AO61" s="87"/>
+      <c r="AG61" s="81"/>
+      <c r="AH61" s="83"/>
+      <c r="AI61" s="85"/>
+      <c r="AJ61" s="85"/>
+      <c r="AK61" s="85"/>
+      <c r="AL61" s="87"/>
+      <c r="AM61" s="87"/>
+      <c r="AN61" s="85"/>
+      <c r="AO61" s="77"/>
     </row>
     <row r="62" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
@@ -5979,7 +5979,7 @@
       <c r="AO63" s="71"/>
     </row>
     <row r="64" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="76"/>
+      <c r="A64" s="78"/>
       <c r="B64" s="58"/>
       <c r="C64" s="58"/>
       <c r="D64" s="58"/>
@@ -6011,18 +6011,18 @@
       <c r="AD64" s="58"/>
       <c r="AE64" s="58"/>
       <c r="AF64" s="58"/>
-      <c r="AG64" s="78"/>
-      <c r="AH64" s="80"/>
-      <c r="AI64" s="82"/>
-      <c r="AJ64" s="82"/>
-      <c r="AK64" s="82"/>
-      <c r="AL64" s="84"/>
-      <c r="AM64" s="84"/>
-      <c r="AN64" s="82"/>
-      <c r="AO64" s="86"/>
+      <c r="AG64" s="80"/>
+      <c r="AH64" s="82"/>
+      <c r="AI64" s="84"/>
+      <c r="AJ64" s="84"/>
+      <c r="AK64" s="84"/>
+      <c r="AL64" s="86"/>
+      <c r="AM64" s="86"/>
+      <c r="AN64" s="84"/>
+      <c r="AO64" s="76"/>
     </row>
     <row r="65" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
       <c r="D65" s="59"/>
@@ -6054,15 +6054,15 @@
       <c r="AD65" s="59"/>
       <c r="AE65" s="59"/>
       <c r="AF65" s="59"/>
-      <c r="AG65" s="79"/>
-      <c r="AH65" s="81"/>
-      <c r="AI65" s="83"/>
-      <c r="AJ65" s="83"/>
-      <c r="AK65" s="83"/>
-      <c r="AL65" s="85"/>
-      <c r="AM65" s="85"/>
-      <c r="AN65" s="83"/>
-      <c r="AO65" s="87"/>
+      <c r="AG65" s="81"/>
+      <c r="AH65" s="83"/>
+      <c r="AI65" s="85"/>
+      <c r="AJ65" s="85"/>
+      <c r="AK65" s="85"/>
+      <c r="AL65" s="87"/>
+      <c r="AM65" s="87"/>
+      <c r="AN65" s="85"/>
+      <c r="AO65" s="77"/>
     </row>
     <row r="66" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
@@ -6155,7 +6155,7 @@
       <c r="AO67" s="71"/>
     </row>
     <row r="68" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="76"/>
+      <c r="A68" s="78"/>
       <c r="B68" s="58"/>
       <c r="C68" s="58"/>
       <c r="D68" s="58"/>
@@ -6187,18 +6187,18 @@
       <c r="AD68" s="58"/>
       <c r="AE68" s="58"/>
       <c r="AF68" s="58"/>
-      <c r="AG68" s="78"/>
-      <c r="AH68" s="80"/>
-      <c r="AI68" s="82"/>
-      <c r="AJ68" s="82"/>
-      <c r="AK68" s="82"/>
-      <c r="AL68" s="84"/>
-      <c r="AM68" s="84"/>
-      <c r="AN68" s="82"/>
-      <c r="AO68" s="86"/>
+      <c r="AG68" s="80"/>
+      <c r="AH68" s="82"/>
+      <c r="AI68" s="84"/>
+      <c r="AJ68" s="84"/>
+      <c r="AK68" s="84"/>
+      <c r="AL68" s="86"/>
+      <c r="AM68" s="86"/>
+      <c r="AN68" s="84"/>
+      <c r="AO68" s="76"/>
     </row>
     <row r="69" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="77"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
@@ -6230,15 +6230,15 @@
       <c r="AD69" s="59"/>
       <c r="AE69" s="59"/>
       <c r="AF69" s="59"/>
-      <c r="AG69" s="79"/>
-      <c r="AH69" s="81"/>
-      <c r="AI69" s="83"/>
-      <c r="AJ69" s="83"/>
-      <c r="AK69" s="83"/>
-      <c r="AL69" s="85"/>
-      <c r="AM69" s="85"/>
-      <c r="AN69" s="83"/>
-      <c r="AO69" s="87"/>
+      <c r="AG69" s="81"/>
+      <c r="AH69" s="83"/>
+      <c r="AI69" s="85"/>
+      <c r="AJ69" s="85"/>
+      <c r="AK69" s="85"/>
+      <c r="AL69" s="87"/>
+      <c r="AM69" s="87"/>
+      <c r="AN69" s="85"/>
+      <c r="AO69" s="77"/>
     </row>
     <row r="70" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
@@ -6331,7 +6331,7 @@
       <c r="AO71" s="71"/>
     </row>
     <row r="72" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="76"/>
+      <c r="A72" s="78"/>
       <c r="B72" s="58"/>
       <c r="C72" s="58"/>
       <c r="D72" s="58"/>
@@ -6363,18 +6363,18 @@
       <c r="AD72" s="58"/>
       <c r="AE72" s="58"/>
       <c r="AF72" s="58"/>
-      <c r="AG72" s="78"/>
-      <c r="AH72" s="80"/>
-      <c r="AI72" s="82"/>
-      <c r="AJ72" s="82"/>
-      <c r="AK72" s="82"/>
-      <c r="AL72" s="84"/>
-      <c r="AM72" s="84"/>
-      <c r="AN72" s="82"/>
-      <c r="AO72" s="86"/>
+      <c r="AG72" s="80"/>
+      <c r="AH72" s="82"/>
+      <c r="AI72" s="84"/>
+      <c r="AJ72" s="84"/>
+      <c r="AK72" s="84"/>
+      <c r="AL72" s="86"/>
+      <c r="AM72" s="86"/>
+      <c r="AN72" s="84"/>
+      <c r="AO72" s="76"/>
     </row>
     <row r="73" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="77"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="59"/>
@@ -6406,15 +6406,15 @@
       <c r="AD73" s="59"/>
       <c r="AE73" s="59"/>
       <c r="AF73" s="59"/>
-      <c r="AG73" s="79"/>
-      <c r="AH73" s="81"/>
-      <c r="AI73" s="83"/>
-      <c r="AJ73" s="83"/>
-      <c r="AK73" s="83"/>
-      <c r="AL73" s="85"/>
-      <c r="AM73" s="85"/>
-      <c r="AN73" s="83"/>
-      <c r="AO73" s="87"/>
+      <c r="AG73" s="81"/>
+      <c r="AH73" s="83"/>
+      <c r="AI73" s="85"/>
+      <c r="AJ73" s="85"/>
+      <c r="AK73" s="85"/>
+      <c r="AL73" s="87"/>
+      <c r="AM73" s="87"/>
+      <c r="AN73" s="85"/>
+      <c r="AO73" s="77"/>
     </row>
     <row r="74" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -6507,7 +6507,7 @@
       <c r="AO75" s="71"/>
     </row>
     <row r="76" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="76"/>
+      <c r="A76" s="78"/>
       <c r="B76" s="58"/>
       <c r="C76" s="58"/>
       <c r="D76" s="58"/>
@@ -6539,18 +6539,18 @@
       <c r="AD76" s="58"/>
       <c r="AE76" s="58"/>
       <c r="AF76" s="58"/>
-      <c r="AG76" s="78"/>
-      <c r="AH76" s="80"/>
-      <c r="AI76" s="82"/>
-      <c r="AJ76" s="82"/>
-      <c r="AK76" s="82"/>
-      <c r="AL76" s="84"/>
-      <c r="AM76" s="84"/>
-      <c r="AN76" s="82"/>
-      <c r="AO76" s="86"/>
+      <c r="AG76" s="80"/>
+      <c r="AH76" s="82"/>
+      <c r="AI76" s="84"/>
+      <c r="AJ76" s="84"/>
+      <c r="AK76" s="84"/>
+      <c r="AL76" s="86"/>
+      <c r="AM76" s="86"/>
+      <c r="AN76" s="84"/>
+      <c r="AO76" s="76"/>
     </row>
     <row r="77" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="77"/>
+      <c r="A77" s="79"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
@@ -6582,15 +6582,15 @@
       <c r="AD77" s="59"/>
       <c r="AE77" s="59"/>
       <c r="AF77" s="59"/>
-      <c r="AG77" s="79"/>
-      <c r="AH77" s="81"/>
-      <c r="AI77" s="83"/>
-      <c r="AJ77" s="83"/>
-      <c r="AK77" s="83"/>
-      <c r="AL77" s="85"/>
-      <c r="AM77" s="85"/>
-      <c r="AN77" s="83"/>
-      <c r="AO77" s="87"/>
+      <c r="AG77" s="81"/>
+      <c r="AH77" s="83"/>
+      <c r="AI77" s="85"/>
+      <c r="AJ77" s="85"/>
+      <c r="AK77" s="85"/>
+      <c r="AL77" s="87"/>
+      <c r="AM77" s="87"/>
+      <c r="AN77" s="85"/>
+      <c r="AO77" s="77"/>
     </row>
     <row r="78" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -6683,7 +6683,7 @@
       <c r="AO79" s="71"/>
     </row>
     <row r="80" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="76"/>
+      <c r="A80" s="78"/>
       <c r="B80" s="58"/>
       <c r="C80" s="58"/>
       <c r="D80" s="58"/>
@@ -6715,18 +6715,18 @@
       <c r="AD80" s="58"/>
       <c r="AE80" s="58"/>
       <c r="AF80" s="58"/>
-      <c r="AG80" s="78"/>
-      <c r="AH80" s="80"/>
-      <c r="AI80" s="82"/>
-      <c r="AJ80" s="82"/>
-      <c r="AK80" s="82"/>
-      <c r="AL80" s="84"/>
-      <c r="AM80" s="84"/>
-      <c r="AN80" s="82"/>
-      <c r="AO80" s="86"/>
+      <c r="AG80" s="80"/>
+      <c r="AH80" s="82"/>
+      <c r="AI80" s="84"/>
+      <c r="AJ80" s="84"/>
+      <c r="AK80" s="84"/>
+      <c r="AL80" s="86"/>
+      <c r="AM80" s="86"/>
+      <c r="AN80" s="84"/>
+      <c r="AO80" s="76"/>
     </row>
     <row r="81" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="77"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
@@ -6758,15 +6758,15 @@
       <c r="AD81" s="59"/>
       <c r="AE81" s="59"/>
       <c r="AF81" s="59"/>
-      <c r="AG81" s="79"/>
-      <c r="AH81" s="81"/>
-      <c r="AI81" s="83"/>
-      <c r="AJ81" s="83"/>
-      <c r="AK81" s="83"/>
-      <c r="AL81" s="85"/>
-      <c r="AM81" s="85"/>
-      <c r="AN81" s="83"/>
-      <c r="AO81" s="87"/>
+      <c r="AG81" s="81"/>
+      <c r="AH81" s="83"/>
+      <c r="AI81" s="85"/>
+      <c r="AJ81" s="85"/>
+      <c r="AK81" s="85"/>
+      <c r="AL81" s="87"/>
+      <c r="AM81" s="87"/>
+      <c r="AN81" s="85"/>
+      <c r="AO81" s="77"/>
     </row>
     <row r="82" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
@@ -6859,7 +6859,7 @@
       <c r="AO83" s="71"/>
     </row>
     <row r="84" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="76"/>
+      <c r="A84" s="78"/>
       <c r="B84" s="58"/>
       <c r="C84" s="58"/>
       <c r="D84" s="58"/>
@@ -6891,18 +6891,18 @@
       <c r="AD84" s="58"/>
       <c r="AE84" s="58"/>
       <c r="AF84" s="58"/>
-      <c r="AG84" s="78"/>
-      <c r="AH84" s="80"/>
-      <c r="AI84" s="82"/>
-      <c r="AJ84" s="82"/>
-      <c r="AK84" s="82"/>
-      <c r="AL84" s="84"/>
-      <c r="AM84" s="84"/>
-      <c r="AN84" s="82"/>
-      <c r="AO84" s="86"/>
+      <c r="AG84" s="80"/>
+      <c r="AH84" s="82"/>
+      <c r="AI84" s="84"/>
+      <c r="AJ84" s="84"/>
+      <c r="AK84" s="84"/>
+      <c r="AL84" s="86"/>
+      <c r="AM84" s="86"/>
+      <c r="AN84" s="84"/>
+      <c r="AO84" s="76"/>
     </row>
     <row r="85" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="59"/>
@@ -6934,15 +6934,15 @@
       <c r="AD85" s="59"/>
       <c r="AE85" s="59"/>
       <c r="AF85" s="59"/>
-      <c r="AG85" s="79"/>
-      <c r="AH85" s="81"/>
-      <c r="AI85" s="83"/>
-      <c r="AJ85" s="83"/>
-      <c r="AK85" s="83"/>
-      <c r="AL85" s="85"/>
-      <c r="AM85" s="85"/>
-      <c r="AN85" s="83"/>
-      <c r="AO85" s="87"/>
+      <c r="AG85" s="81"/>
+      <c r="AH85" s="83"/>
+      <c r="AI85" s="85"/>
+      <c r="AJ85" s="85"/>
+      <c r="AK85" s="85"/>
+      <c r="AL85" s="87"/>
+      <c r="AM85" s="87"/>
+      <c r="AN85" s="85"/>
+      <c r="AO85" s="77"/>
     </row>
     <row r="86" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
@@ -7035,7 +7035,7 @@
       <c r="AO87" s="71"/>
     </row>
     <row r="88" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="76"/>
+      <c r="A88" s="78"/>
       <c r="B88" s="58"/>
       <c r="C88" s="58"/>
       <c r="D88" s="58"/>
@@ -7067,18 +7067,18 @@
       <c r="AD88" s="58"/>
       <c r="AE88" s="58"/>
       <c r="AF88" s="58"/>
-      <c r="AG88" s="78"/>
-      <c r="AH88" s="80"/>
-      <c r="AI88" s="82"/>
-      <c r="AJ88" s="82"/>
-      <c r="AK88" s="82"/>
-      <c r="AL88" s="84"/>
-      <c r="AM88" s="84"/>
-      <c r="AN88" s="82"/>
-      <c r="AO88" s="86"/>
+      <c r="AG88" s="80"/>
+      <c r="AH88" s="82"/>
+      <c r="AI88" s="84"/>
+      <c r="AJ88" s="84"/>
+      <c r="AK88" s="84"/>
+      <c r="AL88" s="86"/>
+      <c r="AM88" s="86"/>
+      <c r="AN88" s="84"/>
+      <c r="AO88" s="76"/>
     </row>
     <row r="89" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="77"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="59"/>
@@ -7110,15 +7110,15 @@
       <c r="AD89" s="59"/>
       <c r="AE89" s="59"/>
       <c r="AF89" s="59"/>
-      <c r="AG89" s="79"/>
-      <c r="AH89" s="81"/>
-      <c r="AI89" s="83"/>
-      <c r="AJ89" s="83"/>
-      <c r="AK89" s="83"/>
-      <c r="AL89" s="85"/>
-      <c r="AM89" s="85"/>
-      <c r="AN89" s="83"/>
-      <c r="AO89" s="87"/>
+      <c r="AG89" s="81"/>
+      <c r="AH89" s="83"/>
+      <c r="AI89" s="85"/>
+      <c r="AJ89" s="85"/>
+      <c r="AK89" s="85"/>
+      <c r="AL89" s="87"/>
+      <c r="AM89" s="87"/>
+      <c r="AN89" s="85"/>
+      <c r="AO89" s="77"/>
     </row>
     <row r="90" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
@@ -7211,7 +7211,7 @@
       <c r="AO91" s="71"/>
     </row>
     <row r="92" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="76"/>
+      <c r="A92" s="78"/>
       <c r="B92" s="58"/>
       <c r="C92" s="58"/>
       <c r="D92" s="58"/>
@@ -7243,18 +7243,18 @@
       <c r="AD92" s="58"/>
       <c r="AE92" s="58"/>
       <c r="AF92" s="58"/>
-      <c r="AG92" s="78"/>
-      <c r="AH92" s="80"/>
-      <c r="AI92" s="82"/>
-      <c r="AJ92" s="82"/>
-      <c r="AK92" s="82"/>
-      <c r="AL92" s="84"/>
-      <c r="AM92" s="84"/>
-      <c r="AN92" s="82"/>
-      <c r="AO92" s="86"/>
+      <c r="AG92" s="80"/>
+      <c r="AH92" s="82"/>
+      <c r="AI92" s="84"/>
+      <c r="AJ92" s="84"/>
+      <c r="AK92" s="84"/>
+      <c r="AL92" s="86"/>
+      <c r="AM92" s="86"/>
+      <c r="AN92" s="84"/>
+      <c r="AO92" s="76"/>
     </row>
     <row r="93" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="77"/>
+      <c r="A93" s="79"/>
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
@@ -7286,15 +7286,15 @@
       <c r="AD93" s="59"/>
       <c r="AE93" s="59"/>
       <c r="AF93" s="59"/>
-      <c r="AG93" s="79"/>
-      <c r="AH93" s="81"/>
-      <c r="AI93" s="83"/>
-      <c r="AJ93" s="83"/>
-      <c r="AK93" s="83"/>
-      <c r="AL93" s="85"/>
-      <c r="AM93" s="85"/>
-      <c r="AN93" s="83"/>
-      <c r="AO93" s="87"/>
+      <c r="AG93" s="81"/>
+      <c r="AH93" s="83"/>
+      <c r="AI93" s="85"/>
+      <c r="AJ93" s="85"/>
+      <c r="AK93" s="85"/>
+      <c r="AL93" s="87"/>
+      <c r="AM93" s="87"/>
+      <c r="AN93" s="85"/>
+      <c r="AO93" s="77"/>
     </row>
     <row r="94" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
@@ -7387,7 +7387,7 @@
       <c r="AO95" s="71"/>
     </row>
     <row r="96" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="76"/>
+      <c r="A96" s="78"/>
       <c r="B96" s="58"/>
       <c r="C96" s="58"/>
       <c r="D96" s="58"/>
@@ -7419,18 +7419,18 @@
       <c r="AD96" s="58"/>
       <c r="AE96" s="58"/>
       <c r="AF96" s="58"/>
-      <c r="AG96" s="78"/>
-      <c r="AH96" s="80"/>
-      <c r="AI96" s="82"/>
-      <c r="AJ96" s="82"/>
-      <c r="AK96" s="82"/>
-      <c r="AL96" s="84"/>
-      <c r="AM96" s="84"/>
-      <c r="AN96" s="82"/>
-      <c r="AO96" s="86"/>
+      <c r="AG96" s="80"/>
+      <c r="AH96" s="82"/>
+      <c r="AI96" s="84"/>
+      <c r="AJ96" s="84"/>
+      <c r="AK96" s="84"/>
+      <c r="AL96" s="86"/>
+      <c r="AM96" s="86"/>
+      <c r="AN96" s="84"/>
+      <c r="AO96" s="76"/>
     </row>
     <row r="97" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
       <c r="D97" s="59"/>
@@ -7462,15 +7462,15 @@
       <c r="AD97" s="59"/>
       <c r="AE97" s="59"/>
       <c r="AF97" s="59"/>
-      <c r="AG97" s="79"/>
-      <c r="AH97" s="81"/>
-      <c r="AI97" s="83"/>
-      <c r="AJ97" s="83"/>
-      <c r="AK97" s="83"/>
-      <c r="AL97" s="85"/>
-      <c r="AM97" s="85"/>
-      <c r="AN97" s="83"/>
-      <c r="AO97" s="87"/>
+      <c r="AG97" s="81"/>
+      <c r="AH97" s="83"/>
+      <c r="AI97" s="85"/>
+      <c r="AJ97" s="85"/>
+      <c r="AK97" s="85"/>
+      <c r="AL97" s="87"/>
+      <c r="AM97" s="87"/>
+      <c r="AN97" s="85"/>
+      <c r="AO97" s="77"/>
     </row>
     <row r="98" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
@@ -7563,7 +7563,7 @@
       <c r="AO99" s="71"/>
     </row>
     <row r="100" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="76"/>
+      <c r="A100" s="78"/>
       <c r="B100" s="58"/>
       <c r="C100" s="58"/>
       <c r="D100" s="58"/>
@@ -7595,18 +7595,18 @@
       <c r="AD100" s="58"/>
       <c r="AE100" s="58"/>
       <c r="AF100" s="58"/>
-      <c r="AG100" s="78"/>
-      <c r="AH100" s="80"/>
-      <c r="AI100" s="82"/>
-      <c r="AJ100" s="82"/>
-      <c r="AK100" s="82"/>
-      <c r="AL100" s="84"/>
-      <c r="AM100" s="84"/>
-      <c r="AN100" s="82"/>
-      <c r="AO100" s="86"/>
+      <c r="AG100" s="80"/>
+      <c r="AH100" s="82"/>
+      <c r="AI100" s="84"/>
+      <c r="AJ100" s="84"/>
+      <c r="AK100" s="84"/>
+      <c r="AL100" s="86"/>
+      <c r="AM100" s="86"/>
+      <c r="AN100" s="84"/>
+      <c r="AO100" s="76"/>
     </row>
     <row r="101" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="77"/>
+      <c r="A101" s="79"/>
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
       <c r="D101" s="59"/>
@@ -7638,15 +7638,15 @@
       <c r="AD101" s="59"/>
       <c r="AE101" s="59"/>
       <c r="AF101" s="59"/>
-      <c r="AG101" s="79"/>
-      <c r="AH101" s="81"/>
-      <c r="AI101" s="83"/>
-      <c r="AJ101" s="83"/>
-      <c r="AK101" s="83"/>
-      <c r="AL101" s="85"/>
-      <c r="AM101" s="85"/>
-      <c r="AN101" s="83"/>
-      <c r="AO101" s="87"/>
+      <c r="AG101" s="81"/>
+      <c r="AH101" s="83"/>
+      <c r="AI101" s="85"/>
+      <c r="AJ101" s="85"/>
+      <c r="AK101" s="85"/>
+      <c r="AL101" s="87"/>
+      <c r="AM101" s="87"/>
+      <c r="AN101" s="85"/>
+      <c r="AO101" s="77"/>
     </row>
     <row r="102" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
@@ -7739,7 +7739,7 @@
       <c r="AO103" s="71"/>
     </row>
     <row r="104" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="76"/>
+      <c r="A104" s="78"/>
       <c r="B104" s="58"/>
       <c r="C104" s="58"/>
       <c r="D104" s="58"/>
@@ -7771,18 +7771,18 @@
       <c r="AD104" s="58"/>
       <c r="AE104" s="58"/>
       <c r="AF104" s="58"/>
-      <c r="AG104" s="78"/>
-      <c r="AH104" s="80"/>
-      <c r="AI104" s="82"/>
-      <c r="AJ104" s="82"/>
-      <c r="AK104" s="82"/>
-      <c r="AL104" s="84"/>
-      <c r="AM104" s="84"/>
-      <c r="AN104" s="82"/>
-      <c r="AO104" s="86"/>
+      <c r="AG104" s="80"/>
+      <c r="AH104" s="82"/>
+      <c r="AI104" s="84"/>
+      <c r="AJ104" s="84"/>
+      <c r="AK104" s="84"/>
+      <c r="AL104" s="86"/>
+      <c r="AM104" s="86"/>
+      <c r="AN104" s="84"/>
+      <c r="AO104" s="76"/>
     </row>
     <row r="105" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="59"/>
       <c r="C105" s="59"/>
       <c r="D105" s="59"/>
@@ -7814,15 +7814,15 @@
       <c r="AD105" s="59"/>
       <c r="AE105" s="59"/>
       <c r="AF105" s="59"/>
-      <c r="AG105" s="79"/>
-      <c r="AH105" s="81"/>
-      <c r="AI105" s="83"/>
-      <c r="AJ105" s="83"/>
-      <c r="AK105" s="83"/>
-      <c r="AL105" s="85"/>
-      <c r="AM105" s="85"/>
-      <c r="AN105" s="83"/>
-      <c r="AO105" s="87"/>
+      <c r="AG105" s="81"/>
+      <c r="AH105" s="83"/>
+      <c r="AI105" s="85"/>
+      <c r="AJ105" s="85"/>
+      <c r="AK105" s="85"/>
+      <c r="AL105" s="87"/>
+      <c r="AM105" s="87"/>
+      <c r="AN105" s="85"/>
+      <c r="AO105" s="77"/>
     </row>
     <row r="106" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
@@ -7915,7 +7915,7 @@
       <c r="AO107" s="71"/>
     </row>
     <row r="108" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="76"/>
+      <c r="A108" s="78"/>
       <c r="B108" s="58"/>
       <c r="C108" s="58"/>
       <c r="D108" s="58"/>
@@ -7947,18 +7947,18 @@
       <c r="AD108" s="58"/>
       <c r="AE108" s="58"/>
       <c r="AF108" s="58"/>
-      <c r="AG108" s="78"/>
-      <c r="AH108" s="80"/>
-      <c r="AI108" s="82"/>
-      <c r="AJ108" s="82"/>
-      <c r="AK108" s="82"/>
-      <c r="AL108" s="84"/>
-      <c r="AM108" s="84"/>
-      <c r="AN108" s="82"/>
-      <c r="AO108" s="86"/>
+      <c r="AG108" s="80"/>
+      <c r="AH108" s="82"/>
+      <c r="AI108" s="84"/>
+      <c r="AJ108" s="84"/>
+      <c r="AK108" s="84"/>
+      <c r="AL108" s="86"/>
+      <c r="AM108" s="86"/>
+      <c r="AN108" s="84"/>
+      <c r="AO108" s="76"/>
     </row>
     <row r="109" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="77"/>
+      <c r="A109" s="79"/>
       <c r="B109" s="59"/>
       <c r="C109" s="59"/>
       <c r="D109" s="59"/>
@@ -7990,15 +7990,15 @@
       <c r="AD109" s="59"/>
       <c r="AE109" s="59"/>
       <c r="AF109" s="59"/>
-      <c r="AG109" s="79"/>
-      <c r="AH109" s="81"/>
-      <c r="AI109" s="83"/>
-      <c r="AJ109" s="83"/>
-      <c r="AK109" s="83"/>
-      <c r="AL109" s="85"/>
-      <c r="AM109" s="85"/>
-      <c r="AN109" s="83"/>
-      <c r="AO109" s="87"/>
+      <c r="AG109" s="81"/>
+      <c r="AH109" s="83"/>
+      <c r="AI109" s="85"/>
+      <c r="AJ109" s="85"/>
+      <c r="AK109" s="85"/>
+      <c r="AL109" s="87"/>
+      <c r="AM109" s="87"/>
+      <c r="AN109" s="85"/>
+      <c r="AO109" s="77"/>
     </row>
     <row r="110" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
@@ -8091,7 +8091,7 @@
       <c r="AO111" s="71"/>
     </row>
     <row r="112" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="76"/>
+      <c r="A112" s="78"/>
       <c r="B112" s="58"/>
       <c r="C112" s="58"/>
       <c r="D112" s="58"/>
@@ -8123,18 +8123,18 @@
       <c r="AD112" s="58"/>
       <c r="AE112" s="58"/>
       <c r="AF112" s="58"/>
-      <c r="AG112" s="78"/>
-      <c r="AH112" s="80"/>
-      <c r="AI112" s="82"/>
-      <c r="AJ112" s="82"/>
-      <c r="AK112" s="82"/>
-      <c r="AL112" s="84"/>
-      <c r="AM112" s="84"/>
-      <c r="AN112" s="82"/>
-      <c r="AO112" s="86"/>
+      <c r="AG112" s="80"/>
+      <c r="AH112" s="82"/>
+      <c r="AI112" s="84"/>
+      <c r="AJ112" s="84"/>
+      <c r="AK112" s="84"/>
+      <c r="AL112" s="86"/>
+      <c r="AM112" s="86"/>
+      <c r="AN112" s="84"/>
+      <c r="AO112" s="76"/>
     </row>
     <row r="113" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="77"/>
+      <c r="A113" s="79"/>
       <c r="B113" s="59"/>
       <c r="C113" s="59"/>
       <c r="D113" s="59"/>
@@ -8166,15 +8166,15 @@
       <c r="AD113" s="59"/>
       <c r="AE113" s="59"/>
       <c r="AF113" s="59"/>
-      <c r="AG113" s="79"/>
-      <c r="AH113" s="81"/>
-      <c r="AI113" s="83"/>
-      <c r="AJ113" s="83"/>
-      <c r="AK113" s="83"/>
-      <c r="AL113" s="85"/>
-      <c r="AM113" s="85"/>
-      <c r="AN113" s="83"/>
-      <c r="AO113" s="87"/>
+      <c r="AG113" s="81"/>
+      <c r="AH113" s="83"/>
+      <c r="AI113" s="85"/>
+      <c r="AJ113" s="85"/>
+      <c r="AK113" s="85"/>
+      <c r="AL113" s="87"/>
+      <c r="AM113" s="87"/>
+      <c r="AN113" s="85"/>
+      <c r="AO113" s="77"/>
     </row>
     <row r="114" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
@@ -8267,7 +8267,7 @@
       <c r="AO115" s="71"/>
     </row>
     <row r="116" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="76"/>
+      <c r="A116" s="78"/>
       <c r="B116" s="58"/>
       <c r="C116" s="58"/>
       <c r="D116" s="58"/>
@@ -8299,18 +8299,18 @@
       <c r="AD116" s="58"/>
       <c r="AE116" s="58"/>
       <c r="AF116" s="58"/>
-      <c r="AG116" s="78"/>
-      <c r="AH116" s="80"/>
-      <c r="AI116" s="82"/>
-      <c r="AJ116" s="82"/>
-      <c r="AK116" s="82"/>
-      <c r="AL116" s="84"/>
-      <c r="AM116" s="84"/>
-      <c r="AN116" s="82"/>
-      <c r="AO116" s="86"/>
+      <c r="AG116" s="80"/>
+      <c r="AH116" s="82"/>
+      <c r="AI116" s="84"/>
+      <c r="AJ116" s="84"/>
+      <c r="AK116" s="84"/>
+      <c r="AL116" s="86"/>
+      <c r="AM116" s="86"/>
+      <c r="AN116" s="84"/>
+      <c r="AO116" s="76"/>
     </row>
     <row r="117" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="77"/>
+      <c r="A117" s="79"/>
       <c r="B117" s="59"/>
       <c r="C117" s="59"/>
       <c r="D117" s="59"/>
@@ -8342,15 +8342,15 @@
       <c r="AD117" s="59"/>
       <c r="AE117" s="59"/>
       <c r="AF117" s="59"/>
-      <c r="AG117" s="79"/>
-      <c r="AH117" s="81"/>
-      <c r="AI117" s="83"/>
-      <c r="AJ117" s="83"/>
-      <c r="AK117" s="83"/>
-      <c r="AL117" s="85"/>
-      <c r="AM117" s="85"/>
-      <c r="AN117" s="83"/>
-      <c r="AO117" s="87"/>
+      <c r="AG117" s="81"/>
+      <c r="AH117" s="83"/>
+      <c r="AI117" s="85"/>
+      <c r="AJ117" s="85"/>
+      <c r="AK117" s="85"/>
+      <c r="AL117" s="87"/>
+      <c r="AM117" s="87"/>
+      <c r="AN117" s="85"/>
+      <c r="AO117" s="77"/>
     </row>
     <row r="118" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
@@ -8443,7 +8443,7 @@
       <c r="AO119" s="71"/>
     </row>
     <row r="120" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="76"/>
+      <c r="A120" s="78"/>
       <c r="B120" s="58"/>
       <c r="C120" s="58"/>
       <c r="D120" s="58"/>
@@ -8475,18 +8475,18 @@
       <c r="AD120" s="58"/>
       <c r="AE120" s="58"/>
       <c r="AF120" s="58"/>
-      <c r="AG120" s="78"/>
-      <c r="AH120" s="80"/>
-      <c r="AI120" s="82"/>
-      <c r="AJ120" s="82"/>
-      <c r="AK120" s="82"/>
-      <c r="AL120" s="84"/>
-      <c r="AM120" s="84"/>
-      <c r="AN120" s="82"/>
-      <c r="AO120" s="86"/>
+      <c r="AG120" s="80"/>
+      <c r="AH120" s="82"/>
+      <c r="AI120" s="84"/>
+      <c r="AJ120" s="84"/>
+      <c r="AK120" s="84"/>
+      <c r="AL120" s="86"/>
+      <c r="AM120" s="86"/>
+      <c r="AN120" s="84"/>
+      <c r="AO120" s="76"/>
     </row>
     <row r="121" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="77"/>
+      <c r="A121" s="79"/>
       <c r="B121" s="59"/>
       <c r="C121" s="59"/>
       <c r="D121" s="59"/>
@@ -8518,15 +8518,15 @@
       <c r="AD121" s="59"/>
       <c r="AE121" s="59"/>
       <c r="AF121" s="59"/>
-      <c r="AG121" s="79"/>
-      <c r="AH121" s="81"/>
-      <c r="AI121" s="83"/>
-      <c r="AJ121" s="83"/>
-      <c r="AK121" s="83"/>
-      <c r="AL121" s="85"/>
-      <c r="AM121" s="85"/>
-      <c r="AN121" s="83"/>
-      <c r="AO121" s="87"/>
+      <c r="AG121" s="81"/>
+      <c r="AH121" s="83"/>
+      <c r="AI121" s="85"/>
+      <c r="AJ121" s="85"/>
+      <c r="AK121" s="85"/>
+      <c r="AL121" s="87"/>
+      <c r="AM121" s="87"/>
+      <c r="AN121" s="85"/>
+      <c r="AO121" s="77"/>
     </row>
     <row r="122" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
@@ -8619,7 +8619,7 @@
       <c r="AO123" s="71"/>
     </row>
     <row r="124" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="76"/>
+      <c r="A124" s="78"/>
       <c r="B124" s="58"/>
       <c r="C124" s="58"/>
       <c r="D124" s="58"/>
@@ -8651,18 +8651,18 @@
       <c r="AD124" s="58"/>
       <c r="AE124" s="58"/>
       <c r="AF124" s="58"/>
-      <c r="AG124" s="78"/>
-      <c r="AH124" s="80"/>
-      <c r="AI124" s="82"/>
-      <c r="AJ124" s="82"/>
-      <c r="AK124" s="82"/>
-      <c r="AL124" s="84"/>
-      <c r="AM124" s="84"/>
-      <c r="AN124" s="82"/>
-      <c r="AO124" s="86"/>
+      <c r="AG124" s="80"/>
+      <c r="AH124" s="82"/>
+      <c r="AI124" s="84"/>
+      <c r="AJ124" s="84"/>
+      <c r="AK124" s="84"/>
+      <c r="AL124" s="86"/>
+      <c r="AM124" s="86"/>
+      <c r="AN124" s="84"/>
+      <c r="AO124" s="76"/>
     </row>
     <row r="125" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="77"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="59"/>
       <c r="C125" s="59"/>
       <c r="D125" s="59"/>
@@ -8694,15 +8694,15 @@
       <c r="AD125" s="59"/>
       <c r="AE125" s="59"/>
       <c r="AF125" s="59"/>
-      <c r="AG125" s="79"/>
-      <c r="AH125" s="81"/>
-      <c r="AI125" s="83"/>
-      <c r="AJ125" s="83"/>
-      <c r="AK125" s="83"/>
-      <c r="AL125" s="85"/>
-      <c r="AM125" s="85"/>
-      <c r="AN125" s="83"/>
-      <c r="AO125" s="87"/>
+      <c r="AG125" s="81"/>
+      <c r="AH125" s="83"/>
+      <c r="AI125" s="85"/>
+      <c r="AJ125" s="85"/>
+      <c r="AK125" s="85"/>
+      <c r="AL125" s="87"/>
+      <c r="AM125" s="87"/>
+      <c r="AN125" s="85"/>
+      <c r="AO125" s="77"/>
     </row>
     <row r="126" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="16" t="s">
@@ -8795,7 +8795,7 @@
       <c r="AO127" s="71"/>
     </row>
     <row r="128" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="76"/>
+      <c r="A128" s="78"/>
       <c r="B128" s="58"/>
       <c r="C128" s="58"/>
       <c r="D128" s="58"/>
@@ -8827,18 +8827,18 @@
       <c r="AD128" s="58"/>
       <c r="AE128" s="58"/>
       <c r="AF128" s="58"/>
-      <c r="AG128" s="78"/>
-      <c r="AH128" s="80"/>
-      <c r="AI128" s="82"/>
-      <c r="AJ128" s="82"/>
-      <c r="AK128" s="82"/>
-      <c r="AL128" s="84"/>
-      <c r="AM128" s="84"/>
-      <c r="AN128" s="82"/>
-      <c r="AO128" s="86"/>
+      <c r="AG128" s="80"/>
+      <c r="AH128" s="82"/>
+      <c r="AI128" s="84"/>
+      <c r="AJ128" s="84"/>
+      <c r="AK128" s="84"/>
+      <c r="AL128" s="86"/>
+      <c r="AM128" s="86"/>
+      <c r="AN128" s="84"/>
+      <c r="AO128" s="76"/>
     </row>
     <row r="129" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="77"/>
+      <c r="A129" s="79"/>
       <c r="B129" s="59"/>
       <c r="C129" s="59"/>
       <c r="D129" s="59"/>
@@ -8870,15 +8870,15 @@
       <c r="AD129" s="59"/>
       <c r="AE129" s="59"/>
       <c r="AF129" s="59"/>
-      <c r="AG129" s="79"/>
-      <c r="AH129" s="81"/>
-      <c r="AI129" s="83"/>
-      <c r="AJ129" s="83"/>
-      <c r="AK129" s="83"/>
-      <c r="AL129" s="85"/>
-      <c r="AM129" s="85"/>
-      <c r="AN129" s="83"/>
-      <c r="AO129" s="87"/>
+      <c r="AG129" s="81"/>
+      <c r="AH129" s="83"/>
+      <c r="AI129" s="85"/>
+      <c r="AJ129" s="85"/>
+      <c r="AK129" s="85"/>
+      <c r="AL129" s="87"/>
+      <c r="AM129" s="87"/>
+      <c r="AN129" s="85"/>
+      <c r="AO129" s="77"/>
     </row>
     <row r="130" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
@@ -9015,40 +9015,40 @@
     </row>
     <row r="133" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C133" s="88" t="s">
         <v>50</v>
-      </c>
-      <c r="C133" s="88" t="s">
-        <v>51</v>
       </c>
       <c r="D133" s="88"/>
       <c r="E133" s="88"/>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
       <c r="H133" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="I133" s="26" t="s">
         <v>52</v>
-      </c>
-      <c r="I133" s="26" t="s">
-        <v>53</v>
       </c>
       <c r="J133" s="26"/>
       <c r="K133" s="26"/>
       <c r="L133" s="26"/>
       <c r="N133" s="90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O133" s="90"/>
       <c r="P133" s="90"/>
       <c r="Q133" s="90"/>
       <c r="R133" s="90"/>
       <c r="T133" s="90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U133" s="90"/>
       <c r="V133" s="90"/>
       <c r="W133" s="90"/>
       <c r="X133" s="90"/>
       <c r="Z133" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH133" s="19"/>
       <c r="AI133" s="19"/>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="134" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C134" s="88"/>
       <c r="D134" s="88"/>
@@ -9104,7 +9104,7 @@
     <row r="135" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="28"/>
       <c r="B135" s="89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C135" s="89"/>
       <c r="D135" s="89"/>
@@ -9152,12 +9152,12 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
       <c r="J136" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K136" s="20"/>
       <c r="L136" s="20"/>
       <c r="M136" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N136" s="20"/>
       <c r="O136" s="20"/>
@@ -9168,12 +9168,12 @@
       <c r="T136" s="20"/>
       <c r="U136" s="20"/>
       <c r="V136" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W136" s="20"/>
       <c r="X136" s="20"/>
       <c r="Y136" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z136" s="20"/>
       <c r="AA136" s="20"/>
@@ -9200,7 +9200,7 @@
       <c r="K137" s="20"/>
       <c r="L137" s="20"/>
       <c r="M137" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N137" s="20"/>
       <c r="O137" s="20"/>
@@ -9214,7 +9214,7 @@
       <c r="W137" s="20"/>
       <c r="X137" s="20"/>
       <c r="Y137" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z137" s="20"/>
       <c r="AA137" s="20"/>
@@ -9255,7 +9255,7 @@
     </row>
     <row r="139" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -9296,12 +9296,12 @@
       <c r="H140" s="20"/>
       <c r="I140" s="20"/>
       <c r="J140" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K140" s="20"/>
       <c r="L140" s="20"/>
       <c r="M140" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N140" s="20"/>
       <c r="O140" s="20"/>
@@ -9312,12 +9312,12 @@
       <c r="T140" s="20"/>
       <c r="U140" s="20"/>
       <c r="V140" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W140" s="20"/>
       <c r="X140" s="20"/>
       <c r="Y140" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z140" s="20"/>
       <c r="AA140" s="20"/>
@@ -9338,7 +9338,7 @@
       <c r="K141" s="20"/>
       <c r="L141" s="20"/>
       <c r="M141" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N141" s="20"/>
       <c r="O141" s="20"/>
@@ -9352,7 +9352,7 @@
       <c r="W141" s="20"/>
       <c r="X141" s="20"/>
       <c r="Y141" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z141" s="20"/>
       <c r="AA141" s="20"/>
@@ -9508,6 +9508,14 @@
     <mergeCell ref="AK20:AK21"/>
     <mergeCell ref="AL20:AL21"/>
     <mergeCell ref="AM20:AM21"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AN26:AN27"/>
+    <mergeCell ref="AO26:AO27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AI26:AI27"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AK26:AK27"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="AG24:AG25"/>
     <mergeCell ref="AH24:AH25"/>
@@ -9528,14 +9536,6 @@
     <mergeCell ref="AH20:AH21"/>
     <mergeCell ref="AI20:AI21"/>
     <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AN26:AN27"/>
-    <mergeCell ref="AO26:AO27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AI26:AI27"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AK26:AK27"/>
     <mergeCell ref="AK24:AK25"/>
     <mergeCell ref="AL24:AL25"/>
     <mergeCell ref="AM24:AM25"/>

--- a/src/assets/template.xlsx
+++ b/src/assets/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Programming\scheduler\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCAD816-67EE-4A32-93E6-1CA550229176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5120B08-7145-4078-83AF-1D62AA245BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>${someShortShifts}</t>
   </si>
   <si>
-    <t>${unpaid}</t>
-  </si>
-  <si>
     <t>${leftover}</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>${nextEmployee}</t>
+  </si>
+  <si>
+    <t>${freeday}</t>
   </si>
 </sst>
 </file>
@@ -1242,41 +1242,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1293,34 +1258,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1328,6 +1265,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,6 +1342,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1843,7 +1843,7 @@
   <dimension ref="A1:BU144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="AK12" sqref="AK12:AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2429,248 +2429,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
+      <c r="A1" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
     </row>
     <row r="2" spans="1:73" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="96"/>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="96"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
     </row>
     <row r="3" spans="1:73" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97"/>
-      <c r="AN3" s="97"/>
-      <c r="AO3" s="97"/>
+      <c r="A3" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="78"/>
     </row>
     <row r="4" spans="1:73" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF4" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="102"/>
-      <c r="AL4" s="103"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="84"/>
       <c r="AM4" s="32"/>
       <c r="AN4" s="33"/>
-      <c r="AO4" s="104" t="s">
+      <c r="AO4" s="85" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2679,206 +2679,206 @@
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF5" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="108"/>
-      <c r="AO5" s="105"/>
+        <v>68</v>
+      </c>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="88"/>
+      <c r="AK5" s="88"/>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="88"/>
+      <c r="AN5" s="89"/>
+      <c r="AO5" s="86"/>
     </row>
     <row r="6" spans="1:73" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG6" s="99"/>
+        <v>69</v>
+      </c>
+      <c r="AG6" s="80"/>
       <c r="AH6" s="50"/>
       <c r="AI6" s="51"/>
       <c r="AJ6" s="51"/>
@@ -2895,106 +2895,106 @@
         <v>23</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF7" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="AI7" s="110"/>
-      <c r="AJ7" s="110"/>
-      <c r="AK7" s="110"/>
-      <c r="AL7" s="111"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="92"/>
       <c r="AM7" s="37"/>
       <c r="AN7" s="38"/>
       <c r="AO7" s="39"/>
@@ -3004,106 +3004,106 @@
         <v>18</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE8" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF8" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="113"/>
-      <c r="AJ8" s="113"/>
-      <c r="AK8" s="113"/>
-      <c r="AL8" s="113"/>
-      <c r="AM8" s="113"/>
-      <c r="AN8" s="114"/>
+        <v>71</v>
+      </c>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="94"/>
+      <c r="AJ8" s="94"/>
+      <c r="AK8" s="94"/>
+      <c r="AL8" s="94"/>
+      <c r="AM8" s="94"/>
+      <c r="AN8" s="95"/>
       <c r="AO8" s="39"/>
     </row>
     <row r="9" spans="1:73" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3111,106 +3111,106 @@
         <v>24</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE9" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF9" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="115"/>
-      <c r="AI9" s="116"/>
-      <c r="AJ9" s="116"/>
-      <c r="AK9" s="116"/>
-      <c r="AL9" s="116"/>
-      <c r="AM9" s="116"/>
-      <c r="AN9" s="117"/>
+        <v>72</v>
+      </c>
+      <c r="AG9" s="81"/>
+      <c r="AH9" s="96"/>
+      <c r="AI9" s="97"/>
+      <c r="AJ9" s="97"/>
+      <c r="AK9" s="97"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="97"/>
+      <c r="AN9" s="98"/>
       <c r="AO9" s="49"/>
     </row>
     <row r="10" spans="1:73" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3380,125 +3380,125 @@
       </c>
     </row>
     <row r="12" spans="1:73" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
-        <v>47</v>
+      <c r="A12" s="67" t="s">
+        <v>46</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE12" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF12" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG12" s="80"/>
-      <c r="AH12" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="AI12" s="93" t="s">
+      <c r="AI12" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="AJ12" s="94" t="s">
+      <c r="AJ12" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="AK12" s="84" t="s">
+      <c r="AK12" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AL12" s="86" t="s">
+      <c r="AL12" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM12" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="AM12" s="86" t="s">
+      <c r="AN12" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="AN12" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO12" s="76"/>
+      <c r="AO12" s="102"/>
       <c r="AQ12" s="65"/>
       <c r="AR12" s="66"/>
       <c r="AS12" s="65"/>
@@ -3532,109 +3532,109 @@
       <c r="BU12" s="65"/>
     </row>
     <row r="13" spans="1:73" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF13" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG13" s="81"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="87"/>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="87"/>
-      <c r="AM13" s="87"/>
-      <c r="AN13" s="85"/>
-      <c r="AO13" s="77"/>
+        <v>64</v>
+      </c>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="101"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="101"/>
+      <c r="AO13" s="103"/>
     </row>
     <row r="14" spans="1:73" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
@@ -3671,15 +3671,15 @@
       <c r="AD14" s="60"/>
       <c r="AE14" s="60"/>
       <c r="AF14" s="61"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="67"/>
+      <c r="AG14" s="104"/>
+      <c r="AH14" s="106"/>
+      <c r="AI14" s="108"/>
+      <c r="AJ14" s="108"/>
+      <c r="AK14" s="108"/>
+      <c r="AL14" s="108"/>
       <c r="AM14" s="54"/>
-      <c r="AN14" s="69"/>
-      <c r="AO14" s="70"/>
+      <c r="AN14" s="110"/>
+      <c r="AO14" s="111"/>
     </row>
     <row r="15" spans="1:73" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
@@ -3716,241 +3716,241 @@
       <c r="AD15" s="62"/>
       <c r="AE15" s="62"/>
       <c r="AF15" s="63"/>
-      <c r="AG15" s="73"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="68"/>
-      <c r="AL15" s="68"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="109"/>
+      <c r="AJ15" s="109"/>
+      <c r="AK15" s="109"/>
+      <c r="AL15" s="109"/>
       <c r="AM15" s="53"/>
-      <c r="AN15" s="68"/>
-      <c r="AO15" s="71"/>
+      <c r="AN15" s="109"/>
+      <c r="AO15" s="112"/>
     </row>
     <row r="16" spans="1:73" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="R16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="U16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="V16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="W16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="X16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI16" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ16" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK16" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL16" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="O16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="P16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="R16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="S16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="T16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="U16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="V16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="W16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="X16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI16" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ16" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK16" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL16" s="86" t="s">
+      <c r="AM16" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="AM16" s="86" t="s">
+      <c r="AN16" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="AN16" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO16" s="76"/>
+      <c r="AO16" s="102"/>
     </row>
     <row r="17" spans="1:41" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE17" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF17" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="95"/>
-      <c r="AK17" s="85"/>
-      <c r="AL17" s="87"/>
-      <c r="AM17" s="87"/>
-      <c r="AN17" s="85"/>
-      <c r="AO17" s="77"/>
+        <v>64</v>
+      </c>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="74"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="101"/>
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="74"/>
+      <c r="AN17" s="101"/>
+      <c r="AO17" s="103"/>
     </row>
     <row r="18" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -3987,15 +3987,15 @@
       <c r="AD18" s="60"/>
       <c r="AE18" s="60"/>
       <c r="AF18" s="61"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="74"/>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="67"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="106"/>
+      <c r="AI18" s="108"/>
+      <c r="AJ18" s="108"/>
+      <c r="AK18" s="108"/>
+      <c r="AL18" s="108"/>
       <c r="AM18" s="54"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="70"/>
+      <c r="AN18" s="110"/>
+      <c r="AO18" s="111"/>
     </row>
     <row r="19" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
@@ -4032,18 +4032,18 @@
       <c r="AD19" s="62"/>
       <c r="AE19" s="62"/>
       <c r="AF19" s="63"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="68"/>
-      <c r="AK19" s="68"/>
-      <c r="AL19" s="68"/>
+      <c r="AG19" s="105"/>
+      <c r="AH19" s="107"/>
+      <c r="AI19" s="109"/>
+      <c r="AJ19" s="109"/>
+      <c r="AK19" s="109"/>
+      <c r="AL19" s="109"/>
       <c r="AM19" s="53"/>
-      <c r="AN19" s="68"/>
-      <c r="AO19" s="71"/>
+      <c r="AN19" s="109"/>
+      <c r="AO19" s="112"/>
     </row>
     <row r="20" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
@@ -4075,18 +4075,18 @@
       <c r="AD20" s="58"/>
       <c r="AE20" s="58"/>
       <c r="AF20" s="58"/>
-      <c r="AG20" s="80"/>
-      <c r="AH20" s="82"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="84"/>
-      <c r="AK20" s="84"/>
-      <c r="AL20" s="86"/>
-      <c r="AM20" s="86"/>
-      <c r="AN20" s="84"/>
-      <c r="AO20" s="76"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="116"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="100"/>
+      <c r="AK20" s="100"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="100"/>
+      <c r="AO20" s="102"/>
     </row>
     <row r="21" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -4118,15 +4118,15 @@
       <c r="AD21" s="59"/>
       <c r="AE21" s="59"/>
       <c r="AF21" s="59"/>
-      <c r="AG21" s="81"/>
-      <c r="AH21" s="83"/>
-      <c r="AI21" s="85"/>
-      <c r="AJ21" s="85"/>
-      <c r="AK21" s="85"/>
-      <c r="AL21" s="87"/>
-      <c r="AM21" s="87"/>
-      <c r="AN21" s="85"/>
-      <c r="AO21" s="77"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="117"/>
+      <c r="AI21" s="101"/>
+      <c r="AJ21" s="101"/>
+      <c r="AK21" s="101"/>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="101"/>
+      <c r="AO21" s="103"/>
     </row>
     <row r="22" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
@@ -4163,15 +4163,15 @@
       <c r="AD22" s="60"/>
       <c r="AE22" s="60"/>
       <c r="AF22" s="61"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="74"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="67"/>
+      <c r="AG22" s="104"/>
+      <c r="AH22" s="106"/>
+      <c r="AI22" s="108"/>
+      <c r="AJ22" s="108"/>
+      <c r="AK22" s="108"/>
+      <c r="AL22" s="108"/>
       <c r="AM22" s="56"/>
-      <c r="AN22" s="69"/>
-      <c r="AO22" s="70"/>
+      <c r="AN22" s="110"/>
+      <c r="AO22" s="111"/>
     </row>
     <row r="23" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
@@ -4208,18 +4208,18 @@
       <c r="AD23" s="62"/>
       <c r="AE23" s="62"/>
       <c r="AF23" s="63"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="68"/>
-      <c r="AJ23" s="68"/>
-      <c r="AK23" s="68"/>
-      <c r="AL23" s="68"/>
+      <c r="AG23" s="105"/>
+      <c r="AH23" s="107"/>
+      <c r="AI23" s="109"/>
+      <c r="AJ23" s="109"/>
+      <c r="AK23" s="109"/>
+      <c r="AL23" s="109"/>
       <c r="AM23" s="55"/>
-      <c r="AN23" s="68"/>
-      <c r="AO23" s="71"/>
+      <c r="AN23" s="109"/>
+      <c r="AO23" s="112"/>
     </row>
     <row r="24" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="78"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
       <c r="D24" s="58"/>
@@ -4251,18 +4251,18 @@
       <c r="AD24" s="58"/>
       <c r="AE24" s="58"/>
       <c r="AF24" s="58"/>
-      <c r="AG24" s="80"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="84"/>
-      <c r="AJ24" s="84"/>
-      <c r="AK24" s="84"/>
-      <c r="AL24" s="86"/>
-      <c r="AM24" s="86"/>
-      <c r="AN24" s="84"/>
-      <c r="AO24" s="76"/>
+      <c r="AG24" s="69"/>
+      <c r="AH24" s="116"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="100"/>
+      <c r="AK24" s="100"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="99"/>
+      <c r="AN24" s="100"/>
+      <c r="AO24" s="102"/>
     </row>
     <row r="25" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
@@ -4294,15 +4294,15 @@
       <c r="AD25" s="59"/>
       <c r="AE25" s="59"/>
       <c r="AF25" s="59"/>
-      <c r="AG25" s="81"/>
-      <c r="AH25" s="83"/>
-      <c r="AI25" s="85"/>
-      <c r="AJ25" s="85"/>
-      <c r="AK25" s="85"/>
-      <c r="AL25" s="87"/>
-      <c r="AM25" s="87"/>
-      <c r="AN25" s="85"/>
-      <c r="AO25" s="77"/>
+      <c r="AG25" s="70"/>
+      <c r="AH25" s="117"/>
+      <c r="AI25" s="101"/>
+      <c r="AJ25" s="101"/>
+      <c r="AK25" s="101"/>
+      <c r="AL25" s="74"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="101"/>
+      <c r="AO25" s="103"/>
     </row>
     <row r="26" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
@@ -4339,15 +4339,15 @@
       <c r="AD26" s="60"/>
       <c r="AE26" s="60"/>
       <c r="AF26" s="61"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="67"/>
-      <c r="AJ26" s="67"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="67"/>
+      <c r="AG26" s="104"/>
+      <c r="AH26" s="106"/>
+      <c r="AI26" s="108"/>
+      <c r="AJ26" s="108"/>
+      <c r="AK26" s="108"/>
+      <c r="AL26" s="108"/>
       <c r="AM26" s="56"/>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="70"/>
+      <c r="AN26" s="110"/>
+      <c r="AO26" s="111"/>
     </row>
     <row r="27" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
@@ -4384,18 +4384,18 @@
       <c r="AD27" s="62"/>
       <c r="AE27" s="62"/>
       <c r="AF27" s="63"/>
-      <c r="AG27" s="73"/>
-      <c r="AH27" s="75"/>
-      <c r="AI27" s="68"/>
-      <c r="AJ27" s="68"/>
-      <c r="AK27" s="68"/>
-      <c r="AL27" s="68"/>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="107"/>
+      <c r="AI27" s="109"/>
+      <c r="AJ27" s="109"/>
+      <c r="AK27" s="109"/>
+      <c r="AL27" s="109"/>
       <c r="AM27" s="55"/>
-      <c r="AN27" s="68"/>
-      <c r="AO27" s="71"/>
+      <c r="AN27" s="109"/>
+      <c r="AO27" s="112"/>
     </row>
     <row r="28" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="78"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
@@ -4427,18 +4427,18 @@
       <c r="AD28" s="58"/>
       <c r="AE28" s="58"/>
       <c r="AF28" s="58"/>
-      <c r="AG28" s="80"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="84"/>
-      <c r="AJ28" s="84"/>
-      <c r="AK28" s="84"/>
-      <c r="AL28" s="86"/>
-      <c r="AM28" s="86"/>
-      <c r="AN28" s="84"/>
-      <c r="AO28" s="76"/>
+      <c r="AG28" s="69"/>
+      <c r="AH28" s="116"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="100"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="99"/>
+      <c r="AM28" s="99"/>
+      <c r="AN28" s="100"/>
+      <c r="AO28" s="102"/>
     </row>
     <row r="29" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -4470,15 +4470,15 @@
       <c r="AD29" s="59"/>
       <c r="AE29" s="59"/>
       <c r="AF29" s="59"/>
-      <c r="AG29" s="81"/>
-      <c r="AH29" s="83"/>
-      <c r="AI29" s="85"/>
-      <c r="AJ29" s="85"/>
-      <c r="AK29" s="85"/>
-      <c r="AL29" s="87"/>
-      <c r="AM29" s="87"/>
-      <c r="AN29" s="85"/>
-      <c r="AO29" s="77"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="117"/>
+      <c r="AI29" s="101"/>
+      <c r="AJ29" s="101"/>
+      <c r="AK29" s="101"/>
+      <c r="AL29" s="74"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="101"/>
+      <c r="AO29" s="103"/>
     </row>
     <row r="30" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
@@ -4515,15 +4515,15 @@
       <c r="AD30" s="60"/>
       <c r="AE30" s="60"/>
       <c r="AF30" s="61"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="74"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="67"/>
-      <c r="AK30" s="67"/>
-      <c r="AL30" s="67"/>
+      <c r="AG30" s="104"/>
+      <c r="AH30" s="106"/>
+      <c r="AI30" s="108"/>
+      <c r="AJ30" s="108"/>
+      <c r="AK30" s="108"/>
+      <c r="AL30" s="108"/>
       <c r="AM30" s="56"/>
-      <c r="AN30" s="69"/>
-      <c r="AO30" s="70"/>
+      <c r="AN30" s="110"/>
+      <c r="AO30" s="111"/>
     </row>
     <row r="31" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
@@ -4560,18 +4560,18 @@
       <c r="AD31" s="62"/>
       <c r="AE31" s="62"/>
       <c r="AF31" s="63"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="75"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="68"/>
-      <c r="AK31" s="68"/>
-      <c r="AL31" s="68"/>
+      <c r="AG31" s="105"/>
+      <c r="AH31" s="107"/>
+      <c r="AI31" s="109"/>
+      <c r="AJ31" s="109"/>
+      <c r="AK31" s="109"/>
+      <c r="AL31" s="109"/>
       <c r="AM31" s="55"/>
-      <c r="AN31" s="68"/>
-      <c r="AO31" s="71"/>
+      <c r="AN31" s="109"/>
+      <c r="AO31" s="112"/>
     </row>
     <row r="32" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="78"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="58"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
@@ -4603,18 +4603,18 @@
       <c r="AD32" s="58"/>
       <c r="AE32" s="58"/>
       <c r="AF32" s="58"/>
-      <c r="AG32" s="80"/>
-      <c r="AH32" s="82"/>
-      <c r="AI32" s="84"/>
-      <c r="AJ32" s="84"/>
-      <c r="AK32" s="84"/>
-      <c r="AL32" s="86"/>
-      <c r="AM32" s="86"/>
-      <c r="AN32" s="84"/>
-      <c r="AO32" s="76"/>
+      <c r="AG32" s="69"/>
+      <c r="AH32" s="116"/>
+      <c r="AI32" s="100"/>
+      <c r="AJ32" s="100"/>
+      <c r="AK32" s="100"/>
+      <c r="AL32" s="99"/>
+      <c r="AM32" s="99"/>
+      <c r="AN32" s="100"/>
+      <c r="AO32" s="102"/>
     </row>
     <row r="33" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
@@ -4646,15 +4646,15 @@
       <c r="AD33" s="59"/>
       <c r="AE33" s="59"/>
       <c r="AF33" s="59"/>
-      <c r="AG33" s="81"/>
-      <c r="AH33" s="83"/>
-      <c r="AI33" s="85"/>
-      <c r="AJ33" s="85"/>
-      <c r="AK33" s="85"/>
-      <c r="AL33" s="87"/>
-      <c r="AM33" s="87"/>
-      <c r="AN33" s="85"/>
-      <c r="AO33" s="77"/>
+      <c r="AG33" s="70"/>
+      <c r="AH33" s="117"/>
+      <c r="AI33" s="101"/>
+      <c r="AJ33" s="101"/>
+      <c r="AK33" s="101"/>
+      <c r="AL33" s="74"/>
+      <c r="AM33" s="74"/>
+      <c r="AN33" s="101"/>
+      <c r="AO33" s="103"/>
     </row>
     <row r="34" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
@@ -4691,15 +4691,15 @@
       <c r="AD34" s="60"/>
       <c r="AE34" s="60"/>
       <c r="AF34" s="61"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="74"/>
-      <c r="AI34" s="67"/>
-      <c r="AJ34" s="67"/>
-      <c r="AK34" s="67"/>
-      <c r="AL34" s="67"/>
+      <c r="AG34" s="104"/>
+      <c r="AH34" s="106"/>
+      <c r="AI34" s="108"/>
+      <c r="AJ34" s="108"/>
+      <c r="AK34" s="108"/>
+      <c r="AL34" s="108"/>
       <c r="AM34" s="56"/>
-      <c r="AN34" s="69"/>
-      <c r="AO34" s="70"/>
+      <c r="AN34" s="110"/>
+      <c r="AO34" s="111"/>
     </row>
     <row r="35" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
@@ -4736,18 +4736,18 @@
       <c r="AD35" s="62"/>
       <c r="AE35" s="62"/>
       <c r="AF35" s="63"/>
-      <c r="AG35" s="73"/>
-      <c r="AH35" s="75"/>
-      <c r="AI35" s="68"/>
-      <c r="AJ35" s="68"/>
-      <c r="AK35" s="68"/>
-      <c r="AL35" s="68"/>
+      <c r="AG35" s="105"/>
+      <c r="AH35" s="107"/>
+      <c r="AI35" s="109"/>
+      <c r="AJ35" s="109"/>
+      <c r="AK35" s="109"/>
+      <c r="AL35" s="109"/>
       <c r="AM35" s="55"/>
-      <c r="AN35" s="68"/>
-      <c r="AO35" s="71"/>
+      <c r="AN35" s="109"/>
+      <c r="AO35" s="112"/>
     </row>
     <row r="36" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="78"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="58"/>
       <c r="C36" s="58"/>
       <c r="D36" s="58"/>
@@ -4779,18 +4779,18 @@
       <c r="AD36" s="58"/>
       <c r="AE36" s="58"/>
       <c r="AF36" s="58"/>
-      <c r="AG36" s="80"/>
-      <c r="AH36" s="82"/>
-      <c r="AI36" s="84"/>
-      <c r="AJ36" s="84"/>
-      <c r="AK36" s="84"/>
-      <c r="AL36" s="86"/>
-      <c r="AM36" s="86"/>
-      <c r="AN36" s="84"/>
-      <c r="AO36" s="76"/>
+      <c r="AG36" s="69"/>
+      <c r="AH36" s="116"/>
+      <c r="AI36" s="100"/>
+      <c r="AJ36" s="100"/>
+      <c r="AK36" s="100"/>
+      <c r="AL36" s="99"/>
+      <c r="AM36" s="99"/>
+      <c r="AN36" s="100"/>
+      <c r="AO36" s="102"/>
     </row>
     <row r="37" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
@@ -4822,15 +4822,15 @@
       <c r="AD37" s="59"/>
       <c r="AE37" s="59"/>
       <c r="AF37" s="59"/>
-      <c r="AG37" s="81"/>
-      <c r="AH37" s="83"/>
-      <c r="AI37" s="85"/>
-      <c r="AJ37" s="85"/>
-      <c r="AK37" s="85"/>
-      <c r="AL37" s="87"/>
-      <c r="AM37" s="87"/>
-      <c r="AN37" s="85"/>
-      <c r="AO37" s="77"/>
+      <c r="AG37" s="70"/>
+      <c r="AH37" s="117"/>
+      <c r="AI37" s="101"/>
+      <c r="AJ37" s="101"/>
+      <c r="AK37" s="101"/>
+      <c r="AL37" s="74"/>
+      <c r="AM37" s="74"/>
+      <c r="AN37" s="101"/>
+      <c r="AO37" s="103"/>
     </row>
     <row r="38" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
@@ -4867,15 +4867,15 @@
       <c r="AD38" s="60"/>
       <c r="AE38" s="60"/>
       <c r="AF38" s="61"/>
-      <c r="AG38" s="72"/>
-      <c r="AH38" s="74"/>
-      <c r="AI38" s="67"/>
-      <c r="AJ38" s="67"/>
-      <c r="AK38" s="67"/>
-      <c r="AL38" s="67"/>
+      <c r="AG38" s="104"/>
+      <c r="AH38" s="106"/>
+      <c r="AI38" s="108"/>
+      <c r="AJ38" s="108"/>
+      <c r="AK38" s="108"/>
+      <c r="AL38" s="108"/>
       <c r="AM38" s="56"/>
-      <c r="AN38" s="69"/>
-      <c r="AO38" s="70"/>
+      <c r="AN38" s="110"/>
+      <c r="AO38" s="111"/>
     </row>
     <row r="39" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
@@ -4912,18 +4912,18 @@
       <c r="AD39" s="62"/>
       <c r="AE39" s="62"/>
       <c r="AF39" s="63"/>
-      <c r="AG39" s="73"/>
-      <c r="AH39" s="75"/>
-      <c r="AI39" s="68"/>
-      <c r="AJ39" s="68"/>
-      <c r="AK39" s="68"/>
-      <c r="AL39" s="68"/>
+      <c r="AG39" s="105"/>
+      <c r="AH39" s="107"/>
+      <c r="AI39" s="109"/>
+      <c r="AJ39" s="109"/>
+      <c r="AK39" s="109"/>
+      <c r="AL39" s="109"/>
       <c r="AM39" s="55"/>
-      <c r="AN39" s="68"/>
-      <c r="AO39" s="71"/>
+      <c r="AN39" s="109"/>
+      <c r="AO39" s="112"/>
     </row>
     <row r="40" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="78"/>
+      <c r="A40" s="67"/>
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
       <c r="D40" s="58"/>
@@ -4955,18 +4955,18 @@
       <c r="AD40" s="58"/>
       <c r="AE40" s="58"/>
       <c r="AF40" s="58"/>
-      <c r="AG40" s="80"/>
-      <c r="AH40" s="82"/>
-      <c r="AI40" s="84"/>
-      <c r="AJ40" s="84"/>
-      <c r="AK40" s="84"/>
-      <c r="AL40" s="86"/>
-      <c r="AM40" s="86"/>
-      <c r="AN40" s="84"/>
-      <c r="AO40" s="76"/>
+      <c r="AG40" s="69"/>
+      <c r="AH40" s="116"/>
+      <c r="AI40" s="100"/>
+      <c r="AJ40" s="100"/>
+      <c r="AK40" s="100"/>
+      <c r="AL40" s="99"/>
+      <c r="AM40" s="99"/>
+      <c r="AN40" s="100"/>
+      <c r="AO40" s="102"/>
     </row>
     <row r="41" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
@@ -4998,15 +4998,15 @@
       <c r="AD41" s="59"/>
       <c r="AE41" s="59"/>
       <c r="AF41" s="59"/>
-      <c r="AG41" s="81"/>
-      <c r="AH41" s="83"/>
-      <c r="AI41" s="85"/>
-      <c r="AJ41" s="85"/>
-      <c r="AK41" s="85"/>
-      <c r="AL41" s="87"/>
-      <c r="AM41" s="87"/>
-      <c r="AN41" s="85"/>
-      <c r="AO41" s="77"/>
+      <c r="AG41" s="70"/>
+      <c r="AH41" s="117"/>
+      <c r="AI41" s="101"/>
+      <c r="AJ41" s="101"/>
+      <c r="AK41" s="101"/>
+      <c r="AL41" s="74"/>
+      <c r="AM41" s="74"/>
+      <c r="AN41" s="101"/>
+      <c r="AO41" s="103"/>
     </row>
     <row r="42" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
@@ -5043,15 +5043,15 @@
       <c r="AD42" s="60"/>
       <c r="AE42" s="60"/>
       <c r="AF42" s="61"/>
-      <c r="AG42" s="72"/>
-      <c r="AH42" s="74"/>
-      <c r="AI42" s="67"/>
-      <c r="AJ42" s="67"/>
-      <c r="AK42" s="67"/>
-      <c r="AL42" s="67"/>
+      <c r="AG42" s="104"/>
+      <c r="AH42" s="106"/>
+      <c r="AI42" s="108"/>
+      <c r="AJ42" s="108"/>
+      <c r="AK42" s="108"/>
+      <c r="AL42" s="108"/>
       <c r="AM42" s="56"/>
-      <c r="AN42" s="69"/>
-      <c r="AO42" s="70"/>
+      <c r="AN42" s="110"/>
+      <c r="AO42" s="111"/>
     </row>
     <row r="43" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
@@ -5088,18 +5088,18 @@
       <c r="AD43" s="62"/>
       <c r="AE43" s="62"/>
       <c r="AF43" s="63"/>
-      <c r="AG43" s="73"/>
-      <c r="AH43" s="75"/>
-      <c r="AI43" s="68"/>
-      <c r="AJ43" s="68"/>
-      <c r="AK43" s="68"/>
-      <c r="AL43" s="68"/>
+      <c r="AG43" s="105"/>
+      <c r="AH43" s="107"/>
+      <c r="AI43" s="109"/>
+      <c r="AJ43" s="109"/>
+      <c r="AK43" s="109"/>
+      <c r="AL43" s="109"/>
       <c r="AM43" s="55"/>
-      <c r="AN43" s="68"/>
-      <c r="AO43" s="71"/>
+      <c r="AN43" s="109"/>
+      <c r="AO43" s="112"/>
     </row>
     <row r="44" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="78"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="58"/>
       <c r="C44" s="58"/>
       <c r="D44" s="58"/>
@@ -5131,18 +5131,18 @@
       <c r="AD44" s="58"/>
       <c r="AE44" s="58"/>
       <c r="AF44" s="58"/>
-      <c r="AG44" s="80"/>
-      <c r="AH44" s="82"/>
-      <c r="AI44" s="84"/>
-      <c r="AJ44" s="84"/>
-      <c r="AK44" s="84"/>
-      <c r="AL44" s="86"/>
-      <c r="AM44" s="86"/>
-      <c r="AN44" s="84"/>
-      <c r="AO44" s="76"/>
+      <c r="AG44" s="69"/>
+      <c r="AH44" s="116"/>
+      <c r="AI44" s="100"/>
+      <c r="AJ44" s="100"/>
+      <c r="AK44" s="100"/>
+      <c r="AL44" s="99"/>
+      <c r="AM44" s="99"/>
+      <c r="AN44" s="100"/>
+      <c r="AO44" s="102"/>
     </row>
     <row r="45" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
@@ -5174,15 +5174,15 @@
       <c r="AD45" s="59"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="59"/>
-      <c r="AG45" s="81"/>
-      <c r="AH45" s="83"/>
-      <c r="AI45" s="85"/>
-      <c r="AJ45" s="85"/>
-      <c r="AK45" s="85"/>
-      <c r="AL45" s="87"/>
-      <c r="AM45" s="87"/>
-      <c r="AN45" s="85"/>
-      <c r="AO45" s="77"/>
+      <c r="AG45" s="70"/>
+      <c r="AH45" s="117"/>
+      <c r="AI45" s="101"/>
+      <c r="AJ45" s="101"/>
+      <c r="AK45" s="101"/>
+      <c r="AL45" s="74"/>
+      <c r="AM45" s="74"/>
+      <c r="AN45" s="101"/>
+      <c r="AO45" s="103"/>
     </row>
     <row r="46" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
@@ -5219,15 +5219,15 @@
       <c r="AD46" s="60"/>
       <c r="AE46" s="60"/>
       <c r="AF46" s="61"/>
-      <c r="AG46" s="72"/>
-      <c r="AH46" s="74"/>
-      <c r="AI46" s="67"/>
-      <c r="AJ46" s="67"/>
-      <c r="AK46" s="67"/>
-      <c r="AL46" s="67"/>
+      <c r="AG46" s="104"/>
+      <c r="AH46" s="106"/>
+      <c r="AI46" s="108"/>
+      <c r="AJ46" s="108"/>
+      <c r="AK46" s="108"/>
+      <c r="AL46" s="108"/>
       <c r="AM46" s="56"/>
-      <c r="AN46" s="69"/>
-      <c r="AO46" s="70"/>
+      <c r="AN46" s="110"/>
+      <c r="AO46" s="111"/>
     </row>
     <row r="47" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
@@ -5264,18 +5264,18 @@
       <c r="AD47" s="62"/>
       <c r="AE47" s="62"/>
       <c r="AF47" s="63"/>
-      <c r="AG47" s="73"/>
-      <c r="AH47" s="75"/>
-      <c r="AI47" s="68"/>
-      <c r="AJ47" s="68"/>
-      <c r="AK47" s="68"/>
-      <c r="AL47" s="68"/>
+      <c r="AG47" s="105"/>
+      <c r="AH47" s="107"/>
+      <c r="AI47" s="109"/>
+      <c r="AJ47" s="109"/>
+      <c r="AK47" s="109"/>
+      <c r="AL47" s="109"/>
       <c r="AM47" s="55"/>
-      <c r="AN47" s="68"/>
-      <c r="AO47" s="71"/>
+      <c r="AN47" s="109"/>
+      <c r="AO47" s="112"/>
     </row>
     <row r="48" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="78"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="58"/>
       <c r="C48" s="58"/>
       <c r="D48" s="58"/>
@@ -5307,18 +5307,18 @@
       <c r="AD48" s="58"/>
       <c r="AE48" s="58"/>
       <c r="AF48" s="58"/>
-      <c r="AG48" s="80"/>
-      <c r="AH48" s="82"/>
-      <c r="AI48" s="84"/>
-      <c r="AJ48" s="84"/>
-      <c r="AK48" s="84"/>
-      <c r="AL48" s="86"/>
-      <c r="AM48" s="86"/>
-      <c r="AN48" s="84"/>
-      <c r="AO48" s="76"/>
+      <c r="AG48" s="69"/>
+      <c r="AH48" s="116"/>
+      <c r="AI48" s="100"/>
+      <c r="AJ48" s="100"/>
+      <c r="AK48" s="100"/>
+      <c r="AL48" s="99"/>
+      <c r="AM48" s="99"/>
+      <c r="AN48" s="100"/>
+      <c r="AO48" s="102"/>
     </row>
     <row r="49" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
@@ -5350,15 +5350,15 @@
       <c r="AD49" s="59"/>
       <c r="AE49" s="59"/>
       <c r="AF49" s="59"/>
-      <c r="AG49" s="81"/>
-      <c r="AH49" s="83"/>
-      <c r="AI49" s="85"/>
-      <c r="AJ49" s="85"/>
-      <c r="AK49" s="85"/>
-      <c r="AL49" s="87"/>
-      <c r="AM49" s="87"/>
-      <c r="AN49" s="85"/>
-      <c r="AO49" s="77"/>
+      <c r="AG49" s="70"/>
+      <c r="AH49" s="117"/>
+      <c r="AI49" s="101"/>
+      <c r="AJ49" s="101"/>
+      <c r="AK49" s="101"/>
+      <c r="AL49" s="74"/>
+      <c r="AM49" s="74"/>
+      <c r="AN49" s="101"/>
+      <c r="AO49" s="103"/>
     </row>
     <row r="50" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
@@ -5395,15 +5395,15 @@
       <c r="AD50" s="60"/>
       <c r="AE50" s="60"/>
       <c r="AF50" s="61"/>
-      <c r="AG50" s="72"/>
-      <c r="AH50" s="74"/>
-      <c r="AI50" s="67"/>
-      <c r="AJ50" s="67"/>
-      <c r="AK50" s="67"/>
-      <c r="AL50" s="67"/>
+      <c r="AG50" s="104"/>
+      <c r="AH50" s="106"/>
+      <c r="AI50" s="108"/>
+      <c r="AJ50" s="108"/>
+      <c r="AK50" s="108"/>
+      <c r="AL50" s="108"/>
       <c r="AM50" s="56"/>
-      <c r="AN50" s="69"/>
-      <c r="AO50" s="70"/>
+      <c r="AN50" s="110"/>
+      <c r="AO50" s="111"/>
     </row>
     <row r="51" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
@@ -5440,18 +5440,18 @@
       <c r="AD51" s="62"/>
       <c r="AE51" s="62"/>
       <c r="AF51" s="63"/>
-      <c r="AG51" s="73"/>
-      <c r="AH51" s="75"/>
-      <c r="AI51" s="68"/>
-      <c r="AJ51" s="68"/>
-      <c r="AK51" s="68"/>
-      <c r="AL51" s="68"/>
+      <c r="AG51" s="105"/>
+      <c r="AH51" s="107"/>
+      <c r="AI51" s="109"/>
+      <c r="AJ51" s="109"/>
+      <c r="AK51" s="109"/>
+      <c r="AL51" s="109"/>
       <c r="AM51" s="55"/>
-      <c r="AN51" s="68"/>
-      <c r="AO51" s="71"/>
+      <c r="AN51" s="109"/>
+      <c r="AO51" s="112"/>
     </row>
     <row r="52" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="78"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="58"/>
       <c r="C52" s="58"/>
       <c r="D52" s="58"/>
@@ -5483,18 +5483,18 @@
       <c r="AD52" s="58"/>
       <c r="AE52" s="58"/>
       <c r="AF52" s="58"/>
-      <c r="AG52" s="80"/>
-      <c r="AH52" s="82"/>
-      <c r="AI52" s="84"/>
-      <c r="AJ52" s="84"/>
-      <c r="AK52" s="84"/>
-      <c r="AL52" s="86"/>
-      <c r="AM52" s="86"/>
-      <c r="AN52" s="84"/>
-      <c r="AO52" s="76"/>
+      <c r="AG52" s="69"/>
+      <c r="AH52" s="116"/>
+      <c r="AI52" s="100"/>
+      <c r="AJ52" s="100"/>
+      <c r="AK52" s="100"/>
+      <c r="AL52" s="99"/>
+      <c r="AM52" s="99"/>
+      <c r="AN52" s="100"/>
+      <c r="AO52" s="102"/>
     </row>
     <row r="53" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
@@ -5526,15 +5526,15 @@
       <c r="AD53" s="59"/>
       <c r="AE53" s="59"/>
       <c r="AF53" s="59"/>
-      <c r="AG53" s="81"/>
-      <c r="AH53" s="83"/>
-      <c r="AI53" s="85"/>
-      <c r="AJ53" s="85"/>
-      <c r="AK53" s="85"/>
-      <c r="AL53" s="87"/>
-      <c r="AM53" s="87"/>
-      <c r="AN53" s="85"/>
-      <c r="AO53" s="77"/>
+      <c r="AG53" s="70"/>
+      <c r="AH53" s="117"/>
+      <c r="AI53" s="101"/>
+      <c r="AJ53" s="101"/>
+      <c r="AK53" s="101"/>
+      <c r="AL53" s="74"/>
+      <c r="AM53" s="74"/>
+      <c r="AN53" s="101"/>
+      <c r="AO53" s="103"/>
     </row>
     <row r="54" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
@@ -5571,15 +5571,15 @@
       <c r="AD54" s="60"/>
       <c r="AE54" s="60"/>
       <c r="AF54" s="61"/>
-      <c r="AG54" s="72"/>
-      <c r="AH54" s="74"/>
-      <c r="AI54" s="67"/>
-      <c r="AJ54" s="67"/>
-      <c r="AK54" s="67"/>
-      <c r="AL54" s="67"/>
+      <c r="AG54" s="104"/>
+      <c r="AH54" s="106"/>
+      <c r="AI54" s="108"/>
+      <c r="AJ54" s="108"/>
+      <c r="AK54" s="108"/>
+      <c r="AL54" s="108"/>
       <c r="AM54" s="56"/>
-      <c r="AN54" s="69"/>
-      <c r="AO54" s="70"/>
+      <c r="AN54" s="110"/>
+      <c r="AO54" s="111"/>
     </row>
     <row r="55" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
@@ -5616,18 +5616,18 @@
       <c r="AD55" s="62"/>
       <c r="AE55" s="62"/>
       <c r="AF55" s="63"/>
-      <c r="AG55" s="73"/>
-      <c r="AH55" s="75"/>
-      <c r="AI55" s="68"/>
-      <c r="AJ55" s="68"/>
-      <c r="AK55" s="68"/>
-      <c r="AL55" s="68"/>
+      <c r="AG55" s="105"/>
+      <c r="AH55" s="107"/>
+      <c r="AI55" s="109"/>
+      <c r="AJ55" s="109"/>
+      <c r="AK55" s="109"/>
+      <c r="AL55" s="109"/>
       <c r="AM55" s="55"/>
-      <c r="AN55" s="68"/>
-      <c r="AO55" s="71"/>
+      <c r="AN55" s="109"/>
+      <c r="AO55" s="112"/>
     </row>
     <row r="56" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="78"/>
+      <c r="A56" s="67"/>
       <c r="B56" s="58"/>
       <c r="C56" s="58"/>
       <c r="D56" s="58"/>
@@ -5659,18 +5659,18 @@
       <c r="AD56" s="58"/>
       <c r="AE56" s="58"/>
       <c r="AF56" s="58"/>
-      <c r="AG56" s="80"/>
-      <c r="AH56" s="82"/>
-      <c r="AI56" s="84"/>
-      <c r="AJ56" s="84"/>
-      <c r="AK56" s="84"/>
-      <c r="AL56" s="86"/>
-      <c r="AM56" s="86"/>
-      <c r="AN56" s="84"/>
-      <c r="AO56" s="76"/>
+      <c r="AG56" s="69"/>
+      <c r="AH56" s="116"/>
+      <c r="AI56" s="100"/>
+      <c r="AJ56" s="100"/>
+      <c r="AK56" s="100"/>
+      <c r="AL56" s="99"/>
+      <c r="AM56" s="99"/>
+      <c r="AN56" s="100"/>
+      <c r="AO56" s="102"/>
     </row>
     <row r="57" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="79"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
       <c r="D57" s="59"/>
@@ -5702,15 +5702,15 @@
       <c r="AD57" s="59"/>
       <c r="AE57" s="59"/>
       <c r="AF57" s="59"/>
-      <c r="AG57" s="81"/>
-      <c r="AH57" s="83"/>
-      <c r="AI57" s="85"/>
-      <c r="AJ57" s="85"/>
-      <c r="AK57" s="85"/>
-      <c r="AL57" s="87"/>
-      <c r="AM57" s="87"/>
-      <c r="AN57" s="85"/>
-      <c r="AO57" s="77"/>
+      <c r="AG57" s="70"/>
+      <c r="AH57" s="117"/>
+      <c r="AI57" s="101"/>
+      <c r="AJ57" s="101"/>
+      <c r="AK57" s="101"/>
+      <c r="AL57" s="74"/>
+      <c r="AM57" s="74"/>
+      <c r="AN57" s="101"/>
+      <c r="AO57" s="103"/>
     </row>
     <row r="58" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -5747,15 +5747,15 @@
       <c r="AD58" s="60"/>
       <c r="AE58" s="60"/>
       <c r="AF58" s="61"/>
-      <c r="AG58" s="72"/>
-      <c r="AH58" s="74"/>
-      <c r="AI58" s="67"/>
-      <c r="AJ58" s="67"/>
-      <c r="AK58" s="67"/>
-      <c r="AL58" s="67"/>
+      <c r="AG58" s="104"/>
+      <c r="AH58" s="106"/>
+      <c r="AI58" s="108"/>
+      <c r="AJ58" s="108"/>
+      <c r="AK58" s="108"/>
+      <c r="AL58" s="108"/>
       <c r="AM58" s="56"/>
-      <c r="AN58" s="69"/>
-      <c r="AO58" s="70"/>
+      <c r="AN58" s="110"/>
+      <c r="AO58" s="111"/>
     </row>
     <row r="59" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
@@ -5792,18 +5792,18 @@
       <c r="AD59" s="62"/>
       <c r="AE59" s="62"/>
       <c r="AF59" s="63"/>
-      <c r="AG59" s="73"/>
-      <c r="AH59" s="75"/>
-      <c r="AI59" s="68"/>
-      <c r="AJ59" s="68"/>
-      <c r="AK59" s="68"/>
-      <c r="AL59" s="68"/>
+      <c r="AG59" s="105"/>
+      <c r="AH59" s="107"/>
+      <c r="AI59" s="109"/>
+      <c r="AJ59" s="109"/>
+      <c r="AK59" s="109"/>
+      <c r="AL59" s="109"/>
       <c r="AM59" s="55"/>
-      <c r="AN59" s="68"/>
-      <c r="AO59" s="71"/>
+      <c r="AN59" s="109"/>
+      <c r="AO59" s="112"/>
     </row>
     <row r="60" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="78"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="58"/>
       <c r="C60" s="58"/>
       <c r="D60" s="58"/>
@@ -5835,18 +5835,18 @@
       <c r="AD60" s="58"/>
       <c r="AE60" s="58"/>
       <c r="AF60" s="58"/>
-      <c r="AG60" s="80"/>
-      <c r="AH60" s="82"/>
-      <c r="AI60" s="84"/>
-      <c r="AJ60" s="84"/>
-      <c r="AK60" s="84"/>
-      <c r="AL60" s="86"/>
-      <c r="AM60" s="86"/>
-      <c r="AN60" s="84"/>
-      <c r="AO60" s="76"/>
+      <c r="AG60" s="69"/>
+      <c r="AH60" s="116"/>
+      <c r="AI60" s="100"/>
+      <c r="AJ60" s="100"/>
+      <c r="AK60" s="100"/>
+      <c r="AL60" s="99"/>
+      <c r="AM60" s="99"/>
+      <c r="AN60" s="100"/>
+      <c r="AO60" s="102"/>
     </row>
     <row r="61" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="79"/>
+      <c r="A61" s="68"/>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
       <c r="D61" s="59"/>
@@ -5878,15 +5878,15 @@
       <c r="AD61" s="59"/>
       <c r="AE61" s="59"/>
       <c r="AF61" s="59"/>
-      <c r="AG61" s="81"/>
-      <c r="AH61" s="83"/>
-      <c r="AI61" s="85"/>
-      <c r="AJ61" s="85"/>
-      <c r="AK61" s="85"/>
-      <c r="AL61" s="87"/>
-      <c r="AM61" s="87"/>
-      <c r="AN61" s="85"/>
-      <c r="AO61" s="77"/>
+      <c r="AG61" s="70"/>
+      <c r="AH61" s="117"/>
+      <c r="AI61" s="101"/>
+      <c r="AJ61" s="101"/>
+      <c r="AK61" s="101"/>
+      <c r="AL61" s="74"/>
+      <c r="AM61" s="74"/>
+      <c r="AN61" s="101"/>
+      <c r="AO61" s="103"/>
     </row>
     <row r="62" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
@@ -5923,15 +5923,15 @@
       <c r="AD62" s="60"/>
       <c r="AE62" s="60"/>
       <c r="AF62" s="61"/>
-      <c r="AG62" s="72"/>
-      <c r="AH62" s="74"/>
-      <c r="AI62" s="67"/>
-      <c r="AJ62" s="67"/>
-      <c r="AK62" s="67"/>
-      <c r="AL62" s="67"/>
+      <c r="AG62" s="104"/>
+      <c r="AH62" s="106"/>
+      <c r="AI62" s="108"/>
+      <c r="AJ62" s="108"/>
+      <c r="AK62" s="108"/>
+      <c r="AL62" s="108"/>
       <c r="AM62" s="56"/>
-      <c r="AN62" s="69"/>
-      <c r="AO62" s="70"/>
+      <c r="AN62" s="110"/>
+      <c r="AO62" s="111"/>
     </row>
     <row r="63" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
@@ -5968,18 +5968,18 @@
       <c r="AD63" s="62"/>
       <c r="AE63" s="62"/>
       <c r="AF63" s="63"/>
-      <c r="AG63" s="73"/>
-      <c r="AH63" s="75"/>
-      <c r="AI63" s="68"/>
-      <c r="AJ63" s="68"/>
-      <c r="AK63" s="68"/>
-      <c r="AL63" s="68"/>
+      <c r="AG63" s="105"/>
+      <c r="AH63" s="107"/>
+      <c r="AI63" s="109"/>
+      <c r="AJ63" s="109"/>
+      <c r="AK63" s="109"/>
+      <c r="AL63" s="109"/>
       <c r="AM63" s="55"/>
-      <c r="AN63" s="68"/>
-      <c r="AO63" s="71"/>
+      <c r="AN63" s="109"/>
+      <c r="AO63" s="112"/>
     </row>
     <row r="64" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="78"/>
+      <c r="A64" s="67"/>
       <c r="B64" s="58"/>
       <c r="C64" s="58"/>
       <c r="D64" s="58"/>
@@ -6011,18 +6011,18 @@
       <c r="AD64" s="58"/>
       <c r="AE64" s="58"/>
       <c r="AF64" s="58"/>
-      <c r="AG64" s="80"/>
-      <c r="AH64" s="82"/>
-      <c r="AI64" s="84"/>
-      <c r="AJ64" s="84"/>
-      <c r="AK64" s="84"/>
-      <c r="AL64" s="86"/>
-      <c r="AM64" s="86"/>
-      <c r="AN64" s="84"/>
-      <c r="AO64" s="76"/>
+      <c r="AG64" s="69"/>
+      <c r="AH64" s="116"/>
+      <c r="AI64" s="100"/>
+      <c r="AJ64" s="100"/>
+      <c r="AK64" s="100"/>
+      <c r="AL64" s="99"/>
+      <c r="AM64" s="99"/>
+      <c r="AN64" s="100"/>
+      <c r="AO64" s="102"/>
     </row>
     <row r="65" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="79"/>
+      <c r="A65" s="68"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
       <c r="D65" s="59"/>
@@ -6054,15 +6054,15 @@
       <c r="AD65" s="59"/>
       <c r="AE65" s="59"/>
       <c r="AF65" s="59"/>
-      <c r="AG65" s="81"/>
-      <c r="AH65" s="83"/>
-      <c r="AI65" s="85"/>
-      <c r="AJ65" s="85"/>
-      <c r="AK65" s="85"/>
-      <c r="AL65" s="87"/>
-      <c r="AM65" s="87"/>
-      <c r="AN65" s="85"/>
-      <c r="AO65" s="77"/>
+      <c r="AG65" s="70"/>
+      <c r="AH65" s="117"/>
+      <c r="AI65" s="101"/>
+      <c r="AJ65" s="101"/>
+      <c r="AK65" s="101"/>
+      <c r="AL65" s="74"/>
+      <c r="AM65" s="74"/>
+      <c r="AN65" s="101"/>
+      <c r="AO65" s="103"/>
     </row>
     <row r="66" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
@@ -6099,15 +6099,15 @@
       <c r="AD66" s="60"/>
       <c r="AE66" s="60"/>
       <c r="AF66" s="61"/>
-      <c r="AG66" s="72"/>
-      <c r="AH66" s="74"/>
-      <c r="AI66" s="67"/>
-      <c r="AJ66" s="67"/>
-      <c r="AK66" s="67"/>
-      <c r="AL66" s="67"/>
+      <c r="AG66" s="104"/>
+      <c r="AH66" s="106"/>
+      <c r="AI66" s="108"/>
+      <c r="AJ66" s="108"/>
+      <c r="AK66" s="108"/>
+      <c r="AL66" s="108"/>
       <c r="AM66" s="56"/>
-      <c r="AN66" s="69"/>
-      <c r="AO66" s="70"/>
+      <c r="AN66" s="110"/>
+      <c r="AO66" s="111"/>
     </row>
     <row r="67" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
@@ -6144,18 +6144,18 @@
       <c r="AD67" s="62"/>
       <c r="AE67" s="62"/>
       <c r="AF67" s="63"/>
-      <c r="AG67" s="73"/>
-      <c r="AH67" s="75"/>
-      <c r="AI67" s="68"/>
-      <c r="AJ67" s="68"/>
-      <c r="AK67" s="68"/>
-      <c r="AL67" s="68"/>
+      <c r="AG67" s="105"/>
+      <c r="AH67" s="107"/>
+      <c r="AI67" s="109"/>
+      <c r="AJ67" s="109"/>
+      <c r="AK67" s="109"/>
+      <c r="AL67" s="109"/>
       <c r="AM67" s="55"/>
-      <c r="AN67" s="68"/>
-      <c r="AO67" s="71"/>
+      <c r="AN67" s="109"/>
+      <c r="AO67" s="112"/>
     </row>
     <row r="68" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="78"/>
+      <c r="A68" s="67"/>
       <c r="B68" s="58"/>
       <c r="C68" s="58"/>
       <c r="D68" s="58"/>
@@ -6187,18 +6187,18 @@
       <c r="AD68" s="58"/>
       <c r="AE68" s="58"/>
       <c r="AF68" s="58"/>
-      <c r="AG68" s="80"/>
-      <c r="AH68" s="82"/>
-      <c r="AI68" s="84"/>
-      <c r="AJ68" s="84"/>
-      <c r="AK68" s="84"/>
-      <c r="AL68" s="86"/>
-      <c r="AM68" s="86"/>
-      <c r="AN68" s="84"/>
-      <c r="AO68" s="76"/>
+      <c r="AG68" s="69"/>
+      <c r="AH68" s="116"/>
+      <c r="AI68" s="100"/>
+      <c r="AJ68" s="100"/>
+      <c r="AK68" s="100"/>
+      <c r="AL68" s="99"/>
+      <c r="AM68" s="99"/>
+      <c r="AN68" s="100"/>
+      <c r="AO68" s="102"/>
     </row>
     <row r="69" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="79"/>
+      <c r="A69" s="68"/>
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
@@ -6230,15 +6230,15 @@
       <c r="AD69" s="59"/>
       <c r="AE69" s="59"/>
       <c r="AF69" s="59"/>
-      <c r="AG69" s="81"/>
-      <c r="AH69" s="83"/>
-      <c r="AI69" s="85"/>
-      <c r="AJ69" s="85"/>
-      <c r="AK69" s="85"/>
-      <c r="AL69" s="87"/>
-      <c r="AM69" s="87"/>
-      <c r="AN69" s="85"/>
-      <c r="AO69" s="77"/>
+      <c r="AG69" s="70"/>
+      <c r="AH69" s="117"/>
+      <c r="AI69" s="101"/>
+      <c r="AJ69" s="101"/>
+      <c r="AK69" s="101"/>
+      <c r="AL69" s="74"/>
+      <c r="AM69" s="74"/>
+      <c r="AN69" s="101"/>
+      <c r="AO69" s="103"/>
     </row>
     <row r="70" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
@@ -6275,15 +6275,15 @@
       <c r="AD70" s="60"/>
       <c r="AE70" s="60"/>
       <c r="AF70" s="61"/>
-      <c r="AG70" s="72"/>
-      <c r="AH70" s="74"/>
-      <c r="AI70" s="67"/>
-      <c r="AJ70" s="67"/>
-      <c r="AK70" s="67"/>
-      <c r="AL70" s="67"/>
+      <c r="AG70" s="104"/>
+      <c r="AH70" s="106"/>
+      <c r="AI70" s="108"/>
+      <c r="AJ70" s="108"/>
+      <c r="AK70" s="108"/>
+      <c r="AL70" s="108"/>
       <c r="AM70" s="56"/>
-      <c r="AN70" s="69"/>
-      <c r="AO70" s="70"/>
+      <c r="AN70" s="110"/>
+      <c r="AO70" s="111"/>
     </row>
     <row r="71" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
@@ -6320,18 +6320,18 @@
       <c r="AD71" s="62"/>
       <c r="AE71" s="62"/>
       <c r="AF71" s="63"/>
-      <c r="AG71" s="73"/>
-      <c r="AH71" s="75"/>
-      <c r="AI71" s="68"/>
-      <c r="AJ71" s="68"/>
-      <c r="AK71" s="68"/>
-      <c r="AL71" s="68"/>
+      <c r="AG71" s="105"/>
+      <c r="AH71" s="107"/>
+      <c r="AI71" s="109"/>
+      <c r="AJ71" s="109"/>
+      <c r="AK71" s="109"/>
+      <c r="AL71" s="109"/>
       <c r="AM71" s="55"/>
-      <c r="AN71" s="68"/>
-      <c r="AO71" s="71"/>
+      <c r="AN71" s="109"/>
+      <c r="AO71" s="112"/>
     </row>
     <row r="72" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="78"/>
+      <c r="A72" s="67"/>
       <c r="B72" s="58"/>
       <c r="C72" s="58"/>
       <c r="D72" s="58"/>
@@ -6363,18 +6363,18 @@
       <c r="AD72" s="58"/>
       <c r="AE72" s="58"/>
       <c r="AF72" s="58"/>
-      <c r="AG72" s="80"/>
-      <c r="AH72" s="82"/>
-      <c r="AI72" s="84"/>
-      <c r="AJ72" s="84"/>
-      <c r="AK72" s="84"/>
-      <c r="AL72" s="86"/>
-      <c r="AM72" s="86"/>
-      <c r="AN72" s="84"/>
-      <c r="AO72" s="76"/>
+      <c r="AG72" s="69"/>
+      <c r="AH72" s="116"/>
+      <c r="AI72" s="100"/>
+      <c r="AJ72" s="100"/>
+      <c r="AK72" s="100"/>
+      <c r="AL72" s="99"/>
+      <c r="AM72" s="99"/>
+      <c r="AN72" s="100"/>
+      <c r="AO72" s="102"/>
     </row>
     <row r="73" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="79"/>
+      <c r="A73" s="68"/>
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="59"/>
@@ -6406,15 +6406,15 @@
       <c r="AD73" s="59"/>
       <c r="AE73" s="59"/>
       <c r="AF73" s="59"/>
-      <c r="AG73" s="81"/>
-      <c r="AH73" s="83"/>
-      <c r="AI73" s="85"/>
-      <c r="AJ73" s="85"/>
-      <c r="AK73" s="85"/>
-      <c r="AL73" s="87"/>
-      <c r="AM73" s="87"/>
-      <c r="AN73" s="85"/>
-      <c r="AO73" s="77"/>
+      <c r="AG73" s="70"/>
+      <c r="AH73" s="117"/>
+      <c r="AI73" s="101"/>
+      <c r="AJ73" s="101"/>
+      <c r="AK73" s="101"/>
+      <c r="AL73" s="74"/>
+      <c r="AM73" s="74"/>
+      <c r="AN73" s="101"/>
+      <c r="AO73" s="103"/>
     </row>
     <row r="74" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -6451,15 +6451,15 @@
       <c r="AD74" s="60"/>
       <c r="AE74" s="60"/>
       <c r="AF74" s="61"/>
-      <c r="AG74" s="72"/>
-      <c r="AH74" s="74"/>
-      <c r="AI74" s="67"/>
-      <c r="AJ74" s="67"/>
-      <c r="AK74" s="67"/>
-      <c r="AL74" s="67"/>
+      <c r="AG74" s="104"/>
+      <c r="AH74" s="106"/>
+      <c r="AI74" s="108"/>
+      <c r="AJ74" s="108"/>
+      <c r="AK74" s="108"/>
+      <c r="AL74" s="108"/>
       <c r="AM74" s="56"/>
-      <c r="AN74" s="69"/>
-      <c r="AO74" s="70"/>
+      <c r="AN74" s="110"/>
+      <c r="AO74" s="111"/>
     </row>
     <row r="75" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
@@ -6496,18 +6496,18 @@
       <c r="AD75" s="62"/>
       <c r="AE75" s="62"/>
       <c r="AF75" s="63"/>
-      <c r="AG75" s="73"/>
-      <c r="AH75" s="75"/>
-      <c r="AI75" s="68"/>
-      <c r="AJ75" s="68"/>
-      <c r="AK75" s="68"/>
-      <c r="AL75" s="68"/>
+      <c r="AG75" s="105"/>
+      <c r="AH75" s="107"/>
+      <c r="AI75" s="109"/>
+      <c r="AJ75" s="109"/>
+      <c r="AK75" s="109"/>
+      <c r="AL75" s="109"/>
       <c r="AM75" s="55"/>
-      <c r="AN75" s="68"/>
-      <c r="AO75" s="71"/>
+      <c r="AN75" s="109"/>
+      <c r="AO75" s="112"/>
     </row>
     <row r="76" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="78"/>
+      <c r="A76" s="67"/>
       <c r="B76" s="58"/>
       <c r="C76" s="58"/>
       <c r="D76" s="58"/>
@@ -6539,18 +6539,18 @@
       <c r="AD76" s="58"/>
       <c r="AE76" s="58"/>
       <c r="AF76" s="58"/>
-      <c r="AG76" s="80"/>
-      <c r="AH76" s="82"/>
-      <c r="AI76" s="84"/>
-      <c r="AJ76" s="84"/>
-      <c r="AK76" s="84"/>
-      <c r="AL76" s="86"/>
-      <c r="AM76" s="86"/>
-      <c r="AN76" s="84"/>
-      <c r="AO76" s="76"/>
+      <c r="AG76" s="69"/>
+      <c r="AH76" s="116"/>
+      <c r="AI76" s="100"/>
+      <c r="AJ76" s="100"/>
+      <c r="AK76" s="100"/>
+      <c r="AL76" s="99"/>
+      <c r="AM76" s="99"/>
+      <c r="AN76" s="100"/>
+      <c r="AO76" s="102"/>
     </row>
     <row r="77" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="79"/>
+      <c r="A77" s="68"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
@@ -6582,15 +6582,15 @@
       <c r="AD77" s="59"/>
       <c r="AE77" s="59"/>
       <c r="AF77" s="59"/>
-      <c r="AG77" s="81"/>
-      <c r="AH77" s="83"/>
-      <c r="AI77" s="85"/>
-      <c r="AJ77" s="85"/>
-      <c r="AK77" s="85"/>
-      <c r="AL77" s="87"/>
-      <c r="AM77" s="87"/>
-      <c r="AN77" s="85"/>
-      <c r="AO77" s="77"/>
+      <c r="AG77" s="70"/>
+      <c r="AH77" s="117"/>
+      <c r="AI77" s="101"/>
+      <c r="AJ77" s="101"/>
+      <c r="AK77" s="101"/>
+      <c r="AL77" s="74"/>
+      <c r="AM77" s="74"/>
+      <c r="AN77" s="101"/>
+      <c r="AO77" s="103"/>
     </row>
     <row r="78" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -6627,15 +6627,15 @@
       <c r="AD78" s="60"/>
       <c r="AE78" s="60"/>
       <c r="AF78" s="61"/>
-      <c r="AG78" s="72"/>
-      <c r="AH78" s="74"/>
-      <c r="AI78" s="67"/>
-      <c r="AJ78" s="67"/>
-      <c r="AK78" s="67"/>
-      <c r="AL78" s="67"/>
+      <c r="AG78" s="104"/>
+      <c r="AH78" s="106"/>
+      <c r="AI78" s="108"/>
+      <c r="AJ78" s="108"/>
+      <c r="AK78" s="108"/>
+      <c r="AL78" s="108"/>
       <c r="AM78" s="56"/>
-      <c r="AN78" s="69"/>
-      <c r="AO78" s="70"/>
+      <c r="AN78" s="110"/>
+      <c r="AO78" s="111"/>
     </row>
     <row r="79" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
@@ -6672,18 +6672,18 @@
       <c r="AD79" s="62"/>
       <c r="AE79" s="62"/>
       <c r="AF79" s="63"/>
-      <c r="AG79" s="73"/>
-      <c r="AH79" s="75"/>
-      <c r="AI79" s="68"/>
-      <c r="AJ79" s="68"/>
-      <c r="AK79" s="68"/>
-      <c r="AL79" s="68"/>
+      <c r="AG79" s="105"/>
+      <c r="AH79" s="107"/>
+      <c r="AI79" s="109"/>
+      <c r="AJ79" s="109"/>
+      <c r="AK79" s="109"/>
+      <c r="AL79" s="109"/>
       <c r="AM79" s="55"/>
-      <c r="AN79" s="68"/>
-      <c r="AO79" s="71"/>
+      <c r="AN79" s="109"/>
+      <c r="AO79" s="112"/>
     </row>
     <row r="80" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="78"/>
+      <c r="A80" s="67"/>
       <c r="B80" s="58"/>
       <c r="C80" s="58"/>
       <c r="D80" s="58"/>
@@ -6715,18 +6715,18 @@
       <c r="AD80" s="58"/>
       <c r="AE80" s="58"/>
       <c r="AF80" s="58"/>
-      <c r="AG80" s="80"/>
-      <c r="AH80" s="82"/>
-      <c r="AI80" s="84"/>
-      <c r="AJ80" s="84"/>
-      <c r="AK80" s="84"/>
-      <c r="AL80" s="86"/>
-      <c r="AM80" s="86"/>
-      <c r="AN80" s="84"/>
-      <c r="AO80" s="76"/>
+      <c r="AG80" s="69"/>
+      <c r="AH80" s="116"/>
+      <c r="AI80" s="100"/>
+      <c r="AJ80" s="100"/>
+      <c r="AK80" s="100"/>
+      <c r="AL80" s="99"/>
+      <c r="AM80" s="99"/>
+      <c r="AN80" s="100"/>
+      <c r="AO80" s="102"/>
     </row>
     <row r="81" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="79"/>
+      <c r="A81" s="68"/>
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
@@ -6758,15 +6758,15 @@
       <c r="AD81" s="59"/>
       <c r="AE81" s="59"/>
       <c r="AF81" s="59"/>
-      <c r="AG81" s="81"/>
-      <c r="AH81" s="83"/>
-      <c r="AI81" s="85"/>
-      <c r="AJ81" s="85"/>
-      <c r="AK81" s="85"/>
-      <c r="AL81" s="87"/>
-      <c r="AM81" s="87"/>
-      <c r="AN81" s="85"/>
-      <c r="AO81" s="77"/>
+      <c r="AG81" s="70"/>
+      <c r="AH81" s="117"/>
+      <c r="AI81" s="101"/>
+      <c r="AJ81" s="101"/>
+      <c r="AK81" s="101"/>
+      <c r="AL81" s="74"/>
+      <c r="AM81" s="74"/>
+      <c r="AN81" s="101"/>
+      <c r="AO81" s="103"/>
     </row>
     <row r="82" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
@@ -6803,15 +6803,15 @@
       <c r="AD82" s="60"/>
       <c r="AE82" s="60"/>
       <c r="AF82" s="61"/>
-      <c r="AG82" s="72"/>
-      <c r="AH82" s="74"/>
-      <c r="AI82" s="67"/>
-      <c r="AJ82" s="67"/>
-      <c r="AK82" s="67"/>
-      <c r="AL82" s="67"/>
+      <c r="AG82" s="104"/>
+      <c r="AH82" s="106"/>
+      <c r="AI82" s="108"/>
+      <c r="AJ82" s="108"/>
+      <c r="AK82" s="108"/>
+      <c r="AL82" s="108"/>
       <c r="AM82" s="56"/>
-      <c r="AN82" s="69"/>
-      <c r="AO82" s="70"/>
+      <c r="AN82" s="110"/>
+      <c r="AO82" s="111"/>
     </row>
     <row r="83" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
@@ -6848,18 +6848,18 @@
       <c r="AD83" s="62"/>
       <c r="AE83" s="62"/>
       <c r="AF83" s="63"/>
-      <c r="AG83" s="73"/>
-      <c r="AH83" s="75"/>
-      <c r="AI83" s="68"/>
-      <c r="AJ83" s="68"/>
-      <c r="AK83" s="68"/>
-      <c r="AL83" s="68"/>
+      <c r="AG83" s="105"/>
+      <c r="AH83" s="107"/>
+      <c r="AI83" s="109"/>
+      <c r="AJ83" s="109"/>
+      <c r="AK83" s="109"/>
+      <c r="AL83" s="109"/>
       <c r="AM83" s="55"/>
-      <c r="AN83" s="68"/>
-      <c r="AO83" s="71"/>
+      <c r="AN83" s="109"/>
+      <c r="AO83" s="112"/>
     </row>
     <row r="84" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="78"/>
+      <c r="A84" s="67"/>
       <c r="B84" s="58"/>
       <c r="C84" s="58"/>
       <c r="D84" s="58"/>
@@ -6891,18 +6891,18 @@
       <c r="AD84" s="58"/>
       <c r="AE84" s="58"/>
       <c r="AF84" s="58"/>
-      <c r="AG84" s="80"/>
-      <c r="AH84" s="82"/>
-      <c r="AI84" s="84"/>
-      <c r="AJ84" s="84"/>
-      <c r="AK84" s="84"/>
-      <c r="AL84" s="86"/>
-      <c r="AM84" s="86"/>
-      <c r="AN84" s="84"/>
-      <c r="AO84" s="76"/>
+      <c r="AG84" s="69"/>
+      <c r="AH84" s="116"/>
+      <c r="AI84" s="100"/>
+      <c r="AJ84" s="100"/>
+      <c r="AK84" s="100"/>
+      <c r="AL84" s="99"/>
+      <c r="AM84" s="99"/>
+      <c r="AN84" s="100"/>
+      <c r="AO84" s="102"/>
     </row>
     <row r="85" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="79"/>
+      <c r="A85" s="68"/>
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="59"/>
@@ -6934,15 +6934,15 @@
       <c r="AD85" s="59"/>
       <c r="AE85" s="59"/>
       <c r="AF85" s="59"/>
-      <c r="AG85" s="81"/>
-      <c r="AH85" s="83"/>
-      <c r="AI85" s="85"/>
-      <c r="AJ85" s="85"/>
-      <c r="AK85" s="85"/>
-      <c r="AL85" s="87"/>
-      <c r="AM85" s="87"/>
-      <c r="AN85" s="85"/>
-      <c r="AO85" s="77"/>
+      <c r="AG85" s="70"/>
+      <c r="AH85" s="117"/>
+      <c r="AI85" s="101"/>
+      <c r="AJ85" s="101"/>
+      <c r="AK85" s="101"/>
+      <c r="AL85" s="74"/>
+      <c r="AM85" s="74"/>
+      <c r="AN85" s="101"/>
+      <c r="AO85" s="103"/>
     </row>
     <row r="86" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
@@ -6979,15 +6979,15 @@
       <c r="AD86" s="60"/>
       <c r="AE86" s="60"/>
       <c r="AF86" s="61"/>
-      <c r="AG86" s="72"/>
-      <c r="AH86" s="74"/>
-      <c r="AI86" s="67"/>
-      <c r="AJ86" s="67"/>
-      <c r="AK86" s="67"/>
-      <c r="AL86" s="67"/>
+      <c r="AG86" s="104"/>
+      <c r="AH86" s="106"/>
+      <c r="AI86" s="108"/>
+      <c r="AJ86" s="108"/>
+      <c r="AK86" s="108"/>
+      <c r="AL86" s="108"/>
       <c r="AM86" s="56"/>
-      <c r="AN86" s="69"/>
-      <c r="AO86" s="70"/>
+      <c r="AN86" s="110"/>
+      <c r="AO86" s="111"/>
     </row>
     <row r="87" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
@@ -7024,18 +7024,18 @@
       <c r="AD87" s="62"/>
       <c r="AE87" s="62"/>
       <c r="AF87" s="63"/>
-      <c r="AG87" s="73"/>
-      <c r="AH87" s="75"/>
-      <c r="AI87" s="68"/>
-      <c r="AJ87" s="68"/>
-      <c r="AK87" s="68"/>
-      <c r="AL87" s="68"/>
+      <c r="AG87" s="105"/>
+      <c r="AH87" s="107"/>
+      <c r="AI87" s="109"/>
+      <c r="AJ87" s="109"/>
+      <c r="AK87" s="109"/>
+      <c r="AL87" s="109"/>
       <c r="AM87" s="55"/>
-      <c r="AN87" s="68"/>
-      <c r="AO87" s="71"/>
+      <c r="AN87" s="109"/>
+      <c r="AO87" s="112"/>
     </row>
     <row r="88" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="78"/>
+      <c r="A88" s="67"/>
       <c r="B88" s="58"/>
       <c r="C88" s="58"/>
       <c r="D88" s="58"/>
@@ -7067,18 +7067,18 @@
       <c r="AD88" s="58"/>
       <c r="AE88" s="58"/>
       <c r="AF88" s="58"/>
-      <c r="AG88" s="80"/>
-      <c r="AH88" s="82"/>
-      <c r="AI88" s="84"/>
-      <c r="AJ88" s="84"/>
-      <c r="AK88" s="84"/>
-      <c r="AL88" s="86"/>
-      <c r="AM88" s="86"/>
-      <c r="AN88" s="84"/>
-      <c r="AO88" s="76"/>
+      <c r="AG88" s="69"/>
+      <c r="AH88" s="116"/>
+      <c r="AI88" s="100"/>
+      <c r="AJ88" s="100"/>
+      <c r="AK88" s="100"/>
+      <c r="AL88" s="99"/>
+      <c r="AM88" s="99"/>
+      <c r="AN88" s="100"/>
+      <c r="AO88" s="102"/>
     </row>
     <row r="89" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="79"/>
+      <c r="A89" s="68"/>
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="59"/>
@@ -7110,15 +7110,15 @@
       <c r="AD89" s="59"/>
       <c r="AE89" s="59"/>
       <c r="AF89" s="59"/>
-      <c r="AG89" s="81"/>
-      <c r="AH89" s="83"/>
-      <c r="AI89" s="85"/>
-      <c r="AJ89" s="85"/>
-      <c r="AK89" s="85"/>
-      <c r="AL89" s="87"/>
-      <c r="AM89" s="87"/>
-      <c r="AN89" s="85"/>
-      <c r="AO89" s="77"/>
+      <c r="AG89" s="70"/>
+      <c r="AH89" s="117"/>
+      <c r="AI89" s="101"/>
+      <c r="AJ89" s="101"/>
+      <c r="AK89" s="101"/>
+      <c r="AL89" s="74"/>
+      <c r="AM89" s="74"/>
+      <c r="AN89" s="101"/>
+      <c r="AO89" s="103"/>
     </row>
     <row r="90" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
@@ -7155,15 +7155,15 @@
       <c r="AD90" s="60"/>
       <c r="AE90" s="60"/>
       <c r="AF90" s="61"/>
-      <c r="AG90" s="72"/>
-      <c r="AH90" s="74"/>
-      <c r="AI90" s="67"/>
-      <c r="AJ90" s="67"/>
-      <c r="AK90" s="67"/>
-      <c r="AL90" s="67"/>
+      <c r="AG90" s="104"/>
+      <c r="AH90" s="106"/>
+      <c r="AI90" s="108"/>
+      <c r="AJ90" s="108"/>
+      <c r="AK90" s="108"/>
+      <c r="AL90" s="108"/>
       <c r="AM90" s="56"/>
-      <c r="AN90" s="69"/>
-      <c r="AO90" s="70"/>
+      <c r="AN90" s="110"/>
+      <c r="AO90" s="111"/>
     </row>
     <row r="91" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
@@ -7200,18 +7200,18 @@
       <c r="AD91" s="62"/>
       <c r="AE91" s="62"/>
       <c r="AF91" s="63"/>
-      <c r="AG91" s="73"/>
-      <c r="AH91" s="75"/>
-      <c r="AI91" s="68"/>
-      <c r="AJ91" s="68"/>
-      <c r="AK91" s="68"/>
-      <c r="AL91" s="68"/>
+      <c r="AG91" s="105"/>
+      <c r="AH91" s="107"/>
+      <c r="AI91" s="109"/>
+      <c r="AJ91" s="109"/>
+      <c r="AK91" s="109"/>
+      <c r="AL91" s="109"/>
       <c r="AM91" s="55"/>
-      <c r="AN91" s="68"/>
-      <c r="AO91" s="71"/>
+      <c r="AN91" s="109"/>
+      <c r="AO91" s="112"/>
     </row>
     <row r="92" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="78"/>
+      <c r="A92" s="67"/>
       <c r="B92" s="58"/>
       <c r="C92" s="58"/>
       <c r="D92" s="58"/>
@@ -7243,18 +7243,18 @@
       <c r="AD92" s="58"/>
       <c r="AE92" s="58"/>
       <c r="AF92" s="58"/>
-      <c r="AG92" s="80"/>
-      <c r="AH92" s="82"/>
-      <c r="AI92" s="84"/>
-      <c r="AJ92" s="84"/>
-      <c r="AK92" s="84"/>
-      <c r="AL92" s="86"/>
-      <c r="AM92" s="86"/>
-      <c r="AN92" s="84"/>
-      <c r="AO92" s="76"/>
+      <c r="AG92" s="69"/>
+      <c r="AH92" s="116"/>
+      <c r="AI92" s="100"/>
+      <c r="AJ92" s="100"/>
+      <c r="AK92" s="100"/>
+      <c r="AL92" s="99"/>
+      <c r="AM92" s="99"/>
+      <c r="AN92" s="100"/>
+      <c r="AO92" s="102"/>
     </row>
     <row r="93" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="79"/>
+      <c r="A93" s="68"/>
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
@@ -7286,15 +7286,15 @@
       <c r="AD93" s="59"/>
       <c r="AE93" s="59"/>
       <c r="AF93" s="59"/>
-      <c r="AG93" s="81"/>
-      <c r="AH93" s="83"/>
-      <c r="AI93" s="85"/>
-      <c r="AJ93" s="85"/>
-      <c r="AK93" s="85"/>
-      <c r="AL93" s="87"/>
-      <c r="AM93" s="87"/>
-      <c r="AN93" s="85"/>
-      <c r="AO93" s="77"/>
+      <c r="AG93" s="70"/>
+      <c r="AH93" s="117"/>
+      <c r="AI93" s="101"/>
+      <c r="AJ93" s="101"/>
+      <c r="AK93" s="101"/>
+      <c r="AL93" s="74"/>
+      <c r="AM93" s="74"/>
+      <c r="AN93" s="101"/>
+      <c r="AO93" s="103"/>
     </row>
     <row r="94" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
@@ -7331,15 +7331,15 @@
       <c r="AD94" s="60"/>
       <c r="AE94" s="60"/>
       <c r="AF94" s="61"/>
-      <c r="AG94" s="72"/>
-      <c r="AH94" s="74"/>
-      <c r="AI94" s="67"/>
-      <c r="AJ94" s="67"/>
-      <c r="AK94" s="67"/>
-      <c r="AL94" s="67"/>
+      <c r="AG94" s="104"/>
+      <c r="AH94" s="106"/>
+      <c r="AI94" s="108"/>
+      <c r="AJ94" s="108"/>
+      <c r="AK94" s="108"/>
+      <c r="AL94" s="108"/>
       <c r="AM94" s="56"/>
-      <c r="AN94" s="69"/>
-      <c r="AO94" s="70"/>
+      <c r="AN94" s="110"/>
+      <c r="AO94" s="111"/>
     </row>
     <row r="95" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
@@ -7376,18 +7376,18 @@
       <c r="AD95" s="62"/>
       <c r="AE95" s="62"/>
       <c r="AF95" s="63"/>
-      <c r="AG95" s="73"/>
-      <c r="AH95" s="75"/>
-      <c r="AI95" s="68"/>
-      <c r="AJ95" s="68"/>
-      <c r="AK95" s="68"/>
-      <c r="AL95" s="68"/>
+      <c r="AG95" s="105"/>
+      <c r="AH95" s="107"/>
+      <c r="AI95" s="109"/>
+      <c r="AJ95" s="109"/>
+      <c r="AK95" s="109"/>
+      <c r="AL95" s="109"/>
       <c r="AM95" s="55"/>
-      <c r="AN95" s="68"/>
-      <c r="AO95" s="71"/>
+      <c r="AN95" s="109"/>
+      <c r="AO95" s="112"/>
     </row>
     <row r="96" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="78"/>
+      <c r="A96" s="67"/>
       <c r="B96" s="58"/>
       <c r="C96" s="58"/>
       <c r="D96" s="58"/>
@@ -7419,18 +7419,18 @@
       <c r="AD96" s="58"/>
       <c r="AE96" s="58"/>
       <c r="AF96" s="58"/>
-      <c r="AG96" s="80"/>
-      <c r="AH96" s="82"/>
-      <c r="AI96" s="84"/>
-      <c r="AJ96" s="84"/>
-      <c r="AK96" s="84"/>
-      <c r="AL96" s="86"/>
-      <c r="AM96" s="86"/>
-      <c r="AN96" s="84"/>
-      <c r="AO96" s="76"/>
+      <c r="AG96" s="69"/>
+      <c r="AH96" s="116"/>
+      <c r="AI96" s="100"/>
+      <c r="AJ96" s="100"/>
+      <c r="AK96" s="100"/>
+      <c r="AL96" s="99"/>
+      <c r="AM96" s="99"/>
+      <c r="AN96" s="100"/>
+      <c r="AO96" s="102"/>
     </row>
     <row r="97" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="79"/>
+      <c r="A97" s="68"/>
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
       <c r="D97" s="59"/>
@@ -7462,15 +7462,15 @@
       <c r="AD97" s="59"/>
       <c r="AE97" s="59"/>
       <c r="AF97" s="59"/>
-      <c r="AG97" s="81"/>
-      <c r="AH97" s="83"/>
-      <c r="AI97" s="85"/>
-      <c r="AJ97" s="85"/>
-      <c r="AK97" s="85"/>
-      <c r="AL97" s="87"/>
-      <c r="AM97" s="87"/>
-      <c r="AN97" s="85"/>
-      <c r="AO97" s="77"/>
+      <c r="AG97" s="70"/>
+      <c r="AH97" s="117"/>
+      <c r="AI97" s="101"/>
+      <c r="AJ97" s="101"/>
+      <c r="AK97" s="101"/>
+      <c r="AL97" s="74"/>
+      <c r="AM97" s="74"/>
+      <c r="AN97" s="101"/>
+      <c r="AO97" s="103"/>
     </row>
     <row r="98" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
@@ -7507,15 +7507,15 @@
       <c r="AD98" s="60"/>
       <c r="AE98" s="60"/>
       <c r="AF98" s="61"/>
-      <c r="AG98" s="72"/>
-      <c r="AH98" s="74"/>
-      <c r="AI98" s="67"/>
-      <c r="AJ98" s="67"/>
-      <c r="AK98" s="67"/>
-      <c r="AL98" s="67"/>
+      <c r="AG98" s="104"/>
+      <c r="AH98" s="106"/>
+      <c r="AI98" s="108"/>
+      <c r="AJ98" s="108"/>
+      <c r="AK98" s="108"/>
+      <c r="AL98" s="108"/>
       <c r="AM98" s="56"/>
-      <c r="AN98" s="69"/>
-      <c r="AO98" s="70"/>
+      <c r="AN98" s="110"/>
+      <c r="AO98" s="111"/>
     </row>
     <row r="99" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
@@ -7552,18 +7552,18 @@
       <c r="AD99" s="62"/>
       <c r="AE99" s="62"/>
       <c r="AF99" s="63"/>
-      <c r="AG99" s="73"/>
-      <c r="AH99" s="75"/>
-      <c r="AI99" s="68"/>
-      <c r="AJ99" s="68"/>
-      <c r="AK99" s="68"/>
-      <c r="AL99" s="68"/>
+      <c r="AG99" s="105"/>
+      <c r="AH99" s="107"/>
+      <c r="AI99" s="109"/>
+      <c r="AJ99" s="109"/>
+      <c r="AK99" s="109"/>
+      <c r="AL99" s="109"/>
       <c r="AM99" s="55"/>
-      <c r="AN99" s="68"/>
-      <c r="AO99" s="71"/>
+      <c r="AN99" s="109"/>
+      <c r="AO99" s="112"/>
     </row>
     <row r="100" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="78"/>
+      <c r="A100" s="67"/>
       <c r="B100" s="58"/>
       <c r="C100" s="58"/>
       <c r="D100" s="58"/>
@@ -7595,18 +7595,18 @@
       <c r="AD100" s="58"/>
       <c r="AE100" s="58"/>
       <c r="AF100" s="58"/>
-      <c r="AG100" s="80"/>
-      <c r="AH100" s="82"/>
-      <c r="AI100" s="84"/>
-      <c r="AJ100" s="84"/>
-      <c r="AK100" s="84"/>
-      <c r="AL100" s="86"/>
-      <c r="AM100" s="86"/>
-      <c r="AN100" s="84"/>
-      <c r="AO100" s="76"/>
+      <c r="AG100" s="69"/>
+      <c r="AH100" s="116"/>
+      <c r="AI100" s="100"/>
+      <c r="AJ100" s="100"/>
+      <c r="AK100" s="100"/>
+      <c r="AL100" s="99"/>
+      <c r="AM100" s="99"/>
+      <c r="AN100" s="100"/>
+      <c r="AO100" s="102"/>
     </row>
     <row r="101" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="79"/>
+      <c r="A101" s="68"/>
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
       <c r="D101" s="59"/>
@@ -7638,15 +7638,15 @@
       <c r="AD101" s="59"/>
       <c r="AE101" s="59"/>
       <c r="AF101" s="59"/>
-      <c r="AG101" s="81"/>
-      <c r="AH101" s="83"/>
-      <c r="AI101" s="85"/>
-      <c r="AJ101" s="85"/>
-      <c r="AK101" s="85"/>
-      <c r="AL101" s="87"/>
-      <c r="AM101" s="87"/>
-      <c r="AN101" s="85"/>
-      <c r="AO101" s="77"/>
+      <c r="AG101" s="70"/>
+      <c r="AH101" s="117"/>
+      <c r="AI101" s="101"/>
+      <c r="AJ101" s="101"/>
+      <c r="AK101" s="101"/>
+      <c r="AL101" s="74"/>
+      <c r="AM101" s="74"/>
+      <c r="AN101" s="101"/>
+      <c r="AO101" s="103"/>
     </row>
     <row r="102" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
@@ -7683,15 +7683,15 @@
       <c r="AD102" s="60"/>
       <c r="AE102" s="60"/>
       <c r="AF102" s="61"/>
-      <c r="AG102" s="72"/>
-      <c r="AH102" s="74"/>
-      <c r="AI102" s="67"/>
-      <c r="AJ102" s="67"/>
-      <c r="AK102" s="67"/>
-      <c r="AL102" s="67"/>
+      <c r="AG102" s="104"/>
+      <c r="AH102" s="106"/>
+      <c r="AI102" s="108"/>
+      <c r="AJ102" s="108"/>
+      <c r="AK102" s="108"/>
+      <c r="AL102" s="108"/>
       <c r="AM102" s="56"/>
-      <c r="AN102" s="69"/>
-      <c r="AO102" s="70"/>
+      <c r="AN102" s="110"/>
+      <c r="AO102" s="111"/>
     </row>
     <row r="103" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
@@ -7728,18 +7728,18 @@
       <c r="AD103" s="62"/>
       <c r="AE103" s="62"/>
       <c r="AF103" s="63"/>
-      <c r="AG103" s="73"/>
-      <c r="AH103" s="75"/>
-      <c r="AI103" s="68"/>
-      <c r="AJ103" s="68"/>
-      <c r="AK103" s="68"/>
-      <c r="AL103" s="68"/>
+      <c r="AG103" s="105"/>
+      <c r="AH103" s="107"/>
+      <c r="AI103" s="109"/>
+      <c r="AJ103" s="109"/>
+      <c r="AK103" s="109"/>
+      <c r="AL103" s="109"/>
       <c r="AM103" s="55"/>
-      <c r="AN103" s="68"/>
-      <c r="AO103" s="71"/>
+      <c r="AN103" s="109"/>
+      <c r="AO103" s="112"/>
     </row>
     <row r="104" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="78"/>
+      <c r="A104" s="67"/>
       <c r="B104" s="58"/>
       <c r="C104" s="58"/>
       <c r="D104" s="58"/>
@@ -7771,18 +7771,18 @@
       <c r="AD104" s="58"/>
       <c r="AE104" s="58"/>
       <c r="AF104" s="58"/>
-      <c r="AG104" s="80"/>
-      <c r="AH104" s="82"/>
-      <c r="AI104" s="84"/>
-      <c r="AJ104" s="84"/>
-      <c r="AK104" s="84"/>
-      <c r="AL104" s="86"/>
-      <c r="AM104" s="86"/>
-      <c r="AN104" s="84"/>
-      <c r="AO104" s="76"/>
+      <c r="AG104" s="69"/>
+      <c r="AH104" s="116"/>
+      <c r="AI104" s="100"/>
+      <c r="AJ104" s="100"/>
+      <c r="AK104" s="100"/>
+      <c r="AL104" s="99"/>
+      <c r="AM104" s="99"/>
+      <c r="AN104" s="100"/>
+      <c r="AO104" s="102"/>
     </row>
     <row r="105" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="79"/>
+      <c r="A105" s="68"/>
       <c r="B105" s="59"/>
       <c r="C105" s="59"/>
       <c r="D105" s="59"/>
@@ -7814,15 +7814,15 @@
       <c r="AD105" s="59"/>
       <c r="AE105" s="59"/>
       <c r="AF105" s="59"/>
-      <c r="AG105" s="81"/>
-      <c r="AH105" s="83"/>
-      <c r="AI105" s="85"/>
-      <c r="AJ105" s="85"/>
-      <c r="AK105" s="85"/>
-      <c r="AL105" s="87"/>
-      <c r="AM105" s="87"/>
-      <c r="AN105" s="85"/>
-      <c r="AO105" s="77"/>
+      <c r="AG105" s="70"/>
+      <c r="AH105" s="117"/>
+      <c r="AI105" s="101"/>
+      <c r="AJ105" s="101"/>
+      <c r="AK105" s="101"/>
+      <c r="AL105" s="74"/>
+      <c r="AM105" s="74"/>
+      <c r="AN105" s="101"/>
+      <c r="AO105" s="103"/>
     </row>
     <row r="106" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
@@ -7859,15 +7859,15 @@
       <c r="AD106" s="60"/>
       <c r="AE106" s="60"/>
       <c r="AF106" s="61"/>
-      <c r="AG106" s="72"/>
-      <c r="AH106" s="74"/>
-      <c r="AI106" s="67"/>
-      <c r="AJ106" s="67"/>
-      <c r="AK106" s="67"/>
-      <c r="AL106" s="67"/>
+      <c r="AG106" s="104"/>
+      <c r="AH106" s="106"/>
+      <c r="AI106" s="108"/>
+      <c r="AJ106" s="108"/>
+      <c r="AK106" s="108"/>
+      <c r="AL106" s="108"/>
       <c r="AM106" s="56"/>
-      <c r="AN106" s="69"/>
-      <c r="AO106" s="70"/>
+      <c r="AN106" s="110"/>
+      <c r="AO106" s="111"/>
     </row>
     <row r="107" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
@@ -7904,18 +7904,18 @@
       <c r="AD107" s="62"/>
       <c r="AE107" s="62"/>
       <c r="AF107" s="63"/>
-      <c r="AG107" s="73"/>
-      <c r="AH107" s="75"/>
-      <c r="AI107" s="68"/>
-      <c r="AJ107" s="68"/>
-      <c r="AK107" s="68"/>
-      <c r="AL107" s="68"/>
+      <c r="AG107" s="105"/>
+      <c r="AH107" s="107"/>
+      <c r="AI107" s="109"/>
+      <c r="AJ107" s="109"/>
+      <c r="AK107" s="109"/>
+      <c r="AL107" s="109"/>
       <c r="AM107" s="55"/>
-      <c r="AN107" s="68"/>
-      <c r="AO107" s="71"/>
+      <c r="AN107" s="109"/>
+      <c r="AO107" s="112"/>
     </row>
     <row r="108" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="78"/>
+      <c r="A108" s="67"/>
       <c r="B108" s="58"/>
       <c r="C108" s="58"/>
       <c r="D108" s="58"/>
@@ -7947,18 +7947,18 @@
       <c r="AD108" s="58"/>
       <c r="AE108" s="58"/>
       <c r="AF108" s="58"/>
-      <c r="AG108" s="80"/>
-      <c r="AH108" s="82"/>
-      <c r="AI108" s="84"/>
-      <c r="AJ108" s="84"/>
-      <c r="AK108" s="84"/>
-      <c r="AL108" s="86"/>
-      <c r="AM108" s="86"/>
-      <c r="AN108" s="84"/>
-      <c r="AO108" s="76"/>
+      <c r="AG108" s="69"/>
+      <c r="AH108" s="116"/>
+      <c r="AI108" s="100"/>
+      <c r="AJ108" s="100"/>
+      <c r="AK108" s="100"/>
+      <c r="AL108" s="99"/>
+      <c r="AM108" s="99"/>
+      <c r="AN108" s="100"/>
+      <c r="AO108" s="102"/>
     </row>
     <row r="109" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="79"/>
+      <c r="A109" s="68"/>
       <c r="B109" s="59"/>
       <c r="C109" s="59"/>
       <c r="D109" s="59"/>
@@ -7990,15 +7990,15 @@
       <c r="AD109" s="59"/>
       <c r="AE109" s="59"/>
       <c r="AF109" s="59"/>
-      <c r="AG109" s="81"/>
-      <c r="AH109" s="83"/>
-      <c r="AI109" s="85"/>
-      <c r="AJ109" s="85"/>
-      <c r="AK109" s="85"/>
-      <c r="AL109" s="87"/>
-      <c r="AM109" s="87"/>
-      <c r="AN109" s="85"/>
-      <c r="AO109" s="77"/>
+      <c r="AG109" s="70"/>
+      <c r="AH109" s="117"/>
+      <c r="AI109" s="101"/>
+      <c r="AJ109" s="101"/>
+      <c r="AK109" s="101"/>
+      <c r="AL109" s="74"/>
+      <c r="AM109" s="74"/>
+      <c r="AN109" s="101"/>
+      <c r="AO109" s="103"/>
     </row>
     <row r="110" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
@@ -8035,15 +8035,15 @@
       <c r="AD110" s="60"/>
       <c r="AE110" s="60"/>
       <c r="AF110" s="61"/>
-      <c r="AG110" s="72"/>
-      <c r="AH110" s="74"/>
-      <c r="AI110" s="67"/>
-      <c r="AJ110" s="67"/>
-      <c r="AK110" s="67"/>
-      <c r="AL110" s="67"/>
+      <c r="AG110" s="104"/>
+      <c r="AH110" s="106"/>
+      <c r="AI110" s="108"/>
+      <c r="AJ110" s="108"/>
+      <c r="AK110" s="108"/>
+      <c r="AL110" s="108"/>
       <c r="AM110" s="56"/>
-      <c r="AN110" s="69"/>
-      <c r="AO110" s="70"/>
+      <c r="AN110" s="110"/>
+      <c r="AO110" s="111"/>
     </row>
     <row r="111" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
@@ -8080,18 +8080,18 @@
       <c r="AD111" s="62"/>
       <c r="AE111" s="62"/>
       <c r="AF111" s="63"/>
-      <c r="AG111" s="73"/>
-      <c r="AH111" s="75"/>
-      <c r="AI111" s="68"/>
-      <c r="AJ111" s="68"/>
-      <c r="AK111" s="68"/>
-      <c r="AL111" s="68"/>
+      <c r="AG111" s="105"/>
+      <c r="AH111" s="107"/>
+      <c r="AI111" s="109"/>
+      <c r="AJ111" s="109"/>
+      <c r="AK111" s="109"/>
+      <c r="AL111" s="109"/>
       <c r="AM111" s="55"/>
-      <c r="AN111" s="68"/>
-      <c r="AO111" s="71"/>
+      <c r="AN111" s="109"/>
+      <c r="AO111" s="112"/>
     </row>
     <row r="112" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="78"/>
+      <c r="A112" s="67"/>
       <c r="B112" s="58"/>
       <c r="C112" s="58"/>
       <c r="D112" s="58"/>
@@ -8123,18 +8123,18 @@
       <c r="AD112" s="58"/>
       <c r="AE112" s="58"/>
       <c r="AF112" s="58"/>
-      <c r="AG112" s="80"/>
-      <c r="AH112" s="82"/>
-      <c r="AI112" s="84"/>
-      <c r="AJ112" s="84"/>
-      <c r="AK112" s="84"/>
-      <c r="AL112" s="86"/>
-      <c r="AM112" s="86"/>
-      <c r="AN112" s="84"/>
-      <c r="AO112" s="76"/>
+      <c r="AG112" s="69"/>
+      <c r="AH112" s="116"/>
+      <c r="AI112" s="100"/>
+      <c r="AJ112" s="100"/>
+      <c r="AK112" s="100"/>
+      <c r="AL112" s="99"/>
+      <c r="AM112" s="99"/>
+      <c r="AN112" s="100"/>
+      <c r="AO112" s="102"/>
     </row>
     <row r="113" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="79"/>
+      <c r="A113" s="68"/>
       <c r="B113" s="59"/>
       <c r="C113" s="59"/>
       <c r="D113" s="59"/>
@@ -8166,15 +8166,15 @@
       <c r="AD113" s="59"/>
       <c r="AE113" s="59"/>
       <c r="AF113" s="59"/>
-      <c r="AG113" s="81"/>
-      <c r="AH113" s="83"/>
-      <c r="AI113" s="85"/>
-      <c r="AJ113" s="85"/>
-      <c r="AK113" s="85"/>
-      <c r="AL113" s="87"/>
-      <c r="AM113" s="87"/>
-      <c r="AN113" s="85"/>
-      <c r="AO113" s="77"/>
+      <c r="AG113" s="70"/>
+      <c r="AH113" s="117"/>
+      <c r="AI113" s="101"/>
+      <c r="AJ113" s="101"/>
+      <c r="AK113" s="101"/>
+      <c r="AL113" s="74"/>
+      <c r="AM113" s="74"/>
+      <c r="AN113" s="101"/>
+      <c r="AO113" s="103"/>
     </row>
     <row r="114" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
@@ -8211,15 +8211,15 @@
       <c r="AD114" s="60"/>
       <c r="AE114" s="60"/>
       <c r="AF114" s="61"/>
-      <c r="AG114" s="72"/>
-      <c r="AH114" s="74"/>
-      <c r="AI114" s="67"/>
-      <c r="AJ114" s="67"/>
-      <c r="AK114" s="67"/>
-      <c r="AL114" s="67"/>
+      <c r="AG114" s="104"/>
+      <c r="AH114" s="106"/>
+      <c r="AI114" s="108"/>
+      <c r="AJ114" s="108"/>
+      <c r="AK114" s="108"/>
+      <c r="AL114" s="108"/>
       <c r="AM114" s="56"/>
-      <c r="AN114" s="69"/>
-      <c r="AO114" s="70"/>
+      <c r="AN114" s="110"/>
+      <c r="AO114" s="111"/>
     </row>
     <row r="115" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
@@ -8256,18 +8256,18 @@
       <c r="AD115" s="62"/>
       <c r="AE115" s="62"/>
       <c r="AF115" s="63"/>
-      <c r="AG115" s="73"/>
-      <c r="AH115" s="75"/>
-      <c r="AI115" s="68"/>
-      <c r="AJ115" s="68"/>
-      <c r="AK115" s="68"/>
-      <c r="AL115" s="68"/>
+      <c r="AG115" s="105"/>
+      <c r="AH115" s="107"/>
+      <c r="AI115" s="109"/>
+      <c r="AJ115" s="109"/>
+      <c r="AK115" s="109"/>
+      <c r="AL115" s="109"/>
       <c r="AM115" s="55"/>
-      <c r="AN115" s="68"/>
-      <c r="AO115" s="71"/>
+      <c r="AN115" s="109"/>
+      <c r="AO115" s="112"/>
     </row>
     <row r="116" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="78"/>
+      <c r="A116" s="67"/>
       <c r="B116" s="58"/>
       <c r="C116" s="58"/>
       <c r="D116" s="58"/>
@@ -8299,18 +8299,18 @@
       <c r="AD116" s="58"/>
       <c r="AE116" s="58"/>
       <c r="AF116" s="58"/>
-      <c r="AG116" s="80"/>
-      <c r="AH116" s="82"/>
-      <c r="AI116" s="84"/>
-      <c r="AJ116" s="84"/>
-      <c r="AK116" s="84"/>
-      <c r="AL116" s="86"/>
-      <c r="AM116" s="86"/>
-      <c r="AN116" s="84"/>
-      <c r="AO116" s="76"/>
+      <c r="AG116" s="69"/>
+      <c r="AH116" s="116"/>
+      <c r="AI116" s="100"/>
+      <c r="AJ116" s="100"/>
+      <c r="AK116" s="100"/>
+      <c r="AL116" s="99"/>
+      <c r="AM116" s="99"/>
+      <c r="AN116" s="100"/>
+      <c r="AO116" s="102"/>
     </row>
     <row r="117" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="79"/>
+      <c r="A117" s="68"/>
       <c r="B117" s="59"/>
       <c r="C117" s="59"/>
       <c r="D117" s="59"/>
@@ -8342,15 +8342,15 @@
       <c r="AD117" s="59"/>
       <c r="AE117" s="59"/>
       <c r="AF117" s="59"/>
-      <c r="AG117" s="81"/>
-      <c r="AH117" s="83"/>
-      <c r="AI117" s="85"/>
-      <c r="AJ117" s="85"/>
-      <c r="AK117" s="85"/>
-      <c r="AL117" s="87"/>
-      <c r="AM117" s="87"/>
-      <c r="AN117" s="85"/>
-      <c r="AO117" s="77"/>
+      <c r="AG117" s="70"/>
+      <c r="AH117" s="117"/>
+      <c r="AI117" s="101"/>
+      <c r="AJ117" s="101"/>
+      <c r="AK117" s="101"/>
+      <c r="AL117" s="74"/>
+      <c r="AM117" s="74"/>
+      <c r="AN117" s="101"/>
+      <c r="AO117" s="103"/>
     </row>
     <row r="118" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
@@ -8387,15 +8387,15 @@
       <c r="AD118" s="60"/>
       <c r="AE118" s="60"/>
       <c r="AF118" s="61"/>
-      <c r="AG118" s="72"/>
-      <c r="AH118" s="74"/>
-      <c r="AI118" s="67"/>
-      <c r="AJ118" s="67"/>
-      <c r="AK118" s="67"/>
-      <c r="AL118" s="67"/>
+      <c r="AG118" s="104"/>
+      <c r="AH118" s="106"/>
+      <c r="AI118" s="108"/>
+      <c r="AJ118" s="108"/>
+      <c r="AK118" s="108"/>
+      <c r="AL118" s="108"/>
       <c r="AM118" s="56"/>
-      <c r="AN118" s="69"/>
-      <c r="AO118" s="70"/>
+      <c r="AN118" s="110"/>
+      <c r="AO118" s="111"/>
     </row>
     <row r="119" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
@@ -8432,18 +8432,18 @@
       <c r="AD119" s="62"/>
       <c r="AE119" s="62"/>
       <c r="AF119" s="63"/>
-      <c r="AG119" s="73"/>
-      <c r="AH119" s="75"/>
-      <c r="AI119" s="68"/>
-      <c r="AJ119" s="68"/>
-      <c r="AK119" s="68"/>
-      <c r="AL119" s="68"/>
+      <c r="AG119" s="105"/>
+      <c r="AH119" s="107"/>
+      <c r="AI119" s="109"/>
+      <c r="AJ119" s="109"/>
+      <c r="AK119" s="109"/>
+      <c r="AL119" s="109"/>
       <c r="AM119" s="55"/>
-      <c r="AN119" s="68"/>
-      <c r="AO119" s="71"/>
+      <c r="AN119" s="109"/>
+      <c r="AO119" s="112"/>
     </row>
     <row r="120" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="78"/>
+      <c r="A120" s="67"/>
       <c r="B120" s="58"/>
       <c r="C120" s="58"/>
       <c r="D120" s="58"/>
@@ -8475,18 +8475,18 @@
       <c r="AD120" s="58"/>
       <c r="AE120" s="58"/>
       <c r="AF120" s="58"/>
-      <c r="AG120" s="80"/>
-      <c r="AH120" s="82"/>
-      <c r="AI120" s="84"/>
-      <c r="AJ120" s="84"/>
-      <c r="AK120" s="84"/>
-      <c r="AL120" s="86"/>
-      <c r="AM120" s="86"/>
-      <c r="AN120" s="84"/>
-      <c r="AO120" s="76"/>
+      <c r="AG120" s="69"/>
+      <c r="AH120" s="116"/>
+      <c r="AI120" s="100"/>
+      <c r="AJ120" s="100"/>
+      <c r="AK120" s="100"/>
+      <c r="AL120" s="99"/>
+      <c r="AM120" s="99"/>
+      <c r="AN120" s="100"/>
+      <c r="AO120" s="102"/>
     </row>
     <row r="121" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="79"/>
+      <c r="A121" s="68"/>
       <c r="B121" s="59"/>
       <c r="C121" s="59"/>
       <c r="D121" s="59"/>
@@ -8518,15 +8518,15 @@
       <c r="AD121" s="59"/>
       <c r="AE121" s="59"/>
       <c r="AF121" s="59"/>
-      <c r="AG121" s="81"/>
-      <c r="AH121" s="83"/>
-      <c r="AI121" s="85"/>
-      <c r="AJ121" s="85"/>
-      <c r="AK121" s="85"/>
-      <c r="AL121" s="87"/>
-      <c r="AM121" s="87"/>
-      <c r="AN121" s="85"/>
-      <c r="AO121" s="77"/>
+      <c r="AG121" s="70"/>
+      <c r="AH121" s="117"/>
+      <c r="AI121" s="101"/>
+      <c r="AJ121" s="101"/>
+      <c r="AK121" s="101"/>
+      <c r="AL121" s="74"/>
+      <c r="AM121" s="74"/>
+      <c r="AN121" s="101"/>
+      <c r="AO121" s="103"/>
     </row>
     <row r="122" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
@@ -8563,15 +8563,15 @@
       <c r="AD122" s="60"/>
       <c r="AE122" s="60"/>
       <c r="AF122" s="61"/>
-      <c r="AG122" s="72"/>
-      <c r="AH122" s="74"/>
-      <c r="AI122" s="67"/>
-      <c r="AJ122" s="67"/>
-      <c r="AK122" s="67"/>
-      <c r="AL122" s="67"/>
+      <c r="AG122" s="104"/>
+      <c r="AH122" s="106"/>
+      <c r="AI122" s="108"/>
+      <c r="AJ122" s="108"/>
+      <c r="AK122" s="108"/>
+      <c r="AL122" s="108"/>
       <c r="AM122" s="56"/>
-      <c r="AN122" s="69"/>
-      <c r="AO122" s="70"/>
+      <c r="AN122" s="110"/>
+      <c r="AO122" s="111"/>
     </row>
     <row r="123" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
@@ -8608,18 +8608,18 @@
       <c r="AD123" s="62"/>
       <c r="AE123" s="62"/>
       <c r="AF123" s="63"/>
-      <c r="AG123" s="73"/>
-      <c r="AH123" s="75"/>
-      <c r="AI123" s="68"/>
-      <c r="AJ123" s="68"/>
-      <c r="AK123" s="68"/>
-      <c r="AL123" s="68"/>
+      <c r="AG123" s="105"/>
+      <c r="AH123" s="107"/>
+      <c r="AI123" s="109"/>
+      <c r="AJ123" s="109"/>
+      <c r="AK123" s="109"/>
+      <c r="AL123" s="109"/>
       <c r="AM123" s="55"/>
-      <c r="AN123" s="68"/>
-      <c r="AO123" s="71"/>
+      <c r="AN123" s="109"/>
+      <c r="AO123" s="112"/>
     </row>
     <row r="124" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="78"/>
+      <c r="A124" s="67"/>
       <c r="B124" s="58"/>
       <c r="C124" s="58"/>
       <c r="D124" s="58"/>
@@ -8651,18 +8651,18 @@
       <c r="AD124" s="58"/>
       <c r="AE124" s="58"/>
       <c r="AF124" s="58"/>
-      <c r="AG124" s="80"/>
-      <c r="AH124" s="82"/>
-      <c r="AI124" s="84"/>
-      <c r="AJ124" s="84"/>
-      <c r="AK124" s="84"/>
-      <c r="AL124" s="86"/>
-      <c r="AM124" s="86"/>
-      <c r="AN124" s="84"/>
-      <c r="AO124" s="76"/>
+      <c r="AG124" s="69"/>
+      <c r="AH124" s="116"/>
+      <c r="AI124" s="100"/>
+      <c r="AJ124" s="100"/>
+      <c r="AK124" s="100"/>
+      <c r="AL124" s="99"/>
+      <c r="AM124" s="99"/>
+      <c r="AN124" s="100"/>
+      <c r="AO124" s="102"/>
     </row>
     <row r="125" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="79"/>
+      <c r="A125" s="68"/>
       <c r="B125" s="59"/>
       <c r="C125" s="59"/>
       <c r="D125" s="59"/>
@@ -8694,15 +8694,15 @@
       <c r="AD125" s="59"/>
       <c r="AE125" s="59"/>
       <c r="AF125" s="59"/>
-      <c r="AG125" s="81"/>
-      <c r="AH125" s="83"/>
-      <c r="AI125" s="85"/>
-      <c r="AJ125" s="85"/>
-      <c r="AK125" s="85"/>
-      <c r="AL125" s="87"/>
-      <c r="AM125" s="87"/>
-      <c r="AN125" s="85"/>
-      <c r="AO125" s="77"/>
+      <c r="AG125" s="70"/>
+      <c r="AH125" s="117"/>
+      <c r="AI125" s="101"/>
+      <c r="AJ125" s="101"/>
+      <c r="AK125" s="101"/>
+      <c r="AL125" s="74"/>
+      <c r="AM125" s="74"/>
+      <c r="AN125" s="101"/>
+      <c r="AO125" s="103"/>
     </row>
     <row r="126" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="16" t="s">
@@ -8739,15 +8739,15 @@
       <c r="AD126" s="60"/>
       <c r="AE126" s="60"/>
       <c r="AF126" s="61"/>
-      <c r="AG126" s="72"/>
-      <c r="AH126" s="74"/>
-      <c r="AI126" s="67"/>
-      <c r="AJ126" s="67"/>
-      <c r="AK126" s="67"/>
-      <c r="AL126" s="67"/>
+      <c r="AG126" s="104"/>
+      <c r="AH126" s="106"/>
+      <c r="AI126" s="108"/>
+      <c r="AJ126" s="108"/>
+      <c r="AK126" s="108"/>
+      <c r="AL126" s="108"/>
       <c r="AM126" s="56"/>
-      <c r="AN126" s="69"/>
-      <c r="AO126" s="70"/>
+      <c r="AN126" s="110"/>
+      <c r="AO126" s="111"/>
     </row>
     <row r="127" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
@@ -8784,18 +8784,18 @@
       <c r="AD127" s="62"/>
       <c r="AE127" s="62"/>
       <c r="AF127" s="63"/>
-      <c r="AG127" s="73"/>
-      <c r="AH127" s="75"/>
-      <c r="AI127" s="68"/>
-      <c r="AJ127" s="68"/>
-      <c r="AK127" s="68"/>
-      <c r="AL127" s="68"/>
+      <c r="AG127" s="105"/>
+      <c r="AH127" s="107"/>
+      <c r="AI127" s="109"/>
+      <c r="AJ127" s="109"/>
+      <c r="AK127" s="109"/>
+      <c r="AL127" s="109"/>
       <c r="AM127" s="55"/>
-      <c r="AN127" s="68"/>
-      <c r="AO127" s="71"/>
+      <c r="AN127" s="109"/>
+      <c r="AO127" s="112"/>
     </row>
     <row r="128" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="78"/>
+      <c r="A128" s="67"/>
       <c r="B128" s="58"/>
       <c r="C128" s="58"/>
       <c r="D128" s="58"/>
@@ -8827,18 +8827,18 @@
       <c r="AD128" s="58"/>
       <c r="AE128" s="58"/>
       <c r="AF128" s="58"/>
-      <c r="AG128" s="80"/>
-      <c r="AH128" s="82"/>
-      <c r="AI128" s="84"/>
-      <c r="AJ128" s="84"/>
-      <c r="AK128" s="84"/>
-      <c r="AL128" s="86"/>
-      <c r="AM128" s="86"/>
-      <c r="AN128" s="84"/>
-      <c r="AO128" s="76"/>
+      <c r="AG128" s="69"/>
+      <c r="AH128" s="116"/>
+      <c r="AI128" s="100"/>
+      <c r="AJ128" s="100"/>
+      <c r="AK128" s="100"/>
+      <c r="AL128" s="99"/>
+      <c r="AM128" s="99"/>
+      <c r="AN128" s="100"/>
+      <c r="AO128" s="102"/>
     </row>
     <row r="129" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="79"/>
+      <c r="A129" s="68"/>
       <c r="B129" s="59"/>
       <c r="C129" s="59"/>
       <c r="D129" s="59"/>
@@ -8870,15 +8870,15 @@
       <c r="AD129" s="59"/>
       <c r="AE129" s="59"/>
       <c r="AF129" s="59"/>
-      <c r="AG129" s="81"/>
-      <c r="AH129" s="83"/>
-      <c r="AI129" s="85"/>
-      <c r="AJ129" s="85"/>
-      <c r="AK129" s="85"/>
-      <c r="AL129" s="87"/>
-      <c r="AM129" s="87"/>
-      <c r="AN129" s="85"/>
-      <c r="AO129" s="77"/>
+      <c r="AG129" s="70"/>
+      <c r="AH129" s="117"/>
+      <c r="AI129" s="101"/>
+      <c r="AJ129" s="101"/>
+      <c r="AK129" s="101"/>
+      <c r="AL129" s="74"/>
+      <c r="AM129" s="74"/>
+      <c r="AN129" s="101"/>
+      <c r="AO129" s="103"/>
     </row>
     <row r="130" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
@@ -8915,15 +8915,15 @@
       <c r="AD130" s="60"/>
       <c r="AE130" s="60"/>
       <c r="AF130" s="61"/>
-      <c r="AG130" s="72"/>
-      <c r="AH130" s="74"/>
-      <c r="AI130" s="67"/>
-      <c r="AJ130" s="67"/>
-      <c r="AK130" s="67"/>
-      <c r="AL130" s="67"/>
+      <c r="AG130" s="104"/>
+      <c r="AH130" s="106"/>
+      <c r="AI130" s="108"/>
+      <c r="AJ130" s="108"/>
+      <c r="AK130" s="108"/>
+      <c r="AL130" s="108"/>
       <c r="AM130" s="56"/>
-      <c r="AN130" s="69"/>
-      <c r="AO130" s="70"/>
+      <c r="AN130" s="110"/>
+      <c r="AO130" s="111"/>
     </row>
     <row r="131" spans="1:41" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
@@ -8960,15 +8960,15 @@
       <c r="AD131" s="62"/>
       <c r="AE131" s="62"/>
       <c r="AF131" s="63"/>
-      <c r="AG131" s="73"/>
-      <c r="AH131" s="75"/>
-      <c r="AI131" s="68"/>
-      <c r="AJ131" s="68"/>
-      <c r="AK131" s="68"/>
-      <c r="AL131" s="68"/>
+      <c r="AG131" s="105"/>
+      <c r="AH131" s="107"/>
+      <c r="AI131" s="109"/>
+      <c r="AJ131" s="109"/>
+      <c r="AK131" s="109"/>
+      <c r="AL131" s="109"/>
       <c r="AM131" s="55"/>
-      <c r="AN131" s="68"/>
-      <c r="AO131" s="71"/>
+      <c r="AN131" s="109"/>
+      <c r="AO131" s="112"/>
     </row>
     <row r="132" spans="1:41" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="22"/>
@@ -9015,40 +9015,40 @@
     </row>
     <row r="133" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C133" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="C133" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="D133" s="88"/>
-      <c r="E133" s="88"/>
+      <c r="D133" s="113"/>
+      <c r="E133" s="113"/>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
       <c r="H133" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I133" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="I133" s="26" t="s">
-        <v>52</v>
       </c>
       <c r="J133" s="26"/>
       <c r="K133" s="26"/>
       <c r="L133" s="26"/>
-      <c r="N133" s="90" t="s">
+      <c r="N133" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="O133" s="115"/>
+      <c r="P133" s="115"/>
+      <c r="Q133" s="115"/>
+      <c r="R133" s="115"/>
+      <c r="T133" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="O133" s="90"/>
-      <c r="P133" s="90"/>
-      <c r="Q133" s="90"/>
-      <c r="R133" s="90"/>
-      <c r="T133" s="90" t="s">
+      <c r="U133" s="115"/>
+      <c r="V133" s="115"/>
+      <c r="W133" s="115"/>
+      <c r="X133" s="115"/>
+      <c r="Z133" s="27" t="s">
         <v>54</v>
-      </c>
-      <c r="U133" s="90"/>
-      <c r="V133" s="90"/>
-      <c r="W133" s="90"/>
-      <c r="X133" s="90"/>
-      <c r="Z133" s="27" t="s">
-        <v>55</v>
       </c>
       <c r="AH133" s="19"/>
       <c r="AI133" s="19"/>
@@ -9058,64 +9058,64 @@
       <c r="AM133" s="19"/>
     </row>
     <row r="134" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="C134" s="88"/>
-      <c r="D134" s="88"/>
-      <c r="E134" s="88"/>
-      <c r="F134" s="88"/>
-      <c r="G134" s="88"/>
-      <c r="H134" s="88"/>
-      <c r="I134" s="88"/>
-      <c r="J134" s="88"/>
-      <c r="K134" s="88"/>
-      <c r="L134" s="88"/>
-      <c r="M134" s="88"/>
-      <c r="N134" s="88"/>
-      <c r="O134" s="88"/>
-      <c r="P134" s="88"/>
-      <c r="Q134" s="88"/>
-      <c r="R134" s="88"/>
-      <c r="S134" s="88"/>
-      <c r="T134" s="88"/>
-      <c r="U134" s="88"/>
-      <c r="V134" s="88"/>
-      <c r="W134" s="88"/>
-      <c r="X134" s="88"/>
-      <c r="Y134" s="88"/>
-      <c r="Z134" s="88"/>
-      <c r="AA134" s="88"/>
-      <c r="AB134" s="88"/>
-      <c r="AC134" s="88"/>
-      <c r="AD134" s="88"/>
-      <c r="AE134" s="88"/>
-      <c r="AF134" s="88"/>
-      <c r="AG134" s="88"/>
-      <c r="AH134" s="88"/>
-      <c r="AI134" s="88"/>
-      <c r="AJ134" s="88"/>
-      <c r="AK134" s="88"/>
-      <c r="AL134" s="88"/>
-      <c r="AM134" s="88"/>
-      <c r="AN134" s="88"/>
-      <c r="AO134" s="88"/>
+      <c r="B134" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="C134" s="113"/>
+      <c r="D134" s="113"/>
+      <c r="E134" s="113"/>
+      <c r="F134" s="113"/>
+      <c r="G134" s="113"/>
+      <c r="H134" s="113"/>
+      <c r="I134" s="113"/>
+      <c r="J134" s="113"/>
+      <c r="K134" s="113"/>
+      <c r="L134" s="113"/>
+      <c r="M134" s="113"/>
+      <c r="N134" s="113"/>
+      <c r="O134" s="113"/>
+      <c r="P134" s="113"/>
+      <c r="Q134" s="113"/>
+      <c r="R134" s="113"/>
+      <c r="S134" s="113"/>
+      <c r="T134" s="113"/>
+      <c r="U134" s="113"/>
+      <c r="V134" s="113"/>
+      <c r="W134" s="113"/>
+      <c r="X134" s="113"/>
+      <c r="Y134" s="113"/>
+      <c r="Z134" s="113"/>
+      <c r="AA134" s="113"/>
+      <c r="AB134" s="113"/>
+      <c r="AC134" s="113"/>
+      <c r="AD134" s="113"/>
+      <c r="AE134" s="113"/>
+      <c r="AF134" s="113"/>
+      <c r="AG134" s="113"/>
+      <c r="AH134" s="113"/>
+      <c r="AI134" s="113"/>
+      <c r="AJ134" s="113"/>
+      <c r="AK134" s="113"/>
+      <c r="AL134" s="113"/>
+      <c r="AM134" s="113"/>
+      <c r="AN134" s="113"/>
+      <c r="AO134" s="113"/>
     </row>
     <row r="135" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="28"/>
-      <c r="B135" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="C135" s="89"/>
-      <c r="D135" s="89"/>
-      <c r="E135" s="89"/>
-      <c r="F135" s="89"/>
-      <c r="G135" s="89"/>
-      <c r="H135" s="89"/>
-      <c r="I135" s="89"/>
-      <c r="J135" s="89"/>
-      <c r="K135" s="89"/>
-      <c r="L135" s="89"/>
+      <c r="B135" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="C135" s="114"/>
+      <c r="D135" s="114"/>
+      <c r="E135" s="114"/>
+      <c r="F135" s="114"/>
+      <c r="G135" s="114"/>
+      <c r="H135" s="114"/>
+      <c r="I135" s="114"/>
+      <c r="J135" s="114"/>
+      <c r="K135" s="114"/>
+      <c r="L135" s="114"/>
       <c r="M135" s="20"/>
       <c r="N135" s="20"/>
       <c r="O135" s="20"/>
@@ -9152,12 +9152,12 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
       <c r="J136" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K136" s="20"/>
       <c r="L136" s="20"/>
       <c r="M136" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N136" s="20"/>
       <c r="O136" s="20"/>
@@ -9168,12 +9168,12 @@
       <c r="T136" s="20"/>
       <c r="U136" s="20"/>
       <c r="V136" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W136" s="20"/>
       <c r="X136" s="20"/>
       <c r="Y136" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z136" s="20"/>
       <c r="AA136" s="20"/>
@@ -9200,7 +9200,7 @@
       <c r="K137" s="20"/>
       <c r="L137" s="20"/>
       <c r="M137" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N137" s="20"/>
       <c r="O137" s="20"/>
@@ -9214,7 +9214,7 @@
       <c r="W137" s="20"/>
       <c r="X137" s="20"/>
       <c r="Y137" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z137" s="20"/>
       <c r="AA137" s="20"/>
@@ -9255,7 +9255,7 @@
     </row>
     <row r="139" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -9296,12 +9296,12 @@
       <c r="H140" s="20"/>
       <c r="I140" s="20"/>
       <c r="J140" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K140" s="20"/>
       <c r="L140" s="20"/>
       <c r="M140" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N140" s="20"/>
       <c r="O140" s="20"/>
@@ -9312,12 +9312,12 @@
       <c r="T140" s="20"/>
       <c r="U140" s="20"/>
       <c r="V140" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W140" s="20"/>
       <c r="X140" s="20"/>
       <c r="Y140" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z140" s="20"/>
       <c r="AA140" s="20"/>
@@ -9338,7 +9338,7 @@
       <c r="K141" s="20"/>
       <c r="L141" s="20"/>
       <c r="M141" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N141" s="20"/>
       <c r="O141" s="20"/>
@@ -9352,7 +9352,7 @@
       <c r="W141" s="20"/>
       <c r="X141" s="20"/>
       <c r="Y141" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z141" s="20"/>
       <c r="AA141" s="20"/>
@@ -9455,43 +9455,499 @@
     </row>
   </sheetData>
   <mergeCells count="554">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="A1:AO1"/>
-    <mergeCell ref="A2:AO2"/>
-    <mergeCell ref="A3:AO3"/>
-    <mergeCell ref="AG4:AG9"/>
-    <mergeCell ref="AH4:AL4"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="AH7:AL7"/>
-    <mergeCell ref="AH8:AN9"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO16:AO17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AL130:AL131"/>
+    <mergeCell ref="AN130:AN131"/>
+    <mergeCell ref="AO130:AO131"/>
+    <mergeCell ref="AG130:AG131"/>
+    <mergeCell ref="AH130:AH131"/>
+    <mergeCell ref="AI130:AI131"/>
+    <mergeCell ref="AJ130:AJ131"/>
+    <mergeCell ref="AK130:AK131"/>
+    <mergeCell ref="AL126:AL127"/>
+    <mergeCell ref="AN126:AN127"/>
+    <mergeCell ref="AO126:AO127"/>
+    <mergeCell ref="AO128:AO129"/>
+    <mergeCell ref="AG126:AG127"/>
+    <mergeCell ref="AH126:AH127"/>
+    <mergeCell ref="AI126:AI127"/>
+    <mergeCell ref="AJ126:AJ127"/>
+    <mergeCell ref="AK126:AK127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="AG128:AG129"/>
+    <mergeCell ref="AH128:AH129"/>
+    <mergeCell ref="AI128:AI129"/>
+    <mergeCell ref="AJ128:AJ129"/>
+    <mergeCell ref="AK128:AK129"/>
+    <mergeCell ref="AL128:AL129"/>
+    <mergeCell ref="AM128:AM129"/>
+    <mergeCell ref="AN128:AN129"/>
+    <mergeCell ref="AL122:AL123"/>
+    <mergeCell ref="AN122:AN123"/>
+    <mergeCell ref="AO122:AO123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="AG124:AG125"/>
+    <mergeCell ref="AH124:AH125"/>
+    <mergeCell ref="AI124:AI125"/>
+    <mergeCell ref="AJ124:AJ125"/>
+    <mergeCell ref="AK124:AK125"/>
+    <mergeCell ref="AL124:AL125"/>
+    <mergeCell ref="AM124:AM125"/>
+    <mergeCell ref="AN124:AN125"/>
+    <mergeCell ref="AO124:AO125"/>
+    <mergeCell ref="AG122:AG123"/>
+    <mergeCell ref="AH122:AH123"/>
+    <mergeCell ref="AI122:AI123"/>
+    <mergeCell ref="AJ122:AJ123"/>
+    <mergeCell ref="AK122:AK123"/>
+    <mergeCell ref="AL118:AL119"/>
+    <mergeCell ref="AN118:AN119"/>
+    <mergeCell ref="AO118:AO119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="AG120:AG121"/>
+    <mergeCell ref="AH120:AH121"/>
+    <mergeCell ref="AI120:AI121"/>
+    <mergeCell ref="AJ120:AJ121"/>
+    <mergeCell ref="AK120:AK121"/>
+    <mergeCell ref="AL120:AL121"/>
+    <mergeCell ref="AM120:AM121"/>
+    <mergeCell ref="AN120:AN121"/>
+    <mergeCell ref="AO120:AO121"/>
+    <mergeCell ref="AG118:AG119"/>
+    <mergeCell ref="AH118:AH119"/>
+    <mergeCell ref="AI118:AI119"/>
+    <mergeCell ref="AJ118:AJ119"/>
+    <mergeCell ref="AK118:AK119"/>
+    <mergeCell ref="AL114:AL115"/>
+    <mergeCell ref="AN114:AN115"/>
+    <mergeCell ref="AO114:AO115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="AG116:AG117"/>
+    <mergeCell ref="AH116:AH117"/>
+    <mergeCell ref="AI116:AI117"/>
+    <mergeCell ref="AJ116:AJ117"/>
+    <mergeCell ref="AK116:AK117"/>
+    <mergeCell ref="AL116:AL117"/>
+    <mergeCell ref="AM116:AM117"/>
+    <mergeCell ref="AN116:AN117"/>
+    <mergeCell ref="AO116:AO117"/>
+    <mergeCell ref="AG114:AG115"/>
+    <mergeCell ref="AH114:AH115"/>
+    <mergeCell ref="AI114:AI115"/>
+    <mergeCell ref="AJ114:AJ115"/>
+    <mergeCell ref="AK114:AK115"/>
+    <mergeCell ref="AL110:AL111"/>
+    <mergeCell ref="AN110:AN111"/>
+    <mergeCell ref="AO110:AO111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="AG112:AG113"/>
+    <mergeCell ref="AH112:AH113"/>
+    <mergeCell ref="AI112:AI113"/>
+    <mergeCell ref="AJ112:AJ113"/>
+    <mergeCell ref="AK112:AK113"/>
+    <mergeCell ref="AL112:AL113"/>
+    <mergeCell ref="AM112:AM113"/>
+    <mergeCell ref="AN112:AN113"/>
+    <mergeCell ref="AO112:AO113"/>
+    <mergeCell ref="AG110:AG111"/>
+    <mergeCell ref="AH110:AH111"/>
+    <mergeCell ref="AI110:AI111"/>
+    <mergeCell ref="AJ110:AJ111"/>
+    <mergeCell ref="AK110:AK111"/>
+    <mergeCell ref="AL106:AL107"/>
+    <mergeCell ref="AN106:AN107"/>
+    <mergeCell ref="AO106:AO107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="AG108:AG109"/>
+    <mergeCell ref="AH108:AH109"/>
+    <mergeCell ref="AI108:AI109"/>
+    <mergeCell ref="AJ108:AJ109"/>
+    <mergeCell ref="AK108:AK109"/>
+    <mergeCell ref="AL108:AL109"/>
+    <mergeCell ref="AM108:AM109"/>
+    <mergeCell ref="AN108:AN109"/>
+    <mergeCell ref="AO108:AO109"/>
+    <mergeCell ref="AG106:AG107"/>
+    <mergeCell ref="AH106:AH107"/>
+    <mergeCell ref="AI106:AI107"/>
+    <mergeCell ref="AJ106:AJ107"/>
+    <mergeCell ref="AK106:AK107"/>
+    <mergeCell ref="AL102:AL103"/>
+    <mergeCell ref="AN102:AN103"/>
+    <mergeCell ref="AO102:AO103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="AG104:AG105"/>
+    <mergeCell ref="AH104:AH105"/>
+    <mergeCell ref="AI104:AI105"/>
+    <mergeCell ref="AJ104:AJ105"/>
+    <mergeCell ref="AK104:AK105"/>
+    <mergeCell ref="AL104:AL105"/>
+    <mergeCell ref="AM104:AM105"/>
+    <mergeCell ref="AN104:AN105"/>
+    <mergeCell ref="AO104:AO105"/>
+    <mergeCell ref="AG102:AG103"/>
+    <mergeCell ref="AH102:AH103"/>
+    <mergeCell ref="AI102:AI103"/>
+    <mergeCell ref="AJ102:AJ103"/>
+    <mergeCell ref="AK102:AK103"/>
+    <mergeCell ref="AL98:AL99"/>
+    <mergeCell ref="AN98:AN99"/>
+    <mergeCell ref="AO98:AO99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="AG100:AG101"/>
+    <mergeCell ref="AH100:AH101"/>
+    <mergeCell ref="AI100:AI101"/>
+    <mergeCell ref="AJ100:AJ101"/>
+    <mergeCell ref="AK100:AK101"/>
+    <mergeCell ref="AL100:AL101"/>
+    <mergeCell ref="AM100:AM101"/>
+    <mergeCell ref="AN100:AN101"/>
+    <mergeCell ref="AO100:AO101"/>
+    <mergeCell ref="AG98:AG99"/>
+    <mergeCell ref="AH98:AH99"/>
+    <mergeCell ref="AI98:AI99"/>
+    <mergeCell ref="AJ98:AJ99"/>
+    <mergeCell ref="AK98:AK99"/>
+    <mergeCell ref="AL94:AL95"/>
+    <mergeCell ref="AN94:AN95"/>
+    <mergeCell ref="AO94:AO95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="AG96:AG97"/>
+    <mergeCell ref="AH96:AH97"/>
+    <mergeCell ref="AI96:AI97"/>
+    <mergeCell ref="AJ96:AJ97"/>
+    <mergeCell ref="AK96:AK97"/>
+    <mergeCell ref="AL96:AL97"/>
+    <mergeCell ref="AM96:AM97"/>
+    <mergeCell ref="AN96:AN97"/>
+    <mergeCell ref="AO96:AO97"/>
+    <mergeCell ref="AG94:AG95"/>
+    <mergeCell ref="AH94:AH95"/>
+    <mergeCell ref="AI94:AI95"/>
+    <mergeCell ref="AJ94:AJ95"/>
+    <mergeCell ref="AK94:AK95"/>
+    <mergeCell ref="AL90:AL91"/>
+    <mergeCell ref="AN90:AN91"/>
+    <mergeCell ref="AO90:AO91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="AG92:AG93"/>
+    <mergeCell ref="AH92:AH93"/>
+    <mergeCell ref="AI92:AI93"/>
+    <mergeCell ref="AJ92:AJ93"/>
+    <mergeCell ref="AK92:AK93"/>
+    <mergeCell ref="AL92:AL93"/>
+    <mergeCell ref="AM92:AM93"/>
+    <mergeCell ref="AN92:AN93"/>
+    <mergeCell ref="AO92:AO93"/>
+    <mergeCell ref="AG90:AG91"/>
+    <mergeCell ref="AH90:AH91"/>
+    <mergeCell ref="AI90:AI91"/>
+    <mergeCell ref="AJ90:AJ91"/>
+    <mergeCell ref="AK90:AK91"/>
+    <mergeCell ref="AL86:AL87"/>
+    <mergeCell ref="AN86:AN87"/>
+    <mergeCell ref="AO86:AO87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="AG88:AG89"/>
+    <mergeCell ref="AH88:AH89"/>
+    <mergeCell ref="AI88:AI89"/>
+    <mergeCell ref="AJ88:AJ89"/>
+    <mergeCell ref="AK88:AK89"/>
+    <mergeCell ref="AL88:AL89"/>
+    <mergeCell ref="AM88:AM89"/>
+    <mergeCell ref="AN88:AN89"/>
+    <mergeCell ref="AO88:AO89"/>
+    <mergeCell ref="AG86:AG87"/>
+    <mergeCell ref="AH86:AH87"/>
+    <mergeCell ref="AI86:AI87"/>
+    <mergeCell ref="AJ86:AJ87"/>
+    <mergeCell ref="AK86:AK87"/>
+    <mergeCell ref="AL82:AL83"/>
+    <mergeCell ref="AN82:AN83"/>
+    <mergeCell ref="AO82:AO83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="AG84:AG85"/>
+    <mergeCell ref="AH84:AH85"/>
+    <mergeCell ref="AI84:AI85"/>
+    <mergeCell ref="AJ84:AJ85"/>
+    <mergeCell ref="AK84:AK85"/>
+    <mergeCell ref="AL84:AL85"/>
+    <mergeCell ref="AM84:AM85"/>
+    <mergeCell ref="AN84:AN85"/>
+    <mergeCell ref="AO84:AO85"/>
+    <mergeCell ref="AG82:AG83"/>
+    <mergeCell ref="AH82:AH83"/>
+    <mergeCell ref="AI82:AI83"/>
+    <mergeCell ref="AJ82:AJ83"/>
+    <mergeCell ref="AK82:AK83"/>
+    <mergeCell ref="AL78:AL79"/>
+    <mergeCell ref="AN78:AN79"/>
+    <mergeCell ref="AO78:AO79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="AG80:AG81"/>
+    <mergeCell ref="AH80:AH81"/>
+    <mergeCell ref="AI80:AI81"/>
+    <mergeCell ref="AJ80:AJ81"/>
+    <mergeCell ref="AK80:AK81"/>
+    <mergeCell ref="AL80:AL81"/>
+    <mergeCell ref="AM80:AM81"/>
+    <mergeCell ref="AN80:AN81"/>
+    <mergeCell ref="AO80:AO81"/>
+    <mergeCell ref="AG78:AG79"/>
+    <mergeCell ref="AH78:AH79"/>
+    <mergeCell ref="AI78:AI79"/>
+    <mergeCell ref="AJ78:AJ79"/>
+    <mergeCell ref="AK78:AK79"/>
+    <mergeCell ref="AL74:AL75"/>
+    <mergeCell ref="AN74:AN75"/>
+    <mergeCell ref="AO74:AO75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="AG76:AG77"/>
+    <mergeCell ref="AH76:AH77"/>
+    <mergeCell ref="AI76:AI77"/>
+    <mergeCell ref="AJ76:AJ77"/>
+    <mergeCell ref="AK76:AK77"/>
+    <mergeCell ref="AL76:AL77"/>
+    <mergeCell ref="AM76:AM77"/>
+    <mergeCell ref="AN76:AN77"/>
+    <mergeCell ref="AO76:AO77"/>
+    <mergeCell ref="AG74:AG75"/>
+    <mergeCell ref="AH74:AH75"/>
+    <mergeCell ref="AI74:AI75"/>
+    <mergeCell ref="AJ74:AJ75"/>
+    <mergeCell ref="AK74:AK75"/>
+    <mergeCell ref="AL70:AL71"/>
+    <mergeCell ref="AN70:AN71"/>
+    <mergeCell ref="AO70:AO71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="AG72:AG73"/>
+    <mergeCell ref="AH72:AH73"/>
+    <mergeCell ref="AI72:AI73"/>
+    <mergeCell ref="AJ72:AJ73"/>
+    <mergeCell ref="AK72:AK73"/>
+    <mergeCell ref="AL72:AL73"/>
+    <mergeCell ref="AM72:AM73"/>
+    <mergeCell ref="AN72:AN73"/>
+    <mergeCell ref="AO72:AO73"/>
+    <mergeCell ref="AG70:AG71"/>
+    <mergeCell ref="AH70:AH71"/>
+    <mergeCell ref="AI70:AI71"/>
+    <mergeCell ref="AJ70:AJ71"/>
+    <mergeCell ref="AK70:AK71"/>
+    <mergeCell ref="AL66:AL67"/>
+    <mergeCell ref="AN66:AN67"/>
+    <mergeCell ref="AO66:AO67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="AG68:AG69"/>
+    <mergeCell ref="AH68:AH69"/>
+    <mergeCell ref="AI68:AI69"/>
+    <mergeCell ref="AJ68:AJ69"/>
+    <mergeCell ref="AK68:AK69"/>
+    <mergeCell ref="AL68:AL69"/>
+    <mergeCell ref="AM68:AM69"/>
+    <mergeCell ref="AN68:AN69"/>
+    <mergeCell ref="AO68:AO69"/>
+    <mergeCell ref="AG66:AG67"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="AI66:AI67"/>
+    <mergeCell ref="AJ66:AJ67"/>
+    <mergeCell ref="AK66:AK67"/>
+    <mergeCell ref="AL62:AL63"/>
+    <mergeCell ref="AN62:AN63"/>
+    <mergeCell ref="AO62:AO63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="AG64:AG65"/>
+    <mergeCell ref="AH64:AH65"/>
+    <mergeCell ref="AI64:AI65"/>
+    <mergeCell ref="AJ64:AJ65"/>
+    <mergeCell ref="AK64:AK65"/>
+    <mergeCell ref="AL64:AL65"/>
+    <mergeCell ref="AM64:AM65"/>
+    <mergeCell ref="AN64:AN65"/>
+    <mergeCell ref="AO64:AO65"/>
+    <mergeCell ref="AG62:AG63"/>
+    <mergeCell ref="AH62:AH63"/>
+    <mergeCell ref="AI62:AI63"/>
+    <mergeCell ref="AJ62:AJ63"/>
+    <mergeCell ref="AK62:AK63"/>
+    <mergeCell ref="AL58:AL59"/>
+    <mergeCell ref="AN58:AN59"/>
+    <mergeCell ref="AO58:AO59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="AG60:AG61"/>
+    <mergeCell ref="AH60:AH61"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AJ60:AJ61"/>
+    <mergeCell ref="AK60:AK61"/>
+    <mergeCell ref="AL60:AL61"/>
+    <mergeCell ref="AM60:AM61"/>
+    <mergeCell ref="AN60:AN61"/>
+    <mergeCell ref="AO60:AO61"/>
+    <mergeCell ref="AG58:AG59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AJ58:AJ59"/>
+    <mergeCell ref="AK58:AK59"/>
+    <mergeCell ref="AL54:AL55"/>
+    <mergeCell ref="AN54:AN55"/>
+    <mergeCell ref="AO54:AO55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="AG56:AG57"/>
+    <mergeCell ref="AH56:AH57"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AJ56:AJ57"/>
+    <mergeCell ref="AK56:AK57"/>
+    <mergeCell ref="AL56:AL57"/>
+    <mergeCell ref="AM56:AM57"/>
+    <mergeCell ref="AN56:AN57"/>
+    <mergeCell ref="AO56:AO57"/>
+    <mergeCell ref="AG54:AG55"/>
+    <mergeCell ref="AH54:AH55"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AJ54:AJ55"/>
+    <mergeCell ref="AK54:AK55"/>
+    <mergeCell ref="AL50:AL51"/>
+    <mergeCell ref="AN50:AN51"/>
+    <mergeCell ref="AO50:AO51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="AG52:AG53"/>
+    <mergeCell ref="AH52:AH53"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AJ52:AJ53"/>
+    <mergeCell ref="AK52:AK53"/>
+    <mergeCell ref="AL52:AL53"/>
+    <mergeCell ref="AM52:AM53"/>
+    <mergeCell ref="AN52:AN53"/>
+    <mergeCell ref="AO52:AO53"/>
+    <mergeCell ref="AG50:AG51"/>
+    <mergeCell ref="AH50:AH51"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AJ50:AJ51"/>
+    <mergeCell ref="AK50:AK51"/>
+    <mergeCell ref="AL46:AL47"/>
+    <mergeCell ref="AN46:AN47"/>
+    <mergeCell ref="AO46:AO47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="AG48:AG49"/>
+    <mergeCell ref="AH48:AH49"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AJ48:AJ49"/>
+    <mergeCell ref="AK48:AK49"/>
+    <mergeCell ref="AL48:AL49"/>
+    <mergeCell ref="AM48:AM49"/>
+    <mergeCell ref="AN48:AN49"/>
+    <mergeCell ref="AO48:AO49"/>
+    <mergeCell ref="AG46:AG47"/>
+    <mergeCell ref="AH46:AH47"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AJ46:AJ47"/>
+    <mergeCell ref="AK46:AK47"/>
+    <mergeCell ref="AL42:AL43"/>
+    <mergeCell ref="AN42:AN43"/>
+    <mergeCell ref="AO42:AO43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="AG44:AG45"/>
+    <mergeCell ref="AH44:AH45"/>
+    <mergeCell ref="AI44:AI45"/>
+    <mergeCell ref="AJ44:AJ45"/>
+    <mergeCell ref="AK44:AK45"/>
+    <mergeCell ref="AL44:AL45"/>
+    <mergeCell ref="AM44:AM45"/>
+    <mergeCell ref="AN44:AN45"/>
+    <mergeCell ref="AO44:AO45"/>
+    <mergeCell ref="AG42:AG43"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="AI42:AI43"/>
+    <mergeCell ref="AJ42:AJ43"/>
+    <mergeCell ref="AK42:AK43"/>
+    <mergeCell ref="AL38:AL39"/>
+    <mergeCell ref="AN38:AN39"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AH40:AH41"/>
+    <mergeCell ref="AI40:AI41"/>
+    <mergeCell ref="AJ40:AJ41"/>
+    <mergeCell ref="AK40:AK41"/>
+    <mergeCell ref="AL40:AL41"/>
+    <mergeCell ref="AM40:AM41"/>
+    <mergeCell ref="AN40:AN41"/>
+    <mergeCell ref="AO40:AO41"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="AH38:AH39"/>
+    <mergeCell ref="AI38:AI39"/>
+    <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="AK38:AK39"/>
+    <mergeCell ref="AK36:AK37"/>
+    <mergeCell ref="AL36:AL37"/>
+    <mergeCell ref="AM36:AM37"/>
+    <mergeCell ref="AN36:AN37"/>
+    <mergeCell ref="AO36:AO37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AH36:AH37"/>
+    <mergeCell ref="AI36:AI37"/>
+    <mergeCell ref="AJ36:AJ37"/>
+    <mergeCell ref="AL34:AL35"/>
+    <mergeCell ref="AN34:AN35"/>
+    <mergeCell ref="AO34:AO35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="AH28:AH29"/>
+    <mergeCell ref="AI28:AI29"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AK28:AK29"/>
+    <mergeCell ref="AL28:AL29"/>
+    <mergeCell ref="AM28:AM29"/>
+    <mergeCell ref="AN28:AN29"/>
+    <mergeCell ref="AO28:AO29"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AH34:AH35"/>
+    <mergeCell ref="AI34:AI35"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AK34:AK35"/>
+    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="AN30:AN31"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="AH32:AH33"/>
+    <mergeCell ref="AO24:AO25"/>
+    <mergeCell ref="AI32:AI33"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AL32:AL33"/>
+    <mergeCell ref="AM32:AM33"/>
+    <mergeCell ref="AN32:AN33"/>
+    <mergeCell ref="AO32:AO33"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AN20:AN21"/>
+    <mergeCell ref="AO20:AO21"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AN22:AN23"/>
+    <mergeCell ref="AO22:AO23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AK24:AK25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AM24:AM25"/>
+    <mergeCell ref="AN24:AN25"/>
     <mergeCell ref="B134:AO134"/>
     <mergeCell ref="B135:L135"/>
     <mergeCell ref="AL18:AL19"/>
@@ -9516,499 +9972,43 @@
     <mergeCell ref="AI26:AI27"/>
     <mergeCell ref="AJ26:AJ27"/>
     <mergeCell ref="AK26:AK27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AI24:AI25"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="AN20:AN21"/>
-    <mergeCell ref="AO20:AO21"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="AI22:AI23"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK22:AK23"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AN22:AN23"/>
-    <mergeCell ref="AO22:AO23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AK24:AK25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AM24:AM25"/>
-    <mergeCell ref="AN24:AN25"/>
-    <mergeCell ref="AO24:AO25"/>
-    <mergeCell ref="AI32:AI33"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AL32:AL33"/>
-    <mergeCell ref="AM32:AM33"/>
-    <mergeCell ref="AN32:AN33"/>
-    <mergeCell ref="AO32:AO33"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AL34:AL35"/>
-    <mergeCell ref="AN34:AN35"/>
-    <mergeCell ref="AO34:AO35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="AH28:AH29"/>
-    <mergeCell ref="AI28:AI29"/>
-    <mergeCell ref="AJ28:AJ29"/>
-    <mergeCell ref="AK28:AK29"/>
-    <mergeCell ref="AL28:AL29"/>
-    <mergeCell ref="AM28:AM29"/>
-    <mergeCell ref="AN28:AN29"/>
-    <mergeCell ref="AO28:AO29"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AH34:AH35"/>
-    <mergeCell ref="AI34:AI35"/>
-    <mergeCell ref="AJ34:AJ35"/>
-    <mergeCell ref="AK34:AK35"/>
-    <mergeCell ref="AL30:AL31"/>
-    <mergeCell ref="AN30:AN31"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="AG32:AG33"/>
-    <mergeCell ref="AH32:AH33"/>
-    <mergeCell ref="AK36:AK37"/>
-    <mergeCell ref="AL36:AL37"/>
-    <mergeCell ref="AM36:AM37"/>
-    <mergeCell ref="AN36:AN37"/>
-    <mergeCell ref="AO36:AO37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="AH36:AH37"/>
-    <mergeCell ref="AI36:AI37"/>
-    <mergeCell ref="AJ36:AJ37"/>
-    <mergeCell ref="AL38:AL39"/>
-    <mergeCell ref="AN38:AN39"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AH40:AH41"/>
-    <mergeCell ref="AI40:AI41"/>
-    <mergeCell ref="AJ40:AJ41"/>
-    <mergeCell ref="AK40:AK41"/>
-    <mergeCell ref="AL40:AL41"/>
-    <mergeCell ref="AM40:AM41"/>
-    <mergeCell ref="AN40:AN41"/>
-    <mergeCell ref="AO40:AO41"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="AH38:AH39"/>
-    <mergeCell ref="AI38:AI39"/>
-    <mergeCell ref="AJ38:AJ39"/>
-    <mergeCell ref="AK38:AK39"/>
-    <mergeCell ref="AL42:AL43"/>
-    <mergeCell ref="AN42:AN43"/>
-    <mergeCell ref="AO42:AO43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="AG44:AG45"/>
-    <mergeCell ref="AH44:AH45"/>
-    <mergeCell ref="AI44:AI45"/>
-    <mergeCell ref="AJ44:AJ45"/>
-    <mergeCell ref="AK44:AK45"/>
-    <mergeCell ref="AL44:AL45"/>
-    <mergeCell ref="AM44:AM45"/>
-    <mergeCell ref="AN44:AN45"/>
-    <mergeCell ref="AO44:AO45"/>
-    <mergeCell ref="AG42:AG43"/>
-    <mergeCell ref="AH42:AH43"/>
-    <mergeCell ref="AI42:AI43"/>
-    <mergeCell ref="AJ42:AJ43"/>
-    <mergeCell ref="AK42:AK43"/>
-    <mergeCell ref="AL46:AL47"/>
-    <mergeCell ref="AN46:AN47"/>
-    <mergeCell ref="AO46:AO47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="AG48:AG49"/>
-    <mergeCell ref="AH48:AH49"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AJ48:AJ49"/>
-    <mergeCell ref="AK48:AK49"/>
-    <mergeCell ref="AL48:AL49"/>
-    <mergeCell ref="AM48:AM49"/>
-    <mergeCell ref="AN48:AN49"/>
-    <mergeCell ref="AO48:AO49"/>
-    <mergeCell ref="AG46:AG47"/>
-    <mergeCell ref="AH46:AH47"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AJ46:AJ47"/>
-    <mergeCell ref="AK46:AK47"/>
-    <mergeCell ref="AL50:AL51"/>
-    <mergeCell ref="AN50:AN51"/>
-    <mergeCell ref="AO50:AO51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="AG52:AG53"/>
-    <mergeCell ref="AH52:AH53"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AJ52:AJ53"/>
-    <mergeCell ref="AK52:AK53"/>
-    <mergeCell ref="AL52:AL53"/>
-    <mergeCell ref="AM52:AM53"/>
-    <mergeCell ref="AN52:AN53"/>
-    <mergeCell ref="AO52:AO53"/>
-    <mergeCell ref="AG50:AG51"/>
-    <mergeCell ref="AH50:AH51"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AJ50:AJ51"/>
-    <mergeCell ref="AK50:AK51"/>
-    <mergeCell ref="AL54:AL55"/>
-    <mergeCell ref="AN54:AN55"/>
-    <mergeCell ref="AO54:AO55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="AG56:AG57"/>
-    <mergeCell ref="AH56:AH57"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AJ56:AJ57"/>
-    <mergeCell ref="AK56:AK57"/>
-    <mergeCell ref="AL56:AL57"/>
-    <mergeCell ref="AM56:AM57"/>
-    <mergeCell ref="AN56:AN57"/>
-    <mergeCell ref="AO56:AO57"/>
-    <mergeCell ref="AG54:AG55"/>
-    <mergeCell ref="AH54:AH55"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AJ54:AJ55"/>
-    <mergeCell ref="AK54:AK55"/>
-    <mergeCell ref="AL58:AL59"/>
-    <mergeCell ref="AN58:AN59"/>
-    <mergeCell ref="AO58:AO59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="AG60:AG61"/>
-    <mergeCell ref="AH60:AH61"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AJ60:AJ61"/>
-    <mergeCell ref="AK60:AK61"/>
-    <mergeCell ref="AL60:AL61"/>
-    <mergeCell ref="AM60:AM61"/>
-    <mergeCell ref="AN60:AN61"/>
-    <mergeCell ref="AO60:AO61"/>
-    <mergeCell ref="AG58:AG59"/>
-    <mergeCell ref="AH58:AH59"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AJ58:AJ59"/>
-    <mergeCell ref="AK58:AK59"/>
-    <mergeCell ref="AL62:AL63"/>
-    <mergeCell ref="AN62:AN63"/>
-    <mergeCell ref="AO62:AO63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="AG64:AG65"/>
-    <mergeCell ref="AH64:AH65"/>
-    <mergeCell ref="AI64:AI65"/>
-    <mergeCell ref="AJ64:AJ65"/>
-    <mergeCell ref="AK64:AK65"/>
-    <mergeCell ref="AL64:AL65"/>
-    <mergeCell ref="AM64:AM65"/>
-    <mergeCell ref="AN64:AN65"/>
-    <mergeCell ref="AO64:AO65"/>
-    <mergeCell ref="AG62:AG63"/>
-    <mergeCell ref="AH62:AH63"/>
-    <mergeCell ref="AI62:AI63"/>
-    <mergeCell ref="AJ62:AJ63"/>
-    <mergeCell ref="AK62:AK63"/>
-    <mergeCell ref="AL66:AL67"/>
-    <mergeCell ref="AN66:AN67"/>
-    <mergeCell ref="AO66:AO67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="AG68:AG69"/>
-    <mergeCell ref="AH68:AH69"/>
-    <mergeCell ref="AI68:AI69"/>
-    <mergeCell ref="AJ68:AJ69"/>
-    <mergeCell ref="AK68:AK69"/>
-    <mergeCell ref="AL68:AL69"/>
-    <mergeCell ref="AM68:AM69"/>
-    <mergeCell ref="AN68:AN69"/>
-    <mergeCell ref="AO68:AO69"/>
-    <mergeCell ref="AG66:AG67"/>
-    <mergeCell ref="AH66:AH67"/>
-    <mergeCell ref="AI66:AI67"/>
-    <mergeCell ref="AJ66:AJ67"/>
-    <mergeCell ref="AK66:AK67"/>
-    <mergeCell ref="AL70:AL71"/>
-    <mergeCell ref="AN70:AN71"/>
-    <mergeCell ref="AO70:AO71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="AG72:AG73"/>
-    <mergeCell ref="AH72:AH73"/>
-    <mergeCell ref="AI72:AI73"/>
-    <mergeCell ref="AJ72:AJ73"/>
-    <mergeCell ref="AK72:AK73"/>
-    <mergeCell ref="AL72:AL73"/>
-    <mergeCell ref="AM72:AM73"/>
-    <mergeCell ref="AN72:AN73"/>
-    <mergeCell ref="AO72:AO73"/>
-    <mergeCell ref="AG70:AG71"/>
-    <mergeCell ref="AH70:AH71"/>
-    <mergeCell ref="AI70:AI71"/>
-    <mergeCell ref="AJ70:AJ71"/>
-    <mergeCell ref="AK70:AK71"/>
-    <mergeCell ref="AL74:AL75"/>
-    <mergeCell ref="AN74:AN75"/>
-    <mergeCell ref="AO74:AO75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="AG76:AG77"/>
-    <mergeCell ref="AH76:AH77"/>
-    <mergeCell ref="AI76:AI77"/>
-    <mergeCell ref="AJ76:AJ77"/>
-    <mergeCell ref="AK76:AK77"/>
-    <mergeCell ref="AL76:AL77"/>
-    <mergeCell ref="AM76:AM77"/>
-    <mergeCell ref="AN76:AN77"/>
-    <mergeCell ref="AO76:AO77"/>
-    <mergeCell ref="AG74:AG75"/>
-    <mergeCell ref="AH74:AH75"/>
-    <mergeCell ref="AI74:AI75"/>
-    <mergeCell ref="AJ74:AJ75"/>
-    <mergeCell ref="AK74:AK75"/>
-    <mergeCell ref="AL78:AL79"/>
-    <mergeCell ref="AN78:AN79"/>
-    <mergeCell ref="AO78:AO79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="AG80:AG81"/>
-    <mergeCell ref="AH80:AH81"/>
-    <mergeCell ref="AI80:AI81"/>
-    <mergeCell ref="AJ80:AJ81"/>
-    <mergeCell ref="AK80:AK81"/>
-    <mergeCell ref="AL80:AL81"/>
-    <mergeCell ref="AM80:AM81"/>
-    <mergeCell ref="AN80:AN81"/>
-    <mergeCell ref="AO80:AO81"/>
-    <mergeCell ref="AG78:AG79"/>
-    <mergeCell ref="AH78:AH79"/>
-    <mergeCell ref="AI78:AI79"/>
-    <mergeCell ref="AJ78:AJ79"/>
-    <mergeCell ref="AK78:AK79"/>
-    <mergeCell ref="AL82:AL83"/>
-    <mergeCell ref="AN82:AN83"/>
-    <mergeCell ref="AO82:AO83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="AG84:AG85"/>
-    <mergeCell ref="AH84:AH85"/>
-    <mergeCell ref="AI84:AI85"/>
-    <mergeCell ref="AJ84:AJ85"/>
-    <mergeCell ref="AK84:AK85"/>
-    <mergeCell ref="AL84:AL85"/>
-    <mergeCell ref="AM84:AM85"/>
-    <mergeCell ref="AN84:AN85"/>
-    <mergeCell ref="AO84:AO85"/>
-    <mergeCell ref="AG82:AG83"/>
-    <mergeCell ref="AH82:AH83"/>
-    <mergeCell ref="AI82:AI83"/>
-    <mergeCell ref="AJ82:AJ83"/>
-    <mergeCell ref="AK82:AK83"/>
-    <mergeCell ref="AL86:AL87"/>
-    <mergeCell ref="AN86:AN87"/>
-    <mergeCell ref="AO86:AO87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="AG88:AG89"/>
-    <mergeCell ref="AH88:AH89"/>
-    <mergeCell ref="AI88:AI89"/>
-    <mergeCell ref="AJ88:AJ89"/>
-    <mergeCell ref="AK88:AK89"/>
-    <mergeCell ref="AL88:AL89"/>
-    <mergeCell ref="AM88:AM89"/>
-    <mergeCell ref="AN88:AN89"/>
-    <mergeCell ref="AO88:AO89"/>
-    <mergeCell ref="AG86:AG87"/>
-    <mergeCell ref="AH86:AH87"/>
-    <mergeCell ref="AI86:AI87"/>
-    <mergeCell ref="AJ86:AJ87"/>
-    <mergeCell ref="AK86:AK87"/>
-    <mergeCell ref="AL90:AL91"/>
-    <mergeCell ref="AN90:AN91"/>
-    <mergeCell ref="AO90:AO91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="AG92:AG93"/>
-    <mergeCell ref="AH92:AH93"/>
-    <mergeCell ref="AI92:AI93"/>
-    <mergeCell ref="AJ92:AJ93"/>
-    <mergeCell ref="AK92:AK93"/>
-    <mergeCell ref="AL92:AL93"/>
-    <mergeCell ref="AM92:AM93"/>
-    <mergeCell ref="AN92:AN93"/>
-    <mergeCell ref="AO92:AO93"/>
-    <mergeCell ref="AG90:AG91"/>
-    <mergeCell ref="AH90:AH91"/>
-    <mergeCell ref="AI90:AI91"/>
-    <mergeCell ref="AJ90:AJ91"/>
-    <mergeCell ref="AK90:AK91"/>
-    <mergeCell ref="AL94:AL95"/>
-    <mergeCell ref="AN94:AN95"/>
-    <mergeCell ref="AO94:AO95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="AG96:AG97"/>
-    <mergeCell ref="AH96:AH97"/>
-    <mergeCell ref="AI96:AI97"/>
-    <mergeCell ref="AJ96:AJ97"/>
-    <mergeCell ref="AK96:AK97"/>
-    <mergeCell ref="AL96:AL97"/>
-    <mergeCell ref="AM96:AM97"/>
-    <mergeCell ref="AN96:AN97"/>
-    <mergeCell ref="AO96:AO97"/>
-    <mergeCell ref="AG94:AG95"/>
-    <mergeCell ref="AH94:AH95"/>
-    <mergeCell ref="AI94:AI95"/>
-    <mergeCell ref="AJ94:AJ95"/>
-    <mergeCell ref="AK94:AK95"/>
-    <mergeCell ref="AL98:AL99"/>
-    <mergeCell ref="AN98:AN99"/>
-    <mergeCell ref="AO98:AO99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="AG100:AG101"/>
-    <mergeCell ref="AH100:AH101"/>
-    <mergeCell ref="AI100:AI101"/>
-    <mergeCell ref="AJ100:AJ101"/>
-    <mergeCell ref="AK100:AK101"/>
-    <mergeCell ref="AL100:AL101"/>
-    <mergeCell ref="AM100:AM101"/>
-    <mergeCell ref="AN100:AN101"/>
-    <mergeCell ref="AO100:AO101"/>
-    <mergeCell ref="AG98:AG99"/>
-    <mergeCell ref="AH98:AH99"/>
-    <mergeCell ref="AI98:AI99"/>
-    <mergeCell ref="AJ98:AJ99"/>
-    <mergeCell ref="AK98:AK99"/>
-    <mergeCell ref="AL102:AL103"/>
-    <mergeCell ref="AN102:AN103"/>
-    <mergeCell ref="AO102:AO103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="AG104:AG105"/>
-    <mergeCell ref="AH104:AH105"/>
-    <mergeCell ref="AI104:AI105"/>
-    <mergeCell ref="AJ104:AJ105"/>
-    <mergeCell ref="AK104:AK105"/>
-    <mergeCell ref="AL104:AL105"/>
-    <mergeCell ref="AM104:AM105"/>
-    <mergeCell ref="AN104:AN105"/>
-    <mergeCell ref="AO104:AO105"/>
-    <mergeCell ref="AG102:AG103"/>
-    <mergeCell ref="AH102:AH103"/>
-    <mergeCell ref="AI102:AI103"/>
-    <mergeCell ref="AJ102:AJ103"/>
-    <mergeCell ref="AK102:AK103"/>
-    <mergeCell ref="AL106:AL107"/>
-    <mergeCell ref="AN106:AN107"/>
-    <mergeCell ref="AO106:AO107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="AG108:AG109"/>
-    <mergeCell ref="AH108:AH109"/>
-    <mergeCell ref="AI108:AI109"/>
-    <mergeCell ref="AJ108:AJ109"/>
-    <mergeCell ref="AK108:AK109"/>
-    <mergeCell ref="AL108:AL109"/>
-    <mergeCell ref="AM108:AM109"/>
-    <mergeCell ref="AN108:AN109"/>
-    <mergeCell ref="AO108:AO109"/>
-    <mergeCell ref="AG106:AG107"/>
-    <mergeCell ref="AH106:AH107"/>
-    <mergeCell ref="AI106:AI107"/>
-    <mergeCell ref="AJ106:AJ107"/>
-    <mergeCell ref="AK106:AK107"/>
-    <mergeCell ref="AL110:AL111"/>
-    <mergeCell ref="AN110:AN111"/>
-    <mergeCell ref="AO110:AO111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="AG112:AG113"/>
-    <mergeCell ref="AH112:AH113"/>
-    <mergeCell ref="AI112:AI113"/>
-    <mergeCell ref="AJ112:AJ113"/>
-    <mergeCell ref="AK112:AK113"/>
-    <mergeCell ref="AL112:AL113"/>
-    <mergeCell ref="AM112:AM113"/>
-    <mergeCell ref="AN112:AN113"/>
-    <mergeCell ref="AO112:AO113"/>
-    <mergeCell ref="AG110:AG111"/>
-    <mergeCell ref="AH110:AH111"/>
-    <mergeCell ref="AI110:AI111"/>
-    <mergeCell ref="AJ110:AJ111"/>
-    <mergeCell ref="AK110:AK111"/>
-    <mergeCell ref="AL114:AL115"/>
-    <mergeCell ref="AN114:AN115"/>
-    <mergeCell ref="AO114:AO115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="AG116:AG117"/>
-    <mergeCell ref="AH116:AH117"/>
-    <mergeCell ref="AI116:AI117"/>
-    <mergeCell ref="AJ116:AJ117"/>
-    <mergeCell ref="AK116:AK117"/>
-    <mergeCell ref="AL116:AL117"/>
-    <mergeCell ref="AM116:AM117"/>
-    <mergeCell ref="AN116:AN117"/>
-    <mergeCell ref="AO116:AO117"/>
-    <mergeCell ref="AG114:AG115"/>
-    <mergeCell ref="AH114:AH115"/>
-    <mergeCell ref="AI114:AI115"/>
-    <mergeCell ref="AJ114:AJ115"/>
-    <mergeCell ref="AK114:AK115"/>
-    <mergeCell ref="AL118:AL119"/>
-    <mergeCell ref="AN118:AN119"/>
-    <mergeCell ref="AO118:AO119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="AG120:AG121"/>
-    <mergeCell ref="AH120:AH121"/>
-    <mergeCell ref="AI120:AI121"/>
-    <mergeCell ref="AJ120:AJ121"/>
-    <mergeCell ref="AK120:AK121"/>
-    <mergeCell ref="AL120:AL121"/>
-    <mergeCell ref="AM120:AM121"/>
-    <mergeCell ref="AN120:AN121"/>
-    <mergeCell ref="AO120:AO121"/>
-    <mergeCell ref="AG118:AG119"/>
-    <mergeCell ref="AH118:AH119"/>
-    <mergeCell ref="AI118:AI119"/>
-    <mergeCell ref="AJ118:AJ119"/>
-    <mergeCell ref="AK118:AK119"/>
-    <mergeCell ref="AL122:AL123"/>
-    <mergeCell ref="AN122:AN123"/>
-    <mergeCell ref="AO122:AO123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="AG124:AG125"/>
-    <mergeCell ref="AH124:AH125"/>
-    <mergeCell ref="AI124:AI125"/>
-    <mergeCell ref="AJ124:AJ125"/>
-    <mergeCell ref="AK124:AK125"/>
-    <mergeCell ref="AL124:AL125"/>
-    <mergeCell ref="AM124:AM125"/>
-    <mergeCell ref="AN124:AN125"/>
-    <mergeCell ref="AO124:AO125"/>
-    <mergeCell ref="AG122:AG123"/>
-    <mergeCell ref="AH122:AH123"/>
-    <mergeCell ref="AI122:AI123"/>
-    <mergeCell ref="AJ122:AJ123"/>
-    <mergeCell ref="AK122:AK123"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="AG128:AG129"/>
-    <mergeCell ref="AH128:AH129"/>
-    <mergeCell ref="AI128:AI129"/>
-    <mergeCell ref="AJ128:AJ129"/>
-    <mergeCell ref="AK128:AK129"/>
-    <mergeCell ref="AL128:AL129"/>
-    <mergeCell ref="AM128:AM129"/>
-    <mergeCell ref="AN128:AN129"/>
-    <mergeCell ref="AL130:AL131"/>
-    <mergeCell ref="AN130:AN131"/>
-    <mergeCell ref="AO130:AO131"/>
-    <mergeCell ref="AG130:AG131"/>
-    <mergeCell ref="AH130:AH131"/>
-    <mergeCell ref="AI130:AI131"/>
-    <mergeCell ref="AJ130:AJ131"/>
-    <mergeCell ref="AK130:AK131"/>
-    <mergeCell ref="AL126:AL127"/>
-    <mergeCell ref="AN126:AN127"/>
-    <mergeCell ref="AO126:AO127"/>
-    <mergeCell ref="AO128:AO129"/>
-    <mergeCell ref="AG126:AG127"/>
-    <mergeCell ref="AH126:AH127"/>
-    <mergeCell ref="AI126:AI127"/>
-    <mergeCell ref="AJ126:AJ127"/>
-    <mergeCell ref="AK126:AK127"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="A1:AO1"/>
+    <mergeCell ref="A2:AO2"/>
+    <mergeCell ref="A3:AO3"/>
+    <mergeCell ref="AG4:AG9"/>
+    <mergeCell ref="AH4:AL4"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="AH7:AL7"/>
+    <mergeCell ref="AH8:AN9"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
